--- a/clemsonDashboard.xlsx
+++ b/clemsonDashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidferrara/Documents/Clemson/The Tiger/COVID-19/Data/ttn-clemson-covid-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1156C155-0CBC-1E41-9666-84174CA5CCD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AC0A9D-7180-564A-BCCF-9BF51BA288A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16260" xr2:uid="{663FE1B6-0B7E-E04A-924C-6AB15F4F5852}"/>
   </bookViews>
@@ -209,7 +209,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000%"/>
-    <numFmt numFmtId="170" formatCode="m/d;@"/>
+    <numFmt numFmtId="165" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -318,25 +318,25 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -717,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2018E299-360B-F244-BDDD-9B449D0B7C0F}">
   <dimension ref="A1:V71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1156,7 +1156,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="7">
-        <f t="shared" ref="G29:G36" si="0">B29+G28</f>
+        <f>B29+G28</f>
         <v>2326</v>
       </c>
     </row>
@@ -1168,7 +1168,7 @@
         <v>3</v>
       </c>
       <c r="G30" s="7">
-        <f t="shared" si="0"/>
+        <f>B30+G29</f>
         <v>2329</v>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
         <v>93</v>
       </c>
       <c r="G31" s="7">
-        <f t="shared" si="0"/>
+        <f>B31+G30</f>
         <v>2422</v>
       </c>
     </row>
@@ -1192,7 +1192,7 @@
         <v>34</v>
       </c>
       <c r="G32" s="7">
-        <f t="shared" si="0"/>
+        <f>B32+G31</f>
         <v>2456</v>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
         <v>73</v>
       </c>
       <c r="G33" s="7">
-        <f t="shared" si="0"/>
+        <f>B33+G32</f>
         <v>2529</v>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
         <v>116</v>
       </c>
       <c r="G34" s="7">
-        <f t="shared" si="0"/>
+        <f>B34+G33</f>
         <v>2645</v>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
         <v>92</v>
       </c>
       <c r="G35" s="7">
-        <f t="shared" si="0"/>
+        <f>B35+G34</f>
         <v>2737</v>
       </c>
     </row>
@@ -1240,7 +1240,7 @@
         <v>72</v>
       </c>
       <c r="G36" s="7">
-        <f t="shared" si="0"/>
+        <f>B36+G35</f>
         <v>2809</v>
       </c>
     </row>
@@ -1255,12 +1255,12 @@
         <v>401</v>
       </c>
       <c r="E37" s="4">
-        <f t="shared" ref="E37:E64" si="1">B37/D37</f>
+        <f>B37/D37</f>
         <v>2.2443890274314215E-2</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="7">
-        <f t="shared" ref="G37:G64" si="2">B37+G36</f>
+        <f>B37+G36</f>
         <v>2818</v>
       </c>
       <c r="H37">
@@ -1292,7 +1292,7 @@
         <v>112</v>
       </c>
       <c r="Q37" t="str">
-        <f t="shared" ref="Q37:Q64" si="3">IF(I37+K37=B37,"EQUAL","DIFFER")</f>
+        <f>IF(I37+K37=B37,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="R37" t="str">
@@ -1319,16 +1319,16 @@
         <v>2170</v>
       </c>
       <c r="E38" s="4">
-        <f t="shared" si="1"/>
+        <f>B38/D38</f>
         <v>8.4792626728110596E-2</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="7">
-        <f t="shared" si="2"/>
+        <f>B38+G37</f>
         <v>3002</v>
       </c>
       <c r="H38">
-        <f t="shared" ref="H38:H64" si="4">H37+D38</f>
+        <f t="shared" ref="H38:H64" si="0">H37+D38</f>
         <v>2571</v>
       </c>
       <c r="I38">
@@ -1356,19 +1356,19 @@
         <v>45</v>
       </c>
       <c r="Q38" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(I38+K38=B38,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="R38" t="str">
-        <f t="shared" ref="R38:R64" si="5">IF(J38+L38=D38,"EQUAL","DIFFER")</f>
+        <f t="shared" ref="R38:R64" si="1">IF(J38+L38=D38,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="S38" t="str">
-        <f t="shared" ref="S38:S63" si="6">IF(M38+O38=B38,"EQUAL","DIFFER")</f>
+        <f>IF(M38+O38=B38,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="T38" t="str">
-        <f t="shared" ref="T38:T64" si="7">IF(N38+P38=D38,"EQUAL","DIFFER")</f>
+        <f t="shared" ref="T38:T64" si="2">IF(N38+P38=D38,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
     </row>
@@ -1383,16 +1383,16 @@
         <v>1272</v>
       </c>
       <c r="E39" s="4">
-        <f t="shared" si="1"/>
+        <f>B39/D39</f>
         <v>5.4245283018867926E-2</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="7">
-        <f t="shared" si="2"/>
+        <f>B39+G38</f>
         <v>3071</v>
       </c>
       <c r="H39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3843</v>
       </c>
       <c r="I39">
@@ -1420,19 +1420,19 @@
         <v>42</v>
       </c>
       <c r="Q39" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(I39+K39=B39,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="R39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
       <c r="S39" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(M39+O39=B39,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="T39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -1447,16 +1447,16 @@
         <v>2062</v>
       </c>
       <c r="E40" s="4">
-        <f t="shared" si="1"/>
+        <f>B40/D40</f>
         <v>7.953443258971872E-2</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="7">
-        <f t="shared" si="2"/>
+        <f>B40+G39</f>
         <v>3235</v>
       </c>
       <c r="H40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>5905</v>
       </c>
       <c r="I40">
@@ -1484,19 +1484,19 @@
         <v>169</v>
       </c>
       <c r="Q40" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(I40+K40=B40,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="R40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
       <c r="S40" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(M40+O40=B40,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="T40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -1511,16 +1511,16 @@
         <v>1210</v>
       </c>
       <c r="E41" s="4">
-        <f t="shared" si="1"/>
+        <f>B41/D41</f>
         <v>7.1074380165289261E-2</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="7">
-        <f t="shared" si="2"/>
+        <f>B41+G40</f>
         <v>3321</v>
       </c>
       <c r="H41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>7115</v>
       </c>
       <c r="I41">
@@ -1548,19 +1548,19 @@
         <v>37</v>
       </c>
       <c r="Q41" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(I41+K41=B41,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="R41" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
       <c r="S41" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(M41+O41=B41,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="T41" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -1575,16 +1575,16 @@
         <v>1618</v>
       </c>
       <c r="E42" s="4">
-        <f t="shared" si="1"/>
+        <f>B42/D42</f>
         <v>4.3263288009888753E-2</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="7">
-        <f t="shared" si="2"/>
+        <f>B42+G41</f>
         <v>3391</v>
       </c>
       <c r="H42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>8733</v>
       </c>
       <c r="I42">
@@ -1612,19 +1612,19 @@
         <v>279</v>
       </c>
       <c r="Q42" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(I42+K42=B42,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="R42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
       <c r="S42" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(M42+O42=B42,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="T42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -1639,16 +1639,16 @@
         <v>20</v>
       </c>
       <c r="E43" s="4">
-        <f t="shared" si="1"/>
+        <f>B43/D43</f>
         <v>0.3</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="7">
-        <f t="shared" si="2"/>
+        <f>B43+G42</f>
         <v>3397</v>
       </c>
       <c r="H43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>8753</v>
       </c>
       <c r="I43">
@@ -1676,19 +1676,19 @@
         <v>1</v>
       </c>
       <c r="Q43" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(I43+K43=B43,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="R43" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
       <c r="S43" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(M43+O43=B43,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="T43" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -1703,16 +1703,16 @@
         <v>309</v>
       </c>
       <c r="E44" s="4">
-        <f t="shared" si="1"/>
+        <f>B44/D44</f>
         <v>1.2944983818770227E-2</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="7">
-        <f t="shared" si="2"/>
+        <f>B44+G43</f>
         <v>3401</v>
       </c>
       <c r="H44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>9062</v>
       </c>
       <c r="I44">
@@ -1740,19 +1740,19 @@
         <v>99</v>
       </c>
       <c r="Q44" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(I44+K44=B44,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="R44" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
       <c r="S44" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(M44+O44=B44,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="T44" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -1767,16 +1767,16 @@
         <v>1716</v>
       </c>
       <c r="E45" s="4">
-        <f t="shared" si="1"/>
+        <f>B45/D45</f>
         <v>5.7109557109557112E-2</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="7">
-        <f t="shared" si="2"/>
+        <f>B45+G44</f>
         <v>3499</v>
       </c>
       <c r="H45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>10778</v>
       </c>
       <c r="I45">
@@ -1804,19 +1804,19 @@
         <v>174</v>
       </c>
       <c r="Q45" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(I45+K45=B45,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="R45" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
       <c r="S45" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(M45+O45=B45,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="T45" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -1831,16 +1831,16 @@
         <v>1251</v>
       </c>
       <c r="E46" s="4">
-        <f t="shared" si="1"/>
+        <f>B46/D46</f>
         <v>6.7146282973621102E-2</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="7">
-        <f t="shared" si="2"/>
+        <f>B46+G45</f>
         <v>3583</v>
       </c>
       <c r="H46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>12029</v>
       </c>
       <c r="I46">
@@ -1868,19 +1868,19 @@
         <v>114</v>
       </c>
       <c r="Q46" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(I46+K46=B46,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="R46" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
       <c r="S46" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(M46+O46=B46,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="T46" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -1895,16 +1895,16 @@
         <v>2690</v>
       </c>
       <c r="E47" s="4">
-        <f t="shared" si="1"/>
+        <f>B47/D47</f>
         <v>3.1226765799256505E-2</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="7">
-        <f t="shared" si="2"/>
+        <f>B47+G46</f>
         <v>3667</v>
       </c>
       <c r="H47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>14719</v>
       </c>
       <c r="I47">
@@ -1932,19 +1932,19 @@
         <v>454</v>
       </c>
       <c r="Q47" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(I47+K47=B47,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="R47" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
       <c r="S47" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(M47+O47=B47,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="T47" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -1959,16 +1959,16 @@
         <v>1374</v>
       </c>
       <c r="E48" s="4">
-        <f t="shared" si="1"/>
+        <f>B48/D48</f>
         <v>3.7117903930131008E-2</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="7">
-        <f t="shared" si="2"/>
+        <f>B48+G47</f>
         <v>3718</v>
       </c>
       <c r="H48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>16093</v>
       </c>
       <c r="I48">
@@ -1996,19 +1996,19 @@
         <v>111</v>
       </c>
       <c r="Q48" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(I48+K48=B48,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="R48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
       <c r="S48" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(M48+O48=B48,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="T48" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -2023,16 +2023,16 @@
         <v>1601</v>
       </c>
       <c r="E49" s="4">
-        <f t="shared" si="1"/>
+        <f>B49/D49</f>
         <v>4.996876951905059E-2</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="7">
-        <f t="shared" si="2"/>
+        <f>B49+G48</f>
         <v>3798</v>
       </c>
       <c r="H49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>17694</v>
       </c>
       <c r="I49">
@@ -2060,19 +2060,19 @@
         <v>149</v>
       </c>
       <c r="Q49" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(I49+K49=B49,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="R49" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
       <c r="S49" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(M49+O49=B49,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="T49" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -2087,16 +2087,16 @@
         <v>282</v>
       </c>
       <c r="E50" s="4">
-        <f t="shared" si="1"/>
+        <f>B50/D50</f>
         <v>2.1276595744680851E-2</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="7">
-        <f t="shared" si="2"/>
+        <f>B50+G49</f>
         <v>3804</v>
       </c>
       <c r="H50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>17976</v>
       </c>
       <c r="I50">
@@ -2124,19 +2124,19 @@
         <v>66</v>
       </c>
       <c r="Q50" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(I50+K50=B50,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="R50" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
       <c r="S50" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(M50+O50=B50,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="T50" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -2151,16 +2151,16 @@
         <v>270</v>
       </c>
       <c r="E51" s="4">
-        <f t="shared" si="1"/>
+        <f>B51/D51</f>
         <v>1.8518518518518517E-2</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="7">
-        <f t="shared" si="2"/>
+        <f>B51+G50</f>
         <v>3809</v>
       </c>
       <c r="H51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>18246</v>
       </c>
       <c r="I51">
@@ -2188,19 +2188,19 @@
         <v>90</v>
       </c>
       <c r="Q51" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(I51+K51=B51,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="R51" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
       <c r="S51" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(M51+O51=B51,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="T51" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -2215,16 +2215,16 @@
         <v>1606</v>
       </c>
       <c r="E52" s="4">
-        <f t="shared" si="1"/>
+        <f>B52/D52</f>
         <v>5.7285180572851806E-2</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="7">
-        <f t="shared" si="2"/>
+        <f>B52+G51</f>
         <v>3901</v>
       </c>
       <c r="H52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>19852</v>
       </c>
       <c r="I52">
@@ -2252,19 +2252,19 @@
         <v>247</v>
       </c>
       <c r="Q52" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(I52+K52=B52,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="R52" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
       <c r="S52" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(M52+O52=B52,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="T52" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -2279,16 +2279,16 @@
         <v>1714</v>
       </c>
       <c r="E53" s="4">
-        <f t="shared" si="1"/>
+        <f>B53/D53</f>
         <v>2.8588098016336057E-2</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="7">
-        <f t="shared" si="2"/>
+        <f>B53+G52</f>
         <v>3950</v>
       </c>
       <c r="H53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>21566</v>
       </c>
       <c r="I53">
@@ -2316,19 +2316,19 @@
         <v>122</v>
       </c>
       <c r="Q53" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(I53+K53=B53,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="R53" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
       <c r="S53" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(M53+O53=B53,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="T53" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -2343,16 +2343,16 @@
         <v>2925</v>
       </c>
       <c r="E54" s="4">
-        <f t="shared" si="1"/>
+        <f>B54/D54</f>
         <v>1.5726495726495728E-2</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="7">
-        <f t="shared" si="2"/>
+        <f>B54+G53</f>
         <v>3996</v>
       </c>
       <c r="H54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>24491</v>
       </c>
       <c r="I54">
@@ -2380,19 +2380,19 @@
         <v>348</v>
       </c>
       <c r="Q54" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(I54+K54=B54,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="R54" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
       <c r="S54" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(M54+O54=B54,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="T54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -2407,16 +2407,16 @@
         <v>1690</v>
       </c>
       <c r="E55" s="4">
-        <f t="shared" si="1"/>
+        <f>B55/D55</f>
         <v>1.242603550295858E-2</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="7">
-        <f t="shared" si="2"/>
+        <f>B55+G54</f>
         <v>4017</v>
       </c>
       <c r="H55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>26181</v>
       </c>
       <c r="I55">
@@ -2444,19 +2444,19 @@
         <v>75</v>
       </c>
       <c r="Q55" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(I55+K55=B55,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="R55" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
       <c r="S55" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(M55+O55=B55,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="T55" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -2471,16 +2471,16 @@
         <v>813</v>
       </c>
       <c r="E56" s="4">
-        <f t="shared" si="1"/>
+        <f>B56/D56</f>
         <v>4.0590405904059039E-2</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="7">
-        <f t="shared" si="2"/>
+        <f>B56+G55</f>
         <v>4050</v>
       </c>
       <c r="H56">
-        <f t="shared" si="4"/>
+        <f>H55+D56</f>
         <v>26994</v>
       </c>
       <c r="I56">
@@ -2508,19 +2508,19 @@
         <v>168</v>
       </c>
       <c r="Q56" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(I56+K56=B56,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="R56" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
       <c r="S56" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(M56+O56=B56,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="T56" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -2535,16 +2535,16 @@
         <v>7</v>
       </c>
       <c r="E57" s="4">
-        <f t="shared" si="1"/>
+        <f>B57/D57</f>
         <v>0.14285714285714285</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="7">
-        <f t="shared" si="2"/>
+        <f>B57+G56</f>
         <v>4051</v>
       </c>
       <c r="H57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>27001</v>
       </c>
       <c r="I57">
@@ -2572,19 +2572,19 @@
         <v>4</v>
       </c>
       <c r="Q57" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(I57+K57=B57,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="R57" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
       <c r="S57" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(M57+O57=B57,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="T57" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -2599,16 +2599,16 @@
         <v>278</v>
       </c>
       <c r="E58" s="4">
-        <f t="shared" si="1"/>
+        <f>B58/D58</f>
         <v>1.4388489208633094E-2</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="7">
-        <f t="shared" si="2"/>
+        <f>B58+G57</f>
         <v>4055</v>
       </c>
       <c r="H58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>27279</v>
       </c>
       <c r="I58">
@@ -2636,19 +2636,19 @@
         <v>85</v>
       </c>
       <c r="Q58" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(I58+K58=B58,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="R58" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
       <c r="S58" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(M58+O58=B58,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="T58" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -2663,16 +2663,16 @@
         <v>1957</v>
       </c>
       <c r="E59" s="4">
-        <f t="shared" si="1"/>
+        <f>B59/D59</f>
         <v>2.6060296371997957E-2</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="7">
-        <f t="shared" si="2"/>
+        <f>B59+G58</f>
         <v>4106</v>
       </c>
       <c r="H59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>29236</v>
       </c>
       <c r="I59">
@@ -2700,19 +2700,19 @@
         <v>404</v>
       </c>
       <c r="Q59" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(I59+K59=B59,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="R59" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
       <c r="S59" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(M59+O59=B59,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="T59" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -2727,16 +2727,16 @@
         <v>1908</v>
       </c>
       <c r="E60" s="4">
-        <f t="shared" si="1"/>
+        <f>B60/D60</f>
         <v>1.8343815513626835E-2</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="7">
-        <f t="shared" si="2"/>
+        <f>B60+G59</f>
         <v>4141</v>
       </c>
       <c r="H60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>31144</v>
       </c>
       <c r="I60">
@@ -2764,19 +2764,19 @@
         <v>238</v>
       </c>
       <c r="Q60" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(I60+K60=B60,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="R60" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
       <c r="S60" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(M60+O60=B60,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="T60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -2791,16 +2791,16 @@
         <v>2703</v>
       </c>
       <c r="E61" s="4">
-        <f t="shared" si="1"/>
+        <f>B61/D61</f>
         <v>1.2948575656677765E-2</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="7">
-        <f t="shared" si="2"/>
+        <f>B61+G60</f>
         <v>4176</v>
       </c>
       <c r="H61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>33847</v>
       </c>
       <c r="I61">
@@ -2828,19 +2828,19 @@
         <v>228</v>
       </c>
       <c r="Q61" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(I61+K61=B61,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="R61" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
       <c r="S61" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(M61+O61=B61,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="T61" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -2855,16 +2855,16 @@
         <v>1922</v>
       </c>
       <c r="E62" s="4">
-        <f t="shared" si="1"/>
+        <f>B62/D62</f>
         <v>4.6826222684703432E-3</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="7">
-        <f t="shared" si="2"/>
+        <f>B62+G61</f>
         <v>4185</v>
       </c>
       <c r="H62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>35769</v>
       </c>
       <c r="I62">
@@ -2892,19 +2892,19 @@
         <v>212</v>
       </c>
       <c r="Q62" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(I62+K62=B62,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="R62" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
       <c r="S62" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(M62+O62=B62,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="T62" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -2919,16 +2919,16 @@
         <v>1524</v>
       </c>
       <c r="E63" s="4">
-        <f t="shared" si="1"/>
+        <f>B63/D63</f>
         <v>1.1154855643044619E-2</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="7">
-        <f t="shared" si="2"/>
+        <f>B63+G62</f>
         <v>4202</v>
       </c>
       <c r="H63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>37293</v>
       </c>
       <c r="I63">
@@ -2956,19 +2956,19 @@
         <v>287</v>
       </c>
       <c r="Q63" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(I63+K63=B63,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="R63" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
       <c r="S63" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(M63+O63=B63,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="T63" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -2983,16 +2983,16 @@
         <v>103</v>
       </c>
       <c r="E64" s="4">
-        <f t="shared" si="1"/>
+        <f>B64/D64</f>
         <v>0</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="7">
-        <f t="shared" si="2"/>
+        <f>B64+G63</f>
         <v>4202</v>
       </c>
       <c r="H64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>37396</v>
       </c>
       <c r="I64">
@@ -3020,11 +3020,11 @@
         <v>29</v>
       </c>
       <c r="Q64" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(I64+K64=B64,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="R64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
       <c r="S64" t="str">
@@ -3032,7 +3032,7 @@
         <v>EQUAL</v>
       </c>
       <c r="T64" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -3332,7 +3332,7 @@
         <v>277</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" ref="G3:G23" si="0">D4/F4</f>
+        <f t="shared" ref="G4:G23" si="0">D4/F4</f>
         <v>0.3140794223826715</v>
       </c>
       <c r="H4" s="13"/>

--- a/clemsonDashboard.xlsx
+++ b/clemsonDashboard.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidferrara/Documents/Clemson/The Tiger/COVID-19/Data/ttn-clemson-covid-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AC0A9D-7180-564A-BCCF-9BF51BA288A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62EEDB0-2955-D445-B88B-ADB1CB329AE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16260" xr2:uid="{663FE1B6-0B7E-E04A-924C-6AB15F4F5852}"/>
+    <workbookView xWindow="360" yWindow="460" windowWidth="28040" windowHeight="16260" activeTab="1" xr2:uid="{663FE1B6-0B7E-E04A-924C-6AB15F4F5852}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Data" sheetId="1" r:id="rId1"/>
     <sheet name="Weekly Data" sheetId="4" r:id="rId2"/>
     <sheet name="Isolation and Quarantine" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Isolation and Quarantine'!$D$2:$D$11</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Isolation and Quarantine'!$D$2:$D$11</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -261,7 +265,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,6 +290,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -300,7 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -339,6 +349,12 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -717,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2018E299-360B-F244-BDDD-9B449D0B7C0F}">
   <dimension ref="A1:V71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -825,7 +841,7 @@
         <v>14</v>
       </c>
       <c r="G3" s="7">
-        <f>B3+G2</f>
+        <f t="shared" ref="G3:G34" si="0">B3+G2</f>
         <v>16</v>
       </c>
       <c r="V3" s="9" t="s">
@@ -840,7 +856,7 @@
         <v>22</v>
       </c>
       <c r="G4" s="7">
-        <f>B4+G3</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
@@ -852,7 +868,7 @@
         <v>38</v>
       </c>
       <c r="G5" s="7">
-        <f>B5+G4</f>
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
     </row>
@@ -864,7 +880,7 @@
         <v>33</v>
       </c>
       <c r="G6" s="7">
-        <f>B6+G5</f>
+        <f t="shared" si="0"/>
         <v>109</v>
       </c>
     </row>
@@ -876,7 +892,7 @@
         <v>46</v>
       </c>
       <c r="G7" s="7">
-        <f>B7+G6</f>
+        <f t="shared" si="0"/>
         <v>155</v>
       </c>
     </row>
@@ -888,7 +904,7 @@
         <v>8</v>
       </c>
       <c r="G8" s="7">
-        <f>B8+G7</f>
+        <f t="shared" si="0"/>
         <v>163</v>
       </c>
     </row>
@@ -900,7 +916,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="7">
-        <f>B9+G8</f>
+        <f t="shared" si="0"/>
         <v>176</v>
       </c>
     </row>
@@ -912,7 +928,7 @@
         <v>108</v>
       </c>
       <c r="G10" s="7">
-        <f>B10+G9</f>
+        <f t="shared" si="0"/>
         <v>284</v>
       </c>
     </row>
@@ -924,7 +940,7 @@
         <v>196</v>
       </c>
       <c r="G11" s="7">
-        <f>B11+G10</f>
+        <f t="shared" si="0"/>
         <v>480</v>
       </c>
     </row>
@@ -936,7 +952,7 @@
         <v>174</v>
       </c>
       <c r="G12" s="7">
-        <f>B12+G11</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
     </row>
@@ -948,7 +964,7 @@
         <v>198</v>
       </c>
       <c r="G13" s="7">
-        <f>B13+G12</f>
+        <f t="shared" si="0"/>
         <v>852</v>
       </c>
     </row>
@@ -960,7 +976,7 @@
         <v>117</v>
       </c>
       <c r="G14" s="7">
-        <f>B14+G13</f>
+        <f t="shared" si="0"/>
         <v>969</v>
       </c>
     </row>
@@ -972,7 +988,7 @@
         <v>15</v>
       </c>
       <c r="G15" s="7">
-        <f>B15+G14</f>
+        <f t="shared" si="0"/>
         <v>984</v>
       </c>
     </row>
@@ -984,7 +1000,7 @@
         <v>34</v>
       </c>
       <c r="G16" s="7">
-        <f>B16+G15</f>
+        <f t="shared" si="0"/>
         <v>1018</v>
       </c>
     </row>
@@ -996,7 +1012,7 @@
         <v>111</v>
       </c>
       <c r="G17" s="7">
-        <f>B17+G16</f>
+        <f t="shared" si="0"/>
         <v>1129</v>
       </c>
     </row>
@@ -1008,7 +1024,7 @@
         <v>129</v>
       </c>
       <c r="G18" s="7">
-        <f>B18+G17</f>
+        <f t="shared" si="0"/>
         <v>1258</v>
       </c>
     </row>
@@ -1020,7 +1036,7 @@
         <v>103</v>
       </c>
       <c r="G19" s="7">
-        <f>B19+G18</f>
+        <f t="shared" si="0"/>
         <v>1361</v>
       </c>
     </row>
@@ -1032,7 +1048,7 @@
         <v>42</v>
       </c>
       <c r="G20" s="7">
-        <f>B20+G19</f>
+        <f t="shared" si="0"/>
         <v>1403</v>
       </c>
     </row>
@@ -1044,7 +1060,7 @@
         <v>51</v>
       </c>
       <c r="G21" s="7">
-        <f>B21+G20</f>
+        <f t="shared" si="0"/>
         <v>1454</v>
       </c>
     </row>
@@ -1059,7 +1075,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="7">
-        <f>B22+G21</f>
+        <f t="shared" si="0"/>
         <v>1472</v>
       </c>
       <c r="H22" s="3"/>
@@ -1084,7 +1100,7 @@
         <v>34</v>
       </c>
       <c r="G23" s="7">
-        <f>B23+G22</f>
+        <f t="shared" si="0"/>
         <v>1506</v>
       </c>
     </row>
@@ -1096,7 +1112,7 @@
         <v>171</v>
       </c>
       <c r="G24" s="7">
-        <f>B24+G23</f>
+        <f t="shared" si="0"/>
         <v>1677</v>
       </c>
     </row>
@@ -1108,7 +1124,7 @@
         <v>261</v>
       </c>
       <c r="G25" s="7">
-        <f>B25+G24</f>
+        <f t="shared" si="0"/>
         <v>1938</v>
       </c>
     </row>
@@ -1120,7 +1136,7 @@
         <v>183</v>
       </c>
       <c r="G26" s="7">
-        <f>B26+G25</f>
+        <f t="shared" si="0"/>
         <v>2121</v>
       </c>
     </row>
@@ -1132,7 +1148,7 @@
         <v>122</v>
       </c>
       <c r="G27" s="7">
-        <f>B27+G26</f>
+        <f t="shared" si="0"/>
         <v>2243</v>
       </c>
     </row>
@@ -1144,7 +1160,7 @@
         <v>82</v>
       </c>
       <c r="G28" s="7">
-        <f>B28+G27</f>
+        <f t="shared" si="0"/>
         <v>2325</v>
       </c>
     </row>
@@ -1156,7 +1172,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="7">
-        <f>B29+G28</f>
+        <f t="shared" si="0"/>
         <v>2326</v>
       </c>
     </row>
@@ -1168,7 +1184,7 @@
         <v>3</v>
       </c>
       <c r="G30" s="7">
-        <f>B30+G29</f>
+        <f t="shared" si="0"/>
         <v>2329</v>
       </c>
     </row>
@@ -1180,7 +1196,7 @@
         <v>93</v>
       </c>
       <c r="G31" s="7">
-        <f>B31+G30</f>
+        <f t="shared" si="0"/>
         <v>2422</v>
       </c>
     </row>
@@ -1192,7 +1208,7 @@
         <v>34</v>
       </c>
       <c r="G32" s="7">
-        <f>B32+G31</f>
+        <f t="shared" si="0"/>
         <v>2456</v>
       </c>
     </row>
@@ -1204,7 +1220,7 @@
         <v>73</v>
       </c>
       <c r="G33" s="7">
-        <f>B33+G32</f>
+        <f t="shared" si="0"/>
         <v>2529</v>
       </c>
     </row>
@@ -1216,7 +1232,7 @@
         <v>116</v>
       </c>
       <c r="G34" s="7">
-        <f>B34+G33</f>
+        <f t="shared" si="0"/>
         <v>2645</v>
       </c>
     </row>
@@ -1228,7 +1244,7 @@
         <v>92</v>
       </c>
       <c r="G35" s="7">
-        <f>B35+G34</f>
+        <f t="shared" ref="G35:G69" si="1">B35+G34</f>
         <v>2737</v>
       </c>
     </row>
@@ -1240,7 +1256,7 @@
         <v>72</v>
       </c>
       <c r="G36" s="7">
-        <f>B36+G35</f>
+        <f t="shared" si="1"/>
         <v>2809</v>
       </c>
     </row>
@@ -1255,12 +1271,12 @@
         <v>401</v>
       </c>
       <c r="E37" s="4">
-        <f>B37/D37</f>
+        <f t="shared" ref="E37:E69" si="2">B37/D37</f>
         <v>2.2443890274314215E-2</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="7">
-        <f>B37+G36</f>
+        <f t="shared" si="1"/>
         <v>2818</v>
       </c>
       <c r="H37">
@@ -1292,7 +1308,7 @@
         <v>112</v>
       </c>
       <c r="Q37" t="str">
-        <f>IF(I37+K37=B37,"EQUAL","DIFFER")</f>
+        <f t="shared" ref="Q37:Q69" si="3">IF(I37+K37=B37,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="R37" t="str">
@@ -1300,7 +1316,7 @@
         <v>EQUAL</v>
       </c>
       <c r="S37" t="str">
-        <f>IF(M37+O37=B37,"EQUAL","DIFFER")</f>
+        <f t="shared" ref="S37:S69" si="4">IF(M37+O37=B37,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="T37" t="str">
@@ -1319,16 +1335,16 @@
         <v>2170</v>
       </c>
       <c r="E38" s="4">
-        <f>B38/D38</f>
+        <f t="shared" si="2"/>
         <v>8.4792626728110596E-2</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="7">
-        <f>B38+G37</f>
+        <f t="shared" si="1"/>
         <v>3002</v>
       </c>
       <c r="H38">
-        <f t="shared" ref="H38:H64" si="0">H37+D38</f>
+        <f t="shared" ref="H38:H69" si="5">H37+D38</f>
         <v>2571</v>
       </c>
       <c r="I38">
@@ -1356,19 +1372,19 @@
         <v>45</v>
       </c>
       <c r="Q38" t="str">
-        <f>IF(I38+K38=B38,"EQUAL","DIFFER")</f>
+        <f t="shared" si="3"/>
         <v>EQUAL</v>
       </c>
       <c r="R38" t="str">
-        <f t="shared" ref="R38:R64" si="1">IF(J38+L38=D38,"EQUAL","DIFFER")</f>
+        <f t="shared" ref="R38:R69" si="6">IF(J38+L38=D38,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="S38" t="str">
-        <f>IF(M38+O38=B38,"EQUAL","DIFFER")</f>
+        <f t="shared" si="4"/>
         <v>EQUAL</v>
       </c>
       <c r="T38" t="str">
-        <f t="shared" ref="T38:T64" si="2">IF(N38+P38=D38,"EQUAL","DIFFER")</f>
+        <f t="shared" ref="T38:T69" si="7">IF(N38+P38=D38,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
     </row>
@@ -1383,16 +1399,16 @@
         <v>1272</v>
       </c>
       <c r="E39" s="4">
-        <f>B39/D39</f>
+        <f t="shared" si="2"/>
         <v>5.4245283018867926E-2</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="7">
-        <f>B39+G38</f>
+        <f t="shared" si="1"/>
         <v>3071</v>
       </c>
       <c r="H39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3843</v>
       </c>
       <c r="I39">
@@ -1420,19 +1436,19 @@
         <v>42</v>
       </c>
       <c r="Q39" t="str">
-        <f>IF(I39+K39=B39,"EQUAL","DIFFER")</f>
+        <f t="shared" si="3"/>
         <v>EQUAL</v>
       </c>
       <c r="R39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>EQUAL</v>
       </c>
       <c r="S39" t="str">
-        <f>IF(M39+O39=B39,"EQUAL","DIFFER")</f>
+        <f t="shared" si="4"/>
         <v>EQUAL</v>
       </c>
       <c r="T39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -1447,16 +1463,16 @@
         <v>2062</v>
       </c>
       <c r="E40" s="4">
-        <f>B40/D40</f>
+        <f t="shared" si="2"/>
         <v>7.953443258971872E-2</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="7">
-        <f>B40+G39</f>
+        <f t="shared" si="1"/>
         <v>3235</v>
       </c>
       <c r="H40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>5905</v>
       </c>
       <c r="I40">
@@ -1484,19 +1500,19 @@
         <v>169</v>
       </c>
       <c r="Q40" t="str">
-        <f>IF(I40+K40=B40,"EQUAL","DIFFER")</f>
+        <f t="shared" si="3"/>
         <v>EQUAL</v>
       </c>
       <c r="R40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>EQUAL</v>
       </c>
       <c r="S40" t="str">
-        <f>IF(M40+O40=B40,"EQUAL","DIFFER")</f>
+        <f t="shared" si="4"/>
         <v>EQUAL</v>
       </c>
       <c r="T40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -1511,16 +1527,16 @@
         <v>1210</v>
       </c>
       <c r="E41" s="4">
-        <f>B41/D41</f>
+        <f t="shared" si="2"/>
         <v>7.1074380165289261E-2</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="7">
-        <f>B41+G40</f>
+        <f t="shared" si="1"/>
         <v>3321</v>
       </c>
       <c r="H41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>7115</v>
       </c>
       <c r="I41">
@@ -1548,19 +1564,19 @@
         <v>37</v>
       </c>
       <c r="Q41" t="str">
-        <f>IF(I41+K41=B41,"EQUAL","DIFFER")</f>
+        <f t="shared" si="3"/>
         <v>EQUAL</v>
       </c>
       <c r="R41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>EQUAL</v>
       </c>
       <c r="S41" t="str">
-        <f>IF(M41+O41=B41,"EQUAL","DIFFER")</f>
+        <f t="shared" si="4"/>
         <v>EQUAL</v>
       </c>
       <c r="T41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -1575,16 +1591,16 @@
         <v>1618</v>
       </c>
       <c r="E42" s="4">
-        <f>B42/D42</f>
+        <f t="shared" si="2"/>
         <v>4.3263288009888753E-2</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="7">
-        <f>B42+G41</f>
+        <f t="shared" si="1"/>
         <v>3391</v>
       </c>
       <c r="H42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>8733</v>
       </c>
       <c r="I42">
@@ -1612,19 +1628,19 @@
         <v>279</v>
       </c>
       <c r="Q42" t="str">
-        <f>IF(I42+K42=B42,"EQUAL","DIFFER")</f>
+        <f t="shared" si="3"/>
         <v>EQUAL</v>
       </c>
       <c r="R42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>EQUAL</v>
       </c>
       <c r="S42" t="str">
-        <f>IF(M42+O42=B42,"EQUAL","DIFFER")</f>
+        <f t="shared" si="4"/>
         <v>EQUAL</v>
       </c>
       <c r="T42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -1639,16 +1655,16 @@
         <v>20</v>
       </c>
       <c r="E43" s="4">
-        <f>B43/D43</f>
+        <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="7">
-        <f>B43+G42</f>
+        <f t="shared" si="1"/>
         <v>3397</v>
       </c>
       <c r="H43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>8753</v>
       </c>
       <c r="I43">
@@ -1676,19 +1692,19 @@
         <v>1</v>
       </c>
       <c r="Q43" t="str">
-        <f>IF(I43+K43=B43,"EQUAL","DIFFER")</f>
+        <f t="shared" si="3"/>
         <v>EQUAL</v>
       </c>
       <c r="R43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>EQUAL</v>
       </c>
       <c r="S43" t="str">
-        <f>IF(M43+O43=B43,"EQUAL","DIFFER")</f>
+        <f t="shared" si="4"/>
         <v>EQUAL</v>
       </c>
       <c r="T43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -1703,16 +1719,16 @@
         <v>309</v>
       </c>
       <c r="E44" s="4">
-        <f>B44/D44</f>
+        <f t="shared" si="2"/>
         <v>1.2944983818770227E-2</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="7">
-        <f>B44+G43</f>
+        <f t="shared" si="1"/>
         <v>3401</v>
       </c>
       <c r="H44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>9062</v>
       </c>
       <c r="I44">
@@ -1740,19 +1756,19 @@
         <v>99</v>
       </c>
       <c r="Q44" t="str">
-        <f>IF(I44+K44=B44,"EQUAL","DIFFER")</f>
+        <f t="shared" si="3"/>
         <v>EQUAL</v>
       </c>
       <c r="R44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>EQUAL</v>
       </c>
       <c r="S44" t="str">
-        <f>IF(M44+O44=B44,"EQUAL","DIFFER")</f>
+        <f t="shared" si="4"/>
         <v>EQUAL</v>
       </c>
       <c r="T44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -1767,16 +1783,16 @@
         <v>1716</v>
       </c>
       <c r="E45" s="4">
-        <f>B45/D45</f>
+        <f t="shared" si="2"/>
         <v>5.7109557109557112E-2</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="7">
-        <f>B45+G44</f>
+        <f t="shared" si="1"/>
         <v>3499</v>
       </c>
       <c r="H45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>10778</v>
       </c>
       <c r="I45">
@@ -1804,19 +1820,19 @@
         <v>174</v>
       </c>
       <c r="Q45" t="str">
-        <f>IF(I45+K45=B45,"EQUAL","DIFFER")</f>
+        <f t="shared" si="3"/>
         <v>EQUAL</v>
       </c>
       <c r="R45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>EQUAL</v>
       </c>
       <c r="S45" t="str">
-        <f>IF(M45+O45=B45,"EQUAL","DIFFER")</f>
+        <f t="shared" si="4"/>
         <v>EQUAL</v>
       </c>
       <c r="T45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -1831,16 +1847,16 @@
         <v>1251</v>
       </c>
       <c r="E46" s="4">
-        <f>B46/D46</f>
+        <f t="shared" si="2"/>
         <v>6.7146282973621102E-2</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="7">
-        <f>B46+G45</f>
+        <f t="shared" si="1"/>
         <v>3583</v>
       </c>
       <c r="H46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12029</v>
       </c>
       <c r="I46">
@@ -1868,19 +1884,19 @@
         <v>114</v>
       </c>
       <c r="Q46" t="str">
-        <f>IF(I46+K46=B46,"EQUAL","DIFFER")</f>
+        <f t="shared" si="3"/>
         <v>EQUAL</v>
       </c>
       <c r="R46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>EQUAL</v>
       </c>
       <c r="S46" t="str">
-        <f>IF(M46+O46=B46,"EQUAL","DIFFER")</f>
+        <f t="shared" si="4"/>
         <v>EQUAL</v>
       </c>
       <c r="T46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -1895,16 +1911,16 @@
         <v>2690</v>
       </c>
       <c r="E47" s="4">
-        <f>B47/D47</f>
+        <f t="shared" si="2"/>
         <v>3.1226765799256505E-2</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="7">
-        <f>B47+G46</f>
+        <f t="shared" si="1"/>
         <v>3667</v>
       </c>
       <c r="H47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>14719</v>
       </c>
       <c r="I47">
@@ -1932,19 +1948,19 @@
         <v>454</v>
       </c>
       <c r="Q47" t="str">
-        <f>IF(I47+K47=B47,"EQUAL","DIFFER")</f>
+        <f t="shared" si="3"/>
         <v>EQUAL</v>
       </c>
       <c r="R47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>EQUAL</v>
       </c>
       <c r="S47" t="str">
-        <f>IF(M47+O47=B47,"EQUAL","DIFFER")</f>
+        <f t="shared" si="4"/>
         <v>EQUAL</v>
       </c>
       <c r="T47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -1959,16 +1975,16 @@
         <v>1374</v>
       </c>
       <c r="E48" s="4">
-        <f>B48/D48</f>
+        <f t="shared" si="2"/>
         <v>3.7117903930131008E-2</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="7">
-        <f>B48+G47</f>
+        <f t="shared" si="1"/>
         <v>3718</v>
       </c>
       <c r="H48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>16093</v>
       </c>
       <c r="I48">
@@ -1996,19 +2012,19 @@
         <v>111</v>
       </c>
       <c r="Q48" t="str">
-        <f>IF(I48+K48=B48,"EQUAL","DIFFER")</f>
+        <f t="shared" si="3"/>
         <v>EQUAL</v>
       </c>
       <c r="R48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>EQUAL</v>
       </c>
       <c r="S48" t="str">
-        <f>IF(M48+O48=B48,"EQUAL","DIFFER")</f>
+        <f t="shared" si="4"/>
         <v>EQUAL</v>
       </c>
       <c r="T48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -2023,16 +2039,16 @@
         <v>1601</v>
       </c>
       <c r="E49" s="4">
-        <f>B49/D49</f>
+        <f t="shared" si="2"/>
         <v>4.996876951905059E-2</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="7">
-        <f>B49+G48</f>
+        <f t="shared" si="1"/>
         <v>3798</v>
       </c>
       <c r="H49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>17694</v>
       </c>
       <c r="I49">
@@ -2060,19 +2076,19 @@
         <v>149</v>
       </c>
       <c r="Q49" t="str">
-        <f>IF(I49+K49=B49,"EQUAL","DIFFER")</f>
+        <f t="shared" si="3"/>
         <v>EQUAL</v>
       </c>
       <c r="R49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>EQUAL</v>
       </c>
       <c r="S49" t="str">
-        <f>IF(M49+O49=B49,"EQUAL","DIFFER")</f>
+        <f t="shared" si="4"/>
         <v>EQUAL</v>
       </c>
       <c r="T49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -2087,16 +2103,16 @@
         <v>282</v>
       </c>
       <c r="E50" s="4">
-        <f>B50/D50</f>
+        <f t="shared" si="2"/>
         <v>2.1276595744680851E-2</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="7">
-        <f>B50+G49</f>
+        <f t="shared" si="1"/>
         <v>3804</v>
       </c>
       <c r="H50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>17976</v>
       </c>
       <c r="I50">
@@ -2124,19 +2140,19 @@
         <v>66</v>
       </c>
       <c r="Q50" t="str">
-        <f>IF(I50+K50=B50,"EQUAL","DIFFER")</f>
+        <f t="shared" si="3"/>
         <v>EQUAL</v>
       </c>
       <c r="R50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>EQUAL</v>
       </c>
       <c r="S50" t="str">
-        <f>IF(M50+O50=B50,"EQUAL","DIFFER")</f>
+        <f t="shared" si="4"/>
         <v>EQUAL</v>
       </c>
       <c r="T50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -2151,16 +2167,16 @@
         <v>270</v>
       </c>
       <c r="E51" s="4">
-        <f>B51/D51</f>
+        <f t="shared" si="2"/>
         <v>1.8518518518518517E-2</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="7">
-        <f>B51+G50</f>
+        <f t="shared" si="1"/>
         <v>3809</v>
       </c>
       <c r="H51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>18246</v>
       </c>
       <c r="I51">
@@ -2188,19 +2204,19 @@
         <v>90</v>
       </c>
       <c r="Q51" t="str">
-        <f>IF(I51+K51=B51,"EQUAL","DIFFER")</f>
+        <f t="shared" si="3"/>
         <v>EQUAL</v>
       </c>
       <c r="R51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>EQUAL</v>
       </c>
       <c r="S51" t="str">
-        <f>IF(M51+O51=B51,"EQUAL","DIFFER")</f>
+        <f t="shared" si="4"/>
         <v>EQUAL</v>
       </c>
       <c r="T51" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -2215,16 +2231,16 @@
         <v>1606</v>
       </c>
       <c r="E52" s="4">
-        <f>B52/D52</f>
+        <f t="shared" si="2"/>
         <v>5.7285180572851806E-2</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="7">
-        <f>B52+G51</f>
+        <f t="shared" si="1"/>
         <v>3901</v>
       </c>
       <c r="H52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>19852</v>
       </c>
       <c r="I52">
@@ -2252,19 +2268,19 @@
         <v>247</v>
       </c>
       <c r="Q52" t="str">
-        <f>IF(I52+K52=B52,"EQUAL","DIFFER")</f>
+        <f t="shared" si="3"/>
         <v>EQUAL</v>
       </c>
       <c r="R52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>EQUAL</v>
       </c>
       <c r="S52" t="str">
-        <f>IF(M52+O52=B52,"EQUAL","DIFFER")</f>
+        <f t="shared" si="4"/>
         <v>EQUAL</v>
       </c>
       <c r="T52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -2279,16 +2295,16 @@
         <v>1714</v>
       </c>
       <c r="E53" s="4">
-        <f>B53/D53</f>
+        <f t="shared" si="2"/>
         <v>2.8588098016336057E-2</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="7">
-        <f>B53+G52</f>
+        <f t="shared" si="1"/>
         <v>3950</v>
       </c>
       <c r="H53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>21566</v>
       </c>
       <c r="I53">
@@ -2316,19 +2332,19 @@
         <v>122</v>
       </c>
       <c r="Q53" t="str">
-        <f>IF(I53+K53=B53,"EQUAL","DIFFER")</f>
+        <f t="shared" si="3"/>
         <v>EQUAL</v>
       </c>
       <c r="R53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>EQUAL</v>
       </c>
       <c r="S53" t="str">
-        <f>IF(M53+O53=B53,"EQUAL","DIFFER")</f>
+        <f t="shared" si="4"/>
         <v>EQUAL</v>
       </c>
       <c r="T53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -2343,16 +2359,16 @@
         <v>2925</v>
       </c>
       <c r="E54" s="4">
-        <f>B54/D54</f>
+        <f t="shared" si="2"/>
         <v>1.5726495726495728E-2</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="7">
-        <f>B54+G53</f>
+        <f t="shared" si="1"/>
         <v>3996</v>
       </c>
       <c r="H54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>24491</v>
       </c>
       <c r="I54">
@@ -2380,19 +2396,19 @@
         <v>348</v>
       </c>
       <c r="Q54" t="str">
-        <f>IF(I54+K54=B54,"EQUAL","DIFFER")</f>
+        <f t="shared" si="3"/>
         <v>EQUAL</v>
       </c>
       <c r="R54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>EQUAL</v>
       </c>
       <c r="S54" t="str">
-        <f>IF(M54+O54=B54,"EQUAL","DIFFER")</f>
+        <f t="shared" si="4"/>
         <v>EQUAL</v>
       </c>
       <c r="T54" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -2407,16 +2423,16 @@
         <v>1690</v>
       </c>
       <c r="E55" s="4">
-        <f>B55/D55</f>
+        <f t="shared" si="2"/>
         <v>1.242603550295858E-2</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="7">
-        <f>B55+G54</f>
+        <f t="shared" si="1"/>
         <v>4017</v>
       </c>
       <c r="H55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>26181</v>
       </c>
       <c r="I55">
@@ -2444,19 +2460,19 @@
         <v>75</v>
       </c>
       <c r="Q55" t="str">
-        <f>IF(I55+K55=B55,"EQUAL","DIFFER")</f>
+        <f t="shared" si="3"/>
         <v>EQUAL</v>
       </c>
       <c r="R55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>EQUAL</v>
       </c>
       <c r="S55" t="str">
-        <f>IF(M55+O55=B55,"EQUAL","DIFFER")</f>
+        <f t="shared" si="4"/>
         <v>EQUAL</v>
       </c>
       <c r="T55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -2471,12 +2487,12 @@
         <v>813</v>
       </c>
       <c r="E56" s="4">
-        <f>B56/D56</f>
+        <f t="shared" si="2"/>
         <v>4.0590405904059039E-2</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="7">
-        <f>B56+G55</f>
+        <f t="shared" si="1"/>
         <v>4050</v>
       </c>
       <c r="H56">
@@ -2508,19 +2524,19 @@
         <v>168</v>
       </c>
       <c r="Q56" t="str">
-        <f>IF(I56+K56=B56,"EQUAL","DIFFER")</f>
+        <f t="shared" si="3"/>
         <v>EQUAL</v>
       </c>
       <c r="R56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>EQUAL</v>
       </c>
       <c r="S56" t="str">
-        <f>IF(M56+O56=B56,"EQUAL","DIFFER")</f>
+        <f t="shared" si="4"/>
         <v>EQUAL</v>
       </c>
       <c r="T56" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -2535,16 +2551,16 @@
         <v>7</v>
       </c>
       <c r="E57" s="4">
-        <f>B57/D57</f>
+        <f t="shared" si="2"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="7">
-        <f>B57+G56</f>
+        <f t="shared" si="1"/>
         <v>4051</v>
       </c>
       <c r="H57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>27001</v>
       </c>
       <c r="I57">
@@ -2572,19 +2588,19 @@
         <v>4</v>
       </c>
       <c r="Q57" t="str">
-        <f>IF(I57+K57=B57,"EQUAL","DIFFER")</f>
+        <f t="shared" si="3"/>
         <v>EQUAL</v>
       </c>
       <c r="R57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>EQUAL</v>
       </c>
       <c r="S57" t="str">
-        <f>IF(M57+O57=B57,"EQUAL","DIFFER")</f>
+        <f t="shared" si="4"/>
         <v>EQUAL</v>
       </c>
       <c r="T57" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -2599,16 +2615,16 @@
         <v>278</v>
       </c>
       <c r="E58" s="4">
-        <f>B58/D58</f>
+        <f t="shared" si="2"/>
         <v>1.4388489208633094E-2</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="7">
-        <f>B58+G57</f>
+        <f t="shared" si="1"/>
         <v>4055</v>
       </c>
       <c r="H58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>27279</v>
       </c>
       <c r="I58">
@@ -2636,19 +2652,19 @@
         <v>85</v>
       </c>
       <c r="Q58" t="str">
-        <f>IF(I58+K58=B58,"EQUAL","DIFFER")</f>
+        <f t="shared" si="3"/>
         <v>EQUAL</v>
       </c>
       <c r="R58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>EQUAL</v>
       </c>
       <c r="S58" t="str">
-        <f>IF(M58+O58=B58,"EQUAL","DIFFER")</f>
+        <f t="shared" si="4"/>
         <v>EQUAL</v>
       </c>
       <c r="T58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -2663,16 +2679,16 @@
         <v>1957</v>
       </c>
       <c r="E59" s="4">
-        <f>B59/D59</f>
+        <f t="shared" si="2"/>
         <v>2.6060296371997957E-2</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="7">
-        <f>B59+G58</f>
+        <f t="shared" si="1"/>
         <v>4106</v>
       </c>
       <c r="H59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>29236</v>
       </c>
       <c r="I59">
@@ -2700,19 +2716,19 @@
         <v>404</v>
       </c>
       <c r="Q59" t="str">
-        <f>IF(I59+K59=B59,"EQUAL","DIFFER")</f>
+        <f t="shared" si="3"/>
         <v>EQUAL</v>
       </c>
       <c r="R59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>EQUAL</v>
       </c>
       <c r="S59" t="str">
-        <f>IF(M59+O59=B59,"EQUAL","DIFFER")</f>
+        <f t="shared" si="4"/>
         <v>EQUAL</v>
       </c>
       <c r="T59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -2727,16 +2743,16 @@
         <v>1908</v>
       </c>
       <c r="E60" s="4">
-        <f>B60/D60</f>
+        <f t="shared" si="2"/>
         <v>1.8343815513626835E-2</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="7">
-        <f>B60+G59</f>
+        <f t="shared" si="1"/>
         <v>4141</v>
       </c>
       <c r="H60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>31144</v>
       </c>
       <c r="I60">
@@ -2764,19 +2780,19 @@
         <v>238</v>
       </c>
       <c r="Q60" t="str">
-        <f>IF(I60+K60=B60,"EQUAL","DIFFER")</f>
+        <f t="shared" si="3"/>
         <v>EQUAL</v>
       </c>
       <c r="R60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>EQUAL</v>
       </c>
       <c r="S60" t="str">
-        <f>IF(M60+O60=B60,"EQUAL","DIFFER")</f>
+        <f t="shared" si="4"/>
         <v>EQUAL</v>
       </c>
       <c r="T60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -2791,16 +2807,16 @@
         <v>2703</v>
       </c>
       <c r="E61" s="4">
-        <f>B61/D61</f>
+        <f t="shared" si="2"/>
         <v>1.2948575656677765E-2</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="7">
-        <f>B61+G60</f>
+        <f t="shared" si="1"/>
         <v>4176</v>
       </c>
       <c r="H61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>33847</v>
       </c>
       <c r="I61">
@@ -2828,19 +2844,19 @@
         <v>228</v>
       </c>
       <c r="Q61" t="str">
-        <f>IF(I61+K61=B61,"EQUAL","DIFFER")</f>
+        <f t="shared" si="3"/>
         <v>EQUAL</v>
       </c>
       <c r="R61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>EQUAL</v>
       </c>
       <c r="S61" t="str">
-        <f>IF(M61+O61=B61,"EQUAL","DIFFER")</f>
+        <f t="shared" si="4"/>
         <v>EQUAL</v>
       </c>
       <c r="T61" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -2855,16 +2871,16 @@
         <v>1922</v>
       </c>
       <c r="E62" s="4">
-        <f>B62/D62</f>
+        <f t="shared" si="2"/>
         <v>4.6826222684703432E-3</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="7">
-        <f>B62+G61</f>
+        <f t="shared" si="1"/>
         <v>4185</v>
       </c>
       <c r="H62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>35769</v>
       </c>
       <c r="I62">
@@ -2892,19 +2908,19 @@
         <v>212</v>
       </c>
       <c r="Q62" t="str">
-        <f>IF(I62+K62=B62,"EQUAL","DIFFER")</f>
+        <f t="shared" si="3"/>
         <v>EQUAL</v>
       </c>
       <c r="R62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>EQUAL</v>
       </c>
       <c r="S62" t="str">
-        <f>IF(M62+O62=B62,"EQUAL","DIFFER")</f>
+        <f t="shared" si="4"/>
         <v>EQUAL</v>
       </c>
       <c r="T62" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -2919,16 +2935,16 @@
         <v>1524</v>
       </c>
       <c r="E63" s="4">
-        <f>B63/D63</f>
+        <f t="shared" si="2"/>
         <v>1.1154855643044619E-2</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="7">
-        <f>B63+G62</f>
+        <f t="shared" si="1"/>
         <v>4202</v>
       </c>
       <c r="H63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>37293</v>
       </c>
       <c r="I63">
@@ -2956,19 +2972,19 @@
         <v>287</v>
       </c>
       <c r="Q63" t="str">
-        <f>IF(I63+K63=B63,"EQUAL","DIFFER")</f>
+        <f t="shared" si="3"/>
         <v>EQUAL</v>
       </c>
       <c r="R63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>EQUAL</v>
       </c>
       <c r="S63" t="str">
-        <f>IF(M63+O63=B63,"EQUAL","DIFFER")</f>
+        <f t="shared" si="4"/>
         <v>EQUAL</v>
       </c>
       <c r="T63" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -2983,16 +2999,16 @@
         <v>103</v>
       </c>
       <c r="E64" s="4">
-        <f>B64/D64</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="7">
-        <f>B64+G63</f>
+        <f t="shared" si="1"/>
         <v>4202</v>
       </c>
       <c r="H64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>37396</v>
       </c>
       <c r="I64">
@@ -3020,62 +3036,347 @@
         <v>29</v>
       </c>
       <c r="Q64" t="str">
-        <f>IF(I64+K64=B64,"EQUAL","DIFFER")</f>
+        <f t="shared" si="3"/>
         <v>EQUAL</v>
       </c>
       <c r="R64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>EQUAL</v>
       </c>
       <c r="S64" t="str">
-        <f>IF(M64+O64=B64,"EQUAL","DIFFER")</f>
+        <f t="shared" si="4"/>
         <v>EQUAL</v>
       </c>
       <c r="T64" t="str">
-        <f t="shared" si="2"/>
-        <v>EQUAL</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <f t="shared" si="7"/>
+        <v>EQUAL</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
       <c r="A65" s="6">
         <v>44129</v>
       </c>
-      <c r="E65" s="4"/>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>270</v>
+      </c>
+      <c r="E65" s="4">
+        <f t="shared" si="2"/>
+        <v>3.7037037037037038E-3</v>
+      </c>
       <c r="F65" s="4"/>
-      <c r="G65" s="7"/>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="G65" s="7">
+        <f t="shared" si="1"/>
+        <v>4203</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="5"/>
+        <v>37666</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>270</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>183</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>87</v>
+      </c>
+      <c r="Q65" t="str">
+        <f t="shared" si="3"/>
+        <v>EQUAL</v>
+      </c>
+      <c r="R65" t="str">
+        <f t="shared" si="6"/>
+        <v>EQUAL</v>
+      </c>
+      <c r="S65" t="str">
+        <f t="shared" si="4"/>
+        <v>EQUAL</v>
+      </c>
+      <c r="T65" t="str">
+        <f t="shared" si="7"/>
+        <v>EQUAL</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
       <c r="A66" s="6">
         <v>44130</v>
       </c>
-      <c r="E66" s="4"/>
+      <c r="B66">
+        <v>17</v>
+      </c>
+      <c r="D66">
+        <v>2248</v>
+      </c>
+      <c r="E66" s="4">
+        <f t="shared" si="2"/>
+        <v>7.5622775800711743E-3</v>
+      </c>
       <c r="F66" s="4"/>
-      <c r="G66" s="7"/>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="G66" s="7">
+        <f t="shared" si="1"/>
+        <v>4220</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="5"/>
+        <v>39914</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>5</v>
+      </c>
+      <c r="K66">
+        <v>17</v>
+      </c>
+      <c r="L66">
+        <v>2243</v>
+      </c>
+      <c r="M66">
+        <v>14</v>
+      </c>
+      <c r="N66">
+        <v>1825</v>
+      </c>
+      <c r="O66">
+        <v>3</v>
+      </c>
+      <c r="P66">
+        <v>423</v>
+      </c>
+      <c r="Q66" t="str">
+        <f t="shared" si="3"/>
+        <v>EQUAL</v>
+      </c>
+      <c r="R66" t="str">
+        <f t="shared" si="6"/>
+        <v>EQUAL</v>
+      </c>
+      <c r="S66" t="str">
+        <f t="shared" si="4"/>
+        <v>EQUAL</v>
+      </c>
+      <c r="T66" t="str">
+        <f t="shared" si="7"/>
+        <v>EQUAL</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20">
       <c r="A67" s="6">
         <v>44131</v>
       </c>
-      <c r="E67" s="4"/>
+      <c r="B67">
+        <v>19</v>
+      </c>
+      <c r="D67">
+        <v>2020</v>
+      </c>
+      <c r="E67" s="4">
+        <f t="shared" si="2"/>
+        <v>9.4059405940594056E-3</v>
+      </c>
       <c r="F67" s="4"/>
-      <c r="G67" s="7"/>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="G67" s="7">
+        <f t="shared" si="1"/>
+        <v>4239</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="5"/>
+        <v>41934</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>8</v>
+      </c>
+      <c r="K67">
+        <v>19</v>
+      </c>
+      <c r="L67">
+        <v>2012</v>
+      </c>
+      <c r="M67">
+        <v>19</v>
+      </c>
+      <c r="N67">
+        <v>1849</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>171</v>
+      </c>
+      <c r="Q67" t="str">
+        <f t="shared" si="3"/>
+        <v>EQUAL</v>
+      </c>
+      <c r="R67" t="str">
+        <f t="shared" si="6"/>
+        <v>EQUAL</v>
+      </c>
+      <c r="S67" t="str">
+        <f t="shared" si="4"/>
+        <v>EQUAL</v>
+      </c>
+      <c r="T67" t="str">
+        <f t="shared" si="7"/>
+        <v>EQUAL</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20">
       <c r="A68" s="6">
         <v>44132</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="B68">
+        <v>23</v>
+      </c>
+      <c r="D68">
+        <v>2839</v>
+      </c>
+      <c r="E68" s="4">
+        <f t="shared" si="2"/>
+        <v>8.1014441704825649E-3</v>
+      </c>
+      <c r="G68" s="7">
+        <f t="shared" si="1"/>
+        <v>4262</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="5"/>
+        <v>44773</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>14</v>
+      </c>
+      <c r="K68">
+        <v>22</v>
+      </c>
+      <c r="L68">
+        <v>2825</v>
+      </c>
+      <c r="M68">
+        <v>22</v>
+      </c>
+      <c r="N68">
+        <v>2370</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+      <c r="P68">
+        <v>469</v>
+      </c>
+      <c r="Q68" t="str">
+        <f t="shared" si="3"/>
+        <v>EQUAL</v>
+      </c>
+      <c r="R68" t="str">
+        <f t="shared" si="6"/>
+        <v>EQUAL</v>
+      </c>
+      <c r="S68" t="str">
+        <f t="shared" si="4"/>
+        <v>EQUAL</v>
+      </c>
+      <c r="T68" t="str">
+        <f t="shared" si="7"/>
+        <v>EQUAL</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20">
       <c r="A69" s="6">
         <v>44133</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>7</v>
+      </c>
+      <c r="E69" s="4">
+        <f t="shared" si="2"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="G69" s="7">
+        <f t="shared" si="1"/>
+        <v>4265</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="5"/>
+        <v>44780</v>
+      </c>
+      <c r="I69">
+        <v>3</v>
+      </c>
+      <c r="J69">
+        <v>6</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>3</v>
+      </c>
+      <c r="N69">
+        <v>7</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="str">
+        <f t="shared" si="3"/>
+        <v>EQUAL</v>
+      </c>
+      <c r="R69" t="str">
+        <f t="shared" si="6"/>
+        <v>EQUAL</v>
+      </c>
+      <c r="S69" t="str">
+        <f t="shared" si="4"/>
+        <v>EQUAL</v>
+      </c>
+      <c r="T69" t="str">
+        <f t="shared" si="7"/>
+        <v>EQUAL</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20">
       <c r="A70" s="6">
         <v>44134</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="G70" s="7"/>
+    </row>
+    <row r="71" spans="1:20">
       <c r="A71" s="6">
         <v>44135</v>
       </c>
@@ -3097,8 +3398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D56922A-034D-7E4D-80AB-A29316427207}">
   <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3106,7 +3407,10 @@
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="3.1640625" customWidth="1"/>
     <col min="3" max="3" width="8.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.6640625" customWidth="1"/>
     <col min="9" max="9" width="20.33203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="19.83203125" customWidth="1"/>
@@ -3361,7 +3665,7 @@
         <v>DIFFER</v>
       </c>
       <c r="T4" t="str">
-        <f t="shared" ref="T4:T19" si="4">IF(L4+N4=F4,"EQUAL","DIFFER")</f>
+        <f t="shared" ref="T4:T23" si="4">IF(L4+N4=F4,"EQUAL","DIFFER")</f>
         <v>DIFFER</v>
       </c>
       <c r="U4" t="str">
@@ -4193,18 +4497,28 @@
       <c r="C20" s="20">
         <v>44114</v>
       </c>
-      <c r="G20" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="D20">
+        <v>407</v>
+      </c>
+      <c r="F20" s="9">
+        <v>9224</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="0"/>
+        <v>4.4124024284475281E-2</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="1">
         <f t="shared" si="1"/>
-        <v>3174</v>
+        <v>3581</v>
       </c>
       <c r="J20">
         <f t="shared" si="2"/>
-        <v>56443</v>
+        <v>65667</v>
+      </c>
+      <c r="T20" t="str">
+        <f t="shared" si="4"/>
+        <v>DIFFER</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -4217,18 +4531,28 @@
       <c r="C21" s="20">
         <v>44121</v>
       </c>
-      <c r="G21" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="D21">
+        <v>249</v>
+      </c>
+      <c r="F21" s="9">
+        <v>9032</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="0"/>
+        <v>2.7568644818423384E-2</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="1">
         <f t="shared" si="1"/>
-        <v>3174</v>
+        <v>3830</v>
       </c>
       <c r="J21">
         <f t="shared" si="2"/>
-        <v>56443</v>
+        <v>74699</v>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" si="4"/>
+        <v>DIFFER</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -4241,18 +4565,28 @@
       <c r="C22" s="20">
         <v>44128</v>
       </c>
-      <c r="G22" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="D22">
+        <v>154</v>
+      </c>
+      <c r="F22" s="9">
+        <v>10423</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4775016789791807E-2</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="1">
         <f t="shared" si="1"/>
-        <v>3174</v>
+        <v>3984</v>
       </c>
       <c r="J22">
         <f t="shared" si="2"/>
-        <v>56443</v>
+        <v>85122</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="4"/>
+        <v>DIFFER</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -4262,21 +4596,31 @@
       <c r="B23" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="20">
-        <v>44135</v>
-      </c>
-      <c r="G23" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C23" s="24">
+        <v>44133</v>
+      </c>
+      <c r="D23">
+        <v>63</v>
+      </c>
+      <c r="F23" s="9">
+        <v>7384</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="0"/>
+        <v>8.5319609967497295E-3</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="1">
         <f t="shared" si="1"/>
-        <v>3174</v>
+        <v>4047</v>
       </c>
       <c r="J23">
         <f t="shared" si="2"/>
-        <v>56443</v>
+        <v>92506</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="4"/>
+        <v>DIFFER</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -4313,15 +4657,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE67BA8-2D94-544F-9655-C971E88AFA0C}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="9" customWidth="1"/>
     <col min="3" max="3" width="9.83203125" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" customWidth="1"/>
   </cols>
@@ -4340,19 +4684,139 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" s="3" customFormat="1">
       <c r="A2" s="2">
+        <v>44093</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
+        <v>44100</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
+        <v>44105</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
+        <v>44112</v>
+      </c>
+      <c r="B5" s="9">
+        <v>243</v>
+      </c>
+      <c r="C5">
+        <v>289</v>
+      </c>
+      <c r="D5">
+        <f>B5+C5</f>
+        <v>532</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
+        <v>44116</v>
+      </c>
+      <c r="B6" s="9">
+        <v>193</v>
+      </c>
+      <c r="C6">
+        <v>218</v>
+      </c>
+      <c r="D6">
+        <f>B6+C6</f>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B7" s="9">
+        <v>176</v>
+      </c>
+      <c r="C7">
+        <v>223</v>
+      </c>
+      <c r="D7">
+        <f>B7+C7</f>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
+        <v>44123</v>
+      </c>
+      <c r="B8" s="9">
+        <v>175</v>
+      </c>
+      <c r="C8">
+        <v>142</v>
+      </c>
+      <c r="D8">
+        <f>B8+C8</f>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="25">
+        <v>44126</v>
+      </c>
+      <c r="B9" s="9">
+        <v>84</v>
+      </c>
+      <c r="C9" s="9">
+        <v>75</v>
+      </c>
+      <c r="D9">
+        <f>B9+C9</f>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
         <v>44130</v>
       </c>
-      <c r="B2">
+      <c r="B10" s="9">
         <v>75</v>
       </c>
-      <c r="C2">
+      <c r="C10">
         <v>58</v>
       </c>
-      <c r="D2">
-        <f>B2+C2</f>
+      <c r="D10">
+        <f>B10+C10</f>
         <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
+        <v>44133</v>
+      </c>
+      <c r="B11" s="9">
+        <v>51</v>
+      </c>
+      <c r="C11">
+        <v>49</v>
+      </c>
+      <c r="D11">
+        <f>B11+C11</f>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/clemsonDashboard.xlsx
+++ b/clemsonDashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidferrara/Documents/Clemson/The Tiger/COVID-19/Data/ttn-clemson-covid-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665995EA-FCB2-4744-97FB-86009F74A9DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325C45C1-20E2-CF4C-8F21-715AAFC96190}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="460" windowWidth="28040" windowHeight="16260" activeTab="1" xr2:uid="{663FE1B6-0B7E-E04A-924C-6AB15F4F5852}"/>
+    <workbookView xWindow="340" yWindow="460" windowWidth="28040" windowHeight="16260" xr2:uid="{663FE1B6-0B7E-E04A-924C-6AB15F4F5852}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Data" sheetId="1" r:id="rId1"/>
@@ -419,7 +419,7 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -800,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2018E299-360B-F244-BDDD-9B449D0B7C0F}">
   <dimension ref="A1:X71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1148,7 +1148,7 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:C69" si="2">AVERAGE(B3:B9)</f>
+        <f t="shared" ref="C9:C71" si="2">AVERAGE(B3:B9)</f>
         <v>24.857142857142858</v>
       </c>
       <c r="D9" s="24">
@@ -2122,7 +2122,7 @@
       <c r="G35" s="20"/>
       <c r="H35" s="20"/>
       <c r="I35" s="7">
-        <f t="shared" ref="I35:I69" si="3">B35+I34</f>
+        <f t="shared" ref="I35:I71" si="3">B35+I34</f>
         <v>2737</v>
       </c>
       <c r="J35" s="20"/>
@@ -2199,7 +2199,7 @@
         <v>1552.9393540391914</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" ref="G37:G69" si="4">B37/E37</f>
+        <f t="shared" ref="G37:G71" si="4">B37/E37</f>
         <v>2.2443890274314215E-2</v>
       </c>
       <c r="H37" s="22"/>
@@ -2271,7 +2271,7 @@
         <v>2170</v>
       </c>
       <c r="F38">
-        <f t="shared" ref="F38:F69" si="7">(E38/25822)*100000</f>
+        <f t="shared" ref="F38:F71" si="7">(E38/25822)*100000</f>
         <v>8403.6867787158244</v>
       </c>
       <c r="G38" s="4">
@@ -2284,7 +2284,7 @@
         <v>3002</v>
       </c>
       <c r="J38">
-        <f t="shared" ref="J38:J69" si="8">J37+E38</f>
+        <f t="shared" ref="J38:J71" si="8">J37+E38</f>
         <v>2571</v>
       </c>
       <c r="K38">
@@ -2738,7 +2738,7 @@
         <v>1.2944983818770227E-2</v>
       </c>
       <c r="H44" s="4">
-        <f t="shared" ref="H44:H69" si="11">AVERAGE(G38:G44)</f>
+        <f t="shared" ref="H44:H71" si="11">AVERAGE(G38:G44)</f>
         <v>9.2264999190092206E-2</v>
       </c>
       <c r="I44" s="7">
@@ -4540,7 +4540,7 @@
         <v>14</v>
       </c>
       <c r="D67" s="24">
-        <f t="shared" ref="D67:D69" si="12">(B67/25822)*100000</f>
+        <f t="shared" ref="D67:D71" si="12">(B67/25822)*100000</f>
         <v>73.580667647742231</v>
       </c>
       <c r="E67">
@@ -4769,11 +4769,110 @@
       <c r="A70" s="6">
         <v>44134</v>
       </c>
-      <c r="I70" s="7"/>
+      <c r="B70">
+        <v>21</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="D70" s="24">
+        <f t="shared" si="12"/>
+        <v>81.326001084346686</v>
+      </c>
+      <c r="E70">
+        <v>2189</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="7"/>
+        <v>8477.2674463635667</v>
+      </c>
+      <c r="G70" s="4">
+        <f t="shared" si="4"/>
+        <v>9.593421653723162E-3</v>
+      </c>
+      <c r="H70" s="4">
+        <f t="shared" si="11"/>
+        <v>6.6705459467638367E-2</v>
+      </c>
+      <c r="I70" s="7">
+        <f t="shared" si="3"/>
+        <v>4286</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="8"/>
+        <v>46969</v>
+      </c>
+      <c r="S70" t="str">
+        <f t="shared" ref="S70:S71" si="13">IF(K70+M70=B70,"EQUAL","DIFFER")</f>
+        <v>DIFFER</v>
+      </c>
+      <c r="T70" t="str">
+        <f t="shared" ref="T70:T71" si="14">IF(L70+N70=E70,"EQUAL","DIFFER")</f>
+        <v>DIFFER</v>
+      </c>
+      <c r="U70" t="str">
+        <f t="shared" ref="U70:U71" si="15">IF(O70+Q70=B70,"EQUAL","DIFFER")</f>
+        <v>DIFFER</v>
+      </c>
+      <c r="V70" t="str">
+        <f t="shared" ref="V70:V71" si="16">IF(P70+R70=E70,"EQUAL","DIFFER")</f>
+        <v>DIFFER</v>
+      </c>
     </row>
     <row r="71" spans="1:22">
       <c r="A71" s="6">
         <v>44135</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="2"/>
+        <v>12.142857142857142</v>
+      </c>
+      <c r="D71" s="24">
+        <f t="shared" si="12"/>
+        <v>3.8726667183022232</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="7"/>
+        <v>7.7453334366044464</v>
+      </c>
+      <c r="G71" s="4">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="H71" s="4">
+        <f t="shared" si="11"/>
+        <v>0.13813403089620979</v>
+      </c>
+      <c r="I71" s="7">
+        <f t="shared" si="3"/>
+        <v>4287</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="8"/>
+        <v>46971</v>
+      </c>
+      <c r="S71" t="str">
+        <f t="shared" si="13"/>
+        <v>DIFFER</v>
+      </c>
+      <c r="T71" t="str">
+        <f t="shared" si="14"/>
+        <v>DIFFER</v>
+      </c>
+      <c r="U71" t="str">
+        <f t="shared" si="15"/>
+        <v>DIFFER</v>
+      </c>
+      <c r="V71" t="str">
+        <f t="shared" si="16"/>
+        <v>DIFFER</v>
       </c>
     </row>
   </sheetData>
@@ -4787,7 +4886,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C8:C69" formulaRange="1"/>
+    <ignoredError sqref="C8:C69 C70:C71" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4796,8 +4895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D56922A-034D-7E4D-80AB-A29316427207}">
   <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C23"/>
+    <sheetView topLeftCell="J1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4926,7 +5025,7 @@
         <v>158.77933545039113</v>
       </c>
       <c r="I2" s="4">
-        <f>D2/G2</f>
+        <f t="shared" ref="I2:I23" si="0">D2/G2</f>
         <v>2.4390243902439025E-2</v>
       </c>
       <c r="J2" s="23"/>
@@ -4957,11 +5056,11 @@
       <c r="U2" s="20"/>
       <c r="V2" s="20"/>
       <c r="W2" t="str">
-        <f>IF(S2+Q2=D2,"EQUAL","DIFFER")</f>
+        <f t="shared" ref="W2:W23" si="1">IF(S2+Q2=D2,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="X2" t="str">
-        <f>IF(T2+R2=G2,"EQUAL","DIFFER")</f>
+        <f t="shared" ref="X2:X18" si="2">IF(T2+R2=G2,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="Z2" t="s">
@@ -4983,23 +5082,23 @@
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="24">
-        <f t="shared" ref="F3:F23" si="0">(D3/25822)*100000</f>
+        <f t="shared" ref="F3:F23" si="3">(D3/25822)*100000</f>
         <v>15.490666873208893</v>
       </c>
       <c r="G3">
         <v>143</v>
       </c>
       <c r="H3" s="9">
-        <f t="shared" ref="H3:H23" si="1">(G3/25822)*100000</f>
+        <f t="shared" ref="H3:H23" si="4">(G3/25822)*100000</f>
         <v>553.79134071721785</v>
       </c>
       <c r="I3" s="4">
-        <f>D3/G3</f>
+        <f t="shared" si="0"/>
         <v>2.7972027972027972E-2</v>
       </c>
       <c r="J3" s="23"/>
       <c r="K3" s="1">
-        <f>D3+K2</f>
+        <f t="shared" ref="K3:K23" si="5">D3+K2</f>
         <v>5</v>
       </c>
       <c r="L3">
@@ -5025,11 +5124,11 @@
       <c r="U3" s="20"/>
       <c r="V3" s="20"/>
       <c r="W3" t="str">
-        <f>IF(S3+Q3=D3,"EQUAL","DIFFER")</f>
+        <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
       <c r="X3" t="str">
-        <f>IF(T3+R3=G3,"EQUAL","DIFFER")</f>
+        <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
       <c r="Z3" t="s">
@@ -5051,27 +5150,27 @@
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>336.92200449229341</v>
       </c>
       <c r="G4">
         <v>277</v>
       </c>
       <c r="H4" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1072.7286809697157</v>
       </c>
       <c r="I4" s="4">
-        <f>D4/G4</f>
+        <f t="shared" si="0"/>
         <v>0.3140794223826715</v>
       </c>
       <c r="J4" s="23"/>
       <c r="K4" s="1">
-        <f>D4+K3</f>
+        <f t="shared" si="5"/>
         <v>92</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L23" si="2">G4+L3</f>
+        <f t="shared" ref="L4:L23" si="6">G4+L3</f>
         <v>461</v>
       </c>
       <c r="M4" s="20"/>
@@ -5093,11 +5192,11 @@
       <c r="U4" s="20"/>
       <c r="V4" s="20"/>
       <c r="W4" t="str">
-        <f>IF(S4+Q4=D4,"EQUAL","DIFFER")</f>
+        <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
       <c r="X4" t="str">
-        <f>IF(T4+R4=G4,"EQUAL","DIFFER")</f>
+        <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -5119,18 +5218,18 @@
         <v>34.5</v>
       </c>
       <c r="F5" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>178.14266904190225</v>
       </c>
       <c r="G5">
         <v>298</v>
       </c>
       <c r="H5" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1154.0546820540624</v>
       </c>
       <c r="I5" s="4">
-        <f>D5/G5</f>
+        <f t="shared" si="0"/>
         <v>0.15436241610738255</v>
       </c>
       <c r="J5" s="13">
@@ -5138,11 +5237,11 @@
         <v>0.13020102759113028</v>
       </c>
       <c r="K5" s="1">
-        <f>D5+K4</f>
+        <f t="shared" si="5"/>
         <v>138</v>
       </c>
       <c r="L5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>759</v>
       </c>
       <c r="M5" s="20"/>
@@ -5164,11 +5263,11 @@
       <c r="U5" s="20"/>
       <c r="V5" s="20"/>
       <c r="W5" t="str">
-        <f>IF(S5+Q5=D5,"EQUAL","DIFFER")</f>
+        <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
       <c r="X5" t="str">
-        <f>IF(T5+R5=G5,"EQUAL","DIFFER")</f>
+        <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
       <c r="Z5" t="s">
@@ -5189,34 +5288,34 @@
         <v>29</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E23" si="3">AVERAGE(D3:D6)</f>
+        <f t="shared" ref="E6:E23" si="7">AVERAGE(D3:D6)</f>
         <v>41.5</v>
       </c>
       <c r="F6" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>112.30733483076447</v>
       </c>
       <c r="G6">
         <v>149</v>
       </c>
       <c r="H6" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>577.02734102703118</v>
       </c>
       <c r="I6" s="4">
-        <f>D6/G6</f>
+        <f t="shared" si="0"/>
         <v>0.19463087248322147</v>
       </c>
       <c r="J6" s="13">
-        <f t="shared" ref="J6:J23" si="4">AVERAGE(I3:I6)</f>
+        <f t="shared" ref="J6:J23" si="8">AVERAGE(I3:I6)</f>
         <v>0.17276118473632587</v>
       </c>
       <c r="K6" s="1">
-        <f>D6+K5</f>
+        <f t="shared" si="5"/>
         <v>167</v>
       </c>
       <c r="L6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>908</v>
       </c>
       <c r="M6" s="20"/>
@@ -5238,11 +5337,11 @@
       <c r="U6" s="20"/>
       <c r="V6" s="20"/>
       <c r="W6" t="str">
-        <f>IF(S6+Q6=D6,"EQUAL","DIFFER")</f>
+        <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
       <c r="X6" t="str">
-        <f>IF(T6+R6=G6,"EQUAL","DIFFER")</f>
+        <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
       <c r="Z6" t="s">
@@ -5263,34 +5362,34 @@
         <v>15</v>
       </c>
       <c r="E7">
+        <f t="shared" si="7"/>
+        <v>44.25</v>
+      </c>
+      <c r="F7" s="24">
         <f t="shared" si="3"/>
-        <v>44.25</v>
-      </c>
-      <c r="F7" s="24">
-        <f t="shared" si="0"/>
         <v>58.090000774533344</v>
       </c>
       <c r="G7">
         <v>280</v>
       </c>
       <c r="H7" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1084.3466811246224</v>
       </c>
       <c r="I7" s="4">
-        <f>D7/G7</f>
+        <f t="shared" si="0"/>
         <v>5.3571428571428568E-2</v>
       </c>
       <c r="J7" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.17916103488617602</v>
       </c>
       <c r="K7" s="1">
-        <f>D7+K6</f>
+        <f t="shared" si="5"/>
         <v>182</v>
       </c>
       <c r="L7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1188</v>
       </c>
       <c r="M7" s="20"/>
@@ -5312,11 +5411,11 @@
       <c r="U7" s="20"/>
       <c r="V7" s="20"/>
       <c r="W7" t="str">
-        <f>IF(S7+Q7=D7,"EQUAL","DIFFER")</f>
+        <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
       <c r="X7" t="str">
-        <f>IF(T7+R7=G7,"EQUAL","DIFFER")</f>
+        <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -5334,34 +5433,34 @@
         <v>11</v>
       </c>
       <c r="E8">
+        <f t="shared" si="7"/>
+        <v>25.25</v>
+      </c>
+      <c r="F8" s="24">
         <f t="shared" si="3"/>
-        <v>25.25</v>
-      </c>
-      <c r="F8" s="24">
-        <f t="shared" si="0"/>
         <v>42.599333901324449</v>
       </c>
       <c r="G8">
         <v>84</v>
       </c>
       <c r="H8" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>325.30400433738674</v>
       </c>
       <c r="I8" s="4">
-        <f>D8/G8</f>
+        <f t="shared" si="0"/>
         <v>0.13095238095238096</v>
       </c>
       <c r="J8" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.13337927452860338</v>
       </c>
       <c r="K8" s="1">
-        <f>D8+K7</f>
+        <f t="shared" si="5"/>
         <v>193</v>
       </c>
       <c r="L8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1272</v>
       </c>
       <c r="M8" s="20"/>
@@ -5383,11 +5482,11 @@
       <c r="U8" s="20"/>
       <c r="V8" s="20"/>
       <c r="W8" t="str">
-        <f>IF(S8+Q8=D8,"EQUAL","DIFFER")</f>
+        <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
       <c r="X8" t="str">
-        <f>IF(T8+R8=G8,"EQUAL","DIFFER")</f>
+        <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -5405,34 +5504,34 @@
         <v>54</v>
       </c>
       <c r="E9">
+        <f t="shared" si="7"/>
+        <v>27.25</v>
+      </c>
+      <c r="F9" s="24">
         <f t="shared" si="3"/>
-        <v>27.25</v>
-      </c>
-      <c r="F9" s="24">
-        <f t="shared" si="0"/>
         <v>209.12400278832004</v>
       </c>
       <c r="G9">
         <v>2230</v>
       </c>
       <c r="H9" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8636.0467818139568</v>
       </c>
       <c r="I9" s="4">
-        <f>D9/G9</f>
+        <f t="shared" si="0"/>
         <v>2.4215246636771302E-2</v>
       </c>
       <c r="J9" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.10084248216095058</v>
       </c>
       <c r="K9" s="1">
-        <f>D9+K8</f>
+        <f t="shared" si="5"/>
         <v>247</v>
       </c>
       <c r="L9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3502</v>
       </c>
       <c r="M9" s="20"/>
@@ -5454,11 +5553,11 @@
       <c r="U9" s="20"/>
       <c r="V9" s="20"/>
       <c r="W9" t="str">
-        <f>IF(S9+Q9=D9,"EQUAL","DIFFER")</f>
+        <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
       <c r="X9" t="str">
-        <f>IF(T9+R9=G9,"EQUAL","DIFFER")</f>
+        <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -5476,34 +5575,34 @@
         <v>19</v>
       </c>
       <c r="E10">
+        <f t="shared" si="7"/>
+        <v>24.75</v>
+      </c>
+      <c r="F10" s="24">
         <f t="shared" si="3"/>
-        <v>24.75</v>
-      </c>
-      <c r="F10" s="24">
-        <f t="shared" si="0"/>
         <v>73.580667647742231</v>
       </c>
       <c r="G10">
         <v>881</v>
       </c>
       <c r="H10" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3411.8193788242588</v>
       </c>
       <c r="I10" s="4">
-        <f>D10/G10</f>
+        <f t="shared" si="0"/>
         <v>2.1566401816118047E-2</v>
       </c>
       <c r="J10" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.757636449417472E-2</v>
       </c>
       <c r="K10" s="1">
-        <f>D10+K9</f>
+        <f t="shared" si="5"/>
         <v>266</v>
       </c>
       <c r="L10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4383</v>
       </c>
       <c r="M10" s="20"/>
@@ -5525,11 +5624,11 @@
       <c r="U10" s="20"/>
       <c r="V10" s="20"/>
       <c r="W10" t="str">
-        <f>IF(S10+Q10=D10,"EQUAL","DIFFER")</f>
+        <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
       <c r="X10" t="str">
-        <f>IF(T10+R10=G10,"EQUAL","DIFFER")</f>
+        <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -5547,34 +5646,34 @@
         <v>7</v>
       </c>
       <c r="E11">
+        <f t="shared" si="7"/>
+        <v>22.75</v>
+      </c>
+      <c r="F11" s="24">
         <f t="shared" si="3"/>
-        <v>22.75</v>
-      </c>
-      <c r="F11" s="24">
-        <f t="shared" si="0"/>
         <v>27.108667028115558</v>
       </c>
       <c r="G11">
         <v>783</v>
       </c>
       <c r="H11" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3032.2980404306404</v>
       </c>
       <c r="I11" s="4">
-        <f>D11/G11</f>
+        <f t="shared" si="0"/>
         <v>8.9399744572158362E-3</v>
       </c>
       <c r="J11" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.6418500965621536E-2</v>
       </c>
       <c r="K11" s="1">
-        <f>D11+K10</f>
+        <f t="shared" si="5"/>
         <v>273</v>
       </c>
       <c r="L11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5166</v>
       </c>
       <c r="M11" s="20"/>
@@ -5596,11 +5695,11 @@
       <c r="U11" s="20"/>
       <c r="V11" s="20"/>
       <c r="W11" t="str">
-        <f>IF(S11+Q11=D11,"EQUAL","DIFFER")</f>
+        <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
       <c r="X11" t="str">
-        <f>IF(T11+R11=G11,"EQUAL","DIFFER")</f>
+        <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -5618,34 +5717,34 @@
         <v>7</v>
       </c>
       <c r="E12">
+        <f t="shared" si="7"/>
+        <v>21.75</v>
+      </c>
+      <c r="F12" s="24">
         <f t="shared" si="3"/>
-        <v>21.75</v>
-      </c>
-      <c r="F12" s="24">
-        <f t="shared" si="0"/>
         <v>27.108667028115558</v>
       </c>
       <c r="G12">
         <v>1037</v>
       </c>
       <c r="H12" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4015.9553868794051</v>
       </c>
       <c r="I12" s="4">
-        <f>D12/G12</f>
+        <f t="shared" si="0"/>
         <v>6.7502410800385727E-3</v>
       </c>
       <c r="J12" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.5367965997535938E-2</v>
       </c>
       <c r="K12" s="1">
-        <f>D12+K11</f>
+        <f t="shared" si="5"/>
         <v>280</v>
       </c>
       <c r="L12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6203</v>
       </c>
       <c r="M12" s="20"/>
@@ -5667,11 +5766,11 @@
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
       <c r="W12" t="str">
-        <f>IF(S12+Q12=D12,"EQUAL","DIFFER")</f>
+        <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
       <c r="X12" t="str">
-        <f>IF(T12+R12=G12,"EQUAL","DIFFER")</f>
+        <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -5689,34 +5788,34 @@
         <v>26</v>
       </c>
       <c r="E13">
+        <f t="shared" si="7"/>
+        <v>14.75</v>
+      </c>
+      <c r="F13" s="24">
         <f t="shared" si="3"/>
-        <v>14.75</v>
-      </c>
-      <c r="F13" s="24">
-        <f t="shared" si="0"/>
         <v>100.68933467585781</v>
       </c>
       <c r="G13">
         <v>1590</v>
       </c>
       <c r="H13" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6157.5400821005342</v>
       </c>
       <c r="I13" s="4">
-        <f>D13/G13</f>
+        <f t="shared" si="0"/>
         <v>1.6352201257861635E-2</v>
       </c>
       <c r="J13" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.3402204652808523E-2</v>
       </c>
       <c r="K13" s="1">
-        <f>D13+K12</f>
+        <f t="shared" si="5"/>
         <v>306</v>
       </c>
       <c r="L13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7793</v>
       </c>
       <c r="M13" s="20"/>
@@ -5738,11 +5837,11 @@
       <c r="U13" s="20"/>
       <c r="V13" s="20"/>
       <c r="W13" t="str">
-        <f>IF(S13+Q13=D13,"EQUAL","DIFFER")</f>
+        <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
       <c r="X13" t="str">
-        <f>IF(T13+R13=G13,"EQUAL","DIFFER")</f>
+        <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -5760,34 +5859,34 @@
         <v>173</v>
       </c>
       <c r="E14">
+        <f t="shared" si="7"/>
+        <v>53.25</v>
+      </c>
+      <c r="F14" s="24">
         <f t="shared" si="3"/>
-        <v>53.25</v>
-      </c>
-      <c r="F14" s="24">
-        <f t="shared" si="0"/>
         <v>669.97134226628464</v>
       </c>
       <c r="G14">
         <v>2188</v>
       </c>
       <c r="H14" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8473.3947796452649</v>
       </c>
       <c r="I14" s="4">
-        <f>D14/G14</f>
+        <f t="shared" si="0"/>
         <v>7.906764168190128E-2</v>
       </c>
       <c r="J14" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.7777514619254332E-2</v>
       </c>
       <c r="K14" s="1">
-        <f>D14+K13</f>
+        <f t="shared" si="5"/>
         <v>479</v>
       </c>
       <c r="L14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>9981</v>
       </c>
       <c r="M14">
@@ -5815,19 +5914,19 @@
         <v>1671</v>
       </c>
       <c r="U14" t="str">
-        <f>IF(M14+O14=D14,"EQUAL","DIFFER")</f>
+        <f t="shared" ref="U14:U23" si="9">IF(M14+O14=D14,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="V14" t="str">
-        <f>IF(N14+P14=G14,"EQUAL","DIFFER")</f>
+        <f t="shared" ref="V14:V23" si="10">IF(N14+P14=G14,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="W14" t="str">
-        <f>IF(S14+Q14=D14,"EQUAL","DIFFER")</f>
+        <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
       <c r="X14" t="str">
-        <f>IF(T14+R14=G14,"EQUAL","DIFFER")</f>
+        <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -5845,34 +5944,34 @@
         <v>861</v>
       </c>
       <c r="E15">
+        <f t="shared" si="7"/>
+        <v>266.75</v>
+      </c>
+      <c r="F15" s="24">
         <f t="shared" si="3"/>
-        <v>266.75</v>
-      </c>
-      <c r="F15" s="24">
-        <f t="shared" si="0"/>
         <v>3334.3660444582138</v>
       </c>
       <c r="G15">
         <v>6986</v>
       </c>
       <c r="H15" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>27054.449694059331</v>
       </c>
       <c r="I15" s="4">
-        <f>D15/G15</f>
+        <f t="shared" si="0"/>
         <v>0.12324649298597194</v>
       </c>
       <c r="J15" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.6354144251443361E-2</v>
       </c>
       <c r="K15" s="1">
-        <f>D15+K14</f>
+        <f t="shared" si="5"/>
         <v>1340</v>
       </c>
       <c r="L15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>16967</v>
       </c>
       <c r="M15">
@@ -5900,19 +5999,19 @@
         <v>6346</v>
       </c>
       <c r="U15" t="str">
-        <f>IF(M15+O15=D15,"EQUAL","DIFFER")</f>
+        <f t="shared" si="9"/>
         <v>EQUAL</v>
       </c>
       <c r="V15" t="str">
-        <f>IF(N15+P15=G15,"EQUAL","DIFFER")</f>
+        <f t="shared" si="10"/>
         <v>EQUAL</v>
       </c>
       <c r="W15" t="str">
-        <f>IF(S15+Q15=D15,"EQUAL","DIFFER")</f>
+        <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
       <c r="X15" t="str">
-        <f>IF(T15+R15=G15,"EQUAL","DIFFER")</f>
+        <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -5930,34 +6029,34 @@
         <v>487</v>
       </c>
       <c r="E16">
+        <f t="shared" si="7"/>
+        <v>386.75</v>
+      </c>
+      <c r="F16" s="24">
         <f t="shared" si="3"/>
-        <v>386.75</v>
-      </c>
-      <c r="F16" s="24">
-        <f t="shared" si="0"/>
         <v>1885.9886918131826</v>
       </c>
       <c r="G16">
         <v>9254</v>
       </c>
       <c r="H16" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>35837.65781116877</v>
       </c>
       <c r="I16" s="4">
-        <f>D16/G16</f>
+        <f t="shared" si="0"/>
         <v>5.2625891506375623E-2</v>
       </c>
       <c r="J16" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.7823056858027628E-2</v>
       </c>
       <c r="K16" s="1">
-        <f>D16+K15</f>
+        <f t="shared" si="5"/>
         <v>1827</v>
       </c>
       <c r="L16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>26221</v>
       </c>
       <c r="M16">
@@ -5985,19 +6084,19 @@
         <v>8297</v>
       </c>
       <c r="U16" t="str">
-        <f>IF(M16+O16=D16,"EQUAL","DIFFER")</f>
+        <f t="shared" si="9"/>
         <v>EQUAL</v>
       </c>
       <c r="V16" t="str">
-        <f>IF(N16+P16=G16,"EQUAL","DIFFER")</f>
+        <f t="shared" si="10"/>
         <v>EQUAL</v>
       </c>
       <c r="W16" t="str">
-        <f>IF(S16+Q16=D16,"EQUAL","DIFFER")</f>
+        <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
       <c r="X16" t="str">
-        <f>IF(T16+R16=G16,"EQUAL","DIFFER")</f>
+        <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -6015,34 +6114,34 @@
         <v>858</v>
       </c>
       <c r="E17">
+        <f t="shared" si="7"/>
+        <v>594.75</v>
+      </c>
+      <c r="F17" s="24">
         <f t="shared" si="3"/>
-        <v>594.75</v>
-      </c>
-      <c r="F17" s="24">
-        <f t="shared" si="0"/>
         <v>3322.7480443033073</v>
       </c>
       <c r="G17">
         <v>19442</v>
       </c>
       <c r="H17" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>75292.386337231816</v>
       </c>
       <c r="I17" s="4">
-        <f>D17/G17</f>
+        <f t="shared" si="0"/>
         <v>4.4131262215821421E-2</v>
       </c>
       <c r="J17" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.4767822097517575E-2</v>
       </c>
       <c r="K17" s="1">
-        <f>D17+K16</f>
+        <f t="shared" si="5"/>
         <v>2685</v>
       </c>
       <c r="L17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>45663</v>
       </c>
       <c r="M17">
@@ -6070,19 +6169,19 @@
         <v>18521</v>
       </c>
       <c r="U17" t="str">
-        <f>IF(M17+O17=D17,"EQUAL","DIFFER")</f>
+        <f t="shared" si="9"/>
         <v>EQUAL</v>
       </c>
       <c r="V17" t="str">
-        <f>IF(N17+P17=G17,"EQUAL","DIFFER")</f>
+        <f t="shared" si="10"/>
         <v>EQUAL</v>
       </c>
       <c r="W17" t="str">
-        <f>IF(S17+Q17=D17,"EQUAL","DIFFER")</f>
+        <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
       <c r="X17" t="str">
-        <f>IF(T17+R17=G17,"EQUAL","DIFFER")</f>
+        <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -6100,34 +6199,34 @@
         <v>486</v>
       </c>
       <c r="E18">
+        <f t="shared" si="7"/>
+        <v>673</v>
+      </c>
+      <c r="F18" s="24">
         <f t="shared" si="3"/>
-        <v>673</v>
-      </c>
-      <c r="F18" s="24">
-        <f t="shared" si="0"/>
         <v>1882.1160250948803</v>
       </c>
       <c r="G18" s="9">
         <v>7698</v>
       </c>
       <c r="H18" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>29811.788397490513</v>
       </c>
       <c r="I18" s="4">
-        <f>D18/G18</f>
+        <f t="shared" si="0"/>
         <v>6.313328137178488E-2</v>
       </c>
       <c r="J18" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.0784232019988472E-2</v>
       </c>
       <c r="K18" s="1">
-        <f>D18+K17</f>
+        <f t="shared" si="5"/>
         <v>3171</v>
       </c>
       <c r="L18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>53361</v>
       </c>
       <c r="M18">
@@ -6155,19 +6254,19 @@
         <v>7265</v>
       </c>
       <c r="U18" t="str">
-        <f>IF(M18+O18=D18,"EQUAL","DIFFER")</f>
+        <f t="shared" si="9"/>
         <v>EQUAL</v>
       </c>
       <c r="V18" t="str">
-        <f>IF(N18+P18=G18,"EQUAL","DIFFER")</f>
+        <f t="shared" si="10"/>
         <v>EQUAL</v>
       </c>
       <c r="W18" t="str">
-        <f>IF(S18+Q18=D18,"EQUAL","DIFFER")</f>
+        <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
       <c r="X18" t="str">
-        <f>IF(T18+R18=G18,"EQUAL","DIFFER")</f>
+        <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
     </row>
@@ -6185,34 +6284,34 @@
         <v>588</v>
       </c>
       <c r="E19">
+        <f t="shared" si="7"/>
+        <v>604.75</v>
+      </c>
+      <c r="F19" s="24">
         <f t="shared" si="3"/>
-        <v>604.75</v>
-      </c>
-      <c r="F19" s="24">
-        <f t="shared" si="0"/>
         <v>2277.1280303617073</v>
       </c>
       <c r="G19" s="9">
         <v>8729</v>
       </c>
       <c r="H19" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>33804.507784060108</v>
       </c>
       <c r="I19" s="4">
-        <f>D19/G19</f>
+        <f t="shared" si="0"/>
         <v>6.7361668003207698E-2</v>
       </c>
       <c r="J19" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.6813025774297407E-2</v>
       </c>
       <c r="K19" s="1">
-        <f>D19+K18</f>
+        <f t="shared" si="5"/>
         <v>3759</v>
       </c>
       <c r="L19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>62090</v>
       </c>
       <c r="M19">
@@ -6240,19 +6339,19 @@
         <v>8047</v>
       </c>
       <c r="U19" t="str">
-        <f>IF(M19+O19=D19,"EQUAL","DIFFER")</f>
+        <f t="shared" si="9"/>
         <v>EQUAL</v>
       </c>
       <c r="V19" t="str">
-        <f>IF(N19+P19=G19,"EQUAL","DIFFER")</f>
+        <f t="shared" si="10"/>
         <v>EQUAL</v>
       </c>
       <c r="W19" t="str">
-        <f>IF(S19+Q19=D19,"EQUAL","DIFFER")</f>
+        <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
       <c r="X19" t="str">
-        <f t="shared" ref="X19:X23" si="5">IF(T19+R19=G19,"EQUAL","DIFFER")</f>
+        <f t="shared" ref="X19:X23" si="11">IF(T19+R19=G19,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
     </row>
@@ -6270,51 +6369,75 @@
         <v>407</v>
       </c>
       <c r="E20">
+        <f t="shared" si="7"/>
+        <v>584.75</v>
+      </c>
+      <c r="F20" s="24">
         <f t="shared" si="3"/>
-        <v>584.75</v>
-      </c>
-      <c r="F20" s="24">
-        <f t="shared" si="0"/>
         <v>1576.1753543490047</v>
       </c>
       <c r="G20" s="9">
         <v>9224</v>
       </c>
       <c r="H20" s="9">
+        <f t="shared" si="4"/>
+        <v>35721.477809619704</v>
+      </c>
+      <c r="I20" s="4">
+        <f t="shared" si="0"/>
+        <v>4.4124024284475281E-2</v>
+      </c>
+      <c r="J20" s="13">
+        <f t="shared" si="8"/>
+        <v>5.4687558968822318E-2</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="5"/>
+        <v>4166</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="6"/>
+        <v>71314</v>
+      </c>
+      <c r="M20">
+        <v>35</v>
+      </c>
+      <c r="N20">
+        <v>96</v>
+      </c>
+      <c r="O20">
+        <v>372</v>
+      </c>
+      <c r="P20">
+        <v>9128</v>
+      </c>
+      <c r="Q20">
+        <v>6</v>
+      </c>
+      <c r="R20">
+        <v>1168</v>
+      </c>
+      <c r="S20">
+        <v>401</v>
+      </c>
+      <c r="T20">
+        <v>8056</v>
+      </c>
+      <c r="U20" t="str">
+        <f t="shared" si="9"/>
+        <v>EQUAL</v>
+      </c>
+      <c r="V20" t="str">
+        <f t="shared" si="10"/>
+        <v>EQUAL</v>
+      </c>
+      <c r="W20" t="str">
         <f t="shared" si="1"/>
-        <v>35721.477809619704</v>
-      </c>
-      <c r="I20" s="4">
-        <f>D20/G20</f>
-        <v>4.4124024284475281E-2</v>
-      </c>
-      <c r="J20" s="13">
-        <f t="shared" si="4"/>
-        <v>5.4687558968822318E-2</v>
-      </c>
-      <c r="K20" s="1">
-        <f>D20+K19</f>
-        <v>4166</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="2"/>
-        <v>71314</v>
-      </c>
-      <c r="U20" t="str">
-        <f>IF(M20+O20=D20,"EQUAL","DIFFER")</f>
-        <v>DIFFER</v>
-      </c>
-      <c r="V20" t="str">
-        <f>IF(N20+P20=G20,"EQUAL","DIFFER")</f>
-        <v>DIFFER</v>
-      </c>
-      <c r="W20" t="str">
-        <f>IF(S20+Q20=D20,"EQUAL","DIFFER")</f>
-        <v>DIFFER</v>
+        <v>EQUAL</v>
       </c>
       <c r="X20" t="str">
-        <f t="shared" si="5"/>
-        <v>DIFFER</v>
+        <f t="shared" si="11"/>
+        <v>EQUAL</v>
       </c>
     </row>
     <row r="21" spans="1:24">
@@ -6331,51 +6454,75 @@
         <v>249</v>
       </c>
       <c r="E21">
+        <f t="shared" si="7"/>
+        <v>432.5</v>
+      </c>
+      <c r="F21" s="24">
         <f t="shared" si="3"/>
-        <v>432.5</v>
-      </c>
-      <c r="F21" s="24">
-        <f t="shared" si="0"/>
         <v>964.29401285725351</v>
       </c>
       <c r="G21" s="9">
-        <v>9032</v>
+        <v>9033</v>
       </c>
       <c r="H21" s="9">
+        <f t="shared" si="4"/>
+        <v>34981.798466423978</v>
+      </c>
+      <c r="I21" s="4">
+        <f t="shared" si="0"/>
+        <v>2.7565592826303553E-2</v>
+      </c>
+      <c r="J21" s="13">
+        <f t="shared" si="8"/>
+        <v>5.0546141621442851E-2</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="5"/>
+        <v>4415</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="6"/>
+        <v>80347</v>
+      </c>
+      <c r="M21">
+        <v>29</v>
+      </c>
+      <c r="N21">
+        <v>96</v>
+      </c>
+      <c r="O21">
+        <v>220</v>
+      </c>
+      <c r="P21">
+        <v>8937</v>
+      </c>
+      <c r="Q21">
+        <v>14</v>
+      </c>
+      <c r="R21">
+        <v>1057</v>
+      </c>
+      <c r="S21">
+        <v>235</v>
+      </c>
+      <c r="T21">
+        <v>7976</v>
+      </c>
+      <c r="U21" t="str">
+        <f t="shared" si="9"/>
+        <v>EQUAL</v>
+      </c>
+      <c r="V21" t="str">
+        <f t="shared" si="10"/>
+        <v>EQUAL</v>
+      </c>
+      <c r="W21" t="str">
         <f t="shared" si="1"/>
-        <v>34977.925799705677</v>
-      </c>
-      <c r="I21" s="4">
-        <f>D21/G21</f>
-        <v>2.7568644818423384E-2</v>
-      </c>
-      <c r="J21" s="13">
-        <f t="shared" si="4"/>
-        <v>5.054690461947281E-2</v>
-      </c>
-      <c r="K21" s="1">
-        <f>D21+K20</f>
-        <v>4415</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="2"/>
-        <v>80346</v>
-      </c>
-      <c r="U21" t="str">
-        <f>IF(M21+O21=D21,"EQUAL","DIFFER")</f>
-        <v>DIFFER</v>
-      </c>
-      <c r="V21" t="str">
-        <f>IF(N21+P21=G21,"EQUAL","DIFFER")</f>
-        <v>DIFFER</v>
-      </c>
-      <c r="W21" t="str">
-        <f>IF(S21+Q21=D21,"EQUAL","DIFFER")</f>
-        <v>DIFFER</v>
+        <v>EQUAL</v>
       </c>
       <c r="X21" t="str">
-        <f t="shared" si="5"/>
-        <v>DIFFER</v>
+        <f t="shared" si="11"/>
+        <v>EQUAL</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -6389,54 +6536,78 @@
         <v>44128</v>
       </c>
       <c r="D22">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E22">
         <f>AVERAGE(D19:D22)</f>
-        <v>349.5</v>
+        <v>350</v>
       </c>
       <c r="F22" s="24">
-        <f t="shared" si="0"/>
-        <v>596.39067461854233</v>
+        <f t="shared" si="3"/>
+        <v>604.1360080551467</v>
       </c>
       <c r="G22" s="9">
-        <v>10423</v>
+        <v>10436</v>
       </c>
       <c r="H22" s="9">
+        <f t="shared" si="4"/>
+        <v>40415.149872201997</v>
+      </c>
+      <c r="I22" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4948256036795707E-2</v>
+      </c>
+      <c r="J22" s="13">
+        <f t="shared" si="8"/>
+        <v>3.8499885287695559E-2</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="5"/>
+        <v>4571</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="6"/>
+        <v>90783</v>
+      </c>
+      <c r="M22">
+        <v>12</v>
+      </c>
+      <c r="N22">
+        <v>57</v>
+      </c>
+      <c r="O22">
+        <v>144</v>
+      </c>
+      <c r="P22">
+        <v>10379</v>
+      </c>
+      <c r="Q22">
+        <v>22</v>
+      </c>
+      <c r="R22">
+        <v>1488</v>
+      </c>
+      <c r="S22">
+        <v>134</v>
+      </c>
+      <c r="T22">
+        <v>8948</v>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" si="9"/>
+        <v>EQUAL</v>
+      </c>
+      <c r="V22" t="str">
+        <f t="shared" si="10"/>
+        <v>EQUAL</v>
+      </c>
+      <c r="W22" t="str">
         <f t="shared" si="1"/>
-        <v>40364.805204864067</v>
-      </c>
-      <c r="I22" s="4">
-        <f>D22/G22</f>
-        <v>1.4775016789791807E-2</v>
-      </c>
-      <c r="J22" s="13">
-        <f t="shared" si="4"/>
-        <v>3.8457338473974548E-2</v>
-      </c>
-      <c r="K22" s="1">
-        <f>D22+K21</f>
-        <v>4569</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="2"/>
-        <v>90769</v>
-      </c>
-      <c r="U22" t="str">
-        <f>IF(M22+O22=D22,"EQUAL","DIFFER")</f>
-        <v>DIFFER</v>
-      </c>
-      <c r="V22" t="str">
-        <f>IF(N22+P22=G22,"EQUAL","DIFFER")</f>
-        <v>DIFFER</v>
-      </c>
-      <c r="W22" t="str">
-        <f>IF(S22+Q22=D22,"EQUAL","DIFFER")</f>
-        <v>DIFFER</v>
+        <v>EQUAL</v>
       </c>
       <c r="X22" t="str">
-        <f t="shared" si="5"/>
-        <v>DIFFER</v>
+        <f t="shared" si="11"/>
+        <v>EQUAL</v>
       </c>
     </row>
     <row r="23" spans="1:24">
@@ -6447,57 +6618,81 @@
         <v>28</v>
       </c>
       <c r="C23" s="30">
-        <v>44133</v>
+        <v>44135</v>
       </c>
       <c r="D23">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="E23">
+        <f t="shared" si="7"/>
+        <v>225</v>
+      </c>
+      <c r="F23" s="24">
         <f t="shared" si="3"/>
-        <v>218.25</v>
-      </c>
-      <c r="F23" s="24">
-        <f t="shared" si="0"/>
-        <v>243.97800325304007</v>
+        <v>340.7946712105956</v>
       </c>
       <c r="G23" s="9">
-        <v>7384</v>
+        <v>9624</v>
       </c>
       <c r="H23" s="9">
+        <f t="shared" si="4"/>
+        <v>37270.544496940594</v>
+      </c>
+      <c r="I23" s="4">
+        <f t="shared" si="0"/>
+        <v>9.14380714879468E-3</v>
+      </c>
+      <c r="J23" s="13">
+        <f t="shared" si="8"/>
+        <v>2.3945420074092307E-2</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="5"/>
+        <v>4659</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="6"/>
+        <v>100407</v>
+      </c>
+      <c r="M23">
+        <v>4</v>
+      </c>
+      <c r="N23">
+        <v>51</v>
+      </c>
+      <c r="O23">
+        <v>84</v>
+      </c>
+      <c r="P23">
+        <v>9573</v>
+      </c>
+      <c r="Q23">
+        <v>6</v>
+      </c>
+      <c r="R23">
+        <v>1434</v>
+      </c>
+      <c r="S23">
+        <v>82</v>
+      </c>
+      <c r="T23">
+        <v>8190</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" si="9"/>
+        <v>EQUAL</v>
+      </c>
+      <c r="V23" t="str">
+        <f t="shared" si="10"/>
+        <v>EQUAL</v>
+      </c>
+      <c r="W23" t="str">
         <f t="shared" si="1"/>
-        <v>28595.771047943614</v>
-      </c>
-      <c r="I23" s="4">
-        <f>D23/G23</f>
-        <v>8.5319609967497295E-3</v>
-      </c>
-      <c r="J23" s="13">
-        <f t="shared" si="4"/>
-        <v>2.3749911722360049E-2</v>
-      </c>
-      <c r="K23" s="1">
-        <f>D23+K22</f>
-        <v>4632</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="2"/>
-        <v>98153</v>
-      </c>
-      <c r="U23" t="str">
-        <f>IF(M23+O23=D23,"EQUAL","DIFFER")</f>
-        <v>DIFFER</v>
-      </c>
-      <c r="V23" t="str">
-        <f>IF(N23+P23=G23,"EQUAL","DIFFER")</f>
-        <v>DIFFER</v>
-      </c>
-      <c r="W23" t="str">
-        <f>IF(S23+Q23=D23,"EQUAL","DIFFER")</f>
-        <v>DIFFER</v>
+        <v>EQUAL</v>
       </c>
       <c r="X23" t="str">
-        <f t="shared" si="5"/>
-        <v>DIFFER</v>
+        <f t="shared" si="11"/>
+        <v>EQUAL</v>
       </c>
     </row>
     <row r="24" spans="1:24">
@@ -6538,10 +6733,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE67BA8-2D94-544F-9655-C971E88AFA0C}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView zoomScale="124" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6606,7 +6801,7 @@
         <v>289</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D11" si="0">B5+C5</f>
+        <f t="shared" ref="D5:D13" si="0">B5+C5</f>
         <v>532</v>
       </c>
     </row>
@@ -6698,6 +6893,21 @@
       <c r="D11">
         <f t="shared" si="0"/>
         <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
+        <v>44137</v>
+      </c>
+      <c r="B12" s="9">
+        <v>42</v>
+      </c>
+      <c r="C12">
+        <v>40</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/clemsonDashboard.xlsx
+++ b/clemsonDashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidferrara/Documents/Clemson/The Tiger/COVID-19/Data/ttn-clemson-covid-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325C45C1-20E2-CF4C-8F21-715AAFC96190}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5E2068-DB46-6E4D-9692-DB80932DA2D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="460" windowWidth="28040" windowHeight="16260" xr2:uid="{663FE1B6-0B7E-E04A-924C-6AB15F4F5852}"/>
+    <workbookView xWindow="340" yWindow="460" windowWidth="28040" windowHeight="16260" activeTab="1" xr2:uid="{663FE1B6-0B7E-E04A-924C-6AB15F4F5852}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Data" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -800,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2018E299-360B-F244-BDDD-9B449D0B7C0F}">
   <dimension ref="A1:X71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4895,8 +4895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D56922A-034D-7E4D-80AB-A29316427207}">
   <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5025,7 +5025,7 @@
         <v>158.77933545039113</v>
       </c>
       <c r="I2" s="4">
-        <f t="shared" ref="I2:I23" si="0">D2/G2</f>
+        <f t="shared" ref="I2:I24" si="0">D2/G2</f>
         <v>2.4390243902439025E-2</v>
       </c>
       <c r="J2" s="23"/>
@@ -5082,14 +5082,14 @@
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="24">
-        <f t="shared" ref="F3:F23" si="3">(D3/25822)*100000</f>
+        <f t="shared" ref="F3:F24" si="3">(D3/25822)*100000</f>
         <v>15.490666873208893</v>
       </c>
       <c r="G3">
         <v>143</v>
       </c>
       <c r="H3" s="9">
-        <f t="shared" ref="H3:H23" si="4">(G3/25822)*100000</f>
+        <f t="shared" ref="H3:H24" si="4">(G3/25822)*100000</f>
         <v>553.79134071721785</v>
       </c>
       <c r="I3" s="4">
@@ -5098,7 +5098,7 @@
       </c>
       <c r="J3" s="23"/>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K23" si="5">D3+K2</f>
+        <f t="shared" ref="K3:K24" si="5">D3+K2</f>
         <v>5</v>
       </c>
       <c r="L3">
@@ -5170,7 +5170,7 @@
         <v>92</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L23" si="6">G4+L3</f>
+        <f t="shared" ref="L4:L24" si="6">G4+L3</f>
         <v>461</v>
       </c>
       <c r="M4" s="20"/>
@@ -5288,7 +5288,7 @@
         <v>29</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E23" si="7">AVERAGE(D3:D6)</f>
+        <f t="shared" ref="E6:E24" si="7">AVERAGE(D3:D6)</f>
         <v>41.5</v>
       </c>
       <c r="F6" s="24">
@@ -5307,7 +5307,7 @@
         <v>0.19463087248322147</v>
       </c>
       <c r="J6" s="13">
-        <f t="shared" ref="J6:J23" si="8">AVERAGE(I3:I6)</f>
+        <f t="shared" ref="J6:J24" si="8">AVERAGE(I3:I6)</f>
         <v>0.17276118473632587</v>
       </c>
       <c r="K6" s="1">
@@ -6356,13 +6356,13 @@
       </c>
     </row>
     <row r="20" spans="1:24">
-      <c r="A20" s="26">
+      <c r="A20" s="5">
         <v>44108</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C20" s="28">
         <v>44114</v>
       </c>
       <c r="D20">
@@ -6696,9 +6696,89 @@
       </c>
     </row>
     <row r="24" spans="1:24">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="A24" s="26">
+        <v>44136</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="26">
+        <v>44142</v>
+      </c>
+      <c r="D24">
+        <v>77</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="7"/>
+        <v>142.5</v>
+      </c>
+      <c r="F24" s="24">
+        <f t="shared" si="3"/>
+        <v>298.19533730927117</v>
+      </c>
+      <c r="G24" s="9">
+        <v>4938</v>
+      </c>
+      <c r="H24" s="9">
+        <f t="shared" si="4"/>
+        <v>19123.228254976377</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5593357634669907E-2</v>
+      </c>
+      <c r="J24" s="13">
+        <f t="shared" si="8"/>
+        <v>1.6812753411640961E-2</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="5"/>
+        <v>4736</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="6"/>
+        <v>105345</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>24</v>
+      </c>
+      <c r="O24">
+        <v>75</v>
+      </c>
+      <c r="P24">
+        <v>4914</v>
+      </c>
+      <c r="Q24">
+        <v>6</v>
+      </c>
+      <c r="R24">
+        <v>881</v>
+      </c>
+      <c r="S24">
+        <v>71</v>
+      </c>
+      <c r="T24">
+        <v>4057</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" ref="U24" si="12">IF(M24+O24=D24,"EQUAL","DIFFER")</f>
+        <v>EQUAL</v>
+      </c>
+      <c r="V24" t="str">
+        <f t="shared" ref="V24" si="13">IF(N24+P24=G24,"EQUAL","DIFFER")</f>
+        <v>EQUAL</v>
+      </c>
+      <c r="W24" t="str">
+        <f t="shared" ref="W24" si="14">IF(S24+Q24=D24,"EQUAL","DIFFER")</f>
+        <v>EQUAL</v>
+      </c>
+      <c r="X24" t="str">
+        <f t="shared" ref="X24" si="15">IF(T24+R24=G24,"EQUAL","DIFFER")</f>
+        <v>EQUAL</v>
+      </c>
     </row>
     <row r="25" spans="1:24">
       <c r="A25" s="2"/>
@@ -6725,7 +6805,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="E5:E23" formulaRange="1"/>
+    <ignoredError sqref="E5:E24" formulaRange="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -6733,10 +6813,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE67BA8-2D94-544F-9655-C971E88AFA0C}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView zoomScale="124" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6910,6 +6990,21 @@
         <v>82</v>
       </c>
     </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
+        <v>44140</v>
+      </c>
+      <c r="B13" s="9">
+        <v>38</v>
+      </c>
+      <c r="C13">
+        <v>36</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/clemsonDashboard.xlsx
+++ b/clemsonDashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidferrara/Documents/Clemson/The Tiger/COVID-19/Data/ttn-clemson-covid-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5E2068-DB46-6E4D-9692-DB80932DA2D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA86DA6-1FFD-2842-9DB0-D4212C014C82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="460" windowWidth="28040" windowHeight="16260" activeTab="1" xr2:uid="{663FE1B6-0B7E-E04A-924C-6AB15F4F5852}"/>
   </bookViews>
@@ -4896,7 +4896,7 @@
   <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/clemsonDashboard.xlsx
+++ b/clemsonDashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidferrara/Documents/Clemson/The Tiger/COVID-19/Data/ttn-clemson-covid-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA86DA6-1FFD-2842-9DB0-D4212C014C82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DAF02B-CBC9-5245-B9A8-B0A36BE0FFD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="460" windowWidth="28040" windowHeight="16260" activeTab="1" xr2:uid="{663FE1B6-0B7E-E04A-924C-6AB15F4F5852}"/>
   </bookViews>
@@ -40,7 +40,7 @@
     <author>David Ferrara</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{EC62B871-9C18-4743-82CE-15ABB4BFA0D9}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{EC62B871-9C18-4743-82CE-15ABB4BFA0D9}">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -257,6 +257,12 @@
   <si>
     <t>Tests per Capita (100k)</t>
   </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>CU</t>
+  </si>
 </sst>
 </file>
 
@@ -374,7 +380,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -420,6 +426,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4893,10 +4902,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D56922A-034D-7E4D-80AB-A29316427207}">
-  <dimension ref="A1:Z25"/>
+  <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D2" sqref="D2:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4904,28 +4913,29 @@
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="3.1640625" customWidth="1"/>
     <col min="3" max="3" width="8.83203125" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.1640625" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.6640625" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.83203125" customWidth="1"/>
-    <col min="13" max="13" width="27" customWidth="1"/>
-    <col min="14" max="14" width="22.33203125" customWidth="1"/>
-    <col min="15" max="16" width="23.6640625" customWidth="1"/>
-    <col min="17" max="17" width="16" customWidth="1"/>
-    <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="19" max="19" width="14.6640625" customWidth="1"/>
-    <col min="20" max="20" width="12.1640625" customWidth="1"/>
-    <col min="21" max="21" width="17.1640625" customWidth="1"/>
-    <col min="22" max="22" width="14.6640625" customWidth="1"/>
-    <col min="23" max="23" width="16.6640625" customWidth="1"/>
-    <col min="24" max="24" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="21.5" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.83203125" customWidth="1"/>
+    <col min="14" max="14" width="27" customWidth="1"/>
+    <col min="15" max="15" width="22.33203125" customWidth="1"/>
+    <col min="16" max="17" width="23.6640625" customWidth="1"/>
+    <col min="18" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="14" customWidth="1"/>
+    <col min="20" max="20" width="14.6640625" customWidth="1"/>
+    <col min="21" max="21" width="12.1640625" customWidth="1"/>
+    <col min="22" max="22" width="17.1640625" customWidth="1"/>
+    <col min="23" max="23" width="14.6640625" customWidth="1"/>
+    <col min="24" max="24" width="16.6640625" customWidth="1"/>
+    <col min="25" max="25" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="17" customHeight="1">
+    <row r="1" spans="1:27" ht="17" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -4936,70 +4946,73 @@
         <v>26</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="17" customHeight="1">
+    <row r="2" spans="1:27" ht="17" customHeight="1">
       <c r="A2" s="25">
         <v>43987</v>
       </c>
@@ -5009,65 +5022,68 @@
       <c r="C2" s="27">
         <v>43988</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="9">
         <v>1</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="24">
-        <f>(D2/25822)*100000</f>
+      <c r="F2" s="20"/>
+      <c r="G2" s="24">
+        <f>(E2/25822)*100000</f>
         <v>3.8726667183022232</v>
       </c>
-      <c r="G2" s="9">
+      <c r="H2" s="9">
         <v>41</v>
       </c>
-      <c r="H2" s="9">
-        <f>(G2/25822)*100000</f>
+      <c r="I2" s="9">
+        <f>(H2/25822)*100000</f>
         <v>158.77933545039113</v>
       </c>
-      <c r="I2" s="4">
-        <f t="shared" ref="I2:I24" si="0">D2/G2</f>
+      <c r="J2" s="4">
+        <f t="shared" ref="J2:J24" si="0">E2/H2</f>
         <v>2.4390243902439025E-2</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="14">
-        <f>D2</f>
+      <c r="K2" s="23"/>
+      <c r="L2" s="14">
+        <f>E2</f>
         <v>1</v>
       </c>
-      <c r="L2" s="9">
-        <f>G2</f>
+      <c r="M2" s="9">
+        <f>H2</f>
         <v>41</v>
       </c>
-      <c r="M2" s="21"/>
       <c r="N2" s="21"/>
       <c r="O2" s="21"/>
       <c r="P2" s="21"/>
-      <c r="Q2">
+      <c r="Q2" s="21"/>
+      <c r="R2">
         <v>0</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>32</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>1</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>9</v>
       </c>
-      <c r="U2" s="20"/>
       <c r="V2" s="20"/>
-      <c r="W2" t="str">
-        <f t="shared" ref="W2:W23" si="1">IF(S2+Q2=D2,"EQUAL","DIFFER")</f>
-        <v>EQUAL</v>
-      </c>
+      <c r="W2" s="20"/>
       <c r="X2" t="str">
-        <f t="shared" ref="X2:X18" si="2">IF(T2+R2=G2,"EQUAL","DIFFER")</f>
-        <v>EQUAL</v>
-      </c>
-      <c r="Z2" t="s">
+        <f t="shared" ref="X2:X23" si="1">IF(T2+R2=E2,"EQUAL","DIFFER")</f>
+        <v>EQUAL</v>
+      </c>
+      <c r="Y2" t="str">
+        <f t="shared" ref="Y2:Y18" si="2">IF(U2+S2=H2,"EQUAL","DIFFER")</f>
+        <v>EQUAL</v>
+      </c>
+      <c r="AA2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:27">
       <c r="A3" s="5">
         <v>43989</v>
       </c>
@@ -5077,65 +5093,68 @@
       <c r="C3" s="28">
         <v>43995</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3">
         <v>4</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="24">
-        <f t="shared" ref="F3:F24" si="3">(D3/25822)*100000</f>
+      <c r="F3" s="20"/>
+      <c r="G3" s="24">
+        <f t="shared" ref="G3:G24" si="3">(E3/25822)*100000</f>
         <v>15.490666873208893</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>143</v>
       </c>
-      <c r="H3" s="9">
-        <f t="shared" ref="H3:H24" si="4">(G3/25822)*100000</f>
+      <c r="I3" s="9">
+        <f t="shared" ref="I3:I24" si="4">(H3/25822)*100000</f>
         <v>553.79134071721785</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <f t="shared" si="0"/>
         <v>2.7972027972027972E-2</v>
       </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="1">
-        <f t="shared" ref="K3:K24" si="5">D3+K2</f>
+      <c r="K3" s="23"/>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L24" si="5">E3+L2</f>
         <v>5</v>
       </c>
-      <c r="L3">
-        <f>G3+L2</f>
+      <c r="M3">
+        <f>H3+M2</f>
         <v>184</v>
       </c>
-      <c r="M3" s="20"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
       <c r="P3" s="20"/>
-      <c r="Q3" s="9">
+      <c r="Q3" s="20"/>
+      <c r="R3" s="9">
         <v>0</v>
       </c>
-      <c r="R3" s="9">
+      <c r="S3" s="9">
         <v>2</v>
       </c>
-      <c r="S3" s="9">
+      <c r="T3" s="9">
         <v>4</v>
       </c>
-      <c r="T3" s="9">
+      <c r="U3" s="9">
         <v>141</v>
       </c>
-      <c r="U3" s="20"/>
       <c r="V3" s="20"/>
-      <c r="W3" t="str">
+      <c r="W3" s="20"/>
+      <c r="X3" t="str">
         <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
-      <c r="X3" t="str">
-        <f t="shared" si="2"/>
-        <v>EQUAL</v>
-      </c>
-      <c r="Z3" t="s">
+      <c r="Y3" t="str">
+        <f t="shared" si="2"/>
+        <v>EQUAL</v>
+      </c>
+      <c r="AA3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:27">
       <c r="A4" s="5">
         <v>43996</v>
       </c>
@@ -5145,62 +5164,65 @@
       <c r="C4" s="28">
         <v>44002</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4">
         <v>87</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="24">
+      <c r="F4" s="20"/>
+      <c r="G4" s="24">
         <f t="shared" si="3"/>
         <v>336.92200449229341</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>277</v>
       </c>
-      <c r="H4" s="9">
+      <c r="I4" s="9">
         <f t="shared" si="4"/>
         <v>1072.7286809697157</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <f t="shared" si="0"/>
         <v>0.3140794223826715</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="1">
+      <c r="K4" s="23"/>
+      <c r="L4" s="1">
         <f t="shared" si="5"/>
         <v>92</v>
       </c>
-      <c r="L4">
-        <f t="shared" ref="L4:L24" si="6">G4+L3</f>
+      <c r="M4">
+        <f t="shared" ref="M4:M24" si="6">H4+M3</f>
         <v>461</v>
       </c>
-      <c r="M4" s="20"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
       <c r="P4" s="20"/>
-      <c r="Q4" s="9">
+      <c r="Q4" s="20"/>
+      <c r="R4" s="9">
         <v>2</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>56</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>85</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>221</v>
       </c>
-      <c r="U4" s="20"/>
       <c r="V4" s="20"/>
-      <c r="W4" t="str">
+      <c r="W4" s="20"/>
+      <c r="X4" t="str">
         <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
-      <c r="X4" t="str">
-        <f t="shared" si="2"/>
-        <v>EQUAL</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="Y4" t="str">
+        <f t="shared" si="2"/>
+        <v>EQUAL</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" s="5">
         <v>44003</v>
       </c>
@@ -5210,71 +5232,74 @@
       <c r="C5" s="28">
         <v>44009</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5">
         <v>46</v>
       </c>
-      <c r="E5">
-        <f>AVERAGE(D2:D5)</f>
+      <c r="F5">
+        <f>AVERAGE(E2:E5)</f>
         <v>34.5</v>
       </c>
-      <c r="F5" s="24">
+      <c r="G5" s="24">
         <f t="shared" si="3"/>
         <v>178.14266904190225</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>298</v>
       </c>
-      <c r="H5" s="9">
+      <c r="I5" s="9">
         <f t="shared" si="4"/>
         <v>1154.0546820540624</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <f t="shared" si="0"/>
         <v>0.15436241610738255</v>
       </c>
-      <c r="J5" s="13">
-        <f>AVERAGE(I2:I5)</f>
+      <c r="K5" s="13">
+        <f>AVERAGE(J2:J5)</f>
         <v>0.13020102759113028</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <f t="shared" si="5"/>
         <v>138</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <f t="shared" si="6"/>
         <v>759</v>
       </c>
-      <c r="M5" s="20"/>
       <c r="N5" s="20"/>
       <c r="O5" s="20"/>
       <c r="P5" s="20"/>
-      <c r="Q5">
+      <c r="Q5" s="20"/>
+      <c r="R5">
         <v>1</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>78</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>45</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>220</v>
       </c>
-      <c r="U5" s="20"/>
       <c r="V5" s="20"/>
-      <c r="W5" t="str">
+      <c r="W5" s="20"/>
+      <c r="X5" t="str">
         <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
-      <c r="X5" t="str">
-        <f t="shared" si="2"/>
-        <v>EQUAL</v>
-      </c>
-      <c r="Z5" t="s">
+      <c r="Y5" t="str">
+        <f t="shared" si="2"/>
+        <v>EQUAL</v>
+      </c>
+      <c r="AA5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:27">
       <c r="A6" s="5">
         <v>44010</v>
       </c>
@@ -5284,71 +5309,74 @@
       <c r="C6" s="28">
         <v>44016</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6">
         <v>29</v>
       </c>
-      <c r="E6">
-        <f t="shared" ref="E6:E24" si="7">AVERAGE(D3:D6)</f>
+      <c r="F6">
+        <f t="shared" ref="F6:F24" si="7">AVERAGE(E3:E6)</f>
         <v>41.5</v>
       </c>
-      <c r="F6" s="24">
+      <c r="G6" s="24">
         <f t="shared" si="3"/>
         <v>112.30733483076447</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>149</v>
       </c>
-      <c r="H6" s="9">
+      <c r="I6" s="9">
         <f t="shared" si="4"/>
         <v>577.02734102703118</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <f t="shared" si="0"/>
         <v>0.19463087248322147</v>
       </c>
-      <c r="J6" s="13">
-        <f t="shared" ref="J6:J24" si="8">AVERAGE(I3:I6)</f>
+      <c r="K6" s="13">
+        <f t="shared" ref="K6:K24" si="8">AVERAGE(J3:J6)</f>
         <v>0.17276118473632587</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <f t="shared" si="5"/>
         <v>167</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <f t="shared" si="6"/>
         <v>908</v>
       </c>
-      <c r="M6" s="20"/>
       <c r="N6" s="20"/>
       <c r="O6" s="20"/>
       <c r="P6" s="20"/>
-      <c r="Q6">
+      <c r="Q6" s="20"/>
+      <c r="R6">
         <v>4</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>17</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>25</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>132</v>
       </c>
-      <c r="U6" s="20"/>
       <c r="V6" s="20"/>
-      <c r="W6" t="str">
+      <c r="W6" s="20"/>
+      <c r="X6" t="str">
         <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
-      <c r="X6" t="str">
-        <f t="shared" si="2"/>
-        <v>EQUAL</v>
-      </c>
-      <c r="Z6" t="s">
+      <c r="Y6" t="str">
+        <f t="shared" si="2"/>
+        <v>EQUAL</v>
+      </c>
+      <c r="AA6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:27">
       <c r="A7" s="5">
         <v>44017</v>
       </c>
@@ -5358,68 +5386,71 @@
       <c r="C7" s="28">
         <v>44023</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7">
         <v>15</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <f t="shared" si="7"/>
         <v>44.25</v>
       </c>
-      <c r="F7" s="24">
+      <c r="G7" s="24">
         <f t="shared" si="3"/>
         <v>58.090000774533344</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>280</v>
       </c>
-      <c r="H7" s="9">
+      <c r="I7" s="9">
         <f t="shared" si="4"/>
         <v>1084.3466811246224</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <f t="shared" si="0"/>
         <v>5.3571428571428568E-2</v>
       </c>
-      <c r="J7" s="13">
+      <c r="K7" s="13">
         <f t="shared" si="8"/>
         <v>0.17916103488617602</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <f t="shared" si="5"/>
         <v>182</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <f t="shared" si="6"/>
         <v>1188</v>
       </c>
-      <c r="M7" s="20"/>
       <c r="N7" s="20"/>
       <c r="O7" s="20"/>
       <c r="P7" s="20"/>
-      <c r="Q7">
+      <c r="Q7" s="20"/>
+      <c r="R7">
         <v>3</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>87</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>12</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>193</v>
       </c>
-      <c r="U7" s="20"/>
       <c r="V7" s="20"/>
-      <c r="W7" t="str">
+      <c r="W7" s="20"/>
+      <c r="X7" t="str">
         <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
-      <c r="X7" t="str">
-        <f t="shared" si="2"/>
-        <v>EQUAL</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="Y7" t="str">
+        <f t="shared" si="2"/>
+        <v>EQUAL</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" s="5">
         <v>44024</v>
       </c>
@@ -5429,68 +5460,71 @@
       <c r="C8" s="28">
         <v>44030</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8">
         <v>11</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <f t="shared" si="7"/>
         <v>25.25</v>
       </c>
-      <c r="F8" s="24">
+      <c r="G8" s="24">
         <f t="shared" si="3"/>
         <v>42.599333901324449</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>84</v>
       </c>
-      <c r="H8" s="9">
+      <c r="I8" s="9">
         <f t="shared" si="4"/>
         <v>325.30400433738674</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <f t="shared" si="0"/>
         <v>0.13095238095238096</v>
       </c>
-      <c r="J8" s="13">
+      <c r="K8" s="13">
         <f t="shared" si="8"/>
         <v>0.13337927452860338</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <f t="shared" si="5"/>
         <v>193</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <f t="shared" si="6"/>
         <v>1272</v>
       </c>
-      <c r="M8" s="20"/>
       <c r="N8" s="20"/>
       <c r="O8" s="20"/>
       <c r="P8" s="20"/>
-      <c r="Q8">
+      <c r="Q8" s="20"/>
+      <c r="R8">
         <v>2</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>29</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>9</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>55</v>
       </c>
-      <c r="U8" s="20"/>
       <c r="V8" s="20"/>
-      <c r="W8" t="str">
+      <c r="W8" s="20"/>
+      <c r="X8" t="str">
         <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
-      <c r="X8" t="str">
-        <f t="shared" si="2"/>
-        <v>EQUAL</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="Y8" t="str">
+        <f t="shared" si="2"/>
+        <v>EQUAL</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" s="5">
         <v>44031</v>
       </c>
@@ -5500,68 +5534,71 @@
       <c r="C9" s="28">
         <v>44037</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9">
         <v>54</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <f t="shared" si="7"/>
         <v>27.25</v>
       </c>
-      <c r="F9" s="24">
+      <c r="G9" s="24">
         <f t="shared" si="3"/>
         <v>209.12400278832004</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>2230</v>
       </c>
-      <c r="H9" s="9">
+      <c r="I9" s="9">
         <f t="shared" si="4"/>
         <v>8636.0467818139568</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <f t="shared" si="0"/>
         <v>2.4215246636771302E-2</v>
       </c>
-      <c r="J9" s="13">
+      <c r="K9" s="13">
         <f t="shared" si="8"/>
         <v>0.10084248216095058</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <f t="shared" si="5"/>
         <v>247</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <f t="shared" si="6"/>
         <v>3502</v>
       </c>
-      <c r="M9" s="20"/>
       <c r="N9" s="20"/>
       <c r="O9" s="20"/>
       <c r="P9" s="20"/>
-      <c r="Q9">
+      <c r="Q9" s="20"/>
+      <c r="R9">
         <v>34</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>1649</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>20</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>581</v>
       </c>
-      <c r="U9" s="20"/>
       <c r="V9" s="20"/>
-      <c r="W9" t="str">
+      <c r="W9" s="20"/>
+      <c r="X9" t="str">
         <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
-      <c r="X9" t="str">
-        <f t="shared" si="2"/>
-        <v>EQUAL</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="Y9" t="str">
+        <f t="shared" si="2"/>
+        <v>EQUAL</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" s="5">
         <v>44038</v>
       </c>
@@ -5571,68 +5608,71 @@
       <c r="C10" s="28">
         <v>44044</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10">
         <v>19</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <f t="shared" si="7"/>
         <v>24.75</v>
       </c>
-      <c r="F10" s="24">
+      <c r="G10" s="24">
         <f t="shared" si="3"/>
         <v>73.580667647742231</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>881</v>
       </c>
-      <c r="H10" s="9">
+      <c r="I10" s="9">
         <f t="shared" si="4"/>
         <v>3411.8193788242588</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <f t="shared" si="0"/>
         <v>2.1566401816118047E-2</v>
       </c>
-      <c r="J10" s="13">
+      <c r="K10" s="13">
         <f t="shared" si="8"/>
         <v>5.757636449417472E-2</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
         <f t="shared" si="5"/>
         <v>266</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <f t="shared" si="6"/>
         <v>4383</v>
       </c>
-      <c r="M10" s="20"/>
       <c r="N10" s="20"/>
       <c r="O10" s="20"/>
       <c r="P10" s="20"/>
-      <c r="Q10">
+      <c r="Q10" s="20"/>
+      <c r="R10">
         <v>9</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>590</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>10</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>291</v>
       </c>
-      <c r="U10" s="20"/>
       <c r="V10" s="20"/>
-      <c r="W10" t="str">
+      <c r="W10" s="20"/>
+      <c r="X10" t="str">
         <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
-      <c r="X10" t="str">
-        <f t="shared" si="2"/>
-        <v>EQUAL</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="Y10" t="str">
+        <f t="shared" si="2"/>
+        <v>EQUAL</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" s="5">
         <v>44045</v>
       </c>
@@ -5642,68 +5682,71 @@
       <c r="C11" s="28">
         <v>44051</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11">
         <v>7</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <f t="shared" si="7"/>
         <v>22.75</v>
       </c>
-      <c r="F11" s="24">
+      <c r="G11" s="24">
         <f t="shared" si="3"/>
         <v>27.108667028115558</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>783</v>
       </c>
-      <c r="H11" s="9">
+      <c r="I11" s="9">
         <f t="shared" si="4"/>
         <v>3032.2980404306404</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <f t="shared" si="0"/>
         <v>8.9399744572158362E-3</v>
       </c>
-      <c r="J11" s="13">
+      <c r="K11" s="13">
         <f t="shared" si="8"/>
         <v>4.6418500965621536E-2</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <f t="shared" si="5"/>
         <v>273</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <f t="shared" si="6"/>
         <v>5166</v>
       </c>
-      <c r="M11" s="20"/>
       <c r="N11" s="20"/>
       <c r="O11" s="20"/>
       <c r="P11" s="20"/>
-      <c r="Q11">
+      <c r="Q11" s="20"/>
+      <c r="R11">
         <v>2</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>365</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>5</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>418</v>
       </c>
-      <c r="U11" s="20"/>
       <c r="V11" s="20"/>
-      <c r="W11" t="str">
+      <c r="W11" s="20"/>
+      <c r="X11" t="str">
         <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
-      <c r="X11" t="str">
-        <f t="shared" si="2"/>
-        <v>EQUAL</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="Y11" t="str">
+        <f t="shared" si="2"/>
+        <v>EQUAL</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" s="5">
         <v>44052</v>
       </c>
@@ -5713,68 +5756,71 @@
       <c r="C12" s="28">
         <v>44058</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12">
         <v>7</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <f t="shared" si="7"/>
         <v>21.75</v>
       </c>
-      <c r="F12" s="24">
+      <c r="G12" s="24">
         <f t="shared" si="3"/>
         <v>27.108667028115558</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>1037</v>
       </c>
-      <c r="H12" s="9">
+      <c r="I12" s="9">
         <f t="shared" si="4"/>
         <v>4015.9553868794051</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <f t="shared" si="0"/>
         <v>6.7502410800385727E-3</v>
       </c>
-      <c r="J12" s="13">
+      <c r="K12" s="13">
         <f t="shared" si="8"/>
         <v>1.5367965997535938E-2</v>
       </c>
-      <c r="K12" s="1">
+      <c r="L12" s="1">
         <f t="shared" si="5"/>
         <v>280</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <f t="shared" si="6"/>
         <v>6203</v>
       </c>
-      <c r="M12" s="20"/>
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
       <c r="P12" s="20"/>
-      <c r="Q12">
+      <c r="Q12" s="20"/>
+      <c r="R12">
         <v>3</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>650</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>4</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>387</v>
       </c>
-      <c r="U12" s="20"/>
       <c r="V12" s="20"/>
-      <c r="W12" t="str">
+      <c r="W12" s="20"/>
+      <c r="X12" t="str">
         <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
-      <c r="X12" t="str">
-        <f t="shared" si="2"/>
-        <v>EQUAL</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="Y12" t="str">
+        <f t="shared" si="2"/>
+        <v>EQUAL</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" s="5">
         <v>44059</v>
       </c>
@@ -5784,68 +5830,71 @@
       <c r="C13" s="28">
         <v>44065</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13">
         <v>26</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <f t="shared" si="7"/>
         <v>14.75</v>
       </c>
-      <c r="F13" s="24">
+      <c r="G13" s="24">
         <f t="shared" si="3"/>
         <v>100.68933467585781</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>1590</v>
       </c>
-      <c r="H13" s="9">
+      <c r="I13" s="9">
         <f t="shared" si="4"/>
         <v>6157.5400821005342</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <f t="shared" si="0"/>
         <v>1.6352201257861635E-2</v>
       </c>
-      <c r="J13" s="13">
+      <c r="K13" s="13">
         <f t="shared" si="8"/>
         <v>1.3402204652808523E-2</v>
       </c>
-      <c r="K13" s="1">
+      <c r="L13" s="1">
         <f t="shared" si="5"/>
         <v>306</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <f t="shared" si="6"/>
         <v>7793</v>
       </c>
-      <c r="M13" s="20"/>
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
       <c r="P13" s="20"/>
-      <c r="Q13" s="9">
+      <c r="Q13" s="20"/>
+      <c r="R13" s="9">
         <v>4</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>470</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>22</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>1120</v>
       </c>
-      <c r="U13" s="20"/>
       <c r="V13" s="20"/>
-      <c r="W13" t="str">
+      <c r="W13" s="20"/>
+      <c r="X13" t="str">
         <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
-      <c r="X13" t="str">
-        <f t="shared" si="2"/>
-        <v>EQUAL</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="Y13" t="str">
+        <f t="shared" si="2"/>
+        <v>EQUAL</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" s="5">
         <v>44066</v>
       </c>
@@ -5855,82 +5904,85 @@
       <c r="C14" s="28">
         <v>44072</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14">
         <v>173</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <f t="shared" si="7"/>
         <v>53.25</v>
       </c>
-      <c r="F14" s="24">
+      <c r="G14" s="24">
         <f t="shared" si="3"/>
         <v>669.97134226628464</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>2188</v>
       </c>
-      <c r="H14" s="9">
+      <c r="I14" s="9">
         <f t="shared" si="4"/>
         <v>8473.3947796452649</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <f t="shared" si="0"/>
         <v>7.906764168190128E-2</v>
       </c>
-      <c r="J14" s="13">
+      <c r="K14" s="13">
         <f t="shared" si="8"/>
         <v>2.7777514619254332E-2</v>
       </c>
-      <c r="K14" s="1">
+      <c r="L14" s="1">
         <f t="shared" si="5"/>
         <v>479</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <f t="shared" si="6"/>
         <v>9981</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>67</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>271</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>106</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>1917</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>0</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>517</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>173</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>1671</v>
       </c>
-      <c r="U14" t="str">
-        <f t="shared" ref="U14:U23" si="9">IF(M14+O14=D14,"EQUAL","DIFFER")</f>
-        <v>EQUAL</v>
-      </c>
       <c r="V14" t="str">
-        <f t="shared" ref="V14:V23" si="10">IF(N14+P14=G14,"EQUAL","DIFFER")</f>
+        <f t="shared" ref="V14:V23" si="9">IF(N14+P14=E14,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="W14" t="str">
+        <f t="shared" ref="W14:W23" si="10">IF(O14+Q14=H14,"EQUAL","DIFFER")</f>
+        <v>EQUAL</v>
+      </c>
+      <c r="X14" t="str">
         <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
-      <c r="X14" t="str">
-        <f t="shared" si="2"/>
-        <v>EQUAL</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="Y14" t="str">
+        <f t="shared" si="2"/>
+        <v>EQUAL</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" s="5">
         <v>44073</v>
       </c>
@@ -5940,82 +5992,85 @@
       <c r="C15" s="28">
         <v>44079</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15">
         <v>861</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <f t="shared" si="7"/>
         <v>266.75</v>
       </c>
-      <c r="F15" s="24">
+      <c r="G15" s="24">
         <f t="shared" si="3"/>
         <v>3334.3660444582138</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>6986</v>
       </c>
-      <c r="H15" s="9">
+      <c r="I15" s="9">
         <f t="shared" si="4"/>
         <v>27054.449694059331</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="4">
         <f t="shared" si="0"/>
         <v>0.12324649298597194</v>
       </c>
-      <c r="J15" s="13">
+      <c r="K15" s="13">
         <f t="shared" si="8"/>
         <v>5.6354144251443361E-2</v>
       </c>
-      <c r="K15" s="1">
+      <c r="L15" s="1">
         <f t="shared" si="5"/>
         <v>1340</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <f t="shared" si="6"/>
         <v>16967</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>310</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>662</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>551</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>6324</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>16</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>640</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>845</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>6346</v>
       </c>
-      <c r="U15" t="str">
+      <c r="V15" t="str">
         <f t="shared" si="9"/>
         <v>EQUAL</v>
       </c>
-      <c r="V15" t="str">
+      <c r="W15" t="str">
         <f t="shared" si="10"/>
         <v>EQUAL</v>
       </c>
-      <c r="W15" t="str">
+      <c r="X15" t="str">
         <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
-      <c r="X15" t="str">
-        <f t="shared" si="2"/>
-        <v>EQUAL</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="Y15" t="str">
+        <f t="shared" si="2"/>
+        <v>EQUAL</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" s="5">
         <v>44080</v>
       </c>
@@ -6025,82 +6080,85 @@
       <c r="C16" s="28">
         <v>44086</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16">
         <v>487</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <f t="shared" si="7"/>
         <v>386.75</v>
       </c>
-      <c r="F16" s="24">
+      <c r="G16" s="24">
         <f t="shared" si="3"/>
         <v>1885.9886918131826</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>9254</v>
       </c>
-      <c r="H16" s="9">
+      <c r="I16" s="9">
         <f t="shared" si="4"/>
         <v>35837.65781116877</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <f t="shared" si="0"/>
         <v>5.2625891506375623E-2</v>
       </c>
-      <c r="J16" s="13">
+      <c r="K16" s="13">
         <f t="shared" si="8"/>
         <v>6.7823056858027628E-2</v>
       </c>
-      <c r="K16" s="1">
+      <c r="L16" s="1">
         <f t="shared" si="5"/>
         <v>1827</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <f t="shared" si="6"/>
         <v>26221</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>111</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>334</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>376</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>8920</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>10</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>957</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>477</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>8297</v>
       </c>
-      <c r="U16" t="str">
+      <c r="V16" t="str">
         <f t="shared" si="9"/>
         <v>EQUAL</v>
       </c>
-      <c r="V16" t="str">
+      <c r="W16" t="str">
         <f t="shared" si="10"/>
         <v>EQUAL</v>
       </c>
-      <c r="W16" t="str">
+      <c r="X16" t="str">
         <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
-      <c r="X16" t="str">
-        <f t="shared" si="2"/>
-        <v>EQUAL</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24">
+      <c r="Y16" t="str">
+        <f t="shared" si="2"/>
+        <v>EQUAL</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" s="5">
         <v>44087</v>
       </c>
@@ -6110,82 +6168,85 @@
       <c r="C17" s="28">
         <v>44093</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17">
         <v>858</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <f t="shared" si="7"/>
         <v>594.75</v>
       </c>
-      <c r="F17" s="24">
+      <c r="G17" s="24">
         <f t="shared" si="3"/>
         <v>3322.7480443033073</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>19442</v>
       </c>
-      <c r="H17" s="9">
+      <c r="I17" s="9">
         <f t="shared" si="4"/>
         <v>75292.386337231816</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <f t="shared" si="0"/>
         <v>4.4131262215821421E-2</v>
       </c>
-      <c r="J17" s="13">
+      <c r="K17" s="13">
         <f t="shared" si="8"/>
         <v>7.4767822097517575E-2</v>
       </c>
-      <c r="K17" s="1">
+      <c r="L17" s="1">
         <f t="shared" si="5"/>
         <v>2685</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <f t="shared" si="6"/>
         <v>45663</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>21</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>86</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>837</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>19356</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>3</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>921</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>855</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>18521</v>
       </c>
-      <c r="U17" t="str">
+      <c r="V17" t="str">
         <f t="shared" si="9"/>
         <v>EQUAL</v>
       </c>
-      <c r="V17" t="str">
+      <c r="W17" t="str">
         <f t="shared" si="10"/>
         <v>EQUAL</v>
       </c>
-      <c r="W17" t="str">
+      <c r="X17" t="str">
         <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
-      <c r="X17" t="str">
-        <f t="shared" si="2"/>
-        <v>EQUAL</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24">
+      <c r="Y17" t="str">
+        <f t="shared" si="2"/>
+        <v>EQUAL</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" s="5">
         <v>44094</v>
       </c>
@@ -6195,82 +6256,85 @@
       <c r="C18" s="28">
         <v>44100</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18">
         <v>486</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <f t="shared" si="7"/>
         <v>673</v>
       </c>
-      <c r="F18" s="24">
+      <c r="G18" s="24">
         <f t="shared" si="3"/>
         <v>1882.1160250948803</v>
       </c>
-      <c r="G18" s="9">
+      <c r="H18" s="9">
         <v>7698</v>
       </c>
-      <c r="H18" s="9">
+      <c r="I18" s="9">
         <f t="shared" si="4"/>
         <v>29811.788397490513</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <f t="shared" si="0"/>
         <v>6.313328137178488E-2</v>
       </c>
-      <c r="J18" s="13">
+      <c r="K18" s="13">
         <f t="shared" si="8"/>
         <v>7.0784232019988472E-2</v>
       </c>
-      <c r="K18" s="1">
+      <c r="L18" s="1">
         <f t="shared" si="5"/>
         <v>3171</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <f t="shared" si="6"/>
         <v>53361</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>138</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>675</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>348</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>7023</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>3</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>433</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>483</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>7265</v>
       </c>
-      <c r="U18" t="str">
+      <c r="V18" t="str">
         <f t="shared" si="9"/>
         <v>EQUAL</v>
       </c>
-      <c r="V18" t="str">
+      <c r="W18" t="str">
         <f t="shared" si="10"/>
         <v>EQUAL</v>
       </c>
-      <c r="W18" t="str">
+      <c r="X18" t="str">
         <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
-      <c r="X18" t="str">
-        <f t="shared" si="2"/>
-        <v>EQUAL</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
+      <c r="Y18" t="str">
+        <f t="shared" si="2"/>
+        <v>EQUAL</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" s="5">
         <v>44101</v>
       </c>
@@ -6280,82 +6344,85 @@
       <c r="C19" s="28">
         <v>44107</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19">
         <v>588</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <f t="shared" si="7"/>
         <v>604.75</v>
       </c>
-      <c r="F19" s="24">
+      <c r="G19" s="24">
         <f t="shared" si="3"/>
         <v>2277.1280303617073</v>
       </c>
-      <c r="G19" s="9">
+      <c r="H19" s="9">
         <v>8729</v>
       </c>
-      <c r="H19" s="9">
+      <c r="I19" s="9">
         <f t="shared" si="4"/>
         <v>33804.507784060108</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <f t="shared" si="0"/>
         <v>6.7361668003207698E-2</v>
       </c>
-      <c r="J19" s="13">
+      <c r="K19" s="13">
         <f t="shared" si="8"/>
         <v>5.6813025774297407E-2</v>
       </c>
-      <c r="K19" s="1">
+      <c r="L19" s="1">
         <f t="shared" si="5"/>
         <v>3759</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <f t="shared" si="6"/>
         <v>62090</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>79</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>177</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>509</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>8552</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>10</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>682</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>578</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>8047</v>
       </c>
-      <c r="U19" t="str">
+      <c r="V19" t="str">
         <f t="shared" si="9"/>
         <v>EQUAL</v>
       </c>
-      <c r="V19" t="str">
+      <c r="W19" t="str">
         <f t="shared" si="10"/>
         <v>EQUAL</v>
       </c>
-      <c r="W19" t="str">
+      <c r="X19" t="str">
         <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
-      <c r="X19" t="str">
-        <f t="shared" ref="X19:X23" si="11">IF(T19+R19=G19,"EQUAL","DIFFER")</f>
-        <v>EQUAL</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24">
+      <c r="Y19" t="str">
+        <f t="shared" ref="Y19:Y23" si="11">IF(U19+S19=H19,"EQUAL","DIFFER")</f>
+        <v>EQUAL</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" s="5">
         <v>44108</v>
       </c>
@@ -6365,82 +6432,85 @@
       <c r="C20" s="28">
         <v>44114</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20">
         <v>407</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <f t="shared" si="7"/>
         <v>584.75</v>
       </c>
-      <c r="F20" s="24">
+      <c r="G20" s="24">
         <f t="shared" si="3"/>
         <v>1576.1753543490047</v>
       </c>
-      <c r="G20" s="9">
+      <c r="H20" s="9">
         <v>9224</v>
       </c>
-      <c r="H20" s="9">
+      <c r="I20" s="9">
         <f t="shared" si="4"/>
         <v>35721.477809619704</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="4">
         <f t="shared" si="0"/>
         <v>4.4124024284475281E-2</v>
       </c>
-      <c r="J20" s="13">
+      <c r="K20" s="13">
         <f t="shared" si="8"/>
         <v>5.4687558968822318E-2</v>
       </c>
-      <c r="K20" s="1">
+      <c r="L20" s="1">
         <f t="shared" si="5"/>
         <v>4166</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <f t="shared" si="6"/>
         <v>71314</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>35</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>96</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>372</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>9128</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>6</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>1168</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>401</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>8056</v>
       </c>
-      <c r="U20" t="str">
+      <c r="V20" t="str">
         <f t="shared" si="9"/>
         <v>EQUAL</v>
       </c>
-      <c r="V20" t="str">
+      <c r="W20" t="str">
         <f t="shared" si="10"/>
         <v>EQUAL</v>
       </c>
-      <c r="W20" t="str">
+      <c r="X20" t="str">
         <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
-      <c r="X20" t="str">
+      <c r="Y20" t="str">
         <f t="shared" si="11"/>
         <v>EQUAL</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:25">
       <c r="A21" s="26">
         <v>44115</v>
       </c>
@@ -6450,82 +6520,85 @@
       <c r="C21" s="29">
         <v>44121</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21">
         <v>249</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <f t="shared" si="7"/>
         <v>432.5</v>
       </c>
-      <c r="F21" s="24">
+      <c r="G21" s="24">
         <f t="shared" si="3"/>
         <v>964.29401285725351</v>
       </c>
-      <c r="G21" s="9">
+      <c r="H21" s="9">
         <v>9033</v>
       </c>
-      <c r="H21" s="9">
+      <c r="I21" s="9">
         <f t="shared" si="4"/>
         <v>34981.798466423978</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="4">
         <f t="shared" si="0"/>
         <v>2.7565592826303553E-2</v>
       </c>
-      <c r="J21" s="13">
+      <c r="K21" s="13">
         <f t="shared" si="8"/>
         <v>5.0546141621442851E-2</v>
       </c>
-      <c r="K21" s="1">
+      <c r="L21" s="1">
         <f t="shared" si="5"/>
         <v>4415</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <f t="shared" si="6"/>
         <v>80347</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>29</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>96</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>220</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>8937</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>14</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>1057</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>235</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>7976</v>
       </c>
-      <c r="U21" t="str">
+      <c r="V21" t="str">
         <f t="shared" si="9"/>
         <v>EQUAL</v>
       </c>
-      <c r="V21" t="str">
+      <c r="W21" t="str">
         <f t="shared" si="10"/>
         <v>EQUAL</v>
       </c>
-      <c r="W21" t="str">
+      <c r="X21" t="str">
         <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
-      <c r="X21" t="str">
+      <c r="Y21" t="str">
         <f t="shared" si="11"/>
         <v>EQUAL</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:25">
       <c r="A22" s="26">
         <v>44122</v>
       </c>
@@ -6535,82 +6608,85 @@
       <c r="C22" s="29">
         <v>44128</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22">
         <v>156</v>
       </c>
-      <c r="E22">
-        <f>AVERAGE(D19:D22)</f>
+      <c r="F22">
+        <f>AVERAGE(E19:E22)</f>
         <v>350</v>
       </c>
-      <c r="F22" s="24">
+      <c r="G22" s="24">
         <f t="shared" si="3"/>
         <v>604.1360080551467</v>
       </c>
-      <c r="G22" s="9">
+      <c r="H22" s="9">
         <v>10436</v>
       </c>
-      <c r="H22" s="9">
+      <c r="I22" s="9">
         <f t="shared" si="4"/>
         <v>40415.149872201997</v>
       </c>
-      <c r="I22" s="4">
+      <c r="J22" s="4">
         <f t="shared" si="0"/>
         <v>1.4948256036795707E-2</v>
       </c>
-      <c r="J22" s="13">
+      <c r="K22" s="13">
         <f t="shared" si="8"/>
         <v>3.8499885287695559E-2</v>
       </c>
-      <c r="K22" s="1">
+      <c r="L22" s="1">
         <f t="shared" si="5"/>
         <v>4571</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <f t="shared" si="6"/>
         <v>90783</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>12</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>57</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>144</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>10379</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>22</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>1488</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>134</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>8948</v>
       </c>
-      <c r="U22" t="str">
+      <c r="V22" t="str">
         <f t="shared" si="9"/>
         <v>EQUAL</v>
       </c>
-      <c r="V22" t="str">
+      <c r="W22" t="str">
         <f t="shared" si="10"/>
         <v>EQUAL</v>
       </c>
-      <c r="W22" t="str">
+      <c r="X22" t="str">
         <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
-      <c r="X22" t="str">
+      <c r="Y22" t="str">
         <f t="shared" si="11"/>
         <v>EQUAL</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:25">
       <c r="A23" s="26">
         <v>44129</v>
       </c>
@@ -6620,82 +6696,85 @@
       <c r="C23" s="30">
         <v>44135</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23">
         <v>88</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <f t="shared" si="7"/>
         <v>225</v>
       </c>
-      <c r="F23" s="24">
+      <c r="G23" s="24">
         <f t="shared" si="3"/>
         <v>340.7946712105956</v>
       </c>
-      <c r="G23" s="9">
+      <c r="H23" s="9">
         <v>9624</v>
       </c>
-      <c r="H23" s="9">
+      <c r="I23" s="9">
         <f t="shared" si="4"/>
         <v>37270.544496940594</v>
       </c>
-      <c r="I23" s="4">
+      <c r="J23" s="4">
         <f t="shared" si="0"/>
         <v>9.14380714879468E-3</v>
       </c>
-      <c r="J23" s="13">
+      <c r="K23" s="13">
         <f t="shared" si="8"/>
         <v>2.3945420074092307E-2</v>
       </c>
-      <c r="K23" s="1">
+      <c r="L23" s="1">
         <f t="shared" si="5"/>
         <v>4659</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <f t="shared" si="6"/>
         <v>100407</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>4</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>51</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>84</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>9573</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>6</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>1434</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>82</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>8190</v>
       </c>
-      <c r="U23" t="str">
+      <c r="V23" t="str">
         <f t="shared" si="9"/>
         <v>EQUAL</v>
       </c>
-      <c r="V23" t="str">
+      <c r="W23" t="str">
         <f t="shared" si="10"/>
         <v>EQUAL</v>
       </c>
-      <c r="W23" t="str">
+      <c r="X23" t="str">
         <f t="shared" si="1"/>
         <v>EQUAL</v>
       </c>
-      <c r="X23" t="str">
+      <c r="Y23" t="str">
         <f t="shared" si="11"/>
         <v>EQUAL</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:25">
       <c r="A24" s="26">
         <v>44136</v>
       </c>
@@ -6705,107 +6784,111 @@
       <c r="C24" s="26">
         <v>44142</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24">
         <v>77</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <f t="shared" si="7"/>
         <v>142.5</v>
       </c>
-      <c r="F24" s="24">
+      <c r="G24" s="24">
         <f t="shared" si="3"/>
         <v>298.19533730927117</v>
       </c>
-      <c r="G24" s="9">
+      <c r="H24" s="9">
         <v>4938</v>
       </c>
-      <c r="H24" s="9">
+      <c r="I24" s="9">
         <f t="shared" si="4"/>
         <v>19123.228254976377</v>
       </c>
-      <c r="I24" s="4">
+      <c r="J24" s="4">
         <f t="shared" si="0"/>
         <v>1.5593357634669907E-2</v>
       </c>
-      <c r="J24" s="13">
+      <c r="K24" s="13">
         <f t="shared" si="8"/>
         <v>1.6812753411640961E-2</v>
       </c>
-      <c r="K24" s="1">
+      <c r="L24" s="1">
         <f t="shared" si="5"/>
         <v>4736</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <f t="shared" si="6"/>
         <v>105345</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>2</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>24</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>75</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>4914</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>6</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>881</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>71</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>4057</v>
       </c>
-      <c r="U24" t="str">
-        <f t="shared" ref="U24" si="12">IF(M24+O24=D24,"EQUAL","DIFFER")</f>
-        <v>EQUAL</v>
-      </c>
       <c r="V24" t="str">
-        <f t="shared" ref="V24" si="13">IF(N24+P24=G24,"EQUAL","DIFFER")</f>
+        <f t="shared" ref="V24" si="12">IF(N24+P24=E24,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="W24" t="str">
-        <f t="shared" ref="W24" si="14">IF(S24+Q24=D24,"EQUAL","DIFFER")</f>
+        <f t="shared" ref="W24" si="13">IF(O24+Q24=H24,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="X24" t="str">
-        <f t="shared" ref="X24" si="15">IF(T24+R24=G24,"EQUAL","DIFFER")</f>
-        <v>EQUAL</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24">
+        <f t="shared" ref="X24" si="14">IF(T24+R24=E24,"EQUAL","DIFFER")</f>
+        <v>EQUAL</v>
+      </c>
+      <c r="Y24" t="str">
+        <f t="shared" ref="Y24" si="15">IF(U24+S24=H24,"EQUAL","DIFFER")</f>
+        <v>EQUAL</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="U1:X1 U17:X1048576">
+  <conditionalFormatting sqref="V1:Y1 V17:Y1048576">
     <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="DIFFER">
-      <formula>NOT(ISERROR(SEARCH("DIFFER",U1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("DIFFER",V1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="EQUAL">
-      <formula>NOT(ISERROR(SEARCH("EQUAL",U1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("EQUAL",V1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U2:X16">
+  <conditionalFormatting sqref="V2:Y16">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="DIFFER">
-      <formula>NOT(ISERROR(SEARCH("DIFFER",U2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("DIFFER",V2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="EQUAL">
-      <formula>NOT(ISERROR(SEARCH("EQUAL",U2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("EQUAL",V2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="E5:E24" formulaRange="1"/>
+    <ignoredError sqref="F5:F24" formulaRange="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/clemsonDashboard.xlsx
+++ b/clemsonDashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidferrara/Documents/Clemson/The Tiger/COVID-19/Data/ttn-clemson-covid-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DAF02B-CBC9-5245-B9A8-B0A36BE0FFD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC8B72A-88BA-7747-835B-3C3A40D74A1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="460" windowWidth="28040" windowHeight="16260" activeTab="1" xr2:uid="{663FE1B6-0B7E-E04A-924C-6AB15F4F5852}"/>
+    <workbookView xWindow="340" yWindow="460" windowWidth="28040" windowHeight="16260" xr2:uid="{663FE1B6-0B7E-E04A-924C-6AB15F4F5852}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Data" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -263,14 +263,27 @@
   <si>
     <t>CU</t>
   </si>
+  <si>
+    <t>Student Population</t>
+  </si>
+  <si>
+    <t>Cumulative % Impact</t>
+  </si>
+  <si>
+    <t>Cumulative Student Positive</t>
+  </si>
+  <si>
+    <t>End Reporting by The Tiger News</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000000%"/>
     <numFmt numFmtId="165" formatCode="m/d;@"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -380,7 +393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -431,6 +444,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -807,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2018E299-360B-F244-BDDD-9B449D0B7C0F}">
-  <dimension ref="A1:X71"/>
+  <dimension ref="A1:X72"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4884,6 +4898,11 @@
         <v>DIFFER</v>
       </c>
     </row>
+    <row r="72" spans="1:22">
+      <c r="A72" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="S1:V1 S22:V22 S37:V1048576">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="DIFFER">
@@ -4902,10 +4921,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D56922A-034D-7E4D-80AB-A29316427207}">
-  <dimension ref="A1:AA25"/>
+  <dimension ref="A1:AC25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D24"/>
+    <sheetView topLeftCell="D1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4933,9 +4952,12 @@
     <col min="23" max="23" width="14.6640625" customWidth="1"/>
     <col min="24" max="24" width="16.6640625" customWidth="1"/>
     <col min="25" max="25" width="13.1640625" customWidth="1"/>
+    <col min="26" max="26" width="24.33203125" customWidth="1"/>
+    <col min="27" max="27" width="17.33203125" customWidth="1"/>
+    <col min="28" max="28" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="17" customHeight="1">
+    <row r="1" spans="1:29" ht="17" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -5011,8 +5033,17 @@
       <c r="Y1" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" ht="17" customHeight="1">
+      <c r="Z1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="17" customHeight="1">
       <c r="A2" s="25">
         <v>43987</v>
       </c>
@@ -5079,11 +5110,22 @@
         <f t="shared" ref="Y2:Y18" si="2">IF(U2+S2=H2,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="Z2">
+        <f>T2</f>
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>25822</v>
+      </c>
+      <c r="AB2" s="32">
+        <f>Z2/AA2</f>
+        <v>3.872666718302223E-5</v>
+      </c>
+      <c r="AC2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:29">
       <c r="A3" s="5">
         <v>43989</v>
       </c>
@@ -5150,11 +5192,22 @@
         <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="Z3">
+        <f>Z2+T3</f>
+        <v>5</v>
+      </c>
+      <c r="AA3">
+        <v>25822</v>
+      </c>
+      <c r="AB3" s="32">
+        <f t="shared" ref="AB3:AB24" si="6">Z3/AA3</f>
+        <v>1.9363333591511115E-4</v>
+      </c>
+      <c r="AC3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:29">
       <c r="A4" s="5">
         <v>43996</v>
       </c>
@@ -5192,7 +5245,7 @@
         <v>92</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M24" si="6">H4+M3</f>
+        <f t="shared" ref="M4:M24" si="7">H4+M3</f>
         <v>461</v>
       </c>
       <c r="N4" s="20"/>
@@ -5221,8 +5274,19 @@
         <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="Z4">
+        <f t="shared" ref="Z4:Z24" si="8">Z3+T4</f>
+        <v>90</v>
+      </c>
+      <c r="AA4">
+        <v>25822</v>
+      </c>
+      <c r="AB4" s="32">
+        <f t="shared" si="6"/>
+        <v>3.4854000464720008E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5" s="5">
         <v>44003</v>
       </c>
@@ -5266,7 +5330,7 @@
         <v>138</v>
       </c>
       <c r="M5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>759</v>
       </c>
       <c r="N5" s="20"/>
@@ -5295,11 +5359,22 @@
         <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="Z5">
+        <f t="shared" si="8"/>
+        <v>135</v>
+      </c>
+      <c r="AA5">
+        <v>25822</v>
+      </c>
+      <c r="AB5" s="32">
+        <f t="shared" si="6"/>
+        <v>5.2281000697080009E-3</v>
+      </c>
+      <c r="AC5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:29">
       <c r="A6" s="5">
         <v>44010</v>
       </c>
@@ -5316,7 +5391,7 @@
         <v>29</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F24" si="7">AVERAGE(E3:E6)</f>
+        <f t="shared" ref="F6:F24" si="9">AVERAGE(E3:E6)</f>
         <v>41.5</v>
       </c>
       <c r="G6" s="24">
@@ -5335,7 +5410,7 @@
         <v>0.19463087248322147</v>
       </c>
       <c r="K6" s="13">
-        <f t="shared" ref="K6:K24" si="8">AVERAGE(J3:J6)</f>
+        <f t="shared" ref="K6:K24" si="10">AVERAGE(J3:J6)</f>
         <v>0.17276118473632587</v>
       </c>
       <c r="L6" s="1">
@@ -5343,7 +5418,7 @@
         <v>167</v>
       </c>
       <c r="M6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>908</v>
       </c>
       <c r="N6" s="20"/>
@@ -5372,11 +5447,22 @@
         <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="Z6">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="AA6">
+        <v>25822</v>
+      </c>
+      <c r="AB6" s="32">
+        <f t="shared" si="6"/>
+        <v>6.1962667492835568E-3</v>
+      </c>
+      <c r="AC6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:29">
       <c r="A7" s="5">
         <v>44017</v>
       </c>
@@ -5393,7 +5479,7 @@
         <v>15</v>
       </c>
       <c r="F7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>44.25</v>
       </c>
       <c r="G7" s="24">
@@ -5412,7 +5498,7 @@
         <v>5.3571428571428568E-2</v>
       </c>
       <c r="K7" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.17916103488617602</v>
       </c>
       <c r="L7" s="1">
@@ -5420,7 +5506,7 @@
         <v>182</v>
       </c>
       <c r="M7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1188</v>
       </c>
       <c r="N7" s="20"/>
@@ -5449,8 +5535,19 @@
         <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="Z7">
+        <f t="shared" si="8"/>
+        <v>172</v>
+      </c>
+      <c r="AA7">
+        <v>25822</v>
+      </c>
+      <c r="AB7" s="32">
+        <f t="shared" si="6"/>
+        <v>6.6609867554798235E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8" s="5">
         <v>44024</v>
       </c>
@@ -5467,7 +5564,7 @@
         <v>11</v>
       </c>
       <c r="F8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>25.25</v>
       </c>
       <c r="G8" s="24">
@@ -5486,7 +5583,7 @@
         <v>0.13095238095238096</v>
       </c>
       <c r="K8" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.13337927452860338</v>
       </c>
       <c r="L8" s="1">
@@ -5494,7 +5591,7 @@
         <v>193</v>
       </c>
       <c r="M8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1272</v>
       </c>
       <c r="N8" s="20"/>
@@ -5523,8 +5620,19 @@
         <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="Z8">
+        <f t="shared" si="8"/>
+        <v>181</v>
+      </c>
+      <c r="AA8">
+        <v>25822</v>
+      </c>
+      <c r="AB8" s="32">
+        <f t="shared" si="6"/>
+        <v>7.0095267601270233E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9" s="5">
         <v>44031</v>
       </c>
@@ -5541,7 +5649,7 @@
         <v>54</v>
       </c>
       <c r="F9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>27.25</v>
       </c>
       <c r="G9" s="24">
@@ -5560,7 +5668,7 @@
         <v>2.4215246636771302E-2</v>
       </c>
       <c r="K9" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.10084248216095058</v>
       </c>
       <c r="L9" s="1">
@@ -5568,7 +5676,7 @@
         <v>247</v>
       </c>
       <c r="M9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3502</v>
       </c>
       <c r="N9" s="20"/>
@@ -5597,8 +5705,19 @@
         <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="Z9">
+        <f t="shared" si="8"/>
+        <v>201</v>
+      </c>
+      <c r="AA9">
+        <v>25822</v>
+      </c>
+      <c r="AB9" s="32">
+        <f t="shared" si="6"/>
+        <v>7.784060103787468E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10" s="5">
         <v>44038</v>
       </c>
@@ -5615,7 +5734,7 @@
         <v>19</v>
       </c>
       <c r="F10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24.75</v>
       </c>
       <c r="G10" s="24">
@@ -5634,7 +5753,7 @@
         <v>2.1566401816118047E-2</v>
       </c>
       <c r="K10" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.757636449417472E-2</v>
       </c>
       <c r="L10" s="1">
@@ -5642,7 +5761,7 @@
         <v>266</v>
       </c>
       <c r="M10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4383</v>
       </c>
       <c r="N10" s="20"/>
@@ -5671,8 +5790,19 @@
         <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="Z10">
+        <f t="shared" si="8"/>
+        <v>211</v>
+      </c>
+      <c r="AA10">
+        <v>25822</v>
+      </c>
+      <c r="AB10" s="32">
+        <f t="shared" si="6"/>
+        <v>8.1713267756176912E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11" s="5">
         <v>44045</v>
       </c>
@@ -5689,7 +5819,7 @@
         <v>7</v>
       </c>
       <c r="F11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>22.75</v>
       </c>
       <c r="G11" s="24">
@@ -5708,7 +5838,7 @@
         <v>8.9399744572158362E-3</v>
       </c>
       <c r="K11" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.6418500965621536E-2</v>
       </c>
       <c r="L11" s="1">
@@ -5716,7 +5846,7 @@
         <v>273</v>
       </c>
       <c r="M11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5166</v>
       </c>
       <c r="N11" s="20"/>
@@ -5745,8 +5875,19 @@
         <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="Z11">
+        <f t="shared" si="8"/>
+        <v>216</v>
+      </c>
+      <c r="AA11">
+        <v>25822</v>
+      </c>
+      <c r="AB11" s="32">
+        <f t="shared" si="6"/>
+        <v>8.3649601115328015E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12" s="5">
         <v>44052</v>
       </c>
@@ -5763,7 +5904,7 @@
         <v>7</v>
       </c>
       <c r="F12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>21.75</v>
       </c>
       <c r="G12" s="24">
@@ -5782,7 +5923,7 @@
         <v>6.7502410800385727E-3</v>
       </c>
       <c r="K12" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.5367965997535938E-2</v>
       </c>
       <c r="L12" s="1">
@@ -5790,7 +5931,7 @@
         <v>280</v>
       </c>
       <c r="M12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6203</v>
       </c>
       <c r="N12" s="20"/>
@@ -5819,8 +5960,19 @@
         <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="Z12">
+        <f t="shared" si="8"/>
+        <v>220</v>
+      </c>
+      <c r="AA12">
+        <v>25822</v>
+      </c>
+      <c r="AB12" s="32">
+        <f t="shared" si="6"/>
+        <v>8.5198667802648901E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13" s="5">
         <v>44059</v>
       </c>
@@ -5837,7 +5989,7 @@
         <v>26</v>
       </c>
       <c r="F13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>14.75</v>
       </c>
       <c r="G13" s="24">
@@ -5856,7 +6008,7 @@
         <v>1.6352201257861635E-2</v>
       </c>
       <c r="K13" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.3402204652808523E-2</v>
       </c>
       <c r="L13" s="1">
@@ -5864,7 +6016,7 @@
         <v>306</v>
       </c>
       <c r="M13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7793</v>
       </c>
       <c r="N13" s="20"/>
@@ -5893,8 +6045,19 @@
         <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="Z13">
+        <f t="shared" si="8"/>
+        <v>242</v>
+      </c>
+      <c r="AA13">
+        <v>25822</v>
+      </c>
+      <c r="AB13" s="32">
+        <f t="shared" si="6"/>
+        <v>9.37185345829138E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14" s="5">
         <v>44066</v>
       </c>
@@ -5911,7 +6074,7 @@
         <v>173</v>
       </c>
       <c r="F14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>53.25</v>
       </c>
       <c r="G14" s="24">
@@ -5930,7 +6093,7 @@
         <v>7.906764168190128E-2</v>
       </c>
       <c r="K14" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.7777514619254332E-2</v>
       </c>
       <c r="L14" s="1">
@@ -5938,7 +6101,7 @@
         <v>479</v>
       </c>
       <c r="M14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9981</v>
       </c>
       <c r="N14">
@@ -5966,11 +6129,11 @@
         <v>1671</v>
       </c>
       <c r="V14" t="str">
-        <f t="shared" ref="V14:V23" si="9">IF(N14+P14=E14,"EQUAL","DIFFER")</f>
+        <f t="shared" ref="V14:V23" si="11">IF(N14+P14=E14,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="W14" t="str">
-        <f t="shared" ref="W14:W23" si="10">IF(O14+Q14=H14,"EQUAL","DIFFER")</f>
+        <f t="shared" ref="W14:W23" si="12">IF(O14+Q14=H14,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="X14" t="str">
@@ -5981,8 +6144,19 @@
         <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="Z14">
+        <f t="shared" si="8"/>
+        <v>415</v>
+      </c>
+      <c r="AA14">
+        <v>25822</v>
+      </c>
+      <c r="AB14" s="32">
+        <f t="shared" si="6"/>
+        <v>1.6071566880954225E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15" s="5">
         <v>44073</v>
       </c>
@@ -5999,7 +6173,7 @@
         <v>861</v>
       </c>
       <c r="F15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>266.75</v>
       </c>
       <c r="G15" s="24">
@@ -6018,7 +6192,7 @@
         <v>0.12324649298597194</v>
       </c>
       <c r="K15" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.6354144251443361E-2</v>
       </c>
       <c r="L15" s="1">
@@ -6026,7 +6200,7 @@
         <v>1340</v>
       </c>
       <c r="M15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16967</v>
       </c>
       <c r="N15">
@@ -6054,11 +6228,11 @@
         <v>6346</v>
       </c>
       <c r="V15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>EQUAL</v>
       </c>
       <c r="W15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>EQUAL</v>
       </c>
       <c r="X15" t="str">
@@ -6069,8 +6243,19 @@
         <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="Z15">
+        <f t="shared" si="8"/>
+        <v>1260</v>
+      </c>
+      <c r="AA15">
+        <v>25822</v>
+      </c>
+      <c r="AB15" s="32">
+        <f t="shared" si="6"/>
+        <v>4.8795600650608006E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16" s="5">
         <v>44080</v>
       </c>
@@ -6087,7 +6272,7 @@
         <v>487</v>
       </c>
       <c r="F16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>386.75</v>
       </c>
       <c r="G16" s="24">
@@ -6106,7 +6291,7 @@
         <v>5.2625891506375623E-2</v>
       </c>
       <c r="K16" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.7823056858027628E-2</v>
       </c>
       <c r="L16" s="1">
@@ -6114,7 +6299,7 @@
         <v>1827</v>
       </c>
       <c r="M16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26221</v>
       </c>
       <c r="N16">
@@ -6142,11 +6327,11 @@
         <v>8297</v>
       </c>
       <c r="V16" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>EQUAL</v>
       </c>
       <c r="W16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>EQUAL</v>
       </c>
       <c r="X16" t="str">
@@ -6157,8 +6342,19 @@
         <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
-    </row>
-    <row r="17" spans="1:25">
+      <c r="Z16">
+        <f t="shared" si="8"/>
+        <v>1737</v>
+      </c>
+      <c r="AA16">
+        <v>25822</v>
+      </c>
+      <c r="AB16" s="32">
+        <f t="shared" si="6"/>
+        <v>6.7268220896909606E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" s="5">
         <v>44087</v>
       </c>
@@ -6175,7 +6371,7 @@
         <v>858</v>
       </c>
       <c r="F17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>594.75</v>
       </c>
       <c r="G17" s="24">
@@ -6194,7 +6390,7 @@
         <v>4.4131262215821421E-2</v>
       </c>
       <c r="K17" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7.4767822097517575E-2</v>
       </c>
       <c r="L17" s="1">
@@ -6202,7 +6398,7 @@
         <v>2685</v>
       </c>
       <c r="M17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45663</v>
       </c>
       <c r="N17">
@@ -6230,11 +6426,11 @@
         <v>18521</v>
       </c>
       <c r="V17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>EQUAL</v>
       </c>
       <c r="W17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>EQUAL</v>
       </c>
       <c r="X17" t="str">
@@ -6245,8 +6441,19 @@
         <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="Z17">
+        <f t="shared" si="8"/>
+        <v>2592</v>
+      </c>
+      <c r="AA17">
+        <v>25822</v>
+      </c>
+      <c r="AB17" s="32">
+        <f t="shared" si="6"/>
+        <v>0.10037952133839362</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" s="5">
         <v>44094</v>
       </c>
@@ -6263,7 +6470,7 @@
         <v>486</v>
       </c>
       <c r="F18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>673</v>
       </c>
       <c r="G18" s="24">
@@ -6282,7 +6489,7 @@
         <v>6.313328137178488E-2</v>
       </c>
       <c r="K18" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7.0784232019988472E-2</v>
       </c>
       <c r="L18" s="1">
@@ -6290,7 +6497,7 @@
         <v>3171</v>
       </c>
       <c r="M18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>53361</v>
       </c>
       <c r="N18">
@@ -6318,11 +6525,11 @@
         <v>7265</v>
       </c>
       <c r="V18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>EQUAL</v>
       </c>
       <c r="W18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>EQUAL</v>
       </c>
       <c r="X18" t="str">
@@ -6333,8 +6540,19 @@
         <f t="shared" si="2"/>
         <v>EQUAL</v>
       </c>
-    </row>
-    <row r="19" spans="1:25">
+      <c r="Z18">
+        <f t="shared" si="8"/>
+        <v>3075</v>
+      </c>
+      <c r="AA18">
+        <v>25822</v>
+      </c>
+      <c r="AB18" s="32">
+        <f t="shared" si="6"/>
+        <v>0.11908450158779335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" s="5">
         <v>44101</v>
       </c>
@@ -6351,7 +6569,7 @@
         <v>588</v>
       </c>
       <c r="F19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>604.75</v>
       </c>
       <c r="G19" s="24">
@@ -6370,7 +6588,7 @@
         <v>6.7361668003207698E-2</v>
       </c>
       <c r="K19" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.6813025774297407E-2</v>
       </c>
       <c r="L19" s="1">
@@ -6378,7 +6596,7 @@
         <v>3759</v>
       </c>
       <c r="M19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>62090</v>
       </c>
       <c r="N19">
@@ -6406,11 +6624,11 @@
         <v>8047</v>
       </c>
       <c r="V19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>EQUAL</v>
       </c>
       <c r="W19" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>EQUAL</v>
       </c>
       <c r="X19" t="str">
@@ -6418,11 +6636,22 @@
         <v>EQUAL</v>
       </c>
       <c r="Y19" t="str">
-        <f t="shared" ref="Y19:Y23" si="11">IF(U19+S19=H19,"EQUAL","DIFFER")</f>
-        <v>EQUAL</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25">
+        <f t="shared" ref="Y19:Y23" si="13">IF(U19+S19=H19,"EQUAL","DIFFER")</f>
+        <v>EQUAL</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="8"/>
+        <v>3653</v>
+      </c>
+      <c r="AA19">
+        <v>25822</v>
+      </c>
+      <c r="AB19" s="32">
+        <f t="shared" si="6"/>
+        <v>0.1414685152195802</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20" s="5">
         <v>44108</v>
       </c>
@@ -6439,7 +6668,7 @@
         <v>407</v>
       </c>
       <c r="F20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>584.75</v>
       </c>
       <c r="G20" s="24">
@@ -6458,7 +6687,7 @@
         <v>4.4124024284475281E-2</v>
       </c>
       <c r="K20" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.4687558968822318E-2</v>
       </c>
       <c r="L20" s="1">
@@ -6466,7 +6695,7 @@
         <v>4166</v>
       </c>
       <c r="M20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>71314</v>
       </c>
       <c r="N20">
@@ -6494,11 +6723,11 @@
         <v>8056</v>
       </c>
       <c r="V20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>EQUAL</v>
       </c>
       <c r="W20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>EQUAL</v>
       </c>
       <c r="X20" t="str">
@@ -6506,11 +6735,22 @@
         <v>EQUAL</v>
       </c>
       <c r="Y20" t="str">
-        <f t="shared" si="11"/>
-        <v>EQUAL</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25">
+        <f t="shared" si="13"/>
+        <v>EQUAL</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="8"/>
+        <v>4054</v>
+      </c>
+      <c r="AA20">
+        <v>25822</v>
+      </c>
+      <c r="AB20" s="32">
+        <f t="shared" si="6"/>
+        <v>0.1569979087599721</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21" s="26">
         <v>44115</v>
       </c>
@@ -6527,7 +6767,7 @@
         <v>249</v>
       </c>
       <c r="F21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>432.5</v>
       </c>
       <c r="G21" s="24">
@@ -6535,27 +6775,27 @@
         <v>964.29401285725351</v>
       </c>
       <c r="H21" s="9">
-        <v>9033</v>
+        <v>9036</v>
       </c>
       <c r="I21" s="9">
         <f t="shared" si="4"/>
-        <v>34981.798466423978</v>
+        <v>34993.416466578885</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" si="0"/>
-        <v>2.7565592826303553E-2</v>
+        <v>2.7556440903054449E-2</v>
       </c>
       <c r="K21" s="13">
-        <f t="shared" si="8"/>
-        <v>5.0546141621442851E-2</v>
+        <f t="shared" si="10"/>
+        <v>5.0543853640630576E-2</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" si="5"/>
         <v>4415</v>
       </c>
       <c r="M21">
-        <f t="shared" si="6"/>
-        <v>80347</v>
+        <f t="shared" si="7"/>
+        <v>80350</v>
       </c>
       <c r="N21">
         <v>29</v>
@@ -6567,26 +6807,26 @@
         <v>220</v>
       </c>
       <c r="Q21">
-        <v>8937</v>
+        <v>8940</v>
       </c>
       <c r="R21">
         <v>14</v>
       </c>
       <c r="S21">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="T21">
         <v>235</v>
       </c>
       <c r="U21">
-        <v>7976</v>
+        <v>7978</v>
       </c>
       <c r="V21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>EQUAL</v>
       </c>
       <c r="W21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>EQUAL</v>
       </c>
       <c r="X21" t="str">
@@ -6594,11 +6834,22 @@
         <v>EQUAL</v>
       </c>
       <c r="Y21" t="str">
-        <f t="shared" si="11"/>
-        <v>EQUAL</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25">
+        <f t="shared" si="13"/>
+        <v>EQUAL</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="8"/>
+        <v>4289</v>
+      </c>
+      <c r="AA21">
+        <v>25822</v>
+      </c>
+      <c r="AB21" s="32">
+        <f t="shared" si="6"/>
+        <v>0.16609867554798233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22" s="26">
         <v>44122</v>
       </c>
@@ -6634,16 +6885,16 @@
         <v>1.4948256036795707E-2</v>
       </c>
       <c r="K22" s="13">
-        <f t="shared" si="8"/>
-        <v>3.8499885287695559E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.8497597306883284E-2</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" si="5"/>
         <v>4571</v>
       </c>
       <c r="M22">
-        <f t="shared" si="6"/>
-        <v>90783</v>
+        <f t="shared" si="7"/>
+        <v>90786</v>
       </c>
       <c r="N22">
         <v>12</v>
@@ -6670,11 +6921,11 @@
         <v>8948</v>
       </c>
       <c r="V22" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>EQUAL</v>
       </c>
       <c r="W22" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>EQUAL</v>
       </c>
       <c r="X22" t="str">
@@ -6682,11 +6933,22 @@
         <v>EQUAL</v>
       </c>
       <c r="Y22" t="str">
-        <f t="shared" si="11"/>
-        <v>EQUAL</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25">
+        <f t="shared" si="13"/>
+        <v>EQUAL</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="8"/>
+        <v>4423</v>
+      </c>
+      <c r="AA22">
+        <v>25822</v>
+      </c>
+      <c r="AB22" s="32">
+        <f t="shared" si="6"/>
+        <v>0.17128804895050731</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23" s="26">
         <v>44129</v>
       </c>
@@ -6703,7 +6965,7 @@
         <v>88</v>
       </c>
       <c r="F23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>225</v>
       </c>
       <c r="G23" s="24">
@@ -6722,16 +6984,16 @@
         <v>9.14380714879468E-3</v>
       </c>
       <c r="K23" s="13">
-        <f t="shared" si="8"/>
-        <v>2.3945420074092307E-2</v>
+        <f t="shared" si="10"/>
+        <v>2.3943132093280028E-2</v>
       </c>
       <c r="L23" s="1">
         <f t="shared" si="5"/>
         <v>4659</v>
       </c>
       <c r="M23">
-        <f t="shared" si="6"/>
-        <v>100407</v>
+        <f t="shared" si="7"/>
+        <v>100410</v>
       </c>
       <c r="N23">
         <v>4</v>
@@ -6758,11 +7020,11 @@
         <v>8190</v>
       </c>
       <c r="V23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>EQUAL</v>
       </c>
       <c r="W23" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>EQUAL</v>
       </c>
       <c r="X23" t="str">
@@ -6770,11 +7032,22 @@
         <v>EQUAL</v>
       </c>
       <c r="Y23" t="str">
-        <f t="shared" si="11"/>
-        <v>EQUAL</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25">
+        <f t="shared" si="13"/>
+        <v>EQUAL</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="8"/>
+        <v>4505</v>
+      </c>
+      <c r="AA23">
+        <v>25822</v>
+      </c>
+      <c r="AB23" s="32">
+        <f t="shared" si="6"/>
+        <v>0.17446363565951514</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" s="26">
         <v>44136</v>
       </c>
@@ -6791,7 +7064,7 @@
         <v>77</v>
       </c>
       <c r="F24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>142.5</v>
       </c>
       <c r="G24" s="24">
@@ -6810,16 +7083,16 @@
         <v>1.5593357634669907E-2</v>
       </c>
       <c r="K24" s="13">
-        <f t="shared" si="8"/>
-        <v>1.6812753411640961E-2</v>
+        <f t="shared" si="10"/>
+        <v>1.6810465430828685E-2</v>
       </c>
       <c r="L24" s="1">
         <f t="shared" si="5"/>
         <v>4736</v>
       </c>
       <c r="M24">
-        <f t="shared" si="6"/>
-        <v>105345</v>
+        <f t="shared" si="7"/>
+        <v>105348</v>
       </c>
       <c r="N24">
         <v>2</v>
@@ -6846,23 +7119,34 @@
         <v>4057</v>
       </c>
       <c r="V24" t="str">
-        <f t="shared" ref="V24" si="12">IF(N24+P24=E24,"EQUAL","DIFFER")</f>
+        <f t="shared" ref="V24" si="14">IF(N24+P24=E24,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="W24" t="str">
-        <f t="shared" ref="W24" si="13">IF(O24+Q24=H24,"EQUAL","DIFFER")</f>
+        <f t="shared" ref="W24" si="15">IF(O24+Q24=H24,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="X24" t="str">
-        <f t="shared" ref="X24" si="14">IF(T24+R24=E24,"EQUAL","DIFFER")</f>
+        <f t="shared" ref="X24" si="16">IF(T24+R24=E24,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="Y24" t="str">
-        <f t="shared" ref="Y24" si="15">IF(U24+S24=H24,"EQUAL","DIFFER")</f>
-        <v>EQUAL</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25">
+        <f t="shared" ref="Y24" si="17">IF(U24+S24=H24,"EQUAL","DIFFER")</f>
+        <v>EQUAL</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="8"/>
+        <v>4576</v>
+      </c>
+      <c r="AA24">
+        <v>25822</v>
+      </c>
+      <c r="AB24" s="32">
+        <f t="shared" si="6"/>
+        <v>0.17721322902950973</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -6870,7 +7154,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="V1:Y1 V17:Y1048576">
+  <conditionalFormatting sqref="V25:AA1048576 V17:Y24 V1:AB1">
     <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="DIFFER">
       <formula>NOT(ISERROR(SEARCH("DIFFER",V1)))</formula>
     </cfRule>
@@ -6878,7 +7162,7 @@
       <formula>NOT(ISERROR(SEARCH("EQUAL",V1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:Y16">
+  <conditionalFormatting sqref="V2:AA2 V3:Z3 AA3:AA24 V4:Y16 Z4:Z24">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="DIFFER">
       <formula>NOT(ISERROR(SEARCH("DIFFER",V2)))</formula>
     </cfRule>
@@ -6896,10 +7180,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE67BA8-2D94-544F-9655-C971E88AFA0C}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScale="124" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="138" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6964,7 +7248,7 @@
         <v>289</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D13" si="0">B5+C5</f>
+        <f t="shared" ref="D5:D14" si="0">B5+C5</f>
         <v>532</v>
       </c>
     </row>
@@ -7086,6 +7370,21 @@
       <c r="D13">
         <f t="shared" si="0"/>
         <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B14" s="9">
+        <v>40</v>
+      </c>
+      <c r="C14">
+        <v>39</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/clemsonDashboard.xlsx
+++ b/clemsonDashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidferrara/Documents/Clemson/The Tiger/COVID-19/Data/ttn-clemson-covid-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC8B72A-88BA-7747-835B-3C3A40D74A1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2733A974-E284-8C4C-9824-3BAB6E993F2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="460" windowWidth="28040" windowHeight="16260" xr2:uid="{663FE1B6-0B7E-E04A-924C-6AB15F4F5852}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14360" windowHeight="18000" activeTab="1" xr2:uid="{663FE1B6-0B7E-E04A-924C-6AB15F4F5852}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Data" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -275,6 +275,9 @@
   <si>
     <t>End Reporting by The Tiger News</t>
   </si>
+  <si>
+    <t>CSP Since IPI</t>
+  </si>
 </sst>
 </file>
 
@@ -393,7 +396,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -445,6 +448,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -823,7 +830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2018E299-360B-F244-BDDD-9B449D0B7C0F}">
   <dimension ref="A1:X72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
@@ -4921,10 +4928,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D56922A-034D-7E4D-80AB-A29316427207}">
-  <dimension ref="A1:AC25"/>
+  <dimension ref="A1:AD25"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4953,11 +4960,12 @@
     <col min="24" max="24" width="16.6640625" customWidth="1"/>
     <col min="25" max="25" width="13.1640625" customWidth="1"/>
     <col min="26" max="26" width="24.33203125" customWidth="1"/>
-    <col min="27" max="27" width="17.33203125" customWidth="1"/>
-    <col min="28" max="28" width="18.1640625" customWidth="1"/>
+    <col min="27" max="27" width="11.5" customWidth="1"/>
+    <col min="28" max="28" width="17.33203125" customWidth="1"/>
+    <col min="29" max="29" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="17" customHeight="1">
+    <row r="1" spans="1:30" ht="17" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -5037,13 +5045,16 @@
         <v>41</v>
       </c>
       <c r="AA1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="17" customHeight="1">
+    <row r="2" spans="1:30" ht="17" customHeight="1">
       <c r="A2" s="25">
         <v>43987</v>
       </c>
@@ -5072,7 +5083,7 @@
         <v>158.77933545039113</v>
       </c>
       <c r="J2" s="4">
-        <f t="shared" ref="J2:J24" si="0">E2/H2</f>
+        <f t="shared" ref="J2:J25" si="0">E2/H2</f>
         <v>2.4390243902439025E-2</v>
       </c>
       <c r="K2" s="23"/>
@@ -5114,18 +5125,19 @@
         <f>T2</f>
         <v>1</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="34"/>
+      <c r="AB2">
         <v>25822</v>
       </c>
-      <c r="AB2" s="32">
-        <f>Z2/AA2</f>
+      <c r="AC2" s="32">
+        <f>Z2/AB2</f>
         <v>3.872666718302223E-5</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:30">
       <c r="A3" s="5">
         <v>43989</v>
       </c>
@@ -5143,14 +5155,14 @@
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="24">
-        <f t="shared" ref="G3:G24" si="3">(E3/25822)*100000</f>
+        <f t="shared" ref="G3:G25" si="3">(E3/25822)*100000</f>
         <v>15.490666873208893</v>
       </c>
       <c r="H3">
         <v>143</v>
       </c>
       <c r="I3" s="9">
-        <f t="shared" ref="I3:I24" si="4">(H3/25822)*100000</f>
+        <f t="shared" ref="I3:I25" si="4">(H3/25822)*100000</f>
         <v>553.79134071721785</v>
       </c>
       <c r="J3" s="4">
@@ -5159,7 +5171,7 @@
       </c>
       <c r="K3" s="23"/>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L24" si="5">E3+L2</f>
+        <f t="shared" ref="L3:L25" si="5">E3+L2</f>
         <v>5</v>
       </c>
       <c r="M3">
@@ -5196,18 +5208,19 @@
         <f>Z2+T3</f>
         <v>5</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="34"/>
+      <c r="AB3">
         <v>25822</v>
       </c>
-      <c r="AB3" s="32">
-        <f t="shared" ref="AB3:AB24" si="6">Z3/AA3</f>
+      <c r="AC3" s="32">
+        <f t="shared" ref="AC3:AC24" si="6">Z3/AB3</f>
         <v>1.9363333591511115E-4</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:30">
       <c r="A4" s="5">
         <v>43996</v>
       </c>
@@ -5245,7 +5258,7 @@
         <v>92</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M24" si="7">H4+M3</f>
+        <f t="shared" ref="M4:M25" si="7">H4+M3</f>
         <v>461</v>
       </c>
       <c r="N4" s="20"/>
@@ -5278,15 +5291,16 @@
         <f t="shared" ref="Z4:Z24" si="8">Z3+T4</f>
         <v>90</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="34"/>
+      <c r="AB4">
         <v>25822</v>
       </c>
-      <c r="AB4" s="32">
+      <c r="AC4" s="32">
         <f t="shared" si="6"/>
         <v>3.4854000464720008E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:30">
       <c r="A5" s="5">
         <v>44003</v>
       </c>
@@ -5363,18 +5377,19 @@
         <f t="shared" si="8"/>
         <v>135</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" s="34"/>
+      <c r="AB5">
         <v>25822</v>
       </c>
-      <c r="AB5" s="32">
+      <c r="AC5" s="32">
         <f t="shared" si="6"/>
         <v>5.2281000697080009E-3</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:30">
       <c r="A6" s="5">
         <v>44010</v>
       </c>
@@ -5391,7 +5406,7 @@
         <v>29</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F24" si="9">AVERAGE(E3:E6)</f>
+        <f t="shared" ref="F6:F25" si="9">AVERAGE(E3:E6)</f>
         <v>41.5</v>
       </c>
       <c r="G6" s="24">
@@ -5410,7 +5425,7 @@
         <v>0.19463087248322147</v>
       </c>
       <c r="K6" s="13">
-        <f t="shared" ref="K6:K24" si="10">AVERAGE(J3:J6)</f>
+        <f t="shared" ref="K6:K25" si="10">AVERAGE(J3:J6)</f>
         <v>0.17276118473632587</v>
       </c>
       <c r="L6" s="1">
@@ -5451,18 +5466,19 @@
         <f t="shared" si="8"/>
         <v>160</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="34"/>
+      <c r="AB6">
         <v>25822</v>
       </c>
-      <c r="AB6" s="32">
+      <c r="AC6" s="32">
         <f t="shared" si="6"/>
         <v>6.1962667492835568E-3</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:30">
       <c r="A7" s="5">
         <v>44017</v>
       </c>
@@ -5539,15 +5555,16 @@
         <f t="shared" si="8"/>
         <v>172</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" s="34"/>
+      <c r="AB7">
         <v>25822</v>
       </c>
-      <c r="AB7" s="32">
+      <c r="AC7" s="32">
         <f t="shared" si="6"/>
         <v>6.6609867554798235E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:30">
       <c r="A8" s="5">
         <v>44024</v>
       </c>
@@ -5624,15 +5641,16 @@
         <f t="shared" si="8"/>
         <v>181</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" s="34"/>
+      <c r="AB8">
         <v>25822</v>
       </c>
-      <c r="AB8" s="32">
+      <c r="AC8" s="32">
         <f t="shared" si="6"/>
         <v>7.0095267601270233E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:30">
       <c r="A9" s="5">
         <v>44031</v>
       </c>
@@ -5709,15 +5727,16 @@
         <f t="shared" si="8"/>
         <v>201</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" s="34"/>
+      <c r="AB9">
         <v>25822</v>
       </c>
-      <c r="AB9" s="32">
+      <c r="AC9" s="32">
         <f t="shared" si="6"/>
         <v>7.784060103787468E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:30">
       <c r="A10" s="5">
         <v>44038</v>
       </c>
@@ -5794,15 +5813,16 @@
         <f t="shared" si="8"/>
         <v>211</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" s="34"/>
+      <c r="AB10">
         <v>25822</v>
       </c>
-      <c r="AB10" s="32">
+      <c r="AC10" s="32">
         <f t="shared" si="6"/>
         <v>8.1713267756176912E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:30">
       <c r="A11" s="5">
         <v>44045</v>
       </c>
@@ -5879,15 +5899,16 @@
         <f t="shared" si="8"/>
         <v>216</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" s="34"/>
+      <c r="AB11">
         <v>25822</v>
       </c>
-      <c r="AB11" s="32">
+      <c r="AC11" s="32">
         <f t="shared" si="6"/>
         <v>8.3649601115328015E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:30">
       <c r="A12" s="5">
         <v>44052</v>
       </c>
@@ -5964,15 +5985,16 @@
         <f t="shared" si="8"/>
         <v>220</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" s="34"/>
+      <c r="AB12">
         <v>25822</v>
       </c>
-      <c r="AB12" s="32">
+      <c r="AC12" s="32">
         <f t="shared" si="6"/>
         <v>8.5198667802648901E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:30">
       <c r="A13" s="5">
         <v>44059</v>
       </c>
@@ -6049,15 +6071,16 @@
         <f t="shared" si="8"/>
         <v>242</v>
       </c>
-      <c r="AA13">
+      <c r="AA13" s="34"/>
+      <c r="AB13">
         <v>25822</v>
       </c>
-      <c r="AB13" s="32">
+      <c r="AC13" s="32">
         <f t="shared" si="6"/>
         <v>9.37185345829138E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:30">
       <c r="A14" s="5">
         <v>44066</v>
       </c>
@@ -6148,15 +6171,16 @@
         <f t="shared" si="8"/>
         <v>415</v>
       </c>
-      <c r="AA14">
+      <c r="AA14" s="34"/>
+      <c r="AB14">
         <v>25822</v>
       </c>
-      <c r="AB14" s="32">
+      <c r="AC14" s="32">
         <f t="shared" si="6"/>
         <v>1.6071566880954225E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:30">
       <c r="A15" s="5">
         <v>44073</v>
       </c>
@@ -6247,15 +6271,16 @@
         <f t="shared" si="8"/>
         <v>1260</v>
       </c>
-      <c r="AA15">
+      <c r="AA15" s="34"/>
+      <c r="AB15">
         <v>25822</v>
       </c>
-      <c r="AB15" s="32">
+      <c r="AC15" s="32">
         <f t="shared" si="6"/>
         <v>4.8795600650608006E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:30">
       <c r="A16" s="5">
         <v>44080</v>
       </c>
@@ -6346,15 +6371,16 @@
         <f t="shared" si="8"/>
         <v>1737</v>
       </c>
-      <c r="AA16">
+      <c r="AA16" s="34"/>
+      <c r="AB16">
         <v>25822</v>
       </c>
-      <c r="AB16" s="32">
+      <c r="AC16" s="32">
         <f t="shared" si="6"/>
         <v>6.7268220896909606E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:29">
       <c r="A17" s="5">
         <v>44087</v>
       </c>
@@ -6445,15 +6471,16 @@
         <f t="shared" si="8"/>
         <v>2592</v>
       </c>
-      <c r="AA17">
+      <c r="AA17" s="34"/>
+      <c r="AB17">
         <v>25822</v>
       </c>
-      <c r="AB17" s="32">
+      <c r="AC17" s="32">
         <f t="shared" si="6"/>
         <v>0.10037952133839362</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:29">
       <c r="A18" s="5">
         <v>44094</v>
       </c>
@@ -6545,14 +6572,18 @@
         <v>3075</v>
       </c>
       <c r="AA18">
+        <f>T18</f>
+        <v>483</v>
+      </c>
+      <c r="AB18">
         <v>25822</v>
       </c>
-      <c r="AB18" s="32">
+      <c r="AC18" s="32">
         <f t="shared" si="6"/>
         <v>0.11908450158779335</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:29">
       <c r="A19" s="5">
         <v>44101</v>
       </c>
@@ -6644,14 +6675,18 @@
         <v>3653</v>
       </c>
       <c r="AA19">
+        <f>AA18+T19</f>
+        <v>1061</v>
+      </c>
+      <c r="AB19">
         <v>25822</v>
       </c>
-      <c r="AB19" s="32">
+      <c r="AC19" s="32">
         <f t="shared" si="6"/>
         <v>0.1414685152195802</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:29">
       <c r="A20" s="5">
         <v>44108</v>
       </c>
@@ -6743,21 +6778,25 @@
         <v>4054</v>
       </c>
       <c r="AA20">
+        <f t="shared" ref="AA20:AA25" si="14">AA19+T20</f>
+        <v>1462</v>
+      </c>
+      <c r="AB20">
         <v>25822</v>
       </c>
-      <c r="AB20" s="32">
+      <c r="AC20" s="32">
         <f t="shared" si="6"/>
         <v>0.1569979087599721</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
-      <c r="A21" s="26">
+    <row r="21" spans="1:29">
+      <c r="A21" s="5">
         <v>44115</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="28">
         <v>44121</v>
       </c>
       <c r="D21" s="31" t="s">
@@ -6842,14 +6881,18 @@
         <v>4289</v>
       </c>
       <c r="AA21">
+        <f t="shared" si="14"/>
+        <v>1697</v>
+      </c>
+      <c r="AB21">
         <v>25822</v>
       </c>
-      <c r="AB21" s="32">
+      <c r="AC21" s="32">
         <f t="shared" si="6"/>
         <v>0.16609867554798233</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:29">
       <c r="A22" s="26">
         <v>44122</v>
       </c>
@@ -6863,38 +6906,38 @@
         <v>38</v>
       </c>
       <c r="E22">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F22">
         <f>AVERAGE(E19:E22)</f>
-        <v>350</v>
+        <v>350.5</v>
       </c>
       <c r="G22" s="24">
         <f t="shared" si="3"/>
-        <v>604.1360080551467</v>
+        <v>611.8813414917513</v>
       </c>
       <c r="H22" s="9">
-        <v>10436</v>
+        <v>10686</v>
       </c>
       <c r="I22" s="9">
         <f t="shared" si="4"/>
-        <v>40415.149872201997</v>
+        <v>41383.316551777556</v>
       </c>
       <c r="J22" s="4">
         <f t="shared" si="0"/>
-        <v>1.4948256036795707E-2</v>
+        <v>1.4785700917087778E-2</v>
       </c>
       <c r="K22" s="13">
         <f t="shared" si="10"/>
-        <v>3.8497597306883284E-2</v>
+        <v>3.8456958526956304E-2</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" si="5"/>
-        <v>4571</v>
+        <v>4573</v>
       </c>
       <c r="M22">
         <f t="shared" si="7"/>
-        <v>90786</v>
+        <v>91036</v>
       </c>
       <c r="N22">
         <v>12</v>
@@ -6903,22 +6946,22 @@
         <v>57</v>
       </c>
       <c r="P22">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q22">
-        <v>10379</v>
+        <v>10629</v>
       </c>
       <c r="R22">
         <v>22</v>
       </c>
       <c r="S22">
-        <v>1488</v>
+        <v>1726</v>
       </c>
       <c r="T22">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="U22">
-        <v>8948</v>
+        <v>8960</v>
       </c>
       <c r="V22" t="str">
         <f t="shared" si="11"/>
@@ -6938,17 +6981,21 @@
       </c>
       <c r="Z22">
         <f t="shared" si="8"/>
-        <v>4423</v>
+        <v>4425</v>
       </c>
       <c r="AA22">
+        <f t="shared" si="14"/>
+        <v>1833</v>
+      </c>
+      <c r="AB22">
         <v>25822</v>
       </c>
-      <c r="AB22" s="32">
+      <c r="AC22" s="32">
         <f t="shared" si="6"/>
-        <v>0.17128804895050731</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28">
+        <v>0.17136550228487335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
       <c r="A23" s="26">
         <v>44129</v>
       </c>
@@ -6962,38 +7009,38 @@
         <v>38</v>
       </c>
       <c r="E23">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F23">
         <f t="shared" si="9"/>
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G23" s="24">
         <f t="shared" si="3"/>
-        <v>340.7946712105956</v>
+        <v>364.03067152040893</v>
       </c>
       <c r="H23" s="9">
-        <v>9624</v>
+        <v>9675</v>
       </c>
       <c r="I23" s="9">
         <f t="shared" si="4"/>
-        <v>37270.544496940594</v>
+        <v>37468.050499574005</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="0"/>
-        <v>9.14380714879468E-3</v>
+        <v>9.7157622739018085E-3</v>
       </c>
       <c r="K23" s="13">
         <f t="shared" si="10"/>
-        <v>2.3943132093280028E-2</v>
+        <v>2.4045482094629828E-2</v>
       </c>
       <c r="L23" s="1">
         <f t="shared" si="5"/>
-        <v>4659</v>
+        <v>4667</v>
       </c>
       <c r="M23">
         <f t="shared" si="7"/>
-        <v>100410</v>
+        <v>100711</v>
       </c>
       <c r="N23">
         <v>4</v>
@@ -7002,22 +7049,22 @@
         <v>51</v>
       </c>
       <c r="P23">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="Q23">
-        <v>9573</v>
+        <v>9624</v>
       </c>
       <c r="R23">
         <v>6</v>
       </c>
       <c r="S23">
-        <v>1434</v>
+        <v>1440</v>
       </c>
       <c r="T23">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="U23">
-        <v>8190</v>
+        <v>8235</v>
       </c>
       <c r="V23" t="str">
         <f t="shared" si="11"/>
@@ -7037,21 +7084,25 @@
       </c>
       <c r="Z23">
         <f t="shared" si="8"/>
-        <v>4505</v>
+        <v>4513</v>
       </c>
       <c r="AA23">
+        <f t="shared" si="14"/>
+        <v>1921</v>
+      </c>
+      <c r="AB23">
         <v>25822</v>
       </c>
-      <c r="AB23" s="32">
+      <c r="AC23" s="32">
         <f t="shared" si="6"/>
-        <v>0.17446363565951514</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28">
+        <v>0.17477344899697933</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29">
       <c r="A24" s="26">
         <v>44136</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="33" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="26">
@@ -7061,100 +7112,201 @@
         <v>38</v>
       </c>
       <c r="E24">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="F24">
         <f t="shared" si="9"/>
-        <v>142.5</v>
+        <v>151.5</v>
       </c>
       <c r="G24" s="24">
         <f t="shared" si="3"/>
-        <v>298.19533730927117</v>
+        <v>406.63000542173342</v>
       </c>
       <c r="H24" s="9">
-        <v>4938</v>
+        <v>7757</v>
       </c>
       <c r="I24" s="9">
         <f t="shared" si="4"/>
-        <v>19123.228254976377</v>
+        <v>30040.275733870341</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="0"/>
-        <v>1.5593357634669907E-2</v>
+        <v>1.3536160886940828E-2</v>
       </c>
       <c r="K24" s="13">
         <f t="shared" si="10"/>
-        <v>1.6810465430828685E-2</v>
+        <v>1.6398516245246214E-2</v>
       </c>
       <c r="L24" s="1">
         <f t="shared" si="5"/>
-        <v>4736</v>
+        <v>4772</v>
       </c>
       <c r="M24">
         <f t="shared" si="7"/>
-        <v>105348</v>
+        <v>108468</v>
       </c>
       <c r="N24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O24">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="P24">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="Q24">
-        <v>4914</v>
+        <v>7712</v>
       </c>
       <c r="R24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S24">
-        <v>881</v>
+        <v>915</v>
       </c>
       <c r="T24">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="U24">
-        <v>4057</v>
+        <v>6842</v>
       </c>
       <c r="V24" t="str">
-        <f t="shared" ref="V24" si="14">IF(N24+P24=E24,"EQUAL","DIFFER")</f>
+        <f t="shared" ref="V24" si="15">IF(N24+P24=E24,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="W24" t="str">
-        <f t="shared" ref="W24" si="15">IF(O24+Q24=H24,"EQUAL","DIFFER")</f>
+        <f t="shared" ref="W24" si="16">IF(O24+Q24=H24,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="X24" t="str">
-        <f t="shared" ref="X24" si="16">IF(T24+R24=E24,"EQUAL","DIFFER")</f>
+        <f t="shared" ref="X24" si="17">IF(T24+R24=E24,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="Y24" t="str">
-        <f t="shared" ref="Y24" si="17">IF(U24+S24=H24,"EQUAL","DIFFER")</f>
+        <f t="shared" ref="Y24" si="18">IF(U24+S24=H24,"EQUAL","DIFFER")</f>
         <v>EQUAL</v>
       </c>
       <c r="Z24">
         <f t="shared" si="8"/>
-        <v>4576</v>
+        <v>4613</v>
       </c>
       <c r="AA24">
+        <f t="shared" si="14"/>
+        <v>2021</v>
+      </c>
+      <c r="AB24">
         <v>25822</v>
       </c>
-      <c r="AB24" s="32">
+      <c r="AC24" s="32">
         <f t="shared" si="6"/>
-        <v>0.17721322902950973</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+        <v>0.17864611571528155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29">
+      <c r="A25" s="26">
+        <v>44143</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="26">
+        <v>44139</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25">
+        <v>88</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="9"/>
+        <v>111.25</v>
+      </c>
+      <c r="G25" s="24">
+        <f t="shared" si="3"/>
+        <v>340.7946712105956</v>
+      </c>
+      <c r="H25" s="9">
+        <v>8844</v>
+      </c>
+      <c r="I25" s="9">
+        <f t="shared" si="4"/>
+        <v>34249.864456664858</v>
+      </c>
+      <c r="J25" s="4">
+        <f t="shared" si="0"/>
+        <v>9.9502487562189053E-3</v>
+      </c>
+      <c r="K25" s="13">
+        <f t="shared" si="10"/>
+        <v>1.199696820853733E-2</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="5"/>
+        <v>4860</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="7"/>
+        <v>117312</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25">
+        <v>19</v>
+      </c>
+      <c r="P25">
+        <v>85</v>
+      </c>
+      <c r="Q25">
+        <v>8825</v>
+      </c>
+      <c r="R25">
+        <v>7</v>
+      </c>
+      <c r="S25">
+        <v>1498</v>
+      </c>
+      <c r="T25">
+        <v>81</v>
+      </c>
+      <c r="U25">
+        <v>7346</v>
+      </c>
+      <c r="V25" t="str">
+        <f t="shared" ref="V25" si="19">IF(N25+P25=E25,"EQUAL","DIFFER")</f>
+        <v>EQUAL</v>
+      </c>
+      <c r="W25" t="str">
+        <f t="shared" ref="W25" si="20">IF(O25+Q25=H25,"EQUAL","DIFFER")</f>
+        <v>EQUAL</v>
+      </c>
+      <c r="X25" t="str">
+        <f t="shared" ref="X25" si="21">IF(T25+R25=E25,"EQUAL","DIFFER")</f>
+        <v>EQUAL</v>
+      </c>
+      <c r="Y25" t="str">
+        <f t="shared" ref="Y25" si="22">IF(U25+S25=H25,"EQUAL","DIFFER")</f>
+        <v>EQUAL</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" ref="Z25" si="23">Z24+T25</f>
+        <v>4694</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="14"/>
+        <v>2102</v>
+      </c>
+      <c r="AB25">
+        <v>25822</v>
+      </c>
+      <c r="AC25" s="32">
+        <f t="shared" ref="AC25" si="24">Z25/AB25</f>
+        <v>0.18178297575710634</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="V25:AA1048576 V17:Y24 V1:AB1">
+  <conditionalFormatting sqref="V26:AB1048576 V1:AC1 V17:Y25">
     <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="DIFFER">
       <formula>NOT(ISERROR(SEARCH("DIFFER",V1)))</formula>
     </cfRule>
@@ -7162,7 +7314,7 @@
       <formula>NOT(ISERROR(SEARCH("EQUAL",V1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:AA2 V3:Z3 AA3:AA24 V4:Y16 Z4:Z24">
+  <conditionalFormatting sqref="V2:AB2 V3:AA3 V4:Y16 AB3:AB25 Z4:AA25">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="DIFFER">
       <formula>NOT(ISERROR(SEARCH("DIFFER",V2)))</formula>
     </cfRule>
@@ -7180,7 +7332,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE67BA8-2D94-544F-9655-C971E88AFA0C}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView zoomScale="138" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
@@ -7248,7 +7400,7 @@
         <v>289</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D14" si="0">B5+C5</f>
+        <f t="shared" ref="D5:D15" si="0">B5+C5</f>
         <v>532</v>
       </c>
     </row>
@@ -7385,6 +7537,21 @@
       <c r="D14">
         <f t="shared" si="0"/>
         <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
+        <v>44147</v>
+      </c>
+      <c r="B15" s="9">
+        <v>43</v>
+      </c>
+      <c r="C15">
+        <v>54</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/clemsonDashboard.xlsx
+++ b/clemsonDashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidferrara/Documents/Clemson/The Tiger/COVID-19/Data/ttn-clemson-covid-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBFC104-0550-7C49-B8A1-8B2DC8F48C70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4820186E-C614-CF4D-A3A8-D14BA7C783F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14360" windowHeight="18000" activeTab="1" xr2:uid="{663FE1B6-0B7E-E04A-924C-6AB15F4F5852}"/>
+    <workbookView xWindow="14600" yWindow="0" windowWidth="14200" windowHeight="18000" activeTab="1" xr2:uid="{663FE1B6-0B7E-E04A-924C-6AB15F4F5852}"/>
   </bookViews>
   <sheets>
     <sheet name="clemsonUnivDaily" sheetId="5" r:id="rId1"/>
@@ -962,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B81E17A-BB2F-084F-AD91-08C014A58162}">
-  <dimension ref="A1:R119"/>
+  <dimension ref="A1:R126"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="O120" sqref="O120"/>
+    <sheetView topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111:A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3965,7 +3965,7 @@
         <v>1</v>
       </c>
       <c r="F72">
-        <f t="shared" ref="F72:F116" si="14">AVERAGE(B66:B72)</f>
+        <f t="shared" ref="F72:F122" si="14">AVERAGE(B66:B72)</f>
         <v>13.571428571428571</v>
       </c>
       <c r="G72" s="53">
@@ -5111,7 +5111,7 @@
         <v>1.0546858368650668E-2</v>
       </c>
       <c r="I98" s="57">
-        <f t="shared" ref="I98:I116" si="20">(B98/26406)*100000</f>
+        <f t="shared" ref="I98:I115" si="20">(B98/26406)*100000</f>
         <v>200.71195940316593</v>
       </c>
       <c r="J98">
@@ -5259,7 +5259,7 @@
         <v>2</v>
       </c>
       <c r="C102">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D102" s="7">
         <v>1</v>
@@ -5274,11 +5274,11 @@
       </c>
       <c r="G102" s="53">
         <f t="shared" ref="G102:G111" si="22">B102/C102</f>
-        <v>5.1150895140664966E-3</v>
+        <v>5.1020408163265302E-3</v>
       </c>
       <c r="H102" s="61">
         <f t="shared" si="16"/>
-        <v>7.1915109350990632E-3</v>
+        <v>7.189336152142403E-3</v>
       </c>
       <c r="I102" s="57">
         <f t="shared" si="20"/>
@@ -5301,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="C103">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D103" s="54">
         <v>0</v>
@@ -5320,7 +5320,7 @@
       </c>
       <c r="H103" s="61">
         <f t="shared" si="16"/>
-        <v>7.1915109350990632E-3</v>
+        <v>7.189336152142403E-3</v>
       </c>
       <c r="I103" s="57">
         <f t="shared" si="20"/>
@@ -5340,41 +5340,41 @@
         <v>44164</v>
       </c>
       <c r="B104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C104">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D104" s="7">
         <v>2</v>
       </c>
       <c r="E104" s="54">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104">
         <f t="shared" si="14"/>
-        <v>13.666666666666666</v>
+        <v>13.833333333333334</v>
       </c>
       <c r="G104" s="53">
         <f t="shared" si="22"/>
-        <v>3.1496062992125984E-3</v>
+        <v>4.7169811320754715E-3</v>
       </c>
       <c r="H104" s="61">
         <f t="shared" si="16"/>
-        <v>7.0754196772755224E-3</v>
+        <v>7.3344740331293401E-3</v>
       </c>
       <c r="I104" s="57">
         <f t="shared" si="20"/>
-        <v>7.5740362038930549</v>
+        <v>11.361054305839582</v>
       </c>
       <c r="J104">
         <f t="shared" si="17"/>
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K104">
         <f t="shared" si="15"/>
-        <v>198.71428571428572</v>
+        <v>198.85714285714286</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -5385,7 +5385,7 @@
         <v>25</v>
       </c>
       <c r="C105">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="D105" s="7">
         <v>13</v>
@@ -5396,15 +5396,15 @@
       </c>
       <c r="F105">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>9.1666666666666661</v>
       </c>
       <c r="G105" s="53">
         <f t="shared" si="22"/>
-        <v>2.0678246484698098E-2</v>
+        <v>2.0644095788604461E-2</v>
       </c>
       <c r="H105" s="61">
         <f t="shared" si="16"/>
-        <v>7.6951274247252068E-3</v>
+        <v>7.9484899978967509E-3</v>
       </c>
       <c r="I105" s="57">
         <f t="shared" si="20"/>
@@ -5412,11 +5412,11 @@
       </c>
       <c r="J105">
         <f t="shared" si="17"/>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K105">
         <f t="shared" si="15"/>
-        <v>181</v>
+        <v>181.28571428571428</v>
       </c>
       <c r="L105">
         <v>3</v>
@@ -5444,7 +5444,7 @@
       </c>
       <c r="F106">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="G106" s="53">
         <f t="shared" si="22"/>
@@ -5452,7 +5452,7 @@
       </c>
       <c r="H106" s="61">
         <f t="shared" si="16"/>
-        <v>7.6604602252784218E-3</v>
+        <v>7.9138227984499668E-3</v>
       </c>
       <c r="I106" s="57">
         <f t="shared" si="20"/>
@@ -5460,11 +5460,11 @@
       </c>
       <c r="J106">
         <f t="shared" si="17"/>
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K106">
         <f t="shared" si="15"/>
-        <v>162</v>
+        <v>162.42857142857142</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -5486,7 +5486,7 @@
       </c>
       <c r="F107">
         <f t="shared" si="14"/>
-        <v>9.3333333333333339</v>
+        <v>9.5</v>
       </c>
       <c r="G107" s="53">
         <f t="shared" si="22"/>
@@ -5494,7 +5494,7 @@
       </c>
       <c r="H107" s="61">
         <f t="shared" si="16"/>
-        <v>9.4700062535492142E-3</v>
+        <v>9.7233688267207574E-3</v>
       </c>
       <c r="I107" s="57">
         <f t="shared" si="20"/>
@@ -5502,11 +5502,11 @@
       </c>
       <c r="J107">
         <f t="shared" ref="J107:J115" si="23">SUM(B98:B107)</f>
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K107">
         <f t="shared" si="15"/>
-        <v>144.71428571428572</v>
+        <v>145.28571428571428</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -5528,7 +5528,7 @@
       </c>
       <c r="F108">
         <f t="shared" si="14"/>
-        <v>11</v>
+        <v>11.142857142857142</v>
       </c>
       <c r="G108" s="53">
         <f t="shared" si="22"/>
@@ -5536,7 +5536,7 @@
       </c>
       <c r="H108" s="61">
         <f t="shared" si="16"/>
-        <v>1.1367419073232557E-2</v>
+        <v>1.1584586993093879E-2</v>
       </c>
       <c r="I108" s="57">
         <f t="shared" si="20"/>
@@ -5544,11 +5544,11 @@
       </c>
       <c r="J108">
         <f t="shared" si="23"/>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K108">
         <f t="shared" si="15"/>
-        <v>130.14285714285714</v>
+        <v>130.85714285714286</v>
       </c>
       <c r="L108">
         <v>0</v>
@@ -5576,7 +5576,7 @@
       </c>
       <c r="F109">
         <f t="shared" si="14"/>
-        <v>11.857142857142858</v>
+        <v>12</v>
       </c>
       <c r="G109" s="35">
         <f t="shared" si="22"/>
@@ -5584,7 +5584,7 @@
       </c>
       <c r="H109" s="61">
         <f t="shared" si="16"/>
-        <v>1.2714614077716563E-2</v>
+        <v>1.2933646097255025E-2</v>
       </c>
       <c r="I109" s="58">
         <f t="shared" si="20"/>
@@ -5592,11 +5592,11 @@
       </c>
       <c r="J109">
         <f t="shared" si="23"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K109">
         <f t="shared" si="15"/>
-        <v>116.71428571428571</v>
+        <v>117.57142857142857</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -5618,7 +5618,7 @@
       </c>
       <c r="F110">
         <f t="shared" si="14"/>
-        <v>12.142857142857142</v>
+        <v>12.285714285714286</v>
       </c>
       <c r="G110" s="35">
         <f t="shared" si="22"/>
@@ -5626,7 +5626,7 @@
       </c>
       <c r="H110" s="61">
         <f t="shared" si="16"/>
-        <v>0.1079527093158118</v>
+        <v>0.10817174133535025</v>
       </c>
       <c r="I110" s="58">
         <f t="shared" si="20"/>
@@ -5634,11 +5634,11 @@
       </c>
       <c r="J110">
         <f t="shared" si="23"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K110">
         <f t="shared" si="15"/>
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -5668,7 +5668,7 @@
       </c>
       <c r="H111" s="61">
         <f t="shared" si="16"/>
-        <v>0.10750276555878142</v>
+        <v>0.10749788688791091</v>
       </c>
       <c r="I111" s="58">
         <f t="shared" si="20"/>
@@ -5676,11 +5676,11 @@
       </c>
       <c r="J111">
         <f t="shared" si="23"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K111">
         <f t="shared" si="15"/>
-        <v>103.71428571428571</v>
+        <v>104.71428571428571</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -5691,7 +5691,7 @@
         <v>23</v>
       </c>
       <c r="C112">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D112" s="7">
         <v>22</v>
@@ -5706,11 +5706,11 @@
       </c>
       <c r="G112" s="35">
         <f>B112/C112</f>
-        <v>3.789126853377265E-2</v>
+        <v>3.7828947368421052E-2</v>
       </c>
       <c r="H112" s="61">
         <f t="shared" si="16"/>
-        <v>0.10996176870864922</v>
+        <v>0.10995286568502756</v>
       </c>
       <c r="I112" s="58">
         <f t="shared" si="20"/>
@@ -5718,11 +5718,11 @@
       </c>
       <c r="J112">
         <f t="shared" si="23"/>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K112">
         <f t="shared" si="15"/>
-        <v>103.57142857142857</v>
+        <v>104.57142857142857</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -5733,7 +5733,7 @@
         <v>10</v>
       </c>
       <c r="C113">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D113" s="7">
         <v>6</v>
@@ -5748,11 +5748,11 @@
       </c>
       <c r="G113" s="35">
         <f>B113/C113</f>
-        <v>3.0120481927710843E-2</v>
+        <v>3.003003003003003E-2</v>
       </c>
       <c r="H113" s="61">
         <f t="shared" si="16"/>
-        <v>0.11252677325237156</v>
+        <v>0.1125049485290812</v>
       </c>
       <c r="I113" s="58">
         <f t="shared" si="20"/>
@@ -5760,11 +5760,11 @@
       </c>
       <c r="J113">
         <f t="shared" si="23"/>
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K113">
         <f t="shared" si="15"/>
-        <v>103.42857142857143</v>
+        <v>104.42857142857143</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -5772,41 +5772,41 @@
         <v>44174</v>
       </c>
       <c r="B114">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C114">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="D114" s="7">
         <v>8</v>
       </c>
       <c r="E114" s="54">
         <f>ABS(B114-D114)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F114">
         <f t="shared" si="14"/>
-        <v>10.857142857142858</v>
+        <v>11</v>
       </c>
       <c r="G114" s="35">
         <f>B114/C114</f>
-        <v>9.1883614088820835E-3</v>
+        <v>9.9388379204892966E-3</v>
       </c>
       <c r="H114" s="61">
         <f t="shared" si="16"/>
-        <v>0.11159487558197421</v>
+        <v>0.11168026178891345</v>
       </c>
       <c r="I114" s="58">
         <f t="shared" si="20"/>
-        <v>45.444217223358329</v>
+        <v>49.231235325304851</v>
       </c>
       <c r="J114">
         <f t="shared" si="23"/>
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K114">
         <f t="shared" si="15"/>
-        <v>102.57142857142857</v>
+        <v>103.57142857142857</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -5814,13 +5814,13 @@
         <v>44175</v>
       </c>
       <c r="B115">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C115">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D115" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E115" s="54">
         <f>ABS(B115-D115)</f>
@@ -5828,27 +5828,27 @@
       </c>
       <c r="F115">
         <f t="shared" si="14"/>
-        <v>9.7142857142857135</v>
+        <v>10</v>
       </c>
       <c r="G115" s="35">
         <f>B115/C115</f>
-        <v>2.389705882352941E-2</v>
+        <v>2.5688073394495414E-2</v>
       </c>
       <c r="H115" s="61">
         <f t="shared" si="16"/>
-        <v>0.11175847027228804</v>
+        <v>0.11209971570365099</v>
       </c>
       <c r="I115" s="58">
         <f t="shared" si="20"/>
-        <v>49.231235325304851</v>
+        <v>53.018253427251388</v>
       </c>
       <c r="J115">
         <f t="shared" si="23"/>
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K115">
         <f t="shared" si="15"/>
-        <v>104.57142857142857</v>
+        <v>105.71428571428571</v>
       </c>
       <c r="L115">
         <v>1</v>
@@ -5862,13 +5862,13 @@
         <v>44176</v>
       </c>
       <c r="B116">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C116">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="D116" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E116" s="7">
         <f>ABS(B116-D116)</f>
@@ -5876,48 +5876,311 @@
       </c>
       <c r="F116">
         <f t="shared" si="14"/>
-        <v>10.714285714285714</v>
+        <v>11.285714285714286</v>
       </c>
       <c r="G116" s="35">
         <f>B116/C116</f>
-        <v>2.0862308762169681E-2</v>
+        <v>2.3480662983425413E-2</v>
       </c>
       <c r="H116" s="61">
-        <f t="shared" ref="H116" si="24">AVERAGE(G110:G116)</f>
-        <v>0.11266087801753306</v>
+        <f t="shared" ref="H116:H122" si="24">AVERAGE(G110:G116)</f>
+        <v>0.11337617405193255</v>
       </c>
       <c r="I116" s="58">
-        <f t="shared" ref="I116" si="25">(B116/26406)*100000</f>
-        <v>56.80527152919791</v>
+        <f t="shared" ref="I116:I122" si="25">(B116/26406)*100000</f>
+        <v>64.379307733090968</v>
       </c>
       <c r="J116">
-        <f t="shared" ref="J116" si="26">SUM(B107:B116)</f>
-        <v>121</v>
+        <f t="shared" ref="J116:J122" si="26">SUM(B107:B116)</f>
+        <v>125</v>
       </c>
       <c r="K116">
-        <f t="shared" ref="K116" si="27">AVERAGE(J110:J116)</f>
-        <v>109.28571428571429</v>
+        <f t="shared" ref="K116:K122" si="27">AVERAGE(J110:J116)</f>
+        <v>110.85714285714286</v>
       </c>
     </row>
     <row r="117" spans="1:13">
       <c r="A117" s="5">
         <v>44177</v>
       </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" s="7">
+        <v>0</v>
+      </c>
+      <c r="E117" s="7">
+        <f>ABS(B117-D117)</f>
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="G117" s="35">
+        <f>B117/C117</f>
+        <v>0</v>
+      </c>
+      <c r="H117" s="61">
+        <f t="shared" si="24"/>
+        <v>1.8138078813837315E-2</v>
+      </c>
+      <c r="I117" s="58">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="26"/>
+        <v>108</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="27"/>
+        <v>113.71428571428571</v>
+      </c>
     </row>
     <row r="118" spans="1:13">
       <c r="A118" s="5">
         <v>44178</v>
       </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>507</v>
+      </c>
+      <c r="D118" s="7">
+        <v>0</v>
+      </c>
+      <c r="E118" s="7">
+        <f>ABS(B118-D118)</f>
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="14"/>
+        <v>11.142857142857142</v>
+      </c>
+      <c r="G118" s="35">
+        <f t="shared" ref="G118:G122" si="28">B118/C118</f>
+        <v>1.9723865877712033E-3</v>
+      </c>
+      <c r="H118" s="61">
+        <f t="shared" si="24"/>
+        <v>1.8419848326376061E-2</v>
+      </c>
+      <c r="I118" s="58">
+        <f t="shared" si="25"/>
+        <v>3.7870181019465274</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="26"/>
+        <v>88</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="27"/>
+        <v>113.71428571428571</v>
+      </c>
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="5">
         <v>44179</v>
       </c>
+      <c r="B119">
+        <v>26</v>
+      </c>
+      <c r="C119">
+        <v>590</v>
+      </c>
+      <c r="D119" s="7">
+        <v>16</v>
+      </c>
+      <c r="E119" s="7">
+        <f>ABS(B119-D119)</f>
+        <v>10</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="14"/>
+        <v>11.571428571428571</v>
+      </c>
+      <c r="G119" s="35">
+        <f t="shared" si="28"/>
+        <v>4.4067796610169491E-2</v>
+      </c>
+      <c r="H119" s="61">
+        <f t="shared" si="24"/>
+        <v>1.9311112503768688E-2</v>
+      </c>
+      <c r="I119" s="58">
+        <f t="shared" si="25"/>
+        <v>98.462470650609703</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="26"/>
+        <v>106</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="27"/>
+        <v>113.28571428571429</v>
+      </c>
       <c r="L119">
         <v>1</v>
       </c>
       <c r="M119">
         <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
+      <c r="A120" s="5">
+        <v>44180</v>
+      </c>
+      <c r="B120">
+        <v>11</v>
+      </c>
+      <c r="C120">
+        <v>550</v>
+      </c>
+      <c r="D120" s="7">
+        <v>9</v>
+      </c>
+      <c r="E120" s="7">
+        <f>ABS(B120-D120)</f>
+        <v>2</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="14"/>
+        <v>11.714285714285714</v>
+      </c>
+      <c r="G120" s="35">
+        <f t="shared" si="28"/>
+        <v>0.02</v>
+      </c>
+      <c r="H120" s="61">
+        <f t="shared" si="24"/>
+        <v>1.787825107090726E-2</v>
+      </c>
+      <c r="I120" s="58">
+        <f t="shared" si="25"/>
+        <v>41.6571991214118</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="26"/>
+        <v>115</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="27"/>
+        <v>112.71428571428571</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="A121" s="5">
+        <v>44181</v>
+      </c>
+      <c r="B121">
+        <v>14</v>
+      </c>
+      <c r="C121">
+        <v>717</v>
+      </c>
+      <c r="D121" s="7">
+        <v>8</v>
+      </c>
+      <c r="E121" s="7">
+        <f>ABS(B121-D121)</f>
+        <v>6</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="14"/>
+        <v>11.857142857142858</v>
+      </c>
+      <c r="G121" s="35">
+        <f t="shared" si="28"/>
+        <v>1.9525801952580194E-2</v>
+      </c>
+      <c r="H121" s="61">
+        <f t="shared" si="24"/>
+        <v>1.9247817361205961E-2</v>
+      </c>
+      <c r="I121" s="58">
+        <f t="shared" si="25"/>
+        <v>53.018253427251388</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="26"/>
+        <v>129</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="27"/>
+        <v>112.71428571428571</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="A122" s="5">
+        <v>44182</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>179</v>
+      </c>
+      <c r="D122" s="7">
+        <v>0</v>
+      </c>
+      <c r="E122" s="7">
+        <f>ABS(B122-D122)</f>
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="14"/>
+        <v>9.8571428571428577</v>
+      </c>
+      <c r="G122" s="35">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="H122" s="61">
+        <f t="shared" si="24"/>
+        <v>1.5578092590563758E-2</v>
+      </c>
+      <c r="I122" s="58">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="26"/>
+        <v>106</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="27"/>
+        <v>111</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="M122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
+      <c r="A123" s="5">
+        <v>44183</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="A124" s="5">
+        <v>44184</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="A125" s="5">
+        <v>44185</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="A126" s="5">
+        <v>44186</v>
       </c>
     </row>
   </sheetData>
@@ -5943,7 +6206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE26567-C4FF-A14D-8A4F-7831E7630E40}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -6037,11 +6300,11 @@
         <v>0</v>
       </c>
       <c r="H3" s="35">
-        <f t="shared" ref="H3:H29" si="0">B3/D3</f>
+        <f t="shared" ref="H3:H30" si="0">B3/D3</f>
         <v>2.7972027972027972E-2</v>
       </c>
       <c r="I3" s="60">
-        <f t="shared" ref="I3:I29" si="1">(B3/26406)*100000</f>
+        <f t="shared" ref="I3:I30" si="1">(B3/26406)*100000</f>
         <v>15.14807240778611</v>
       </c>
     </row>
@@ -6053,14 +6316,14 @@
         <v>87</v>
       </c>
       <c r="C4" s="35">
-        <f t="shared" ref="C4:C29" si="2">(B4-B3)/B4</f>
+        <f t="shared" ref="C4:C30" si="2">(B4-B3)/B4</f>
         <v>0.95402298850574707</v>
       </c>
       <c r="D4">
         <v>277</v>
       </c>
       <c r="E4" s="35">
-        <f t="shared" ref="E4:E29" si="3">(D4-D3)/D4</f>
+        <f t="shared" ref="E4:E30" si="3">(D4-D3)/D4</f>
         <v>0.48375451263537905</v>
       </c>
       <c r="F4" s="1">
@@ -6870,11 +7133,11 @@
       </c>
       <c r="D27">
         <f>SUM(clemsonUnivDaily!C97:C103)</f>
-        <v>6562</v>
+        <v>6564</v>
       </c>
       <c r="E27" s="35">
         <f t="shared" si="3"/>
-        <v>-0.92502285888448643</v>
+        <v>-0.92443631931748937</v>
       </c>
       <c r="F27">
         <f>SUM(clemsonUnivDaily!D97:D103)</f>
@@ -6886,7 +7149,7 @@
       </c>
       <c r="H27" s="35">
         <f t="shared" si="0"/>
-        <v>1.2496190185918927E-2</v>
+        <v>1.2492382693479586E-2</v>
       </c>
       <c r="I27" s="60">
         <f t="shared" si="1"/>
@@ -6899,19 +7162,19 @@
       </c>
       <c r="B28" s="1">
         <f>SUM(clemsonUnivDaily!B104:B110)</f>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C28" s="35">
         <f t="shared" si="2"/>
-        <v>3.5294117647058823E-2</v>
+        <v>4.6511627906976744E-2</v>
       </c>
       <c r="D28" s="1">
         <f>SUM(clemsonUnivDaily!C104:C110)</f>
-        <v>5224</v>
+        <v>5227</v>
       </c>
       <c r="E28" s="35">
         <f t="shared" si="3"/>
-        <v>-0.25612557427258803</v>
+        <v>-0.25578725846565908</v>
       </c>
       <c r="F28" s="1">
         <f>SUM(clemsonUnivDaily!D104:D110)</f>
@@ -6919,15 +7182,15 @@
       </c>
       <c r="G28" s="1">
         <f>SUM(clemsonUnivDaily!E104:E110)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H28" s="35">
         <f t="shared" si="0"/>
-        <v>1.6271056661562023E-2</v>
+        <v>1.6453032332121677E-2</v>
       </c>
       <c r="I28" s="60">
         <f t="shared" si="1"/>
-        <v>321.89653866545478</v>
+        <v>325.68355676740134</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -6936,39 +7199,73 @@
       </c>
       <c r="B29" s="1">
         <f>SUM(clemsonUnivDaily!B111:B117)</f>
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C29" s="35">
         <f t="shared" si="2"/>
-        <v>-0.16438356164383561</v>
+        <v>-0.11688311688311688</v>
       </c>
       <c r="D29" s="1">
         <f>SUM(clemsonUnivDaily!C111:C117)</f>
-        <v>4019</v>
+        <v>4030</v>
       </c>
       <c r="E29" s="35">
         <f t="shared" si="3"/>
-        <v>-0.29982582732022889</v>
+        <v>-0.29702233250620347</v>
       </c>
       <c r="F29" s="1">
         <f>SUM(clemsonUnivDaily!D111:D117)</f>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G29" s="1">
         <f>SUM(clemsonUnivDaily!E111:E117)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H29" s="35">
         <f t="shared" si="0"/>
-        <v>1.8163722318984821E-2</v>
+        <v>1.9106699751861043E-2</v>
       </c>
       <c r="I29" s="60">
         <f t="shared" si="1"/>
-        <v>276.45232144209649</v>
+        <v>291.60039384988261</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="25"/>
+      <c r="A30" s="25">
+        <v>44184</v>
+      </c>
+      <c r="B30" s="1">
+        <f>SUM(clemsonUnivDaily!B118:B124)</f>
+        <v>52</v>
+      </c>
+      <c r="C30" s="35">
+        <f t="shared" si="2"/>
+        <v>-0.48076923076923078</v>
+      </c>
+      <c r="D30" s="1">
+        <f>SUM(clemsonUnivDaily!C118:C124)</f>
+        <v>2543</v>
+      </c>
+      <c r="E30" s="35">
+        <f t="shared" si="3"/>
+        <v>-0.5847424302005505</v>
+      </c>
+      <c r="F30" s="1">
+        <f>SUM(clemsonUnivDaily!D118:D124)</f>
+        <v>33</v>
+      </c>
+      <c r="G30" s="1">
+        <f>SUM(clemsonUnivDaily!E118:E124)</f>
+        <v>19</v>
+      </c>
+      <c r="H30" s="35">
+        <f t="shared" si="0"/>
+        <v>2.0448289421942586E-2</v>
+      </c>
+      <c r="I30" s="60">
+        <f t="shared" si="1"/>
+        <v>196.92494130121941</v>
+      </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="25"/>
@@ -6980,7 +7277,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="D14:D28 B14:B28" formulaRange="1"/>
+    <ignoredError sqref="D14:D28 B14:B28 B30" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -11994,9 +12291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D56922A-034D-7E4D-80AB-A29316427207}">
   <dimension ref="A1:AE28"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
-    </sheetView>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>

--- a/clemsonDashboard.xlsx
+++ b/clemsonDashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidferrara/Documents/Clemson/The Tiger/COVID-19/Data/ttn-clemson-covid-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4820186E-C614-CF4D-A3A8-D14BA7C783F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049C3F21-2B7D-4C4A-8411-EBB8A6ACDBEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="0" windowWidth="14200" windowHeight="18000" activeTab="1" xr2:uid="{663FE1B6-0B7E-E04A-924C-6AB15F4F5852}"/>
+    <workbookView xWindow="14600" yWindow="0" windowWidth="14200" windowHeight="18000" xr2:uid="{663FE1B6-0B7E-E04A-924C-6AB15F4F5852}"/>
   </bookViews>
   <sheets>
     <sheet name="clemsonUnivDaily" sheetId="5" r:id="rId1"/>
@@ -370,7 +370,7 @@
     <numFmt numFmtId="166" formatCode="0.000%"/>
     <numFmt numFmtId="167" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -432,6 +432,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -478,7 +485,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -569,6 +576,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -962,10 +970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B81E17A-BB2F-084F-AD91-08C014A58162}">
-  <dimension ref="A1:R126"/>
+  <dimension ref="A1:R147"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111:A117"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1032,27 +1040,27 @@
         <v>44062</v>
       </c>
       <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>197</v>
+      </c>
+      <c r="D2" s="54">
         <v>5</v>
-      </c>
-      <c r="C2">
-        <v>126</v>
-      </c>
-      <c r="D2" s="54">
-        <v>3</v>
       </c>
       <c r="E2" s="54">
         <f t="shared" ref="E2:E33" si="0">ABS(B2-D2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="19"/>
       <c r="G2" s="53">
         <f t="shared" ref="G2:G33" si="1">B2/C2</f>
-        <v>3.968253968253968E-2</v>
+        <v>3.0456852791878174E-2</v>
       </c>
       <c r="H2" s="19"/>
       <c r="I2" s="57">
         <f t="shared" ref="I2:I33" si="2">(B2/26406)*100000</f>
-        <v>18.935090509732639</v>
+        <v>22.722108611679165</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="19"/>
@@ -1062,13 +1070,13 @@
         <v>44063</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>388</v>
+        <v>253</v>
       </c>
       <c r="D3" s="54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="54">
         <f t="shared" si="0"/>
@@ -1077,12 +1085,12 @@
       <c r="F3" s="19"/>
       <c r="G3" s="53">
         <f t="shared" si="1"/>
-        <v>1.2886597938144329E-2</v>
+        <v>2.3715415019762844E-2</v>
       </c>
       <c r="H3" s="19"/>
       <c r="I3" s="57">
         <f t="shared" si="2"/>
-        <v>18.935090509732639</v>
+        <v>22.722108611679165</v>
       </c>
       <c r="J3" s="19"/>
       <c r="K3" s="19"/>
@@ -1092,13 +1100,13 @@
         <v>44064</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="D4" s="54">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E4" s="54">
         <f t="shared" si="0"/>
@@ -1107,12 +1115,12 @@
       <c r="F4" s="19"/>
       <c r="G4" s="53">
         <f t="shared" si="1"/>
-        <v>6.8273092369477914E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="H4" s="19"/>
       <c r="I4" s="57">
         <f t="shared" si="2"/>
-        <v>64.379307733090968</v>
+        <v>53.018253427251388</v>
       </c>
       <c r="J4" s="19"/>
       <c r="K4" s="19"/>
@@ -1155,7 +1163,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D6" s="54">
         <v>2</v>
@@ -1167,7 +1175,7 @@
       <c r="F6" s="19"/>
       <c r="G6" s="53">
         <f t="shared" si="1"/>
-        <v>0.18181818181818182</v>
+        <v>0.25</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="57">
@@ -1182,27 +1190,27 @@
         <v>44067</v>
       </c>
       <c r="B7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>816</v>
+        <v>629</v>
       </c>
       <c r="D7" s="54">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E7" s="54">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="53">
         <f t="shared" si="1"/>
-        <v>1.9607843137254902E-2</v>
+        <v>2.2257551669316374E-2</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="57">
         <f t="shared" si="2"/>
-        <v>60.592289631144439</v>
+        <v>53.018253427251388</v>
       </c>
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
@@ -1212,13 +1220,13 @@
         <v>44068</v>
       </c>
       <c r="B8">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8">
-        <v>373</v>
+        <v>248</v>
       </c>
       <c r="D8" s="7">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E8" s="54">
         <f t="shared" si="0"/>
@@ -1226,19 +1234,19 @@
       </c>
       <c r="F8">
         <f t="shared" ref="F8:F71" si="3">AVERAGE(B2:B8)</f>
-        <v>10.571428571428571</v>
+        <v>9.5714285714285712</v>
       </c>
       <c r="G8" s="53">
         <f t="shared" si="1"/>
-        <v>7.2386058981233251E-2</v>
+        <v>9.2741935483870969E-2</v>
       </c>
       <c r="H8" s="61">
         <f>AVERAGE(G2:G8)</f>
-        <v>7.8357209681855111E-2</v>
+        <v>9.1383510782521285E-2</v>
       </c>
       <c r="I8" s="57">
         <f t="shared" si="2"/>
-        <v>102.24948875255625</v>
+        <v>87.101416344770129</v>
       </c>
       <c r="J8" s="19"/>
       <c r="K8" s="19"/>
@@ -1248,13 +1256,13 @@
         <v>44069</v>
       </c>
       <c r="B9">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C9">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="D9" s="7">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E9" s="54">
         <f t="shared" si="0"/>
@@ -1262,19 +1270,19 @@
       </c>
       <c r="F9">
         <f t="shared" si="3"/>
-        <v>16.857142857142858</v>
+        <v>15.428571428571429</v>
       </c>
       <c r="G9" s="53">
         <f t="shared" si="1"/>
-        <v>0.13243243243243244</v>
+        <v>0.12401055408970976</v>
       </c>
       <c r="H9" s="61">
         <f t="shared" ref="H9:H72" si="4">AVERAGE(G3:G9)</f>
-        <v>9.1607194360411204E-2</v>
+        <v>0.10474832525364007</v>
       </c>
       <c r="I9" s="57">
         <f t="shared" si="2"/>
-        <v>185.56388699537985</v>
+        <v>177.98985079148679</v>
       </c>
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
@@ -1284,13 +1292,13 @@
         <v>44070</v>
       </c>
       <c r="B10">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C10">
-        <v>396</v>
+        <v>363</v>
       </c>
       <c r="D10" s="7">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E10" s="54">
         <f t="shared" si="0"/>
@@ -1298,19 +1306,19 @@
       </c>
       <c r="F10">
         <f t="shared" si="3"/>
-        <v>21.428571428571427</v>
+        <v>19.142857142857142</v>
       </c>
       <c r="G10" s="53">
         <f t="shared" si="1"/>
-        <v>9.3434343434343439E-2</v>
+        <v>8.8154269972451793E-2</v>
       </c>
       <c r="H10" s="61">
         <f t="shared" si="4"/>
-        <v>0.10311401514558251</v>
+        <v>0.11395387596116704</v>
       </c>
       <c r="I10" s="57">
         <f t="shared" si="2"/>
-        <v>140.11966977202152</v>
+        <v>121.18457926228888</v>
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
@@ -1320,13 +1328,13 @@
         <v>44071</v>
       </c>
       <c r="B11">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C11">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D11" s="7">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E11" s="54">
         <f t="shared" si="0"/>
@@ -1334,23 +1342,23 @@
       </c>
       <c r="F11">
         <f t="shared" si="3"/>
-        <v>26.142857142857142</v>
+        <v>23.142857142857142</v>
       </c>
       <c r="G11" s="53">
         <f t="shared" si="1"/>
-        <v>0.27472527472527475</v>
+        <v>0.24561403508771928</v>
       </c>
       <c r="H11" s="61">
         <f t="shared" si="4"/>
-        <v>0.13260718405355348</v>
+        <v>0.13951778573560314</v>
       </c>
       <c r="I11" s="57">
         <f t="shared" si="2"/>
-        <v>189.35090509732638</v>
+        <v>159.05476028175414</v>
       </c>
       <c r="J11">
         <f t="shared" ref="J11:J42" si="5">SUM(B2:B11)</f>
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="K11" s="19"/>
     </row>
@@ -1359,13 +1367,13 @@
         <v>44072</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D12" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="54">
         <f t="shared" si="0"/>
@@ -1373,23 +1381,23 @@
       </c>
       <c r="F12">
         <f t="shared" si="3"/>
-        <v>27.428571428571427</v>
+        <v>24.285714285714285</v>
       </c>
       <c r="G12" s="53">
         <f t="shared" si="1"/>
-        <v>0.16417910447761194</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H12" s="61">
         <f t="shared" si="4"/>
-        <v>0.1340833198580475</v>
+        <v>0.14134928756710496</v>
       </c>
       <c r="I12" s="57">
         <f t="shared" si="2"/>
-        <v>41.6571991214118</v>
+        <v>37.870181019465278</v>
       </c>
       <c r="J12">
         <f t="shared" si="5"/>
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="K12" s="19"/>
     </row>
@@ -1401,7 +1409,7 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="7">
         <v>18</v>
@@ -1412,15 +1420,15 @@
       </c>
       <c r="F13">
         <f t="shared" si="3"/>
-        <v>29.714285714285715</v>
+        <v>26.571428571428573</v>
       </c>
       <c r="G13" s="53">
         <f t="shared" si="1"/>
-        <v>0.40909090909090912</v>
+        <v>0.41860465116279072</v>
       </c>
       <c r="H13" s="61">
         <f t="shared" si="4"/>
-        <v>0.16655085232558001</v>
+        <v>0.16543566630464651</v>
       </c>
       <c r="I13" s="57">
         <f t="shared" si="2"/>
@@ -1428,7 +1436,7 @@
       </c>
       <c r="J13">
         <f t="shared" si="5"/>
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="K13" s="19"/>
     </row>
@@ -1437,13 +1445,13 @@
         <v>44074</v>
       </c>
       <c r="B14">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="C14">
-        <v>786</v>
+        <v>868</v>
       </c>
       <c r="D14" s="7">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="E14" s="54">
         <f t="shared" si="0"/>
@@ -1451,23 +1459,23 @@
       </c>
       <c r="F14">
         <f t="shared" si="3"/>
-        <v>44.285714285714285</v>
+        <v>38.428571428571431</v>
       </c>
       <c r="G14" s="53">
         <f t="shared" si="1"/>
-        <v>0.15012722646310434</v>
+        <v>0.11175115207373272</v>
       </c>
       <c r="H14" s="61">
         <f t="shared" si="4"/>
-        <v>0.18519647851498705</v>
+        <v>0.17822046636242025</v>
       </c>
       <c r="I14" s="57">
         <f t="shared" si="2"/>
-        <v>446.86813602969022</v>
+        <v>367.34075588881313</v>
       </c>
       <c r="J14">
         <f t="shared" si="5"/>
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="K14" s="19"/>
     </row>
@@ -1476,37 +1484,37 @@
         <v>44075</v>
       </c>
       <c r="B15">
-        <v>214</v>
+        <v>156</v>
       </c>
       <c r="C15">
-        <v>975</v>
+        <v>830</v>
       </c>
       <c r="D15" s="7">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c r="E15" s="54">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F15">
         <f t="shared" si="3"/>
-        <v>71</v>
+        <v>57.428571428571431</v>
       </c>
       <c r="G15" s="53">
         <f t="shared" si="1"/>
-        <v>0.2194871794871795</v>
+        <v>0.18795180722891566</v>
       </c>
       <c r="H15" s="61">
         <f t="shared" si="4"/>
-        <v>0.20621092430155083</v>
+        <v>0.19182187661171235</v>
       </c>
       <c r="I15" s="57">
         <f t="shared" si="2"/>
-        <v>810.42187381655685</v>
+        <v>590.77482390365822</v>
       </c>
       <c r="J15">
         <f t="shared" si="5"/>
-        <v>542</v>
+        <v>441</v>
       </c>
       <c r="K15" s="19"/>
     </row>
@@ -1515,13 +1523,13 @@
         <v>44076</v>
       </c>
       <c r="B16">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="C16">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="D16" s="7">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="E16" s="54">
         <f t="shared" si="0"/>
@@ -1529,23 +1537,23 @@
       </c>
       <c r="F16">
         <f t="shared" si="3"/>
-        <v>91.428571428571431</v>
+        <v>75.285714285714292</v>
       </c>
       <c r="G16" s="53">
         <f t="shared" si="1"/>
-        <v>0.13351877607788595</v>
+        <v>0.11944444444444445</v>
       </c>
       <c r="H16" s="61">
         <f t="shared" si="4"/>
-        <v>0.20636611625090132</v>
+        <v>0.19116957523381733</v>
       </c>
       <c r="I16" s="57">
         <f t="shared" si="2"/>
-        <v>727.10747557373327</v>
+        <v>651.36711353480268</v>
       </c>
       <c r="J16">
         <f t="shared" si="5"/>
-        <v>732</v>
+        <v>611</v>
       </c>
       <c r="K16" s="19"/>
     </row>
@@ -1554,13 +1562,13 @@
         <v>44077</v>
       </c>
       <c r="B17">
-        <v>213</v>
+        <v>125</v>
       </c>
       <c r="C17">
-        <v>2101</v>
+        <v>1522</v>
       </c>
       <c r="D17" s="7">
-        <v>211</v>
+        <v>123</v>
       </c>
       <c r="E17" s="54">
         <f t="shared" si="0"/>
@@ -1568,27 +1576,27 @@
       </c>
       <c r="F17">
         <f t="shared" si="3"/>
-        <v>116.57142857142857</v>
+        <v>88.571428571428569</v>
       </c>
       <c r="G17" s="53">
         <f t="shared" si="1"/>
-        <v>0.10138029509757258</v>
+        <v>8.2128777923784493E-2</v>
       </c>
       <c r="H17" s="61">
         <f t="shared" si="4"/>
-        <v>0.2075012522027912</v>
+        <v>0.19030879065543629</v>
       </c>
       <c r="I17" s="57">
         <f t="shared" si="2"/>
-        <v>806.63485571461024</v>
+        <v>473.3772627433159</v>
       </c>
       <c r="J17">
         <f t="shared" si="5"/>
-        <v>929</v>
+        <v>722</v>
       </c>
       <c r="K17">
         <f t="shared" ref="K17:K71" si="6">AVERAGE(J11:J17)</f>
-        <v>455.42857142857144</v>
+        <v>377.85714285714283</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1596,41 +1604,41 @@
         <v>44078</v>
       </c>
       <c r="B18">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="C18">
-        <v>1351</v>
+        <v>1221</v>
       </c>
       <c r="D18" s="7">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="E18" s="54">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <f t="shared" si="3"/>
-        <v>127.42857142857143</v>
+        <v>95.571428571428569</v>
       </c>
       <c r="G18" s="53">
         <f t="shared" si="1"/>
-        <v>9.3264248704663211E-2</v>
+        <v>7.4529074529074535E-2</v>
       </c>
       <c r="H18" s="61">
         <f t="shared" si="4"/>
-        <v>0.18157824848556098</v>
+        <v>0.16586808200420133</v>
       </c>
       <c r="I18" s="57">
         <f t="shared" si="2"/>
-        <v>477.16428084526245</v>
+        <v>344.61864727713396</v>
       </c>
       <c r="J18">
         <f t="shared" si="5"/>
-        <v>1028</v>
+        <v>790</v>
       </c>
       <c r="K18">
         <f t="shared" si="6"/>
-        <v>572.28571428571433</v>
+        <v>463.85714285714283</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1641,7 +1649,7 @@
         <v>16</v>
       </c>
       <c r="C19">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D19" s="7">
         <v>16</v>
@@ -1652,15 +1660,15 @@
       </c>
       <c r="F19">
         <f t="shared" si="3"/>
-        <v>128.14285714285714</v>
+        <v>96.428571428571431</v>
       </c>
       <c r="G19" s="53">
         <f t="shared" si="1"/>
-        <v>4.878048780487805E-2</v>
+        <v>4.8929663608562692E-2</v>
       </c>
       <c r="H19" s="61">
         <f t="shared" si="4"/>
-        <v>0.16509273181802753</v>
+        <v>0.14904851013875792</v>
       </c>
       <c r="I19" s="57">
         <f t="shared" si="2"/>
@@ -1668,11 +1676,11 @@
       </c>
       <c r="J19">
         <f t="shared" si="5"/>
-        <v>995</v>
+        <v>759</v>
       </c>
       <c r="K19">
         <f t="shared" si="6"/>
-        <v>683.57142857142856</v>
+        <v>544.85714285714289</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1680,13 +1688,13 @@
         <v>44080</v>
       </c>
       <c r="B20">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C20">
-        <v>601</v>
+        <v>572</v>
       </c>
       <c r="D20" s="7">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E20" s="54">
         <f t="shared" si="0"/>
@@ -1694,27 +1702,27 @@
       </c>
       <c r="F20">
         <f t="shared" si="3"/>
-        <v>131.28571428571428</v>
+        <v>98.714285714285708</v>
       </c>
       <c r="G20" s="53">
         <f t="shared" si="1"/>
-        <v>6.6555740432612309E-2</v>
+        <v>5.944055944055944E-2</v>
       </c>
       <c r="H20" s="61">
         <f t="shared" si="4"/>
-        <v>0.11615913629541372</v>
+        <v>9.7739354178439153E-2</v>
       </c>
       <c r="I20" s="57">
         <f t="shared" si="2"/>
-        <v>151.48072407786111</v>
+        <v>128.75861546618194</v>
       </c>
       <c r="J20">
         <f t="shared" si="5"/>
-        <v>998</v>
+        <v>761</v>
       </c>
       <c r="K20">
         <f t="shared" si="6"/>
-        <v>793.42857142857144</v>
+        <v>624.42857142857144</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1722,41 +1730,41 @@
         <v>44081</v>
       </c>
       <c r="B21">
-        <v>115</v>
-      </c>
-      <c r="C21">
-        <v>797</v>
+        <v>84</v>
+      </c>
+      <c r="C21" s="62">
+        <v>640</v>
       </c>
       <c r="D21" s="7">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="E21" s="54">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21">
         <f t="shared" si="3"/>
-        <v>130.85714285714286</v>
+        <v>96.857142857142861</v>
       </c>
       <c r="G21" s="53">
         <f t="shared" si="1"/>
-        <v>0.14429109159347553</v>
+        <v>0.13125000000000001</v>
       </c>
       <c r="H21" s="61">
         <f t="shared" si="4"/>
-        <v>0.11532540274260959</v>
+        <v>0.10052490388219161</v>
       </c>
       <c r="I21" s="57">
         <f t="shared" si="2"/>
-        <v>435.5070817238506</v>
+        <v>318.10952056350828</v>
       </c>
       <c r="J21">
         <f t="shared" si="5"/>
-        <v>1063</v>
+        <v>803</v>
       </c>
       <c r="K21">
         <f t="shared" si="6"/>
-        <v>898.14285714285711</v>
+        <v>698.14285714285711</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1764,41 +1772,41 @@
         <v>44082</v>
       </c>
       <c r="B22">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="C22">
-        <v>1920</v>
+        <v>1609</v>
       </c>
       <c r="D22" s="7">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="E22" s="54">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <f t="shared" si="3"/>
-        <v>119.14285714285714</v>
+        <v>89.285714285714292</v>
       </c>
       <c r="G22" s="53">
         <f t="shared" si="1"/>
-        <v>6.8750000000000006E-2</v>
+        <v>6.401491609695463E-2</v>
       </c>
       <c r="H22" s="61">
         <f t="shared" si="4"/>
-        <v>9.379151995872681E-2</v>
+        <v>8.2819633720482885E-2</v>
       </c>
       <c r="I22" s="57">
         <f t="shared" si="2"/>
-        <v>499.88638945694163</v>
+        <v>390.06286450049231</v>
       </c>
       <c r="J22">
         <f t="shared" si="5"/>
-        <v>1184</v>
+        <v>896</v>
       </c>
       <c r="K22">
         <f t="shared" si="6"/>
-        <v>989.85714285714289</v>
+        <v>763.14285714285711</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1806,41 +1814,41 @@
         <v>44083</v>
       </c>
       <c r="B23">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="C23">
-        <v>1746</v>
+        <v>1494</v>
       </c>
       <c r="D23" s="7">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="E23" s="54">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F23">
         <f t="shared" si="3"/>
-        <v>106.71428571428571</v>
+        <v>76.428571428571431</v>
       </c>
       <c r="G23" s="53">
         <f t="shared" si="1"/>
-        <v>6.0137457044673541E-2</v>
+        <v>5.4886211512717539E-2</v>
       </c>
       <c r="H23" s="61">
         <f t="shared" si="4"/>
-        <v>8.3308474382553607E-2</v>
+        <v>7.3597029015950471E-2</v>
       </c>
       <c r="I23" s="57">
         <f t="shared" si="2"/>
-        <v>397.63690070438537</v>
+        <v>310.53548435961523</v>
       </c>
       <c r="J23">
         <f t="shared" si="5"/>
-        <v>1271</v>
+        <v>960</v>
       </c>
       <c r="K23">
         <f t="shared" si="6"/>
-        <v>1066.8571428571429</v>
+        <v>813</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1848,13 +1856,13 @@
         <v>44084</v>
       </c>
       <c r="B24">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C24">
-        <v>452</v>
+        <v>424</v>
       </c>
       <c r="D24" s="7">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E24" s="54">
         <f t="shared" si="0"/>
@@ -1862,27 +1870,27 @@
       </c>
       <c r="F24">
         <f t="shared" si="3"/>
-        <v>82.714285714285708</v>
+        <v>64.285714285714292</v>
       </c>
       <c r="G24" s="53">
         <f t="shared" si="1"/>
-        <v>9.9557522123893807E-2</v>
+        <v>9.4339622641509441E-2</v>
       </c>
       <c r="H24" s="61">
         <f t="shared" si="4"/>
-        <v>8.3048078243456627E-2</v>
+        <v>7.5341435404196896E-2</v>
       </c>
       <c r="I24" s="57">
         <f t="shared" si="2"/>
-        <v>170.41581458759373</v>
+        <v>151.48072407786111</v>
       </c>
       <c r="J24">
         <f t="shared" si="5"/>
-        <v>1198</v>
+        <v>903</v>
       </c>
       <c r="K24">
         <f t="shared" si="6"/>
-        <v>1105.2857142857142</v>
+        <v>838.85714285714289</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1890,41 +1898,41 @@
         <v>44085</v>
       </c>
       <c r="B25">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C25">
-        <v>1755</v>
+        <v>1627</v>
       </c>
       <c r="D25" s="7">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E25" s="54">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <f t="shared" si="3"/>
-        <v>72.428571428571431</v>
+        <v>57.428571428571431</v>
       </c>
       <c r="G25" s="53">
         <f t="shared" si="1"/>
-        <v>3.0769230769230771E-2</v>
+        <v>2.6429010448678548E-2</v>
       </c>
       <c r="H25" s="61">
         <f t="shared" si="4"/>
-        <v>7.4120218538394858E-2</v>
+        <v>6.8469997678426042E-2</v>
       </c>
       <c r="I25" s="57">
         <f t="shared" si="2"/>
-        <v>204.49897750511249</v>
+        <v>162.84177838370067</v>
       </c>
       <c r="J25">
         <f t="shared" si="5"/>
-        <v>1038</v>
+        <v>790</v>
       </c>
       <c r="K25">
         <f t="shared" si="6"/>
-        <v>1106.7142857142858</v>
+        <v>838.85714285714289</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1932,13 +1940,13 @@
         <v>44086</v>
       </c>
       <c r="B26">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C26">
-        <v>2007</v>
+        <v>1927</v>
       </c>
       <c r="D26" s="7">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E26" s="54">
         <f t="shared" si="0"/>
@@ -1946,27 +1954,27 @@
       </c>
       <c r="F26">
         <f t="shared" si="3"/>
-        <v>72.714285714285708</v>
+        <v>57.285714285714285</v>
       </c>
       <c r="G26" s="53">
         <f t="shared" si="1"/>
-        <v>8.9686098654708519E-3</v>
+        <v>7.7841203943954333E-3</v>
       </c>
       <c r="H26" s="61">
         <f t="shared" si="4"/>
-        <v>6.8432807404193843E-2</v>
+        <v>6.2592062933545009E-2</v>
       </c>
       <c r="I26" s="57">
         <f t="shared" si="2"/>
-        <v>68.166325835037497</v>
+        <v>56.80527152919791</v>
       </c>
       <c r="J26">
         <f t="shared" si="5"/>
-        <v>864</v>
+        <v>633</v>
       </c>
       <c r="K26">
         <f t="shared" si="6"/>
-        <v>1088</v>
+        <v>820.85714285714289</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1974,41 +1982,41 @@
         <v>44087</v>
       </c>
       <c r="B27">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C27">
-        <v>2056</v>
+        <v>1901</v>
       </c>
       <c r="D27" s="7">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E27" s="54">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <f t="shared" si="3"/>
-        <v>71.857142857142861</v>
+        <v>56.285714285714285</v>
       </c>
       <c r="G27" s="53">
         <f t="shared" si="1"/>
-        <v>1.6536964980544747E-2</v>
+        <v>1.4203051025775907E-2</v>
       </c>
       <c r="H27" s="61">
         <f t="shared" si="4"/>
-        <v>6.1287268053898461E-2</v>
+        <v>5.6129561731433068E-2</v>
       </c>
       <c r="I27" s="57">
         <f t="shared" si="2"/>
-        <v>128.75861546618194</v>
+        <v>102.24948875255625</v>
       </c>
       <c r="J27">
         <f t="shared" si="5"/>
-        <v>685</v>
+        <v>535</v>
       </c>
       <c r="K27">
         <f t="shared" si="6"/>
-        <v>1043.2857142857142</v>
+        <v>788.57142857142856</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2016,41 +2024,41 @@
         <v>44088</v>
       </c>
       <c r="B28">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="C28">
-        <v>4091</v>
+        <v>3053</v>
       </c>
       <c r="D28" s="7">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="E28" s="54">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F28">
         <f t="shared" si="3"/>
-        <v>80.142857142857139</v>
+        <v>62.857142857142854</v>
       </c>
       <c r="G28" s="53">
         <f t="shared" si="1"/>
-        <v>4.2287949156685406E-2</v>
+        <v>4.2581067802161809E-2</v>
       </c>
       <c r="H28" s="61">
         <f t="shared" si="4"/>
-        <v>4.6715390562928456E-2</v>
+        <v>4.3462571417456186E-2</v>
       </c>
       <c r="I28" s="57">
         <f t="shared" si="2"/>
-        <v>655.15413163674918</v>
+        <v>492.31235325304857</v>
       </c>
       <c r="J28">
         <f t="shared" si="5"/>
-        <v>732</v>
+        <v>574</v>
       </c>
       <c r="K28">
         <f t="shared" si="6"/>
-        <v>996</v>
+        <v>755.85714285714289</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2058,13 +2066,13 @@
         <v>44089</v>
       </c>
       <c r="B29">
-        <v>266</v>
+        <v>172</v>
       </c>
       <c r="C29">
-        <v>4227</v>
+        <v>3313</v>
       </c>
       <c r="D29" s="7">
-        <v>265</v>
+        <v>171</v>
       </c>
       <c r="E29" s="54">
         <f t="shared" si="0"/>
@@ -2072,27 +2080,27 @@
       </c>
       <c r="F29">
         <f t="shared" si="3"/>
-        <v>99.285714285714292</v>
+        <v>72.714285714285708</v>
       </c>
       <c r="G29" s="53">
         <f t="shared" si="1"/>
-        <v>6.2928791104802456E-2</v>
+        <v>5.1916691820102626E-2</v>
       </c>
       <c r="H29" s="61">
         <f t="shared" si="4"/>
-        <v>4.5883789292185936E-2</v>
+        <v>4.1734253663620179E-2</v>
       </c>
       <c r="I29" s="57">
         <f t="shared" si="2"/>
-        <v>1007.3468151177764</v>
+        <v>651.36711353480268</v>
       </c>
       <c r="J29">
         <f t="shared" si="5"/>
-        <v>982</v>
+        <v>730</v>
       </c>
       <c r="K29">
         <f t="shared" si="6"/>
-        <v>967.14285714285711</v>
+        <v>732.14285714285711</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2100,41 +2108,41 @@
         <v>44090</v>
       </c>
       <c r="B30">
-        <v>184</v>
+        <v>112</v>
       </c>
       <c r="C30">
-        <v>3737</v>
+        <v>2955</v>
       </c>
       <c r="D30" s="7">
-        <v>183</v>
+        <v>112</v>
       </c>
       <c r="E30" s="54">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <f t="shared" si="3"/>
-        <v>110.57142857142857</v>
+        <v>77</v>
       </c>
       <c r="G30" s="53">
         <f t="shared" si="1"/>
-        <v>4.9237356168049237E-2</v>
+        <v>3.790186125211506E-2</v>
       </c>
       <c r="H30" s="61">
         <f t="shared" si="4"/>
-        <v>4.432663202409675E-2</v>
+        <v>3.9307917912105542E-2</v>
       </c>
       <c r="I30" s="57">
         <f t="shared" si="2"/>
-        <v>696.81133075816103</v>
+        <v>424.1460274180111</v>
       </c>
       <c r="J30">
         <f t="shared" si="5"/>
-        <v>1126</v>
+        <v>808</v>
       </c>
       <c r="K30">
         <f t="shared" si="6"/>
-        <v>946.42857142857144</v>
+        <v>710.42857142857144</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2142,13 +2150,13 @@
         <v>44091</v>
       </c>
       <c r="B31">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="C31">
-        <v>2236</v>
+        <v>1897</v>
       </c>
       <c r="D31" s="7">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="E31" s="54">
         <f t="shared" si="0"/>
@@ -2156,27 +2164,27 @@
       </c>
       <c r="F31">
         <f t="shared" si="3"/>
-        <v>121.57142857142857</v>
+        <v>83.428571428571431</v>
       </c>
       <c r="G31" s="53">
         <f t="shared" si="1"/>
-        <v>5.4561717352415023E-2</v>
+        <v>4.4807590933052185E-2</v>
       </c>
       <c r="H31" s="61">
         <f t="shared" si="4"/>
-        <v>3.7898659913885489E-2</v>
+        <v>3.2231913382325936E-2</v>
       </c>
       <c r="I31" s="57">
         <f t="shared" si="2"/>
-        <v>462.01620843747628</v>
+        <v>321.89653866545478</v>
       </c>
       <c r="J31">
         <f t="shared" si="5"/>
-        <v>1133</v>
+        <v>809</v>
       </c>
       <c r="K31">
         <f t="shared" si="6"/>
-        <v>937.14285714285711</v>
+        <v>697</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2184,13 +2192,13 @@
         <v>44092</v>
       </c>
       <c r="B32">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C32">
-        <v>3037</v>
+        <v>2493</v>
       </c>
       <c r="D32" s="7">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E32" s="54">
         <f t="shared" si="0"/>
@@ -2198,27 +2206,27 @@
       </c>
       <c r="F32">
         <f t="shared" si="3"/>
-        <v>125.71428571428571</v>
+        <v>87.142857142857139</v>
       </c>
       <c r="G32" s="53">
         <f t="shared" si="1"/>
-        <v>2.7329601580507078E-2</v>
+        <v>2.7677496991576414E-2</v>
       </c>
       <c r="H32" s="61">
         <f t="shared" si="4"/>
-        <v>3.7407284315496399E-2</v>
+        <v>3.2410268602739919E-2</v>
       </c>
       <c r="I32" s="57">
         <f t="shared" si="2"/>
-        <v>314.32250246156178</v>
+        <v>261.30424903431037</v>
       </c>
       <c r="J32">
         <f t="shared" si="5"/>
-        <v>1084</v>
+        <v>775</v>
       </c>
       <c r="K32">
         <f t="shared" si="6"/>
-        <v>943.71428571428567</v>
+        <v>694.85714285714289</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2229,7 +2237,7 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D33" s="7">
         <v>1</v>
@@ -2240,15 +2248,15 @@
       </c>
       <c r="F33">
         <f t="shared" si="3"/>
-        <v>123.28571428571429</v>
+        <v>85.142857142857139</v>
       </c>
       <c r="G33" s="53">
         <f t="shared" si="1"/>
-        <v>1.4705882352941176E-2</v>
+        <v>1.4925373134328358E-2</v>
       </c>
       <c r="H33" s="61">
         <f t="shared" si="4"/>
-        <v>3.8226894670849311E-2</v>
+        <v>3.3430447565587482E-2</v>
       </c>
       <c r="I33" s="57">
         <f t="shared" si="2"/>
@@ -2256,11 +2264,11 @@
       </c>
       <c r="J33">
         <f t="shared" si="5"/>
-        <v>980</v>
+        <v>694</v>
       </c>
       <c r="K33">
         <f t="shared" si="6"/>
-        <v>960.28571428571433</v>
+        <v>703.57142857142856</v>
       </c>
       <c r="N33">
         <v>84</v>
@@ -2274,7 +2282,7 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="D34" s="7">
         <v>2</v>
@@ -2285,15 +2293,15 @@
       </c>
       <c r="F34">
         <f t="shared" si="3"/>
-        <v>118.85714285714286</v>
+        <v>81.714285714285708</v>
       </c>
       <c r="G34" s="53">
         <f t="shared" ref="G34:G65" si="8">B34/C34</f>
-        <v>8.7976539589442824E-3</v>
+        <v>9.0634441087613302E-3</v>
       </c>
       <c r="H34" s="61">
         <f t="shared" si="4"/>
-        <v>3.7121278810620661E-2</v>
+        <v>3.2696218006013973E-2</v>
       </c>
       <c r="I34" s="57">
         <f t="shared" ref="I34:I65" si="9">(B34/26406)*100000</f>
@@ -2301,11 +2309,11 @@
       </c>
       <c r="J34">
         <f t="shared" si="5"/>
-        <v>938</v>
+        <v>657</v>
       </c>
       <c r="K34">
         <f t="shared" si="6"/>
-        <v>996.42857142857144</v>
+        <v>721</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2313,41 +2321,41 @@
         <v>44095</v>
       </c>
       <c r="B35">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C35">
-        <v>1190</v>
+        <v>1033</v>
       </c>
       <c r="D35" s="7">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E35" s="54">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <f t="shared" si="3"/>
-        <v>107.71428571428571</v>
+        <v>75.571428571428569</v>
       </c>
       <c r="G35" s="53">
         <f t="shared" si="8"/>
-        <v>7.9831932773109238E-2</v>
+        <v>8.422071636011616E-2</v>
       </c>
       <c r="H35" s="61">
         <f t="shared" si="4"/>
-        <v>4.2484705041538354E-2</v>
+        <v>3.8644739228578875E-2</v>
       </c>
       <c r="I35" s="57">
         <f t="shared" si="9"/>
-        <v>359.76671968492013</v>
+        <v>329.4705748693479</v>
       </c>
       <c r="J35">
         <f t="shared" si="5"/>
-        <v>979</v>
+        <v>701</v>
       </c>
       <c r="K35">
         <f t="shared" si="6"/>
-        <v>1031.7142857142858</v>
+        <v>739.14285714285711</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2355,13 +2363,13 @@
         <v>44096</v>
       </c>
       <c r="B36">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C36">
         <v>354</v>
       </c>
       <c r="D36" s="7">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E36" s="54">
         <f t="shared" si="7"/>
@@ -2369,27 +2377,27 @@
       </c>
       <c r="F36">
         <f t="shared" si="3"/>
-        <v>74.571428571428569</v>
+        <v>55.571428571428569</v>
       </c>
       <c r="G36" s="53">
         <f t="shared" si="8"/>
-        <v>9.6045197740112997E-2</v>
+        <v>9.03954802259887E-2</v>
       </c>
       <c r="H36" s="61">
         <f t="shared" si="4"/>
-        <v>4.7215620275154149E-2</v>
+        <v>4.4141709000848316E-2</v>
       </c>
       <c r="I36" s="57">
         <f t="shared" si="9"/>
-        <v>128.75861546618194</v>
+        <v>121.18457926228888</v>
       </c>
       <c r="J36">
         <f t="shared" si="5"/>
-        <v>995</v>
+        <v>718</v>
       </c>
       <c r="K36">
         <f t="shared" si="6"/>
-        <v>1033.5714285714287</v>
+        <v>737.42857142857144</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2397,13 +2405,13 @@
         <v>44097</v>
       </c>
       <c r="B37">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C37">
-        <v>2096</v>
+        <v>1938</v>
       </c>
       <c r="D37" s="7">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E37" s="54">
         <f t="shared" si="7"/>
@@ -2411,27 +2419,27 @@
       </c>
       <c r="F37">
         <f t="shared" si="3"/>
-        <v>59.142857142857146</v>
+        <v>49.142857142857146</v>
       </c>
       <c r="G37" s="53">
         <f t="shared" si="8"/>
-        <v>3.6259541984732822E-2</v>
+        <v>3.4571723426212592E-2</v>
       </c>
       <c r="H37" s="61">
         <f t="shared" si="4"/>
-        <v>4.536164682039466E-2</v>
+        <v>4.3665975025719388E-2</v>
       </c>
       <c r="I37" s="57">
         <f t="shared" si="9"/>
-        <v>287.81337574793605</v>
+        <v>253.73021283041732</v>
       </c>
       <c r="J37">
         <f t="shared" si="5"/>
-        <v>1037</v>
+        <v>758</v>
       </c>
       <c r="K37">
         <f t="shared" si="6"/>
-        <v>1020.8571428571429</v>
+        <v>730.28571428571433</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2439,13 +2447,13 @@
         <v>44098</v>
       </c>
       <c r="B38">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C38">
-        <v>1534</v>
+        <v>1377</v>
       </c>
       <c r="D38" s="7">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="E38" s="54">
         <f t="shared" si="7"/>
@@ -2453,27 +2461,27 @@
       </c>
       <c r="F38">
         <f t="shared" si="3"/>
-        <v>58.285714285714285</v>
+        <v>51.285714285714285</v>
       </c>
       <c r="G38" s="53">
         <f t="shared" si="8"/>
-        <v>7.5619295958279015E-2</v>
+        <v>7.2621641249092234E-2</v>
       </c>
       <c r="H38" s="61">
         <f t="shared" si="4"/>
-        <v>4.8369872335518087E-2</v>
+        <v>4.7639410785153692E-2</v>
       </c>
       <c r="I38" s="57">
         <f t="shared" si="9"/>
-        <v>439.29409982579716</v>
+        <v>378.70181019465275</v>
       </c>
       <c r="J38">
         <f t="shared" si="5"/>
-        <v>980</v>
+        <v>728</v>
       </c>
       <c r="K38">
         <f t="shared" si="6"/>
-        <v>999</v>
+        <v>718.71428571428567</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2481,13 +2489,13 @@
         <v>44099</v>
       </c>
       <c r="B39">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C39">
-        <v>1623</v>
+        <v>1461</v>
       </c>
       <c r="D39" s="7">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="E39" s="54">
         <f t="shared" si="7"/>
@@ -2495,27 +2503,27 @@
       </c>
       <c r="F39">
         <f t="shared" si="3"/>
-        <v>59.714285714285715</v>
+        <v>52.285714285714285</v>
       </c>
       <c r="G39" s="53">
         <f t="shared" si="8"/>
-        <v>5.730129390018484E-2</v>
+        <v>5.2019164955509928E-2</v>
       </c>
       <c r="H39" s="61">
         <f t="shared" si="4"/>
-        <v>5.2651542666900628E-2</v>
+        <v>5.1116791922858465E-2</v>
       </c>
       <c r="I39" s="57">
         <f t="shared" si="9"/>
-        <v>352.19268348102702</v>
+        <v>287.81337574793605</v>
       </c>
       <c r="J39">
         <f t="shared" si="5"/>
-        <v>807</v>
+        <v>632</v>
       </c>
       <c r="K39">
         <f t="shared" si="6"/>
-        <v>959.42857142857144</v>
+        <v>698.28571428571433</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2523,13 +2531,13 @@
         <v>44100</v>
       </c>
       <c r="B40">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C40">
-        <v>569</v>
+        <v>532</v>
       </c>
       <c r="D40" s="7">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E40" s="54">
         <f t="shared" si="7"/>
@@ -2537,27 +2545,27 @@
       </c>
       <c r="F40">
         <f t="shared" si="3"/>
-        <v>69.857142857142861</v>
+        <v>61.428571428571431</v>
       </c>
       <c r="G40" s="53">
         <f t="shared" si="8"/>
-        <v>0.1265377855887522</v>
+        <v>0.12218045112781954</v>
       </c>
       <c r="H40" s="61">
         <f t="shared" si="4"/>
-        <v>6.8627528843445057E-2</v>
+        <v>6.6438945921928644E-2</v>
       </c>
       <c r="I40" s="57">
         <f t="shared" si="9"/>
-        <v>272.66530334014999</v>
+        <v>246.15617662652429</v>
       </c>
       <c r="J40">
         <f t="shared" si="5"/>
-        <v>695</v>
+        <v>585</v>
       </c>
       <c r="K40">
         <f t="shared" si="6"/>
-        <v>918.71428571428567</v>
+        <v>682.71428571428567</v>
       </c>
       <c r="N40">
         <v>259</v>
@@ -2568,13 +2576,13 @@
         <v>44101</v>
       </c>
       <c r="B41">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C41">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="D41" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" s="54">
         <f t="shared" si="7"/>
@@ -2582,27 +2590,27 @@
       </c>
       <c r="F41">
         <f t="shared" si="3"/>
-        <v>70.714285714285708</v>
+        <v>62.428571428571431</v>
       </c>
       <c r="G41" s="53">
         <f t="shared" si="8"/>
-        <v>2.2443890274314215E-2</v>
+        <v>2.5773195876288658E-2</v>
       </c>
       <c r="H41" s="61">
         <f t="shared" si="4"/>
-        <v>7.0576991174212192E-2</v>
+        <v>6.8826053317289693E-2</v>
       </c>
       <c r="I41" s="57">
         <f t="shared" si="9"/>
-        <v>34.083162917518749</v>
+        <v>37.870181019465278</v>
       </c>
       <c r="J41">
         <f t="shared" si="5"/>
-        <v>582</v>
+        <v>510</v>
       </c>
       <c r="K41">
         <f t="shared" si="6"/>
-        <v>867.85714285714289</v>
+        <v>661.71428571428567</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2610,41 +2618,41 @@
         <v>44102</v>
       </c>
       <c r="B42">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="C42">
-        <v>2171</v>
+        <v>2000</v>
       </c>
       <c r="D42" s="7">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="E42" s="54">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42">
         <f t="shared" si="3"/>
-        <v>83.571428571428569</v>
+        <v>72.428571428571431</v>
       </c>
       <c r="G42" s="53">
         <f t="shared" si="8"/>
-        <v>8.5214187010594203E-2</v>
+        <v>7.85E-2</v>
       </c>
       <c r="H42" s="61">
         <f t="shared" si="4"/>
-        <v>7.134588463671003E-2</v>
+        <v>6.8008808122987388E-2</v>
       </c>
       <c r="I42" s="57">
         <f t="shared" si="9"/>
-        <v>700.59834886010754</v>
+        <v>594.56184200560483</v>
       </c>
       <c r="J42">
         <f t="shared" si="5"/>
-        <v>684</v>
+        <v>598</v>
       </c>
       <c r="K42">
         <f t="shared" si="6"/>
-        <v>825.71428571428567</v>
+        <v>647</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2652,13 +2660,13 @@
         <v>44103</v>
       </c>
       <c r="B43">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C43">
-        <v>1272</v>
+        <v>1159</v>
       </c>
       <c r="D43" s="7">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E43" s="54">
         <f t="shared" si="7"/>
@@ -2666,27 +2674,27 @@
       </c>
       <c r="F43">
         <f t="shared" si="3"/>
-        <v>88.571428571428569</v>
+        <v>76.428571428571431</v>
       </c>
       <c r="G43" s="53">
         <f t="shared" si="8"/>
-        <v>5.4245283018867926E-2</v>
+        <v>5.1768766177739428E-2</v>
       </c>
       <c r="H43" s="61">
         <f t="shared" si="4"/>
-        <v>6.537446824796074E-2</v>
+        <v>6.2490706116094627E-2</v>
       </c>
       <c r="I43" s="57">
         <f t="shared" si="9"/>
-        <v>261.30424903431037</v>
+        <v>227.22108611679164</v>
       </c>
       <c r="J43">
         <f t="shared" ref="J43:J74" si="10">SUM(B34:B43)</f>
-        <v>752</v>
+        <v>657</v>
       </c>
       <c r="K43">
         <f t="shared" si="6"/>
-        <v>791</v>
+        <v>638.28571428571433</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2694,41 +2702,41 @@
         <v>44104</v>
       </c>
       <c r="B44">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="C44">
-        <v>2063</v>
+        <v>1962</v>
       </c>
       <c r="D44" s="7">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="E44" s="54">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <f t="shared" si="3"/>
-        <v>101.28571428571429</v>
+        <v>87.714285714285708</v>
       </c>
       <c r="G44" s="53">
         <f t="shared" si="8"/>
-        <v>7.9980610761027623E-2</v>
+        <v>7.4413863404689098E-2</v>
       </c>
       <c r="H44" s="61">
         <f t="shared" si="4"/>
-        <v>7.1620335216002862E-2</v>
+        <v>6.818244039873414E-2</v>
       </c>
       <c r="I44" s="57">
         <f t="shared" si="9"/>
-        <v>624.85798682117706</v>
+        <v>552.90464288419298</v>
       </c>
       <c r="J44">
         <f t="shared" si="10"/>
-        <v>914</v>
+        <v>800</v>
       </c>
       <c r="K44">
         <f t="shared" si="6"/>
-        <v>773.42857142857144</v>
+        <v>644.28571428571433</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2736,13 +2744,13 @@
         <v>44105</v>
       </c>
       <c r="B45">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C45">
-        <v>1210</v>
+        <v>1166</v>
       </c>
       <c r="D45" s="7">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E45" s="54">
         <f t="shared" si="7"/>
@@ -2750,27 +2758,27 @@
       </c>
       <c r="F45">
         <f t="shared" si="3"/>
-        <v>97</v>
+        <v>85.428571428571431</v>
       </c>
       <c r="G45" s="53">
         <f t="shared" si="8"/>
-        <v>7.1074380165289261E-2</v>
+        <v>7.2041166380789029E-2</v>
       </c>
       <c r="H45" s="61">
         <f t="shared" si="4"/>
-        <v>7.0971061531290042E-2</v>
+        <v>6.8099515417547954E-2</v>
       </c>
       <c r="I45" s="57">
         <f t="shared" si="9"/>
-        <v>325.68355676740134</v>
+        <v>318.10952056350828</v>
       </c>
       <c r="J45">
         <f t="shared" si="10"/>
-        <v>905</v>
+        <v>797</v>
       </c>
       <c r="K45">
         <f t="shared" si="6"/>
-        <v>762.71428571428567</v>
+        <v>654.14285714285711</v>
       </c>
       <c r="N45">
         <v>480</v>
@@ -2781,13 +2789,13 @@
         <v>44106</v>
       </c>
       <c r="B46">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C46">
-        <v>1620</v>
+        <v>1437</v>
       </c>
       <c r="D46" s="7">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E46" s="54">
         <f t="shared" si="7"/>
@@ -2795,27 +2803,27 @@
       </c>
       <c r="F46">
         <f t="shared" si="3"/>
-        <v>93.857142857142861</v>
+        <v>84</v>
       </c>
       <c r="G46" s="53">
         <f t="shared" si="8"/>
-        <v>4.3827160493827164E-2</v>
+        <v>4.5929018789144051E-2</v>
       </c>
       <c r="H46" s="61">
         <f t="shared" si="4"/>
-        <v>6.9046185330381801E-2</v>
+        <v>6.722949453663854E-2</v>
       </c>
       <c r="I46" s="57">
         <f t="shared" si="9"/>
-        <v>268.87828523820343</v>
+        <v>249.94319472847081</v>
       </c>
       <c r="J46">
         <f t="shared" si="10"/>
-        <v>942</v>
+        <v>831</v>
       </c>
       <c r="K46">
         <f t="shared" si="6"/>
-        <v>782</v>
+        <v>682.57142857142856</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2823,13 +2831,13 @@
         <v>44107</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C47">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D47" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E47" s="54">
         <f t="shared" si="7"/>
@@ -2837,27 +2845,27 @@
       </c>
       <c r="F47">
         <f t="shared" si="3"/>
-        <v>84.428571428571431</v>
+        <v>75.714285714285708</v>
       </c>
       <c r="G47" s="53">
         <f t="shared" si="8"/>
-        <v>0.3</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H47" s="61">
         <f t="shared" si="4"/>
-        <v>9.3826501674845769E-2</v>
+        <v>9.7394191994569085E-2</v>
       </c>
       <c r="I47" s="57">
         <f t="shared" si="9"/>
-        <v>22.722108611679165</v>
+        <v>26.509126713625694</v>
       </c>
       <c r="J47">
         <f t="shared" si="10"/>
-        <v>872</v>
+        <v>771</v>
       </c>
       <c r="K47">
         <f t="shared" si="6"/>
-        <v>807.28571428571433</v>
+        <v>709.14285714285711</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2865,41 +2873,41 @@
         <v>44108</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C48">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D48" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E48" s="54">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48">
         <f t="shared" si="3"/>
-        <v>83.714285714285708</v>
+        <v>75.428571428571431</v>
       </c>
       <c r="G48" s="53">
         <f t="shared" si="8"/>
-        <v>1.2944983818770227E-2</v>
+        <v>2.6490066225165563E-2</v>
       </c>
       <c r="H48" s="61">
         <f t="shared" si="4"/>
-        <v>9.2469515038339486E-2</v>
+        <v>9.7496602044408645E-2</v>
       </c>
       <c r="I48" s="57">
         <f t="shared" si="9"/>
-        <v>15.14807240778611</v>
+        <v>30.296144815572219</v>
       </c>
       <c r="J48">
         <f t="shared" si="10"/>
-        <v>760</v>
+        <v>679</v>
       </c>
       <c r="K48">
         <f t="shared" si="6"/>
-        <v>832.71428571428567</v>
+        <v>733.28571428571433</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -2907,13 +2915,13 @@
         <v>44109</v>
       </c>
       <c r="B49">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C49">
-        <v>1719</v>
+        <v>1578</v>
       </c>
       <c r="D49" s="7">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E49" s="54">
         <f t="shared" si="7"/>
@@ -2921,27 +2929,27 @@
       </c>
       <c r="F49">
         <f t="shared" si="3"/>
-        <v>71.285714285714292</v>
+        <v>65.285714285714292</v>
       </c>
       <c r="G49" s="53">
         <f t="shared" si="8"/>
-        <v>5.7009889470622452E-2</v>
+        <v>5.4499366286438533E-2</v>
       </c>
       <c r="H49" s="61">
         <f t="shared" si="4"/>
-        <v>8.8440329675486387E-2</v>
+        <v>9.4067940085328441E-2</v>
       </c>
       <c r="I49" s="57">
         <f t="shared" si="9"/>
-        <v>371.12777399075969</v>
+        <v>325.68355676740134</v>
       </c>
       <c r="J49">
         <f t="shared" si="10"/>
-        <v>765</v>
+        <v>689</v>
       </c>
       <c r="K49">
         <f t="shared" si="6"/>
-        <v>844.28571428571433</v>
+        <v>746.28571428571433</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -2949,13 +2957,13 @@
         <v>44110</v>
       </c>
       <c r="B50">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C50">
-        <v>1253</v>
+        <v>1181</v>
       </c>
       <c r="D50" s="7">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E50" s="54">
         <f t="shared" si="7"/>
@@ -2963,27 +2971,27 @@
       </c>
       <c r="F50">
         <f t="shared" si="3"/>
-        <v>73.428571428571431</v>
+        <v>67.285714285714292</v>
       </c>
       <c r="G50" s="53">
         <f t="shared" si="8"/>
-        <v>6.7039106145251395E-2</v>
+        <v>6.2658763759525823E-2</v>
       </c>
       <c r="H50" s="61">
         <f t="shared" si="4"/>
-        <v>9.026801869354116E-2</v>
+        <v>9.5623654025583621E-2</v>
       </c>
       <c r="I50" s="57">
         <f t="shared" si="9"/>
-        <v>318.10952056350828</v>
+        <v>280.23933954404305</v>
       </c>
       <c r="J50">
         <f t="shared" si="10"/>
-        <v>777</v>
+        <v>698</v>
       </c>
       <c r="K50">
         <f t="shared" si="6"/>
-        <v>847.85714285714289</v>
+        <v>752.14285714285711</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -2991,41 +2999,41 @@
         <v>44111</v>
       </c>
       <c r="B51">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C51">
-        <v>2694</v>
+        <v>1972</v>
       </c>
       <c r="D51" s="7">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E51" s="54">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F51">
         <f t="shared" si="3"/>
-        <v>61.857142857142854</v>
+        <v>56.714285714285715</v>
       </c>
       <c r="G51" s="53">
         <f t="shared" si="8"/>
-        <v>3.1180400890868598E-2</v>
+        <v>3.6511156186612576E-2</v>
       </c>
       <c r="H51" s="61">
         <f t="shared" si="4"/>
-        <v>8.3296560140661308E-2</v>
+        <v>9.0208981565858423E-2</v>
       </c>
       <c r="I51" s="57">
         <f t="shared" si="9"/>
-        <v>318.10952056350828</v>
+        <v>272.66530334014999</v>
       </c>
       <c r="J51">
         <f t="shared" si="10"/>
-        <v>852</v>
+        <v>760</v>
       </c>
       <c r="K51">
         <f t="shared" si="6"/>
-        <v>839</v>
+        <v>746.42857142857144</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" s="9"/>
@@ -3038,7 +3046,7 @@
         <v>51</v>
       </c>
       <c r="C52">
-        <v>1374</v>
+        <v>1949</v>
       </c>
       <c r="D52" s="7">
         <v>51</v>
@@ -3049,15 +3057,15 @@
       </c>
       <c r="F52">
         <f t="shared" si="3"/>
-        <v>56.857142857142854</v>
+        <v>52</v>
       </c>
       <c r="G52" s="53">
         <f t="shared" si="8"/>
-        <v>3.7117903930131008E-2</v>
+        <v>2.6167265264238071E-2</v>
       </c>
       <c r="H52" s="61">
         <f t="shared" si="4"/>
-        <v>7.8445634964210129E-2</v>
+        <v>8.3655567120636848E-2</v>
       </c>
       <c r="I52" s="57">
         <f t="shared" si="9"/>
@@ -3065,11 +3073,11 @@
       </c>
       <c r="J52">
         <f t="shared" si="10"/>
-        <v>718</v>
+        <v>654</v>
       </c>
       <c r="K52">
         <f t="shared" si="6"/>
-        <v>812.28571428571433</v>
+        <v>726</v>
       </c>
       <c r="L52">
         <v>243</v>
@@ -3085,13 +3093,13 @@
         <v>44113</v>
       </c>
       <c r="B53">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C53">
-        <v>1601</v>
+        <v>1495</v>
       </c>
       <c r="D53" s="7">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E53" s="54">
         <f t="shared" si="7"/>
@@ -3099,27 +3107,27 @@
       </c>
       <c r="F53">
         <f t="shared" si="3"/>
-        <v>58.142857142857146</v>
+        <v>53.142857142857146</v>
       </c>
       <c r="G53" s="53">
         <f t="shared" si="8"/>
-        <v>4.996876951905059E-2</v>
+        <v>4.9498327759197325E-2</v>
       </c>
       <c r="H53" s="61">
         <f t="shared" si="4"/>
-        <v>7.9323007682099184E-2</v>
+        <v>8.4165468402073049E-2</v>
       </c>
       <c r="I53" s="57">
         <f t="shared" si="9"/>
-        <v>302.96144815572222</v>
+        <v>280.23933954404305</v>
       </c>
       <c r="J53">
         <f t="shared" si="10"/>
-        <v>729</v>
+        <v>668</v>
       </c>
       <c r="K53">
         <f t="shared" si="6"/>
-        <v>781.85714285714289</v>
+        <v>702.71428571428567</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" s="9"/>
@@ -3129,13 +3137,13 @@
         <v>44114</v>
       </c>
       <c r="B54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C54">
-        <v>282</v>
+        <v>151</v>
       </c>
       <c r="D54" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E54" s="54">
         <f t="shared" si="7"/>
@@ -3143,27 +3151,27 @@
       </c>
       <c r="F54">
         <f t="shared" si="3"/>
-        <v>58.142857142857146</v>
+        <v>52.857142857142854</v>
       </c>
       <c r="G54" s="53">
         <f t="shared" si="8"/>
-        <v>2.1276595744680851E-2</v>
+        <v>3.3112582781456956E-2</v>
       </c>
       <c r="H54" s="61">
         <f t="shared" si="4"/>
-        <v>3.950537850276787E-2</v>
+        <v>4.1276789751804974E-2</v>
       </c>
       <c r="I54" s="57">
         <f t="shared" si="9"/>
-        <v>22.722108611679165</v>
+        <v>18.935090509732639</v>
       </c>
       <c r="J54">
         <f t="shared" si="10"/>
-        <v>570</v>
+        <v>527</v>
       </c>
       <c r="K54">
         <f t="shared" si="6"/>
-        <v>738.71428571428567</v>
+        <v>667.85714285714289</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" s="9"/>
@@ -3176,7 +3184,7 @@
         <v>5</v>
       </c>
       <c r="C55">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="D55" s="7">
         <v>4</v>
@@ -3187,15 +3195,15 @@
       </c>
       <c r="F55">
         <f t="shared" si="3"/>
-        <v>58.285714285714285</v>
+        <v>52.428571428571431</v>
       </c>
       <c r="G55" s="53">
         <f t="shared" si="8"/>
-        <v>1.8518518518518517E-2</v>
+        <v>1.937984496124031E-2</v>
       </c>
       <c r="H55" s="61">
         <f t="shared" si="4"/>
-        <v>4.0301597745589057E-2</v>
+        <v>4.0261043856958507E-2</v>
       </c>
       <c r="I55" s="57">
         <f t="shared" si="9"/>
@@ -3203,11 +3211,11 @@
       </c>
       <c r="J55">
         <f t="shared" si="10"/>
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="K55">
         <f t="shared" si="6"/>
-        <v>700</v>
+        <v>634.85714285714289</v>
       </c>
       <c r="P55" s="17"/>
       <c r="Q55" s="9"/>
@@ -3218,41 +3226,41 @@
         <v>44116</v>
       </c>
       <c r="B56">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C56">
-        <v>1608</v>
+        <v>1464</v>
       </c>
       <c r="D56" s="7">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E56" s="54">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F56">
         <f t="shared" si="3"/>
-        <v>57.428571428571431</v>
+        <v>52.571428571428569</v>
       </c>
       <c r="G56" s="53">
         <f t="shared" si="8"/>
-        <v>5.721393034825871E-2</v>
+        <v>5.9426229508196718E-2</v>
       </c>
       <c r="H56" s="61">
         <f t="shared" si="4"/>
-        <v>4.0330746442394247E-2</v>
+        <v>4.0964881460066827E-2</v>
       </c>
       <c r="I56" s="57">
         <f t="shared" si="9"/>
-        <v>348.40566537908052</v>
+        <v>329.4705748693479</v>
       </c>
       <c r="J56">
         <f t="shared" si="10"/>
-        <v>510</v>
+        <v>469</v>
       </c>
       <c r="K56">
         <f t="shared" si="6"/>
-        <v>663.57142857142856</v>
+        <v>603.42857142857144</v>
       </c>
       <c r="L56">
         <v>193</v>
@@ -3268,13 +3276,13 @@
         <v>44117</v>
       </c>
       <c r="B57">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C57">
-        <v>1717</v>
+        <v>1660</v>
       </c>
       <c r="D57" s="7">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E57" s="54">
         <f t="shared" si="7"/>
@@ -3282,27 +3290,27 @@
       </c>
       <c r="F57">
         <f t="shared" si="3"/>
-        <v>52.428571428571431</v>
+        <v>48.428571428571431</v>
       </c>
       <c r="G57" s="53">
         <f t="shared" si="8"/>
-        <v>2.8538147932440302E-2</v>
+        <v>2.710843373493976E-2</v>
       </c>
       <c r="H57" s="61">
         <f t="shared" si="4"/>
-        <v>3.4830609554849797E-2</v>
+        <v>3.5886262885125961E-2</v>
       </c>
       <c r="I57" s="57">
         <f t="shared" si="9"/>
-        <v>185.56388699537985</v>
+        <v>170.41581458759373</v>
       </c>
       <c r="J57">
         <f t="shared" si="10"/>
-        <v>553</v>
+        <v>507</v>
       </c>
       <c r="K57">
         <f t="shared" si="6"/>
-        <v>631.57142857142856</v>
+        <v>576.14285714285711</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" s="9"/>
@@ -3312,13 +3320,13 @@
         <v>44118</v>
       </c>
       <c r="B58">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C58">
-        <v>2926</v>
+        <v>2508</v>
       </c>
       <c r="D58" s="7">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E58" s="54">
         <f t="shared" si="7"/>
@@ -3326,27 +3334,27 @@
       </c>
       <c r="F58">
         <f t="shared" si="3"/>
-        <v>47</v>
+        <v>43.571428571428569</v>
       </c>
       <c r="G58" s="53">
         <f t="shared" si="8"/>
-        <v>1.5721120984278879E-2</v>
+        <v>1.5151515151515152E-2</v>
       </c>
       <c r="H58" s="61">
         <f t="shared" si="4"/>
-        <v>3.2622140996765553E-2</v>
+        <v>3.2834885594397754E-2</v>
       </c>
       <c r="I58" s="57">
         <f t="shared" si="9"/>
-        <v>174.20283268954026</v>
+        <v>143.90668787396802</v>
       </c>
       <c r="J58">
         <f t="shared" si="10"/>
-        <v>595</v>
+        <v>537</v>
       </c>
       <c r="K58">
         <f t="shared" si="6"/>
-        <v>594.85714285714289</v>
+        <v>544.28571428571433</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" s="9"/>
@@ -3356,41 +3364,41 @@
         <v>44119</v>
       </c>
       <c r="B59">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C59">
-        <v>1692</v>
+        <v>1591</v>
       </c>
       <c r="D59" s="7">
         <v>18</v>
       </c>
       <c r="E59" s="54">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F59">
         <f t="shared" si="3"/>
-        <v>42.714285714285715</v>
+        <v>39.428571428571431</v>
       </c>
       <c r="G59" s="53">
         <f t="shared" si="8"/>
-        <v>1.2411347517730497E-2</v>
+        <v>1.3827781269641735E-2</v>
       </c>
       <c r="H59" s="61">
         <f t="shared" si="4"/>
-        <v>2.9092632937851193E-2</v>
+        <v>3.1072102166598281E-2</v>
       </c>
       <c r="I59" s="57">
         <f t="shared" si="9"/>
-        <v>79.527380140877071</v>
+        <v>83.3143982428236</v>
       </c>
       <c r="J59">
         <f t="shared" si="10"/>
-        <v>518</v>
+        <v>473</v>
       </c>
       <c r="K59">
         <f t="shared" si="6"/>
-        <v>566.28571428571433</v>
+        <v>518.42857142857144</v>
       </c>
       <c r="L59">
         <v>176</v>
@@ -3406,13 +3414,13 @@
         <v>44120</v>
       </c>
       <c r="B60">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C60">
-        <v>818</v>
+        <v>691</v>
       </c>
       <c r="D60" s="7">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E60" s="54">
         <f t="shared" si="7"/>
@@ -3420,27 +3428,27 @@
       </c>
       <c r="F60">
         <f t="shared" si="3"/>
-        <v>36.142857142857146</v>
+        <v>33.428571428571431</v>
       </c>
       <c r="G60" s="53">
         <f t="shared" si="8"/>
-        <v>4.1564792176039117E-2</v>
+        <v>4.6309696092619389E-2</v>
       </c>
       <c r="H60" s="61">
         <f t="shared" si="4"/>
-        <v>2.7892064745992408E-2</v>
+        <v>3.0616583357087147E-2</v>
       </c>
       <c r="I60" s="57">
         <f t="shared" si="9"/>
-        <v>128.75861546618194</v>
+        <v>121.18457926228888</v>
       </c>
       <c r="J60">
         <f t="shared" si="10"/>
-        <v>468</v>
+        <v>431</v>
       </c>
       <c r="K60">
         <f t="shared" si="6"/>
-        <v>529</v>
+        <v>484.57142857142856</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" s="9"/>
@@ -3464,7 +3472,7 @@
       </c>
       <c r="F61">
         <f t="shared" si="3"/>
-        <v>35.714285714285715</v>
+        <v>33.142857142857146</v>
       </c>
       <c r="G61" s="53">
         <f t="shared" si="8"/>
@@ -3472,7 +3480,7 @@
       </c>
       <c r="H61" s="61">
         <f t="shared" si="4"/>
-        <v>7.2471598687228481E-2</v>
+        <v>7.3505262007355202E-2</v>
       </c>
       <c r="I61" s="57">
         <f t="shared" si="9"/>
@@ -3480,11 +3488,11 @@
       </c>
       <c r="J61">
         <f t="shared" si="10"/>
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="K61">
         <f t="shared" si="6"/>
-        <v>502.85714285714283</v>
+        <v>461</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" s="9"/>
@@ -3494,13 +3502,13 @@
         <v>44122</v>
       </c>
       <c r="B62">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C62">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="D62" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E62" s="54">
         <f t="shared" si="7"/>
@@ -3508,27 +3516,27 @@
       </c>
       <c r="F62">
         <f t="shared" si="3"/>
-        <v>35.714285714285715</v>
+        <v>33.571428571428569</v>
       </c>
       <c r="G62" s="53">
         <f t="shared" si="8"/>
-        <v>1.7857142857142856E-2</v>
+        <v>2.9739776951672861E-2</v>
       </c>
       <c r="H62" s="61">
         <f t="shared" si="4"/>
-        <v>7.2377116449889103E-2</v>
+        <v>7.4985252291702706E-2</v>
       </c>
       <c r="I62" s="57">
         <f t="shared" si="9"/>
-        <v>18.935090509732639</v>
+        <v>30.296144815572219</v>
       </c>
       <c r="J62">
         <f t="shared" si="10"/>
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="K62">
         <f t="shared" si="6"/>
-        <v>481.71428571428572</v>
+        <v>442.57142857142856</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" s="9"/>
@@ -3538,41 +3546,41 @@
         <v>44123</v>
       </c>
       <c r="B63">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C63">
-        <v>1965</v>
+        <v>1758</v>
       </c>
       <c r="D63" s="7">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E63" s="54">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F63">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>28.428571428571427</v>
       </c>
       <c r="G63" s="53">
         <f t="shared" si="8"/>
-        <v>2.6463104325699746E-2</v>
+        <v>2.9010238907849831E-2</v>
       </c>
       <c r="H63" s="61">
         <f t="shared" si="4"/>
-        <v>6.798414130380924E-2</v>
+        <v>7.0640110777367426E-2</v>
       </c>
       <c r="I63" s="57">
         <f t="shared" si="9"/>
-        <v>196.92494130121941</v>
+        <v>193.13792319927288</v>
       </c>
       <c r="J63">
         <f t="shared" si="10"/>
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="K63">
         <f t="shared" si="6"/>
-        <v>453.57142857142856</v>
+        <v>417.85714285714283</v>
       </c>
       <c r="L63">
         <v>175</v>
@@ -3588,41 +3596,41 @@
         <v>44124</v>
       </c>
       <c r="B64">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C64">
-        <v>1920</v>
+        <v>1852</v>
       </c>
       <c r="D64" s="7">
         <v>29</v>
       </c>
       <c r="E64" s="54">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F64">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>26.857142857142858</v>
       </c>
       <c r="G64" s="53">
         <f t="shared" si="8"/>
-        <v>1.8229166666666668E-2</v>
+        <v>1.8358531317494601E-2</v>
       </c>
       <c r="H64" s="61">
         <f t="shared" si="4"/>
-        <v>6.651142969441301E-2</v>
+        <v>6.9390124717732399E-2</v>
       </c>
       <c r="I64" s="57">
         <f t="shared" si="9"/>
-        <v>132.54563356812844</v>
+        <v>128.75861546618194</v>
       </c>
       <c r="J64">
         <f t="shared" si="10"/>
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="K64">
         <f t="shared" si="6"/>
-        <v>423.42857142857144</v>
+        <v>391.85714285714283</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" s="9"/>
@@ -3632,41 +3640,41 @@
         <v>44125</v>
       </c>
       <c r="B65">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C65">
-        <v>2946</v>
+        <v>2520</v>
       </c>
       <c r="D65" s="7">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E65" s="54">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65">
         <f t="shared" si="3"/>
-        <v>26.428571428571427</v>
+        <v>26.142857142857142</v>
       </c>
       <c r="G65" s="53">
         <f t="shared" si="8"/>
-        <v>1.188051595383571E-2</v>
+        <v>1.3095238095238096E-2</v>
       </c>
       <c r="H65" s="61">
         <f t="shared" si="4"/>
-        <v>6.5962771832921138E-2</v>
+        <v>6.9096370852549965E-2</v>
       </c>
       <c r="I65" s="57">
         <f t="shared" si="9"/>
-        <v>132.54563356812844</v>
+        <v>124.97159736423541</v>
       </c>
       <c r="J65">
         <f t="shared" si="10"/>
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="K65">
         <f t="shared" si="6"/>
-        <v>391.57142857142856</v>
+        <v>365.57142857142856</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" s="9"/>
@@ -3676,13 +3684,13 @@
         <v>44126</v>
       </c>
       <c r="B66">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C66">
-        <v>1949</v>
+        <v>1853</v>
       </c>
       <c r="D66" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" s="54">
         <f t="shared" ref="E66:E89" si="11">ABS(B66-D66)</f>
@@ -3690,27 +3698,27 @@
       </c>
       <c r="F66">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>24.714285714285715</v>
       </c>
       <c r="G66" s="53">
         <f t="shared" ref="G66:G89" si="12">B66/C66</f>
-        <v>5.643919958953309E-3</v>
+        <v>6.4759848893685915E-3</v>
       </c>
       <c r="H66" s="61">
         <f t="shared" si="4"/>
-        <v>6.4995996467381537E-2</v>
+        <v>6.8046114226796656E-2</v>
       </c>
       <c r="I66" s="57">
         <f t="shared" ref="I66:I97" si="13">(B66/26406)*100000</f>
-        <v>41.6571991214118</v>
+        <v>45.444217223358329</v>
       </c>
       <c r="J66">
         <f t="shared" si="10"/>
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="K66">
         <f t="shared" si="6"/>
-        <v>359.14285714285717</v>
+        <v>337.71428571428572</v>
       </c>
       <c r="L66">
         <v>84</v>
@@ -3729,14 +3737,14 @@
         <v>19</v>
       </c>
       <c r="C67">
-        <v>1550</v>
+        <v>1361</v>
       </c>
       <c r="D67" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E67" s="54">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F67">
         <f t="shared" si="3"/>
@@ -3744,11 +3752,11 @@
       </c>
       <c r="G67" s="53">
         <f t="shared" si="12"/>
-        <v>1.2258064516129033E-2</v>
+        <v>1.3960323291697281E-2</v>
       </c>
       <c r="H67" s="61">
         <f t="shared" si="4"/>
-        <v>6.0809321087394383E-2</v>
+        <v>6.3424775255236363E-2</v>
       </c>
       <c r="I67" s="57">
         <f t="shared" si="13"/>
@@ -3756,11 +3764,11 @@
       </c>
       <c r="J67">
         <f t="shared" si="10"/>
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="K67">
         <f t="shared" si="6"/>
-        <v>329.57142857142856</v>
+        <v>312.14285714285717</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" s="9"/>
@@ -3770,13 +3778,13 @@
         <v>44128</v>
       </c>
       <c r="B68">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C68">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="D68" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E68" s="54">
         <f t="shared" si="11"/>
@@ -3784,27 +3792,27 @@
       </c>
       <c r="F68">
         <f t="shared" si="3"/>
-        <v>22.714285714285715</v>
+        <v>23</v>
       </c>
       <c r="G68" s="53">
         <f t="shared" si="12"/>
-        <v>1.8867924528301886E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="H68" s="61">
         <f t="shared" si="4"/>
-        <v>1.588569125810417E-2</v>
+        <v>2.5329537159998274E-2</v>
       </c>
       <c r="I68" s="57">
         <f t="shared" si="13"/>
-        <v>7.5740362038930549</v>
+        <v>15.14807240778611</v>
       </c>
       <c r="J68">
         <f t="shared" si="10"/>
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K68">
         <f t="shared" si="6"/>
-        <v>305.28571428571428</v>
+        <v>291.57142857142856</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" s="9"/>
@@ -3814,13 +3822,13 @@
         <v>44129</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="D69" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" s="54">
         <f t="shared" si="11"/>
@@ -3828,27 +3836,27 @@
       </c>
       <c r="F69">
         <f t="shared" si="3"/>
-        <v>22.142857142857142</v>
+        <v>21.857142857142858</v>
       </c>
       <c r="G69" s="53">
         <f t="shared" si="12"/>
-        <v>3.6900369003690036E-3</v>
+        <v>0</v>
       </c>
       <c r="H69" s="61">
         <f t="shared" si="4"/>
-        <v>1.3861818978565052E-2</v>
+        <v>2.1080997595473581E-2</v>
       </c>
       <c r="I69" s="57">
         <f t="shared" si="13"/>
-        <v>3.7870181019465274</v>
+        <v>0</v>
       </c>
       <c r="J69">
         <f t="shared" si="10"/>
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K69">
         <f t="shared" si="6"/>
-        <v>284.71428571428572</v>
+        <v>274</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" s="9"/>
@@ -3861,7 +3869,7 @@
         <v>18</v>
       </c>
       <c r="C70">
-        <v>2263</v>
+        <v>2008</v>
       </c>
       <c r="D70" s="7">
         <v>15</v>
@@ -3872,15 +3880,15 @@
       </c>
       <c r="F70">
         <f t="shared" si="3"/>
-        <v>17.285714285714285</v>
+        <v>17.142857142857142</v>
       </c>
       <c r="G70" s="53">
         <f t="shared" si="12"/>
-        <v>7.9540433053468841E-3</v>
+        <v>8.9641434262948214E-3</v>
       </c>
       <c r="H70" s="61">
         <f t="shared" si="4"/>
-        <v>1.1217667404228929E-2</v>
+        <v>1.8217269669537149E-2</v>
       </c>
       <c r="I70" s="57">
         <f t="shared" si="13"/>
@@ -3888,11 +3896,11 @@
       </c>
       <c r="J70">
         <f t="shared" si="10"/>
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K70">
         <f t="shared" si="6"/>
-        <v>265.85714285714283</v>
+        <v>257.71428571428572</v>
       </c>
       <c r="L70">
         <v>75</v>
@@ -3911,7 +3919,7 @@
         <v>20</v>
       </c>
       <c r="C71">
-        <v>2060</v>
+        <v>1987</v>
       </c>
       <c r="D71" s="7">
         <v>20</v>
@@ -3926,11 +3934,11 @@
       </c>
       <c r="G71" s="53">
         <f t="shared" si="12"/>
-        <v>9.7087378640776691E-3</v>
+        <v>1.0065425264217413E-2</v>
       </c>
       <c r="H71" s="61">
         <f t="shared" si="4"/>
-        <v>1.0000463289573356E-2</v>
+        <v>1.7032540233354695E-2</v>
       </c>
       <c r="I71" s="57">
         <f t="shared" si="13"/>
@@ -3938,11 +3946,11 @@
       </c>
       <c r="J71">
         <f t="shared" si="10"/>
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K71">
         <f t="shared" si="6"/>
-        <v>245.28571428571428</v>
+        <v>239.71428571428572</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" s="9"/>
@@ -3955,26 +3963,26 @@
         <v>24</v>
       </c>
       <c r="C72">
-        <v>2859</v>
+        <v>2424</v>
       </c>
       <c r="D72" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E72" s="54">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72">
-        <f t="shared" ref="F72:F122" si="14">AVERAGE(B66:B72)</f>
-        <v>13.571428571428571</v>
+        <f t="shared" ref="F72:F135" si="14">AVERAGE(B66:B72)</f>
+        <v>13.857142857142858</v>
       </c>
       <c r="G72" s="53">
         <f t="shared" si="12"/>
-        <v>8.3945435466946487E-3</v>
+        <v>9.9009900990099011E-3</v>
       </c>
       <c r="H72" s="61">
         <f t="shared" si="4"/>
-        <v>9.502467231410348E-3</v>
+        <v>1.6576219091036383E-2</v>
       </c>
       <c r="I72" s="57">
         <f t="shared" si="13"/>
@@ -3982,11 +3990,11 @@
       </c>
       <c r="J72">
         <f t="shared" si="10"/>
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K72">
         <f t="shared" ref="K72:K115" si="15">AVERAGE(J66:J72)</f>
-        <v>223.14285714285714</v>
+        <v>220</v>
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" s="9"/>
@@ -3996,13 +4004,13 @@
         <v>44133</v>
       </c>
       <c r="B73">
+        <v>6</v>
+      </c>
+      <c r="C73">
+        <v>34</v>
+      </c>
+      <c r="D73" s="7">
         <v>5</v>
-      </c>
-      <c r="C73">
-        <v>35</v>
-      </c>
-      <c r="D73" s="7">
-        <v>4</v>
       </c>
       <c r="E73" s="54">
         <f t="shared" si="11"/>
@@ -4010,19 +4018,19 @@
       </c>
       <c r="F73">
         <f t="shared" si="14"/>
-        <v>12.714285714285714</v>
+        <v>13</v>
       </c>
       <c r="G73" s="53">
         <f t="shared" si="12"/>
-        <v>0.14285714285714285</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="H73" s="61">
         <f t="shared" ref="H73:H115" si="16">AVERAGE(G67:G73)</f>
-        <v>2.9104356216865995E-2</v>
+        <v>4.08611624261686E-2</v>
       </c>
       <c r="I73" s="57">
         <f t="shared" si="13"/>
-        <v>18.935090509732639</v>
+        <v>22.722108611679165</v>
       </c>
       <c r="J73">
         <f t="shared" si="10"/>
@@ -4030,7 +4038,7 @@
       </c>
       <c r="K73">
         <f t="shared" si="15"/>
-        <v>205.85714285714286</v>
+        <v>204.57142857142858</v>
       </c>
       <c r="L73">
         <v>51</v>
@@ -4046,13 +4054,13 @@
         <v>44134</v>
       </c>
       <c r="B74">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C74">
-        <v>2223</v>
+        <v>2032</v>
       </c>
       <c r="D74" s="7">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E74" s="54">
         <f t="shared" si="11"/>
@@ -4060,27 +4068,27 @@
       </c>
       <c r="F74">
         <f t="shared" si="14"/>
-        <v>13.285714285714286</v>
+        <v>13.857142857142858</v>
       </c>
       <c r="G74" s="53">
         <f t="shared" si="12"/>
-        <v>1.03463787674314E-2</v>
+        <v>1.2303149606299213E-2</v>
       </c>
       <c r="H74" s="61">
         <f t="shared" si="16"/>
-        <v>2.8831258252766334E-2</v>
+        <v>4.062442332825459E-2</v>
       </c>
       <c r="I74" s="57">
         <f t="shared" si="13"/>
-        <v>87.101416344770129</v>
+        <v>94.675452548663188</v>
       </c>
       <c r="J74">
         <f t="shared" si="10"/>
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K74">
         <f t="shared" si="15"/>
-        <v>191.14285714285714</v>
+        <v>191.57142857142858</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" s="9"/>
@@ -4090,13 +4098,13 @@
         <v>44135</v>
       </c>
       <c r="B75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C75">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D75" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E75" s="54">
         <f t="shared" si="11"/>
@@ -4104,27 +4112,27 @@
       </c>
       <c r="F75">
         <f t="shared" si="14"/>
-        <v>13.428571428571429</v>
+        <v>13.857142857142858</v>
       </c>
       <c r="G75" s="53">
         <f t="shared" si="12"/>
-        <v>0.6</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H75" s="61">
         <f t="shared" si="16"/>
-        <v>0.11185012617729463</v>
+        <v>0.1263387090425403</v>
       </c>
       <c r="I75" s="57">
         <f t="shared" si="13"/>
-        <v>11.361054305839582</v>
+        <v>15.14807240778611</v>
       </c>
       <c r="J75">
         <f t="shared" ref="J75:J106" si="17">SUM(B66:B75)</f>
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K75">
         <f t="shared" si="15"/>
-        <v>178.14285714285714</v>
+        <v>179.28571428571428</v>
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" s="9"/>
@@ -4134,13 +4142,13 @@
         <v>44136</v>
       </c>
       <c r="B76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C76">
-        <v>534</v>
+        <v>335</v>
       </c>
       <c r="D76" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E76" s="54">
         <f t="shared" si="11"/>
@@ -4148,27 +4156,27 @@
       </c>
       <c r="F76">
         <f t="shared" si="14"/>
-        <v>13.714285714285714</v>
+        <v>14.428571428571429</v>
       </c>
       <c r="G76" s="53">
         <f t="shared" si="12"/>
-        <v>5.6179775280898875E-3</v>
+        <v>1.1940298507462687E-2</v>
       </c>
       <c r="H76" s="61">
         <f t="shared" si="16"/>
-        <v>0.11212554626696904</v>
+        <v>0.12804446597217783</v>
       </c>
       <c r="I76" s="57">
         <f t="shared" si="13"/>
-        <v>11.361054305839582</v>
+        <v>15.14807240778611</v>
       </c>
       <c r="J76">
         <f t="shared" si="17"/>
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="K76">
         <f t="shared" si="15"/>
-        <v>166.85714285714286</v>
+        <v>169</v>
       </c>
       <c r="P76" s="2"/>
       <c r="Q76" s="9"/>
@@ -4178,13 +4186,13 @@
         <v>44137</v>
       </c>
       <c r="B77">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C77">
-        <v>440</v>
+        <v>329</v>
       </c>
       <c r="D77" s="7">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E77" s="54">
         <f t="shared" si="11"/>
@@ -4192,27 +4200,27 @@
       </c>
       <c r="F77">
         <f t="shared" si="14"/>
-        <v>14.571428571428571</v>
+        <v>15</v>
       </c>
       <c r="G77" s="53">
         <f t="shared" si="12"/>
-        <v>5.4545454545454543E-2</v>
+        <v>6.6869300911854099E-2</v>
       </c>
       <c r="H77" s="61">
         <f t="shared" si="16"/>
-        <v>0.118781462158413</v>
+        <v>0.13631663132725771</v>
       </c>
       <c r="I77" s="57">
         <f t="shared" si="13"/>
-        <v>90.888434446716658</v>
+        <v>83.3143982428236</v>
       </c>
       <c r="J77">
         <f t="shared" si="17"/>
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="K77">
         <f t="shared" si="15"/>
-        <v>158.57142857142858</v>
+        <v>161.14285714285714</v>
       </c>
       <c r="L77">
         <v>42</v>
@@ -4226,13 +4234,13 @@
         <v>44138</v>
       </c>
       <c r="B78">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C78">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D78" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E78" s="54">
         <f t="shared" si="11"/>
@@ -4240,27 +4248,27 @@
       </c>
       <c r="F78">
         <f t="shared" si="14"/>
-        <v>12.428571428571429</v>
+        <v>13.285714285714286</v>
       </c>
       <c r="G78" s="53">
         <f t="shared" si="12"/>
-        <v>0.26315789473684209</v>
+        <v>0.38095238095238093</v>
       </c>
       <c r="H78" s="61">
         <f t="shared" si="16"/>
-        <v>0.1549884845688079</v>
+        <v>0.18930048213985251</v>
       </c>
       <c r="I78" s="57">
         <f t="shared" si="13"/>
-        <v>18.935090509732639</v>
+        <v>30.296144815572219</v>
       </c>
       <c r="J78">
         <f t="shared" si="17"/>
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="K78">
         <f t="shared" si="15"/>
-        <v>148.28571428571428</v>
+        <v>151.42857142857142</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -4268,41 +4276,41 @@
         <v>44139</v>
       </c>
       <c r="B79">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C79">
-        <v>3026</v>
+        <v>2545</v>
       </c>
       <c r="D79" s="7">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E79" s="54">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F79">
         <f t="shared" si="14"/>
-        <v>13.142857142857142</v>
+        <v>14.714285714285714</v>
       </c>
       <c r="G79" s="53">
         <f t="shared" si="12"/>
-        <v>9.5836087243886311E-3</v>
+        <v>1.3359528487229863E-2</v>
       </c>
       <c r="H79" s="61">
         <f t="shared" si="16"/>
-        <v>0.15515835102276418</v>
+        <v>0.18979455905245537</v>
       </c>
       <c r="I79" s="57">
         <f t="shared" si="13"/>
-        <v>109.82352495644929</v>
+        <v>128.75861546618194</v>
       </c>
       <c r="J79">
         <f t="shared" si="17"/>
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="K79">
         <f t="shared" si="15"/>
-        <v>139.28571428571428</v>
+        <v>144.28571428571428</v>
       </c>
     </row>
     <row r="80" spans="1:17">
@@ -4310,13 +4318,13 @@
         <v>44140</v>
       </c>
       <c r="B80">
+        <v>41</v>
+      </c>
+      <c r="C80">
+        <v>1900</v>
+      </c>
+      <c r="D80" s="7">
         <v>38</v>
-      </c>
-      <c r="C80">
-        <v>1933</v>
-      </c>
-      <c r="D80" s="7">
-        <v>35</v>
       </c>
       <c r="E80" s="54">
         <f t="shared" si="11"/>
@@ -4324,27 +4332,27 @@
       </c>
       <c r="F80">
         <f t="shared" si="14"/>
-        <v>17.857142857142858</v>
+        <v>19.714285714285715</v>
       </c>
       <c r="G80" s="53">
         <f t="shared" si="12"/>
-        <v>1.9658561821003621E-2</v>
+        <v>2.1578947368421052E-2</v>
       </c>
       <c r="H80" s="61">
         <f t="shared" si="16"/>
-        <v>0.13755855373188719</v>
+        <v>0.16766718178575921</v>
       </c>
       <c r="I80" s="57">
         <f t="shared" si="13"/>
-        <v>143.90668787396802</v>
+        <v>155.26774217980761</v>
       </c>
       <c r="J80">
         <f t="shared" si="17"/>
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="K80">
         <f t="shared" si="15"/>
-        <v>139.85714285714286</v>
+        <v>146.85714285714286</v>
       </c>
       <c r="L80">
         <v>38</v>
@@ -4361,7 +4369,7 @@
         <v>11</v>
       </c>
       <c r="C81">
-        <v>1792</v>
+        <v>1571</v>
       </c>
       <c r="D81" s="7">
         <v>11</v>
@@ -4372,15 +4380,15 @@
       </c>
       <c r="F81">
         <f t="shared" si="14"/>
-        <v>16.142857142857142</v>
+        <v>17.714285714285715</v>
       </c>
       <c r="G81" s="53">
         <f t="shared" si="12"/>
-        <v>6.138392857142857E-3</v>
+        <v>7.0019096117122856E-3</v>
       </c>
       <c r="H81" s="61">
         <f t="shared" si="16"/>
-        <v>0.13695741288756028</v>
+        <v>0.16690986178653253</v>
       </c>
       <c r="I81" s="57">
         <f t="shared" si="13"/>
@@ -4388,11 +4396,11 @@
       </c>
       <c r="J81">
         <f t="shared" si="17"/>
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="K81">
         <f t="shared" si="15"/>
-        <v>140.85714285714286</v>
+        <v>149.42857142857142</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -4400,13 +4408,13 @@
         <v>44142</v>
       </c>
       <c r="B82" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D82" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" s="54">
         <f t="shared" si="11"/>
@@ -4414,27 +4422,27 @@
       </c>
       <c r="F82">
         <f t="shared" si="14"/>
-        <v>15.714285714285714</v>
+        <v>17.285714285714285</v>
       </c>
       <c r="G82" s="53">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H82" s="61">
         <f t="shared" si="16"/>
-        <v>5.1243127173274512E-2</v>
+        <v>9.5481290357961074E-2</v>
       </c>
       <c r="I82" s="57">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3.7870181019465274</v>
       </c>
       <c r="J82">
         <f t="shared" si="17"/>
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="K82">
         <f t="shared" si="15"/>
-        <v>143</v>
+        <v>152.85714285714286</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -4442,41 +4450,41 @@
         <v>44143</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C83">
-        <v>541</v>
+        <v>280</v>
       </c>
       <c r="D83" s="7">
         <v>0</v>
       </c>
       <c r="E83" s="54">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F83">
         <f t="shared" si="14"/>
-        <v>15.428571428571429</v>
+        <v>17</v>
       </c>
       <c r="G83" s="53">
         <f t="shared" si="12"/>
-        <v>1.8484288354898336E-3</v>
+        <v>7.1428571428571426E-3</v>
       </c>
       <c r="H83" s="61">
         <f t="shared" si="16"/>
-        <v>5.0704620217188801E-2</v>
+        <v>9.4795941591588856E-2</v>
       </c>
       <c r="I83" s="57">
         <f t="shared" si="13"/>
-        <v>3.7870181019465274</v>
+        <v>7.5740362038930549</v>
       </c>
       <c r="J83">
         <f t="shared" si="17"/>
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K83">
         <f t="shared" si="15"/>
-        <v>145.71428571428572</v>
+        <v>156.85714285714286</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -4484,13 +4492,13 @@
         <v>44144</v>
       </c>
       <c r="B84">
+        <v>24</v>
+      </c>
+      <c r="C84">
+        <v>1826</v>
+      </c>
+      <c r="D84" s="7">
         <v>23</v>
-      </c>
-      <c r="C84">
-        <v>2040</v>
-      </c>
-      <c r="D84" s="7">
-        <v>22</v>
       </c>
       <c r="E84" s="54">
         <f t="shared" si="11"/>
@@ -4498,27 +4506,27 @@
       </c>
       <c r="F84">
         <f t="shared" si="14"/>
-        <v>15.285714285714286</v>
+        <v>17.285714285714285</v>
       </c>
       <c r="G84" s="53">
         <f t="shared" si="12"/>
-        <v>1.1274509803921568E-2</v>
+        <v>1.3143483023001095E-2</v>
       </c>
       <c r="H84" s="61">
         <f t="shared" si="16"/>
-        <v>4.4523056682684088E-2</v>
+        <v>8.7120824750324136E-2</v>
       </c>
       <c r="I84" s="57">
         <f t="shared" si="13"/>
-        <v>87.101416344770129</v>
+        <v>90.888434446716658</v>
       </c>
       <c r="J84">
         <f t="shared" si="17"/>
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="K84">
         <f t="shared" si="15"/>
-        <v>147.71428571428572</v>
+        <v>160.28571428571428</v>
       </c>
       <c r="L84">
         <v>40</v>
@@ -4535,7 +4543,7 @@
         <v>18</v>
       </c>
       <c r="C85">
-        <v>2359</v>
+        <v>2294</v>
       </c>
       <c r="D85" s="7">
         <v>16</v>
@@ -4546,15 +4554,15 @@
       </c>
       <c r="F85">
         <f t="shared" si="14"/>
-        <v>17.142857142857142</v>
+        <v>18.714285714285715</v>
       </c>
       <c r="G85" s="53">
         <f t="shared" si="12"/>
-        <v>7.6303518440016954E-3</v>
+        <v>7.8465562336530077E-3</v>
       </c>
       <c r="H85" s="61">
         <f t="shared" si="16"/>
-        <v>8.0191219837068874E-3</v>
+        <v>3.3819992647648726E-2</v>
       </c>
       <c r="I85" s="57">
         <f t="shared" si="13"/>
@@ -4562,11 +4570,11 @@
       </c>
       <c r="J85">
         <f t="shared" si="17"/>
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="K85">
         <f t="shared" si="15"/>
-        <v>151.42857142857142</v>
+        <v>165.14285714285714</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -4574,13 +4582,13 @@
         <v>44146</v>
       </c>
       <c r="B86">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C86">
-        <v>3371</v>
+        <v>2709</v>
       </c>
       <c r="D86" s="7">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E86" s="54">
         <f t="shared" si="11"/>
@@ -4588,27 +4596,27 @@
       </c>
       <c r="F86">
         <f t="shared" si="14"/>
-        <v>19.285714285714285</v>
+        <v>20</v>
       </c>
       <c r="G86" s="53">
         <f t="shared" si="12"/>
-        <v>1.3052506674577276E-2</v>
+        <v>1.5873015873015872E-2</v>
       </c>
       <c r="H86" s="61">
         <f t="shared" si="16"/>
-        <v>8.5146788337338349E-3</v>
+        <v>3.4179062274189584E-2</v>
       </c>
       <c r="I86" s="57">
         <f t="shared" si="13"/>
-        <v>166.6287964856472</v>
+        <v>162.84177838370067</v>
       </c>
       <c r="J86">
         <f t="shared" si="17"/>
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="K86">
         <f t="shared" si="15"/>
-        <v>157</v>
+        <v>170.71428571428572</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -4616,13 +4624,13 @@
         <v>44147</v>
       </c>
       <c r="B87">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C87">
-        <v>2204</v>
+        <v>2159</v>
       </c>
       <c r="D87" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E87" s="54">
         <f t="shared" si="11"/>
@@ -4630,27 +4638,27 @@
       </c>
       <c r="F87">
         <f t="shared" si="14"/>
-        <v>16.714285714285715</v>
+        <v>17.285714285714285</v>
       </c>
       <c r="G87" s="53">
         <f t="shared" si="12"/>
-        <v>9.0744101633393835E-3</v>
+        <v>1.0189902732746642E-2</v>
       </c>
       <c r="H87" s="61">
         <f t="shared" si="16"/>
-        <v>7.0026571683532305E-3</v>
+        <v>3.2552055897664675E-2</v>
       </c>
       <c r="I87" s="57">
         <f t="shared" si="13"/>
-        <v>75.740362038930556</v>
+        <v>83.3143982428236</v>
       </c>
       <c r="J87">
         <f t="shared" si="17"/>
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="K87">
         <f t="shared" si="15"/>
-        <v>159.14285714285714</v>
+        <v>173</v>
       </c>
       <c r="L87">
         <v>43</v>
@@ -4664,13 +4672,13 @@
         <v>44148</v>
       </c>
       <c r="B88">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C88">
-        <v>1803</v>
+        <v>1581</v>
       </c>
       <c r="D88" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E88" s="54">
         <f t="shared" si="11"/>
@@ -4678,27 +4686,27 @@
       </c>
       <c r="F88">
         <f t="shared" si="14"/>
-        <v>16.714285714285715</v>
+        <v>17.714285714285715</v>
       </c>
       <c r="G88" s="53">
         <f t="shared" si="12"/>
-        <v>6.1009428729894618E-3</v>
+        <v>8.8551549652118918E-3</v>
       </c>
       <c r="H88" s="61">
         <f t="shared" si="16"/>
-        <v>6.9973071706170313E-3</v>
+        <v>3.28168052338789E-2</v>
       </c>
       <c r="I88" s="57">
         <f t="shared" si="13"/>
-        <v>41.6571991214118</v>
+        <v>53.018253427251388</v>
       </c>
       <c r="J88">
         <f t="shared" si="17"/>
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="K88">
         <f t="shared" si="15"/>
-        <v>163.42857142857142</v>
+        <v>177.42857142857142</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -4706,13 +4714,13 @@
         <v>44149</v>
       </c>
       <c r="B89">
-        <v>3</v>
-      </c>
-      <c r="C89">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C89" s="9">
+        <v>6</v>
       </c>
       <c r="D89" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E89" s="54">
         <f t="shared" si="11"/>
@@ -4720,27 +4728,27 @@
       </c>
       <c r="F89">
         <f t="shared" si="14"/>
-        <v>17.142857142857142</v>
+        <v>18.142857142857142</v>
       </c>
       <c r="G89" s="53">
         <f t="shared" si="12"/>
-        <v>0.6</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H89" s="61">
         <f t="shared" si="16"/>
-        <v>9.2711592884902744E-2</v>
+        <v>0.10424537666245033</v>
       </c>
       <c r="I89" s="57">
         <f t="shared" si="13"/>
-        <v>11.361054305839582</v>
+        <v>15.14807240778611</v>
       </c>
       <c r="J89">
         <f t="shared" si="17"/>
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="K89">
         <f t="shared" si="15"/>
-        <v>167.42857142857142</v>
+        <v>180.85714285714286</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -4755,12 +4763,12 @@
       <c r="E90" s="59"/>
       <c r="F90">
         <f t="shared" si="14"/>
-        <v>19.833333333333332</v>
+        <v>20.833333333333332</v>
       </c>
       <c r="G90" s="34"/>
       <c r="H90" s="61">
         <f t="shared" si="16"/>
-        <v>0.1078554535598049</v>
+        <v>0.12042912991571586</v>
       </c>
       <c r="I90" s="57">
         <f t="shared" si="13"/>
@@ -4768,11 +4776,11 @@
       </c>
       <c r="J90">
         <f t="shared" si="17"/>
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="K90">
         <f t="shared" si="15"/>
-        <v>166.57142857142858</v>
+        <v>179</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -4780,17 +4788,17 @@
         <v>44151</v>
       </c>
       <c r="B91">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C91">
-        <v>2981</v>
+        <v>2483</v>
       </c>
       <c r="D91" s="7">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E91" s="54">
         <f t="shared" ref="E91:E100" si="18">ABS(B91-D91)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F91">
         <f t="shared" si="14"/>
@@ -4798,23 +4806,23 @@
       </c>
       <c r="G91" s="53">
         <f t="shared" ref="G91:G100" si="19">B91/C91</f>
-        <v>1.7108352901710835E-2</v>
+        <v>1.8525976641159889E-2</v>
       </c>
       <c r="H91" s="61">
         <f t="shared" si="16"/>
-        <v>0.10882776074276979</v>
+        <v>0.12132621218540897</v>
       </c>
       <c r="I91" s="57">
         <f t="shared" si="13"/>
-        <v>193.13792319927288</v>
+        <v>174.20283268954026</v>
       </c>
       <c r="J91">
         <f t="shared" si="17"/>
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K91">
         <f t="shared" si="15"/>
-        <v>171.42857142857142</v>
+        <v>182.28571428571428</v>
       </c>
       <c r="L91">
         <v>37</v>
@@ -4828,13 +4836,13 @@
         <v>44152</v>
       </c>
       <c r="B92">
+        <v>26</v>
+      </c>
+      <c r="C92">
+        <v>2187</v>
+      </c>
+      <c r="D92" s="7">
         <v>24</v>
-      </c>
-      <c r="C92">
-        <v>2245</v>
-      </c>
-      <c r="D92" s="7">
-        <v>22</v>
       </c>
       <c r="E92" s="54">
         <f t="shared" si="18"/>
@@ -4842,27 +4850,27 @@
       </c>
       <c r="F92">
         <f t="shared" si="14"/>
-        <v>25.5</v>
+        <v>25.833333333333332</v>
       </c>
       <c r="G92" s="53">
         <f t="shared" si="19"/>
-        <v>1.0690423162583519E-2</v>
+        <v>1.1888431641518061E-2</v>
       </c>
       <c r="H92" s="61">
         <f t="shared" si="16"/>
-        <v>0.10933777262920008</v>
+        <v>0.12199985808671983</v>
       </c>
       <c r="I92" s="57">
         <f t="shared" si="13"/>
-        <v>90.888434446716658</v>
+        <v>98.462470650609703</v>
       </c>
       <c r="J92">
         <f t="shared" si="17"/>
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K92">
         <f t="shared" si="15"/>
-        <v>177.57142857142858</v>
+        <v>187.14285714285714</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -4870,41 +4878,41 @@
         <v>44153</v>
       </c>
       <c r="B93">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C93">
-        <v>3278</v>
+        <v>2703</v>
       </c>
       <c r="D93" s="7">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E93" s="54">
         <f t="shared" si="18"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F93">
         <f t="shared" si="14"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G93" s="53">
         <f t="shared" si="19"/>
-        <v>1.2507626601586334E-2</v>
+        <v>1.1838697743248243E-2</v>
       </c>
       <c r="H93" s="61">
         <f t="shared" si="16"/>
-        <v>0.10924695928370159</v>
+        <v>0.12132747173175855</v>
       </c>
       <c r="I93" s="57">
         <f t="shared" si="13"/>
-        <v>155.26774217980761</v>
+        <v>121.18457926228888</v>
       </c>
       <c r="J93">
         <f t="shared" si="17"/>
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="K93">
         <f t="shared" si="15"/>
-        <v>183.57142857142858</v>
+        <v>190.71428571428572</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -4912,13 +4920,13 @@
         <v>44154</v>
       </c>
       <c r="B94">
+        <v>21</v>
+      </c>
+      <c r="C94">
+        <v>2226</v>
+      </c>
+      <c r="D94" s="7">
         <v>19</v>
-      </c>
-      <c r="C94">
-        <v>2256</v>
-      </c>
-      <c r="D94" s="7">
-        <v>17</v>
       </c>
       <c r="E94" s="54">
         <f t="shared" si="18"/>
@@ -4926,27 +4934,27 @@
       </c>
       <c r="F94">
         <f t="shared" si="14"/>
-        <v>24.833333333333332</v>
+        <v>23.833333333333332</v>
       </c>
       <c r="G94" s="53">
         <f t="shared" si="19"/>
-        <v>8.4219858156028369E-3</v>
+        <v>9.433962264150943E-3</v>
       </c>
       <c r="H94" s="61">
         <f t="shared" si="16"/>
-        <v>0.10913822189241217</v>
+        <v>0.12120148165365928</v>
       </c>
       <c r="I94" s="57">
         <f t="shared" si="13"/>
-        <v>71.953343936984012</v>
+        <v>79.527380140877071</v>
       </c>
       <c r="J94">
         <f t="shared" si="17"/>
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="K94">
         <f t="shared" si="15"/>
-        <v>189.57142857142858</v>
+        <v>193.85714285714286</v>
       </c>
       <c r="L94">
         <v>32</v>
@@ -4960,13 +4968,13 @@
         <v>44155</v>
       </c>
       <c r="B95">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C95">
-        <v>1869</v>
+        <v>1517</v>
       </c>
       <c r="D95" s="7">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E95" s="54">
         <f t="shared" si="18"/>
@@ -4974,27 +4982,27 @@
       </c>
       <c r="F95">
         <f t="shared" si="14"/>
-        <v>29.666666666666668</v>
+        <v>27.333333333333332</v>
       </c>
       <c r="G95" s="53">
         <f t="shared" si="19"/>
-        <v>2.1401819154628143E-2</v>
+        <v>2.3071852340145024E-2</v>
       </c>
       <c r="H95" s="61">
         <f t="shared" si="16"/>
-        <v>0.11168836793935194</v>
+        <v>0.12357093121614811</v>
       </c>
       <c r="I95" s="57">
         <f t="shared" si="13"/>
-        <v>151.48072407786111</v>
+        <v>132.54563356812844</v>
       </c>
       <c r="J95">
         <f t="shared" si="17"/>
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="K95">
         <f t="shared" si="15"/>
-        <v>197.85714285714286</v>
+        <v>198.57142857142858</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -5002,13 +5010,13 @@
         <v>44156</v>
       </c>
       <c r="B96" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" s="54">
         <f t="shared" si="18"/>
@@ -5016,27 +5024,27 @@
       </c>
       <c r="F96">
         <f t="shared" si="14"/>
-        <v>29.166666666666668</v>
+        <v>26.833333333333332</v>
       </c>
       <c r="G96" s="53">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H96" s="61">
         <f t="shared" si="16"/>
-        <v>1.1688367939351943E-2</v>
+        <v>5.4126486771703695E-2</v>
       </c>
       <c r="I96" s="57">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3.7870181019465274</v>
       </c>
       <c r="J96">
         <f t="shared" si="17"/>
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="K96">
         <f t="shared" si="15"/>
-        <v>203.57142857142858</v>
+        <v>201.57142857142858</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -5047,7 +5055,7 @@
         <v>2</v>
       </c>
       <c r="C97">
-        <v>520</v>
+        <v>269</v>
       </c>
       <c r="D97" s="7">
         <v>2</v>
@@ -5058,15 +5066,15 @@
       </c>
       <c r="F97">
         <f t="shared" si="14"/>
-        <v>25.285714285714285</v>
+        <v>23.285714285714285</v>
       </c>
       <c r="G97" s="53">
         <f t="shared" si="19"/>
-        <v>3.8461538461538464E-3</v>
+        <v>7.4349442379182153E-3</v>
       </c>
       <c r="H97" s="61">
         <f t="shared" si="16"/>
-        <v>1.0568051640323645E-2</v>
+        <v>4.7456266409734341E-2</v>
       </c>
       <c r="I97" s="57">
         <f t="shared" si="13"/>
@@ -5074,11 +5082,11 @@
       </c>
       <c r="J97">
         <f t="shared" si="17"/>
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="K97">
         <f t="shared" si="15"/>
-        <v>212.14285714285714</v>
+        <v>207.57142857142858</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -5086,41 +5094,41 @@
         <v>44158</v>
       </c>
       <c r="B98">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C98">
-        <v>3125</v>
+        <v>2794</v>
       </c>
       <c r="D98" s="7">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E98" s="54">
         <f t="shared" si="18"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F98">
         <f t="shared" si="14"/>
-        <v>25.571428571428573</v>
+        <v>24.428571428571427</v>
       </c>
       <c r="G98" s="53">
         <f t="shared" si="19"/>
-        <v>1.6959999999999999E-2</v>
+        <v>1.9327129563350035E-2</v>
       </c>
       <c r="H98" s="61">
         <f t="shared" si="16"/>
-        <v>1.0546858368650668E-2</v>
+        <v>4.7570716827190072E-2</v>
       </c>
       <c r="I98" s="57">
         <f t="shared" ref="I98:I115" si="20">(B98/26406)*100000</f>
-        <v>200.71195940316593</v>
+        <v>204.49897750511249</v>
       </c>
       <c r="J98">
         <f t="shared" si="17"/>
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K98">
         <f t="shared" si="15"/>
-        <v>221</v>
+        <v>214.28571428571428</v>
       </c>
       <c r="L98">
         <v>13</v>
@@ -5134,41 +5142,41 @@
         <v>44159</v>
       </c>
       <c r="B99">
+        <v>27</v>
+      </c>
+      <c r="C99">
+        <v>1737</v>
+      </c>
+      <c r="D99" s="7">
         <v>22</v>
-      </c>
-      <c r="C99">
-        <v>1778</v>
-      </c>
-      <c r="D99" s="7">
-        <v>19</v>
       </c>
       <c r="E99" s="54">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F99">
         <f t="shared" si="14"/>
-        <v>25.285714285714285</v>
+        <v>24.571428571428573</v>
       </c>
       <c r="G99" s="53">
         <f t="shared" si="19"/>
-        <v>1.2373453318335208E-2</v>
+        <v>1.5544041450777202E-2</v>
       </c>
       <c r="H99" s="61">
         <f t="shared" si="16"/>
-        <v>1.0787291248043769E-2</v>
+        <v>4.8092946799941381E-2</v>
       </c>
       <c r="I99" s="57">
         <f t="shared" si="20"/>
-        <v>83.3143982428236</v>
+        <v>102.24948875255625</v>
       </c>
       <c r="J99">
         <f t="shared" si="17"/>
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="K99">
         <f t="shared" si="15"/>
-        <v>229.14285714285714</v>
+        <v>220.71428571428572</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -5176,41 +5184,41 @@
         <v>44160</v>
       </c>
       <c r="B100">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C100">
-        <v>618</v>
+        <v>335</v>
       </c>
       <c r="D100" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E100" s="54">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F100">
         <f t="shared" si="14"/>
-        <v>19.857142857142858</v>
+        <v>20.714285714285715</v>
       </c>
       <c r="G100" s="53">
         <f t="shared" si="19"/>
-        <v>4.8543689320388345E-3</v>
+        <v>1.4925373134328358E-2</v>
       </c>
       <c r="H100" s="61">
         <f t="shared" si="16"/>
-        <v>9.6939687238226952E-3</v>
+        <v>4.8533900427238541E-2</v>
       </c>
       <c r="I100" s="57">
         <f t="shared" si="20"/>
-        <v>11.361054305839582</v>
+        <v>18.935090509732639</v>
       </c>
       <c r="J100">
         <f t="shared" si="17"/>
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="K100">
         <f t="shared" si="15"/>
-        <v>232</v>
+        <v>223.57142857142858</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -5225,12 +5233,12 @@
       <c r="E101" s="59"/>
       <c r="F101">
         <f t="shared" si="14"/>
-        <v>20</v>
+        <v>20.666666666666668</v>
       </c>
       <c r="G101" s="34"/>
       <c r="H101" s="61">
         <f t="shared" si="16"/>
-        <v>9.905965875192671E-3</v>
+        <v>5.5050556787753141E-2</v>
       </c>
       <c r="I101" s="57">
         <f t="shared" si="20"/>
@@ -5238,11 +5246,11 @@
       </c>
       <c r="J101">
         <f t="shared" si="17"/>
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K101">
         <f t="shared" si="15"/>
-        <v>228.14285714285714</v>
+        <v>220.28571428571428</v>
       </c>
       <c r="L101">
         <v>6</v>
@@ -5256,13 +5264,13 @@
         <v>44162</v>
       </c>
       <c r="B102">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C102">
-        <v>392</v>
+        <v>283</v>
       </c>
       <c r="D102" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E102" s="54">
         <f t="shared" ref="E102:E111" si="21">ABS(B102-D102)</f>
@@ -5270,19 +5278,19 @@
       </c>
       <c r="F102">
         <f t="shared" si="14"/>
-        <v>13.666666666666666</v>
+        <v>15.666666666666666</v>
       </c>
       <c r="G102" s="53">
         <f t="shared" ref="G102:G111" si="22">B102/C102</f>
-        <v>5.1020408163265302E-3</v>
+        <v>1.7667844522968199E-2</v>
       </c>
       <c r="H102" s="61">
         <f t="shared" si="16"/>
-        <v>7.189336152142403E-3</v>
+        <v>5.414988881822367E-2</v>
       </c>
       <c r="I102" s="57">
         <f t="shared" si="20"/>
-        <v>7.5740362038930549</v>
+        <v>18.935090509732639</v>
       </c>
       <c r="J102">
         <f t="shared" si="17"/>
@@ -5290,7 +5298,7 @@
       </c>
       <c r="K102">
         <f t="shared" si="15"/>
-        <v>218</v>
+        <v>211.57142857142858</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -5298,41 +5306,41 @@
         <v>44163</v>
       </c>
       <c r="B103" s="23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C103">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="D103" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" s="54">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F103">
         <f t="shared" si="14"/>
-        <v>13.666666666666666</v>
+        <v>16</v>
       </c>
       <c r="G103" s="53">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>4.2253521126760563E-2</v>
       </c>
       <c r="H103" s="61">
         <f t="shared" si="16"/>
-        <v>7.189336152142403E-3</v>
+        <v>1.952547567268376E-2</v>
       </c>
       <c r="I103" s="57">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>11.361054305839582</v>
       </c>
       <c r="J103">
         <f t="shared" si="17"/>
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="K103">
         <f t="shared" si="15"/>
-        <v>208.28571428571428</v>
+        <v>204.71428571428572</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -5340,13 +5348,13 @@
         <v>44164</v>
       </c>
       <c r="B104">
+        <v>4</v>
+      </c>
+      <c r="C104">
+        <v>328</v>
+      </c>
+      <c r="D104" s="7">
         <v>3</v>
-      </c>
-      <c r="C104">
-        <v>636</v>
-      </c>
-      <c r="D104" s="7">
-        <v>2</v>
       </c>
       <c r="E104" s="54">
         <f t="shared" si="21"/>
@@ -5354,27 +5362,27 @@
       </c>
       <c r="F104">
         <f t="shared" si="14"/>
-        <v>13.833333333333334</v>
+        <v>16.333333333333332</v>
       </c>
       <c r="G104" s="53">
         <f t="shared" si="22"/>
-        <v>4.7169811320754715E-3</v>
+        <v>1.2195121951219513E-2</v>
       </c>
       <c r="H104" s="61">
         <f t="shared" si="16"/>
-        <v>7.3344740331293401E-3</v>
+        <v>2.0318838624900644E-2</v>
       </c>
       <c r="I104" s="57">
         <f t="shared" si="20"/>
-        <v>11.361054305839582</v>
+        <v>15.14807240778611</v>
       </c>
       <c r="J104">
         <f t="shared" si="17"/>
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="K104">
         <f t="shared" si="15"/>
-        <v>198.85714285714286</v>
+        <v>198.28571428571428</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -5382,41 +5390,41 @@
         <v>44165</v>
       </c>
       <c r="B105">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C105">
-        <v>1211</v>
+        <v>1012</v>
       </c>
       <c r="D105" s="7">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E105" s="54">
         <f t="shared" si="21"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F105">
         <f t="shared" si="14"/>
-        <v>9.1666666666666661</v>
+        <v>11.666666666666666</v>
       </c>
       <c r="G105" s="53">
         <f t="shared" si="22"/>
-        <v>2.0644095788604461E-2</v>
+        <v>2.5691699604743084E-2</v>
       </c>
       <c r="H105" s="61">
         <f t="shared" si="16"/>
-        <v>7.9484899978967509E-3</v>
+        <v>2.1379600298466153E-2</v>
       </c>
       <c r="I105" s="57">
         <f t="shared" si="20"/>
-        <v>94.675452548663188</v>
+        <v>98.462470650609703</v>
       </c>
       <c r="J105">
         <f t="shared" si="17"/>
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="K105">
         <f t="shared" si="15"/>
-        <v>181.28571428571428</v>
+        <v>184.85714285714286</v>
       </c>
       <c r="L105">
         <v>3</v>
@@ -5430,41 +5438,41 @@
         <v>44166</v>
       </c>
       <c r="B106">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C106">
-        <v>822</v>
+        <v>615</v>
       </c>
       <c r="D106" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E106" s="54">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F106">
         <f t="shared" si="14"/>
-        <v>7.166666666666667</v>
+        <v>9.6666666666666661</v>
       </c>
       <c r="G106" s="53">
         <f t="shared" si="22"/>
-        <v>1.2165450121654502E-2</v>
+        <v>2.4390243902439025E-2</v>
       </c>
       <c r="H106" s="61">
         <f t="shared" si="16"/>
-        <v>7.9138227984499668E-3</v>
+        <v>2.2853967373743123E-2</v>
       </c>
       <c r="I106" s="57">
         <f t="shared" si="20"/>
-        <v>37.870181019465278</v>
+        <v>56.80527152919791</v>
       </c>
       <c r="J106">
         <f t="shared" si="17"/>
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="K106">
         <f t="shared" si="15"/>
-        <v>162.42857142857142</v>
+        <v>170.14285714285714</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -5472,13 +5480,13 @@
         <v>44167</v>
       </c>
       <c r="B107">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C107">
-        <v>1082</v>
+        <v>690</v>
       </c>
       <c r="D107" s="7">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E107" s="54">
         <f t="shared" si="21"/>
@@ -5486,27 +5494,27 @@
       </c>
       <c r="F107">
         <f t="shared" si="14"/>
-        <v>9.5</v>
+        <v>12.333333333333334</v>
       </c>
       <c r="G107" s="53">
         <f t="shared" si="22"/>
-        <v>1.5711645101663587E-2</v>
+        <v>3.0434782608695653E-2</v>
       </c>
       <c r="H107" s="61">
         <f t="shared" si="16"/>
-        <v>9.7233688267207574E-3</v>
+        <v>2.5438868952804339E-2</v>
       </c>
       <c r="I107" s="57">
         <f t="shared" si="20"/>
-        <v>64.379307733090968</v>
+        <v>79.527380140877071</v>
       </c>
       <c r="J107">
         <f t="shared" ref="J107:J115" si="23">SUM(B98:B107)</f>
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="K107">
         <f t="shared" si="15"/>
-        <v>145.28571428571428</v>
+        <v>157.42857142857142</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -5514,13 +5522,13 @@
         <v>44168</v>
       </c>
       <c r="B108">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C108">
-        <v>923</v>
+        <v>673</v>
       </c>
       <c r="D108" s="7">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E108" s="54">
         <f t="shared" si="21"/>
@@ -5528,27 +5536,27 @@
       </c>
       <c r="F108">
         <f t="shared" si="14"/>
-        <v>11.142857142857142</v>
+        <v>14</v>
       </c>
       <c r="G108" s="53">
         <f t="shared" si="22"/>
-        <v>2.2751895991332611E-2</v>
+        <v>3.5661218424962851E-2</v>
       </c>
       <c r="H108" s="61">
         <f t="shared" si="16"/>
-        <v>1.1584586993093879E-2</v>
+        <v>2.6899204591684125E-2</v>
       </c>
       <c r="I108" s="57">
         <f t="shared" si="20"/>
-        <v>79.527380140877071</v>
+        <v>90.888434446716658</v>
       </c>
       <c r="J108">
         <f t="shared" si="23"/>
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="K108">
         <f t="shared" si="15"/>
-        <v>130.85714285714286</v>
+        <v>147</v>
       </c>
       <c r="L108">
         <v>0</v>
@@ -5562,41 +5570,41 @@
         <v>44169</v>
       </c>
       <c r="B109">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C109">
-        <v>550</v>
+        <v>401</v>
       </c>
       <c r="D109" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E109" s="54">
         <f t="shared" si="21"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F109">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>14.714285714285714</v>
       </c>
       <c r="G109" s="35">
         <f t="shared" si="22"/>
-        <v>1.4545454545454545E-2</v>
+        <v>2.4937655860349128E-2</v>
       </c>
       <c r="H109" s="61">
         <f t="shared" si="16"/>
-        <v>1.2933646097255025E-2</v>
+        <v>2.7937749068452828E-2</v>
       </c>
       <c r="I109" s="58">
         <f t="shared" si="20"/>
-        <v>30.296144815572219</v>
+        <v>37.870181019465278</v>
       </c>
       <c r="J109">
         <f t="shared" si="23"/>
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="K109">
         <f t="shared" si="15"/>
-        <v>117.57142857142857</v>
+        <v>137.14285714285714</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -5604,13 +5612,13 @@
         <v>44170</v>
       </c>
       <c r="B110">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C110">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D110" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E110" s="54">
         <f t="shared" si="21"/>
@@ -5618,27 +5626,27 @@
       </c>
       <c r="F110">
         <f t="shared" si="14"/>
-        <v>12.285714285714286</v>
+        <v>14.857142857142858</v>
       </c>
       <c r="G110" s="35">
         <f t="shared" si="22"/>
-        <v>0.66666666666666663</v>
+        <v>0.8</v>
       </c>
       <c r="H110" s="61">
         <f t="shared" si="16"/>
-        <v>0.10817174133535025</v>
+        <v>0.13618724605034419</v>
       </c>
       <c r="I110" s="58">
         <f t="shared" si="20"/>
-        <v>7.5740362038930549</v>
+        <v>15.14807240778611</v>
       </c>
       <c r="J110">
         <f t="shared" si="23"/>
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="K110">
         <f t="shared" si="15"/>
-        <v>110</v>
+        <v>131.28571428571428</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -5646,41 +5654,41 @@
         <v>44171</v>
       </c>
       <c r="B111" s="23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C111">
-        <v>511</v>
+        <v>268</v>
       </c>
       <c r="D111" s="54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E111" s="54">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111">
         <f t="shared" si="14"/>
-        <v>11.857142857142858</v>
+        <v>14.714285714285714</v>
       </c>
       <c r="G111" s="53">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1.1194029850746268E-2</v>
       </c>
       <c r="H111" s="61">
         <f t="shared" si="16"/>
-        <v>0.10749788688791091</v>
+        <v>0.13604423289313372</v>
       </c>
       <c r="I111" s="58">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>11.361054305839582</v>
       </c>
       <c r="J111">
         <f t="shared" si="23"/>
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="K111">
         <f t="shared" si="15"/>
-        <v>104.71428571428571</v>
+        <v>128.28571428571428</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -5688,41 +5696,41 @@
         <v>44172</v>
       </c>
       <c r="B112">
+        <v>26</v>
+      </c>
+      <c r="C112">
+        <v>533</v>
+      </c>
+      <c r="D112" s="7">
         <v>23</v>
       </c>
-      <c r="C112">
-        <v>608</v>
-      </c>
-      <c r="D112" s="7">
-        <v>22</v>
-      </c>
       <c r="E112" s="54">
-        <f>ABS(B112-D112)</f>
-        <v>1</v>
+        <f t="shared" ref="E112:E143" si="24">ABS(B112-D112)</f>
+        <v>3</v>
       </c>
       <c r="F112">
         <f t="shared" si="14"/>
-        <v>11.571428571428571</v>
+        <v>14.714285714285714</v>
       </c>
       <c r="G112" s="35">
-        <f>B112/C112</f>
-        <v>3.7828947368421052E-2</v>
+        <f t="shared" ref="G112:G117" si="25">B112/C112</f>
+        <v>4.878048780487805E-2</v>
       </c>
       <c r="H112" s="61">
         <f t="shared" si="16"/>
-        <v>0.10995286568502756</v>
+        <v>0.1393426312074387</v>
       </c>
       <c r="I112" s="58">
         <f t="shared" si="20"/>
-        <v>87.101416344770129</v>
+        <v>98.462470650609703</v>
       </c>
       <c r="J112">
         <f t="shared" si="23"/>
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="K112">
         <f t="shared" si="15"/>
-        <v>104.57142857142857</v>
+        <v>129.57142857142858</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -5730,41 +5738,41 @@
         <v>44173</v>
       </c>
       <c r="B113">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C113">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="D113" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E113" s="54">
-        <f>ABS(B113-D113)</f>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="F113">
         <f t="shared" si="14"/>
-        <v>11.571428571428571</v>
+        <v>14.428571428571429</v>
       </c>
       <c r="G113" s="35">
-        <f>B113/C113</f>
-        <v>3.003003003003003E-2</v>
+        <f t="shared" si="25"/>
+        <v>3.8461538461538464E-2</v>
       </c>
       <c r="H113" s="61">
         <f t="shared" si="16"/>
-        <v>0.1125049485290812</v>
+        <v>0.14135281614445291</v>
       </c>
       <c r="I113" s="58">
         <f t="shared" si="20"/>
-        <v>37.870181019465278</v>
+        <v>49.231235325304851</v>
       </c>
       <c r="J113">
         <f t="shared" si="23"/>
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="K113">
         <f t="shared" si="15"/>
-        <v>104.42857142857143</v>
+        <v>130.28571428571428</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -5772,41 +5780,41 @@
         <v>44174</v>
       </c>
       <c r="B114">
+        <v>18</v>
+      </c>
+      <c r="C114">
+        <v>867</v>
+      </c>
+      <c r="D114" s="7">
         <v>13</v>
       </c>
-      <c r="C114">
-        <v>1308</v>
-      </c>
-      <c r="D114" s="7">
-        <v>8</v>
-      </c>
       <c r="E114" s="54">
-        <f>ABS(B114-D114)</f>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="F114">
         <f t="shared" si="14"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G114" s="35">
-        <f>B114/C114</f>
-        <v>9.9388379204892966E-3</v>
+        <f t="shared" si="25"/>
+        <v>2.0761245674740483E-2</v>
       </c>
       <c r="H114" s="61">
         <f t="shared" si="16"/>
-        <v>0.11168026178891345</v>
+        <v>0.13997088229674504</v>
       </c>
       <c r="I114" s="58">
         <f t="shared" si="20"/>
-        <v>49.231235325304851</v>
+        <v>68.166325835037497</v>
       </c>
       <c r="J114">
         <f t="shared" si="23"/>
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="K114">
         <f t="shared" si="15"/>
-        <v>103.57142857142857</v>
+        <v>130.28571428571428</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -5814,41 +5822,41 @@
         <v>44175</v>
       </c>
       <c r="B115">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C115">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="D115" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E115" s="54">
-        <f>ABS(B115-D115)</f>
-        <v>5</v>
+        <f t="shared" si="24"/>
+        <v>4</v>
       </c>
       <c r="F115">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G115" s="35">
-        <f>B115/C115</f>
-        <v>2.5688073394495414E-2</v>
+        <f t="shared" si="25"/>
+        <v>3.063063063063063E-2</v>
       </c>
       <c r="H115" s="61">
         <f t="shared" si="16"/>
-        <v>0.11209971570365099</v>
+        <v>0.13925222689755473</v>
       </c>
       <c r="I115" s="58">
         <f t="shared" si="20"/>
-        <v>53.018253427251388</v>
+        <v>64.379307733090968</v>
       </c>
       <c r="J115">
         <f t="shared" si="23"/>
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="K115">
         <f t="shared" si="15"/>
-        <v>105.71428571428571</v>
+        <v>133.28571428571428</v>
       </c>
       <c r="L115">
         <v>1</v>
@@ -5862,41 +5870,41 @@
         <v>44176</v>
       </c>
       <c r="B116">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C116">
-        <v>724</v>
+        <v>663</v>
       </c>
       <c r="D116" s="7">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E116" s="7">
-        <f>ABS(B116-D116)</f>
-        <v>4</v>
+        <f t="shared" si="24"/>
+        <v>6</v>
       </c>
       <c r="F116">
         <f t="shared" si="14"/>
-        <v>11.285714285714286</v>
+        <v>14.714285714285714</v>
       </c>
       <c r="G116" s="35">
-        <f>B116/C116</f>
-        <v>2.3480662983425413E-2</v>
+        <f t="shared" si="25"/>
+        <v>3.3182503770739065E-2</v>
       </c>
       <c r="H116" s="61">
-        <f t="shared" ref="H116:H122" si="24">AVERAGE(G110:G116)</f>
-        <v>0.11337617405193255</v>
+        <f t="shared" ref="H116:H143" si="26">AVERAGE(G110:G116)</f>
+        <v>0.14043006231332472</v>
       </c>
       <c r="I116" s="58">
-        <f t="shared" ref="I116:I122" si="25">(B116/26406)*100000</f>
-        <v>64.379307733090968</v>
+        <f t="shared" ref="I116:I143" si="27">(B116/26406)*100000</f>
+        <v>83.3143982428236</v>
       </c>
       <c r="J116">
-        <f t="shared" ref="J116:J122" si="26">SUM(B107:B116)</f>
-        <v>125</v>
+        <f t="shared" ref="J116:J143" si="28">SUM(B107:B116)</f>
+        <v>158</v>
       </c>
       <c r="K116">
-        <f t="shared" ref="K116:K122" si="27">AVERAGE(J110:J116)</f>
-        <v>110.85714285714286</v>
+        <f t="shared" ref="K116:K143" si="29">AVERAGE(J110:J116)</f>
+        <v>139.71428571428572</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -5904,41 +5912,41 @@
         <v>44177</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C117">
+        <v>2</v>
+      </c>
+      <c r="D117" s="7">
         <v>1</v>
       </c>
-      <c r="D117" s="7">
-        <v>0</v>
-      </c>
       <c r="E117" s="7">
-        <f>ABS(B117-D117)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F117">
         <f t="shared" si="14"/>
-        <v>11</v>
+        <v>14.285714285714286</v>
       </c>
       <c r="G117" s="35">
-        <f>B117/C117</f>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>0.5</v>
       </c>
       <c r="H117" s="61">
-        <f t="shared" si="24"/>
-        <v>1.8138078813837315E-2</v>
+        <f t="shared" si="26"/>
+        <v>9.757291945618185E-2</v>
       </c>
       <c r="I117" s="58">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>3.7870181019465274</v>
       </c>
       <c r="J117">
-        <f t="shared" si="26"/>
-        <v>108</v>
+        <f t="shared" si="28"/>
+        <v>138</v>
       </c>
       <c r="K117">
-        <f t="shared" si="27"/>
-        <v>113.71428571428571</v>
+        <f t="shared" si="29"/>
+        <v>143.42857142857142</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -5946,41 +5954,41 @@
         <v>44178</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C118">
-        <v>507</v>
+        <v>271</v>
       </c>
       <c r="D118" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E118" s="7">
-        <f>ABS(B118-D118)</f>
-        <v>1</v>
+        <f t="shared" si="24"/>
+        <v>2</v>
       </c>
       <c r="F118">
         <f t="shared" si="14"/>
-        <v>11.142857142857142</v>
+        <v>14.857142857142858</v>
       </c>
       <c r="G118" s="35">
-        <f t="shared" ref="G118:G122" si="28">B118/C118</f>
-        <v>1.9723865877712033E-3</v>
+        <f t="shared" ref="G118:G143" si="30">B118/C118</f>
+        <v>2.5830258302583026E-2</v>
       </c>
       <c r="H118" s="61">
-        <f t="shared" si="24"/>
-        <v>1.8419848326376061E-2</v>
+        <f t="shared" si="26"/>
+        <v>9.966380923501568E-2</v>
       </c>
       <c r="I118" s="58">
-        <f t="shared" si="25"/>
-        <v>3.7870181019465274</v>
+        <f t="shared" si="27"/>
+        <v>26.509126713625694</v>
       </c>
       <c r="J118">
-        <f t="shared" si="26"/>
-        <v>88</v>
+        <f t="shared" si="28"/>
+        <v>121</v>
       </c>
       <c r="K118">
-        <f t="shared" si="27"/>
-        <v>113.71428571428571</v>
+        <f t="shared" si="29"/>
+        <v>144.28571428571428</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -5988,41 +5996,41 @@
         <v>44179</v>
       </c>
       <c r="B119">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C119">
-        <v>590</v>
+        <v>524</v>
       </c>
       <c r="D119" s="7">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E119" s="7">
-        <f>ABS(B119-D119)</f>
-        <v>10</v>
+        <f t="shared" si="24"/>
+        <v>11</v>
       </c>
       <c r="F119">
         <f t="shared" si="14"/>
-        <v>11.571428571428571</v>
+        <v>16.142857142857142</v>
       </c>
       <c r="G119" s="35">
+        <f t="shared" si="30"/>
+        <v>6.6793893129770993E-2</v>
+      </c>
+      <c r="H119" s="61">
+        <f t="shared" si="26"/>
+        <v>0.10223715285285752</v>
+      </c>
+      <c r="I119" s="58">
+        <f t="shared" si="27"/>
+        <v>132.54563356812844</v>
+      </c>
+      <c r="J119">
         <f t="shared" si="28"/>
-        <v>4.4067796610169491E-2</v>
-      </c>
-      <c r="H119" s="61">
-        <f t="shared" si="24"/>
-        <v>1.9311112503768688E-2</v>
-      </c>
-      <c r="I119" s="58">
-        <f t="shared" si="25"/>
-        <v>98.462470650609703</v>
-      </c>
-      <c r="J119">
-        <f t="shared" si="26"/>
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="K119">
-        <f t="shared" si="27"/>
-        <v>113.28571428571429</v>
+        <f t="shared" si="29"/>
+        <v>145.71428571428572</v>
       </c>
       <c r="L119">
         <v>1</v>
@@ -6036,41 +6044,41 @@
         <v>44180</v>
       </c>
       <c r="B120">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C120">
-        <v>550</v>
+        <v>573</v>
       </c>
       <c r="D120" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E120" s="7">
-        <f>ABS(B120-D120)</f>
-        <v>2</v>
+        <f t="shared" si="24"/>
+        <v>6</v>
       </c>
       <c r="F120">
         <f t="shared" si="14"/>
-        <v>11.714285714285714</v>
+        <v>17.142857142857142</v>
       </c>
       <c r="G120" s="35">
+        <f t="shared" si="30"/>
+        <v>3.4904013961605584E-2</v>
+      </c>
+      <c r="H120" s="61">
+        <f t="shared" si="26"/>
+        <v>0.10172893506715283</v>
+      </c>
+      <c r="I120" s="58">
+        <f t="shared" si="27"/>
+        <v>75.740362038930556</v>
+      </c>
+      <c r="J120">
         <f t="shared" si="28"/>
-        <v>0.02</v>
-      </c>
-      <c r="H120" s="61">
-        <f t="shared" si="24"/>
-        <v>1.787825107090726E-2</v>
-      </c>
-      <c r="I120" s="58">
-        <f t="shared" si="25"/>
-        <v>41.6571991214118</v>
-      </c>
-      <c r="J120">
-        <f t="shared" si="26"/>
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="K120">
-        <f t="shared" si="27"/>
-        <v>112.71428571428571</v>
+        <f t="shared" si="29"/>
+        <v>148</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -6078,41 +6086,41 @@
         <v>44181</v>
       </c>
       <c r="B121">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C121">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="D121" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E121" s="7">
-        <f>ABS(B121-D121)</f>
+        <f t="shared" si="24"/>
         <v>6</v>
       </c>
       <c r="F121">
         <f t="shared" si="14"/>
-        <v>11.857142857142858</v>
+        <v>17.571428571428573</v>
       </c>
       <c r="G121" s="35">
+        <f t="shared" si="30"/>
+        <v>2.7962716378162451E-2</v>
+      </c>
+      <c r="H121" s="61">
+        <f t="shared" si="26"/>
+        <v>0.10275771659621312</v>
+      </c>
+      <c r="I121" s="58">
+        <f t="shared" si="27"/>
+        <v>79.527380140877071</v>
+      </c>
+      <c r="J121">
         <f t="shared" si="28"/>
-        <v>1.9525801952580194E-2</v>
-      </c>
-      <c r="H121" s="61">
-        <f t="shared" si="24"/>
-        <v>1.9247817361205961E-2</v>
-      </c>
-      <c r="I121" s="58">
-        <f t="shared" si="25"/>
-        <v>53.018253427251388</v>
-      </c>
-      <c r="J121">
-        <f t="shared" si="26"/>
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="K121">
-        <f t="shared" si="27"/>
-        <v>112.71428571428571</v>
+        <f t="shared" si="29"/>
+        <v>150.85714285714286</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -6120,41 +6128,41 @@
         <v>44182</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C122">
-        <v>179</v>
+        <v>590</v>
       </c>
       <c r="D122" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E122" s="7">
-        <f>ABS(B122-D122)</f>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>9</v>
       </c>
       <c r="F122">
         <f t="shared" si="14"/>
-        <v>9.8571428571428577</v>
+        <v>18.285714285714285</v>
       </c>
       <c r="G122" s="35">
+        <f t="shared" si="30"/>
+        <v>3.7288135593220341E-2</v>
+      </c>
+      <c r="H122" s="61">
+        <f t="shared" si="26"/>
+        <v>0.10370878873372592</v>
+      </c>
+      <c r="I122" s="58">
+        <f t="shared" si="27"/>
+        <v>83.3143982428236</v>
+      </c>
+      <c r="J122">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="H122" s="61">
-        <f t="shared" si="24"/>
-        <v>1.5578092590563758E-2</v>
-      </c>
-      <c r="I122" s="58">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="J122">
-        <f t="shared" si="26"/>
-        <v>106</v>
+        <v>176</v>
       </c>
       <c r="K122">
-        <f t="shared" si="27"/>
-        <v>111</v>
+        <f t="shared" si="29"/>
+        <v>154.42857142857142</v>
       </c>
       <c r="L122">
         <v>1</v>
@@ -6167,20 +6175,908 @@
       <c r="A123" s="5">
         <v>44183</v>
       </c>
+      <c r="B123">
+        <v>20</v>
+      </c>
+      <c r="C123" s="9">
+        <v>596</v>
+      </c>
+      <c r="D123" s="7">
+        <v>14</v>
+      </c>
+      <c r="E123" s="7">
+        <f t="shared" si="24"/>
+        <v>6</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="G123" s="35">
+        <f t="shared" si="30"/>
+        <v>3.3557046979865772E-2</v>
+      </c>
+      <c r="H123" s="61">
+        <f t="shared" si="26"/>
+        <v>0.1037622949064583</v>
+      </c>
+      <c r="I123" s="58">
+        <f t="shared" si="27"/>
+        <v>75.740362038930556</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="28"/>
+        <v>183</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="29"/>
+        <v>158</v>
+      </c>
     </row>
     <row r="124" spans="1:13">
       <c r="A124" s="5">
         <v>44184</v>
       </c>
+      <c r="B124">
+        <v>4</v>
+      </c>
+      <c r="C124" s="9">
+        <v>4</v>
+      </c>
+      <c r="D124" s="7">
+        <v>4</v>
+      </c>
+      <c r="E124" s="7">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="14"/>
+        <v>18.428571428571427</v>
+      </c>
+      <c r="G124" s="35">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="H124" s="61">
+        <f t="shared" si="26"/>
+        <v>0.17519086633502973</v>
+      </c>
+      <c r="I124" s="58">
+        <f t="shared" si="27"/>
+        <v>15.14807240778611</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="28"/>
+        <v>169</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="29"/>
+        <v>162.42857142857142</v>
+      </c>
     </row>
     <row r="125" spans="1:13">
       <c r="A125" s="5">
         <v>44185</v>
       </c>
+      <c r="B125">
+        <v>8</v>
+      </c>
+      <c r="C125" s="9">
+        <v>317</v>
+      </c>
+      <c r="D125" s="7">
+        <v>4</v>
+      </c>
+      <c r="E125" s="7">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="14"/>
+        <v>18.571428571428573</v>
+      </c>
+      <c r="G125" s="35">
+        <f t="shared" si="30"/>
+        <v>2.5236593059936908E-2</v>
+      </c>
+      <c r="H125" s="61">
+        <f t="shared" si="26"/>
+        <v>0.17510605701465173</v>
+      </c>
+      <c r="I125" s="58">
+        <f t="shared" si="27"/>
+        <v>30.296144815572219</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="28"/>
+        <v>160</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="29"/>
+        <v>168</v>
+      </c>
     </row>
     <row r="126" spans="1:13">
       <c r="A126" s="5">
         <v>44186</v>
+      </c>
+      <c r="B126">
+        <v>20</v>
+      </c>
+      <c r="C126" s="9">
+        <v>87</v>
+      </c>
+      <c r="D126" s="7">
+        <v>18</v>
+      </c>
+      <c r="E126" s="7">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="14"/>
+        <v>16.428571428571427</v>
+      </c>
+      <c r="G126" s="35">
+        <f t="shared" si="30"/>
+        <v>0.22988505747126436</v>
+      </c>
+      <c r="H126" s="61">
+        <f t="shared" si="26"/>
+        <v>0.19840479477772219</v>
+      </c>
+      <c r="I126" s="58">
+        <f t="shared" si="27"/>
+        <v>75.740362038930556</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="28"/>
+        <v>158</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="29"/>
+        <v>169.71428571428572</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="A127" s="5">
+        <v>44187</v>
+      </c>
+      <c r="B127">
+        <v>14</v>
+      </c>
+      <c r="C127" s="9">
+        <v>22</v>
+      </c>
+      <c r="D127" s="7">
+        <v>12</v>
+      </c>
+      <c r="E127" s="7">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="14"/>
+        <v>15.571428571428571</v>
+      </c>
+      <c r="G127" s="35">
+        <f t="shared" si="30"/>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="H127" s="61">
+        <f t="shared" si="26"/>
+        <v>0.28432759797801233</v>
+      </c>
+      <c r="I127" s="58">
+        <f t="shared" si="27"/>
+        <v>53.018253427251388</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="28"/>
+        <v>171</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="29"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="A128" s="5">
+        <v>44188</v>
+      </c>
+      <c r="B128">
+        <v>18</v>
+      </c>
+      <c r="C128" s="9">
+        <v>316</v>
+      </c>
+      <c r="D128" s="7">
+        <v>14</v>
+      </c>
+      <c r="E128" s="7">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="14"/>
+        <v>15.142857142857142</v>
+      </c>
+      <c r="G128" s="35">
+        <f t="shared" si="30"/>
+        <v>5.6962025316455694E-2</v>
+      </c>
+      <c r="H128" s="61">
+        <f t="shared" si="26"/>
+        <v>0.28847035639776847</v>
+      </c>
+      <c r="I128" s="58">
+        <f t="shared" si="27"/>
+        <v>68.166325835037497</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="28"/>
+        <v>182</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="29"/>
+        <v>171.28571428571428</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
+      <c r="A129" s="5">
+        <v>44189</v>
+      </c>
+      <c r="B129">
+        <v>8</v>
+      </c>
+      <c r="C129" s="9">
+        <v>9</v>
+      </c>
+      <c r="D129" s="7">
+        <v>7</v>
+      </c>
+      <c r="E129" s="7">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="14"/>
+        <v>13.142857142857142</v>
+      </c>
+      <c r="G129" s="35">
+        <f t="shared" si="30"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="H129" s="61">
+        <f t="shared" si="26"/>
+        <v>0.41012760686857824</v>
+      </c>
+      <c r="I129" s="58">
+        <f t="shared" si="27"/>
+        <v>30.296144815572219</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="28"/>
+        <v>155</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="29"/>
+        <v>168.28571428571428</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
+      <c r="A130" s="5">
+        <v>44190</v>
+      </c>
+      <c r="B130">
+        <v>2</v>
+      </c>
+      <c r="C130" s="9">
+        <v>2</v>
+      </c>
+      <c r="D130" s="7">
+        <v>1</v>
+      </c>
+      <c r="E130" s="7">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="14"/>
+        <v>10.571428571428571</v>
+      </c>
+      <c r="G130" s="35">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="H130" s="61">
+        <f t="shared" si="26"/>
+        <v>0.54819088587145459</v>
+      </c>
+      <c r="I130" s="58">
+        <f t="shared" si="27"/>
+        <v>7.5740362038930549</v>
+      </c>
+      <c r="J130">
+        <f t="shared" si="28"/>
+        <v>137</v>
+      </c>
+      <c r="K130">
+        <f t="shared" si="29"/>
+        <v>161.71428571428572</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
+      <c r="A131" s="5">
+        <v>44191</v>
+      </c>
+      <c r="B131">
+        <v>13</v>
+      </c>
+      <c r="C131" s="9">
+        <v>313</v>
+      </c>
+      <c r="D131" s="7">
+        <v>10</v>
+      </c>
+      <c r="E131" s="7">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="F131">
+        <f t="shared" si="14"/>
+        <v>11.857142857142858</v>
+      </c>
+      <c r="G131" s="35">
+        <f t="shared" si="30"/>
+        <v>4.1533546325878593E-2</v>
+      </c>
+      <c r="H131" s="61">
+        <f t="shared" si="26"/>
+        <v>0.41126710677515155</v>
+      </c>
+      <c r="I131" s="58">
+        <f t="shared" si="27"/>
+        <v>49.231235325304851</v>
+      </c>
+      <c r="J131">
+        <f t="shared" si="28"/>
+        <v>129</v>
+      </c>
+      <c r="K131">
+        <f t="shared" si="29"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
+      <c r="A132" s="5">
+        <v>44192</v>
+      </c>
+      <c r="B132">
+        <v>7</v>
+      </c>
+      <c r="C132" s="9">
+        <v>312</v>
+      </c>
+      <c r="D132" s="7">
+        <v>7</v>
+      </c>
+      <c r="E132" s="7">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="14"/>
+        <v>11.714285714285714</v>
+      </c>
+      <c r="G132" s="35">
+        <f t="shared" si="30"/>
+        <v>2.2435897435897436E-2</v>
+      </c>
+      <c r="H132" s="61">
+        <f t="shared" si="26"/>
+        <v>0.41086700740028875</v>
+      </c>
+      <c r="I132" s="58">
+        <f t="shared" si="27"/>
+        <v>26.509126713625694</v>
+      </c>
+      <c r="J132">
+        <f t="shared" si="28"/>
+        <v>114</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="29"/>
+        <v>149.42857142857142</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
+      <c r="A133" s="5">
+        <v>44193</v>
+      </c>
+      <c r="B133">
+        <v>85</v>
+      </c>
+      <c r="C133" s="9">
+        <v>2403</v>
+      </c>
+      <c r="D133" s="7">
+        <v>63</v>
+      </c>
+      <c r="E133" s="7">
+        <f t="shared" si="24"/>
+        <v>22</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="14"/>
+        <v>21</v>
+      </c>
+      <c r="G133" s="35">
+        <f t="shared" si="30"/>
+        <v>3.537245110278818E-2</v>
+      </c>
+      <c r="H133" s="61">
+        <f t="shared" si="26"/>
+        <v>0.38307949220479215</v>
+      </c>
+      <c r="I133" s="58">
+        <f t="shared" si="27"/>
+        <v>321.89653866545478</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="28"/>
+        <v>179</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="29"/>
+        <v>152.42857142857142</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
+      <c r="A134" s="5">
+        <v>44194</v>
+      </c>
+      <c r="B134">
+        <v>55</v>
+      </c>
+      <c r="C134" s="9">
+        <v>2391</v>
+      </c>
+      <c r="D134" s="7">
+        <v>44</v>
+      </c>
+      <c r="E134" s="7">
+        <f t="shared" si="24"/>
+        <v>11</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="14"/>
+        <v>26.857142857142858</v>
+      </c>
+      <c r="G134" s="35">
+        <f t="shared" si="30"/>
+        <v>2.3002927645336679E-2</v>
+      </c>
+      <c r="H134" s="61">
+        <f t="shared" si="26"/>
+        <v>0.29545653381646358</v>
+      </c>
+      <c r="I134" s="58">
+        <f t="shared" si="27"/>
+        <v>208.28599560705902</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="28"/>
+        <v>230</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="29"/>
+        <v>160.85714285714286</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
+      <c r="A135" s="5">
+        <v>44195</v>
+      </c>
+      <c r="B135">
+        <v>61</v>
+      </c>
+      <c r="C135" s="9">
+        <v>2340</v>
+      </c>
+      <c r="D135" s="7">
+        <v>49</v>
+      </c>
+      <c r="E135" s="7">
+        <f t="shared" si="24"/>
+        <v>12</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="14"/>
+        <v>33</v>
+      </c>
+      <c r="G135" s="35">
+        <f t="shared" si="30"/>
+        <v>2.6068376068376069E-2</v>
+      </c>
+      <c r="H135" s="61">
+        <f t="shared" si="26"/>
+        <v>0.29104315535245223</v>
+      </c>
+      <c r="I135" s="58">
+        <f t="shared" si="27"/>
+        <v>231.00810421873814</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="28"/>
+        <v>283</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="29"/>
+        <v>175.28571428571428</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
+      <c r="A136" s="5">
+        <v>44196</v>
+      </c>
+      <c r="B136">
+        <v>24</v>
+      </c>
+      <c r="C136" s="9">
+        <v>843</v>
+      </c>
+      <c r="D136" s="7">
+        <v>22</v>
+      </c>
+      <c r="E136" s="7">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="F136">
+        <f t="shared" ref="F136:F143" si="31">AVERAGE(B130:B136)</f>
+        <v>35.285714285714285</v>
+      </c>
+      <c r="G136" s="35">
+        <f t="shared" si="30"/>
+        <v>2.8469750889679714E-2</v>
+      </c>
+      <c r="H136" s="61">
+        <f t="shared" si="26"/>
+        <v>0.16812613563827949</v>
+      </c>
+      <c r="I136" s="58">
+        <f t="shared" si="27"/>
+        <v>90.888434446716658</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="28"/>
+        <v>287</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="29"/>
+        <v>194.14285714285714</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
+      <c r="A137" s="5">
+        <v>44197</v>
+      </c>
+      <c r="B137">
+        <v>5</v>
+      </c>
+      <c r="C137" s="9">
+        <v>131</v>
+      </c>
+      <c r="D137" s="7">
+        <v>4</v>
+      </c>
+      <c r="E137" s="7">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="31"/>
+        <v>35.714285714285715</v>
+      </c>
+      <c r="G137" s="35">
+        <f t="shared" si="30"/>
+        <v>3.8167938931297711E-2</v>
+      </c>
+      <c r="H137" s="61">
+        <f t="shared" si="26"/>
+        <v>3.0721555485607767E-2</v>
+      </c>
+      <c r="I137" s="58">
+        <f t="shared" si="27"/>
+        <v>18.935090509732639</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="28"/>
+        <v>278</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="29"/>
+        <v>214.28571428571428</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
+      <c r="A138" s="5">
+        <v>44198</v>
+      </c>
+      <c r="B138">
+        <v>58</v>
+      </c>
+      <c r="C138" s="9">
+        <v>2021</v>
+      </c>
+      <c r="D138" s="7">
+        <v>47</v>
+      </c>
+      <c r="E138" s="7">
+        <f t="shared" si="24"/>
+        <v>11</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="31"/>
+        <v>42.142857142857146</v>
+      </c>
+      <c r="G138" s="35">
+        <f t="shared" si="30"/>
+        <v>2.8698664027709056E-2</v>
+      </c>
+      <c r="H138" s="61">
+        <f t="shared" si="26"/>
+        <v>2.8888000871583552E-2</v>
+      </c>
+      <c r="I138" s="58">
+        <f t="shared" si="27"/>
+        <v>219.64704991289858</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="28"/>
+        <v>318</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="29"/>
+        <v>241.28571428571428</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
+      <c r="A139" s="5">
+        <v>44199</v>
+      </c>
+      <c r="B139">
+        <v>50</v>
+      </c>
+      <c r="C139" s="9">
+        <v>1797</v>
+      </c>
+      <c r="D139" s="7">
+        <v>47</v>
+      </c>
+      <c r="E139" s="7">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="31"/>
+        <v>48.285714285714285</v>
+      </c>
+      <c r="G139" s="35">
+        <f t="shared" si="30"/>
+        <v>2.7824151363383415E-2</v>
+      </c>
+      <c r="H139" s="61">
+        <f t="shared" si="26"/>
+        <v>2.9657751432652976E-2</v>
+      </c>
+      <c r="I139" s="58">
+        <f t="shared" si="27"/>
+        <v>189.35090509732638</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="28"/>
+        <v>360</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="29"/>
+        <v>276.42857142857144</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
+      <c r="A140" s="5">
+        <v>44200</v>
+      </c>
+      <c r="B140">
+        <v>63</v>
+      </c>
+      <c r="C140" s="9">
+        <v>3595</v>
+      </c>
+      <c r="D140" s="7">
+        <v>55</v>
+      </c>
+      <c r="E140" s="7">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="31"/>
+        <v>45.142857142857146</v>
+      </c>
+      <c r="G140" s="35">
+        <f t="shared" si="30"/>
+        <v>1.7524339360222532E-2</v>
+      </c>
+      <c r="H140" s="61">
+        <f t="shared" si="26"/>
+        <v>2.7108021183715032E-2</v>
+      </c>
+      <c r="I140" s="58">
+        <f t="shared" si="27"/>
+        <v>238.58214042263123</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="28"/>
+        <v>421</v>
+      </c>
+      <c r="K140">
+        <f t="shared" si="29"/>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
+      <c r="A141" s="5">
+        <v>44201</v>
+      </c>
+      <c r="B141">
+        <v>59</v>
+      </c>
+      <c r="C141" s="9">
+        <v>4134</v>
+      </c>
+      <c r="D141" s="7">
+        <v>52</v>
+      </c>
+      <c r="E141" s="7">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="31"/>
+        <v>45.714285714285715</v>
+      </c>
+      <c r="G141" s="35">
+        <f t="shared" si="30"/>
+        <v>1.4271891630382196E-2</v>
+      </c>
+      <c r="H141" s="61">
+        <f t="shared" si="26"/>
+        <v>2.5860730324435813E-2</v>
+      </c>
+      <c r="I141" s="58">
+        <f t="shared" si="27"/>
+        <v>223.43406801484511</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="28"/>
+        <v>467</v>
+      </c>
+      <c r="K141">
+        <f t="shared" si="29"/>
+        <v>344.85714285714283</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
+      <c r="A142" s="5">
+        <v>44202</v>
+      </c>
+      <c r="B142">
+        <v>48</v>
+      </c>
+      <c r="C142" s="9">
+        <v>3120</v>
+      </c>
+      <c r="D142" s="7">
+        <v>44</v>
+      </c>
+      <c r="E142" s="7">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="31"/>
+        <v>43.857142857142854</v>
+      </c>
+      <c r="G142" s="35">
+        <f t="shared" si="30"/>
+        <v>1.5384615384615385E-2</v>
+      </c>
+      <c r="H142" s="61">
+        <f t="shared" si="26"/>
+        <v>2.4334478798184286E-2</v>
+      </c>
+      <c r="I142" s="58">
+        <f t="shared" si="27"/>
+        <v>181.77686889343332</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="28"/>
+        <v>508</v>
+      </c>
+      <c r="K142">
+        <f t="shared" si="29"/>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
+      <c r="A143" s="5">
+        <v>44203</v>
+      </c>
+      <c r="B143">
+        <v>41</v>
+      </c>
+      <c r="C143" s="9">
+        <v>1321</v>
+      </c>
+      <c r="D143" s="7">
+        <v>30</v>
+      </c>
+      <c r="E143" s="7">
+        <f t="shared" si="24"/>
+        <v>11</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="31"/>
+        <v>46.285714285714285</v>
+      </c>
+      <c r="G143" s="35">
+        <f t="shared" si="30"/>
+        <v>3.1037093111279335E-2</v>
+      </c>
+      <c r="H143" s="61">
+        <f t="shared" si="26"/>
+        <v>2.4701241972698518E-2</v>
+      </c>
+      <c r="I143" s="58">
+        <f t="shared" si="27"/>
+        <v>155.26774217980761</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="28"/>
+        <v>464</v>
+      </c>
+      <c r="K143">
+        <f t="shared" si="29"/>
+        <v>402.28571428571428</v>
+      </c>
+      <c r="L143">
+        <v>22</v>
+      </c>
+      <c r="M143">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
+      <c r="A144" s="5">
+        <v>44204</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="5">
+        <v>44205</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="5">
+        <v>44206</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="5">
+        <v>44207</v>
       </c>
     </row>
   </sheetData>
@@ -6204,10 +7100,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE26567-C4FF-A14D-8A4F-7831E7630E40}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6300,11 +7196,11 @@
         <v>0</v>
       </c>
       <c r="H3" s="35">
-        <f t="shared" ref="H3:H30" si="0">B3/D3</f>
+        <f t="shared" ref="H3:H33" si="0">B3/D3</f>
         <v>2.7972027972027972E-2</v>
       </c>
       <c r="I3" s="60">
-        <f t="shared" ref="I3:I30" si="1">(B3/26406)*100000</f>
+        <f t="shared" ref="I3:I33" si="1">(B3/26406)*100000</f>
         <v>15.14807240778611</v>
       </c>
     </row>
@@ -6316,14 +7212,14 @@
         <v>87</v>
       </c>
       <c r="C4" s="35">
-        <f t="shared" ref="C4:C30" si="2">(B4-B3)/B4</f>
+        <f t="shared" ref="C4:C33" si="2">(B4-B3)/B4</f>
         <v>0.95402298850574707</v>
       </c>
       <c r="D4">
         <v>277</v>
       </c>
       <c r="E4" s="35">
-        <f t="shared" ref="E4:E30" si="3">(D4-D3)/D4</f>
+        <f t="shared" ref="E4:E33" si="3">(D4-D3)/D4</f>
         <v>0.48375451263537905</v>
       </c>
       <c r="F4" s="1">
@@ -6644,35 +7540,35 @@
       </c>
       <c r="B14">
         <f>SUM(clemsonUnivDaily!B6:B12)</f>
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C14" s="35">
         <f t="shared" si="2"/>
-        <v>0.86458333333333337</v>
+        <v>0.84705882352941175</v>
       </c>
       <c r="D14">
         <f>SUM(clemsonUnivDaily!C6:C12)</f>
-        <v>2215</v>
+        <v>1858</v>
       </c>
       <c r="E14" s="35">
         <f t="shared" si="3"/>
-        <v>0.64966139954853275</v>
+        <v>0.58234660925726589</v>
       </c>
       <c r="F14" s="7">
         <f>SUM(clemsonUnivDaily!D6:D12)</f>
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="G14" s="7">
         <f>SUM(clemsonUnivDaily!E6:E12)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="35">
         <f t="shared" si="0"/>
-        <v>8.6681715575620766E-2</v>
+        <v>9.1496232508073191E-2</v>
       </c>
       <c r="I14" s="60">
         <f t="shared" si="1"/>
-        <v>727.10747557373327</v>
+        <v>643.79307733090957</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -6681,35 +7577,35 @@
       </c>
       <c r="B15">
         <f>SUM(clemsonUnivDaily!B13:B19)</f>
-        <v>897</v>
+        <v>675</v>
       </c>
       <c r="C15" s="35">
         <f t="shared" si="2"/>
-        <v>0.78595317725752512</v>
+        <v>0.74814814814814812</v>
       </c>
       <c r="D15">
         <f>SUM(clemsonUnivDaily!C13:C19)</f>
-        <v>7023</v>
+        <v>6251</v>
       </c>
       <c r="E15" s="35">
         <f t="shared" si="3"/>
-        <v>0.684607717499644</v>
+        <v>0.70276755719084949</v>
       </c>
       <c r="F15">
         <f>SUM(clemsonUnivDaily!D13:D19)</f>
-        <v>881</v>
+        <v>660</v>
       </c>
       <c r="G15">
         <f>SUM(clemsonUnivDaily!E13:E19)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15" s="35">
         <f t="shared" si="0"/>
-        <v>0.12772319521571979</v>
+        <v>0.10798272276435771</v>
       </c>
       <c r="I15" s="60">
         <f t="shared" si="1"/>
-        <v>3396.955237446035</v>
+        <v>2556.2372188139061</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -6718,35 +7614,35 @@
       </c>
       <c r="B16">
         <f>SUM(clemsonUnivDaily!B20:B26)</f>
-        <v>509</v>
+        <v>401</v>
       </c>
       <c r="C16" s="35">
         <f t="shared" si="2"/>
-        <v>-0.76227897838899805</v>
+        <v>-0.68329177057356605</v>
       </c>
       <c r="D16">
         <f>SUM(clemsonUnivDaily!C20:C26)</f>
-        <v>9278</v>
+        <v>8293</v>
       </c>
       <c r="E16" s="35">
         <f t="shared" si="3"/>
-        <v>0.24304807070489329</v>
+        <v>0.24623176172675751</v>
       </c>
       <c r="F16">
         <f>SUM(clemsonUnivDaily!D20:D26)</f>
-        <v>499</v>
+        <v>387</v>
       </c>
       <c r="G16">
         <f>SUM(clemsonUnivDaily!E20:E26)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H16" s="35">
         <f t="shared" si="0"/>
-        <v>5.4860961414097867E-2</v>
+        <v>4.835403352224768E-2</v>
       </c>
       <c r="I16" s="60">
         <f t="shared" si="1"/>
-        <v>1927.5922138907824</v>
+        <v>1518.5942588805574</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -6755,35 +7651,35 @@
       </c>
       <c r="B17">
         <f>SUM(clemsonUnivDaily!B27:B33)</f>
-        <v>863</v>
+        <v>596</v>
       </c>
       <c r="C17" s="35">
         <f t="shared" si="2"/>
-        <v>0.41019698725376591</v>
+        <v>0.32718120805369127</v>
       </c>
       <c r="D17">
         <f>SUM(clemsonUnivDaily!C27:C33)</f>
-        <v>19452</v>
+        <v>15679</v>
       </c>
       <c r="E17" s="35">
         <f t="shared" si="3"/>
-        <v>0.52303105079169232</v>
+        <v>0.47107596147713504</v>
       </c>
       <c r="F17">
         <f>SUM(clemsonUnivDaily!D27:D33)</f>
-        <v>860</v>
+        <v>589</v>
       </c>
       <c r="G17">
         <f>SUM(clemsonUnivDaily!E27:E33)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H17" s="35">
         <f t="shared" si="0"/>
-        <v>4.4365617931318116E-2</v>
+        <v>3.8012628356400284E-2</v>
       </c>
       <c r="I17" s="60">
         <f t="shared" si="1"/>
-        <v>3268.1966219798533</v>
+        <v>2257.0627887601304</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -6792,35 +7688,35 @@
       </c>
       <c r="B18">
         <f>SUM(clemsonUnivDaily!B34:B40)</f>
-        <v>489</v>
+        <v>430</v>
       </c>
       <c r="C18" s="35">
         <f t="shared" si="2"/>
-        <v>-0.76482617586912061</v>
+        <v>-0.38604651162790699</v>
       </c>
       <c r="D18">
         <f>SUM(clemsonUnivDaily!C34:C40)</f>
-        <v>7707</v>
+        <v>7026</v>
       </c>
       <c r="E18" s="35">
         <f t="shared" si="3"/>
-        <v>-1.5239392759828727</v>
+        <v>-1.2315684600056931</v>
       </c>
       <c r="F18">
         <f>SUM(clemsonUnivDaily!D34:D40)</f>
-        <v>486</v>
+        <v>426</v>
       </c>
       <c r="G18">
         <f>SUM(clemsonUnivDaily!E34:E40)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H18" s="35">
         <f t="shared" si="0"/>
-        <v>6.3448812767613855E-2</v>
+        <v>6.1201252490748648E-2</v>
       </c>
       <c r="I18" s="60">
         <f t="shared" si="1"/>
-        <v>1851.8518518518517</v>
+        <v>1628.4177838370067</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -6829,35 +7725,35 @@
       </c>
       <c r="B19">
         <f>SUM(clemsonUnivDaily!B41:B47)</f>
-        <v>591</v>
+        <v>530</v>
       </c>
       <c r="C19" s="35">
         <f t="shared" si="2"/>
-        <v>0.17258883248730963</v>
+        <v>0.18867924528301888</v>
       </c>
       <c r="D19">
         <f>SUM(clemsonUnivDaily!C41:C47)</f>
-        <v>8757</v>
+        <v>8133</v>
       </c>
       <c r="E19" s="35">
         <f t="shared" si="3"/>
-        <v>0.11990407673860912</v>
+        <v>0.13611213574326816</v>
       </c>
       <c r="F19">
         <f>SUM(clemsonUnivDaily!D41:D47)</f>
-        <v>581</v>
+        <v>522</v>
       </c>
       <c r="G19">
         <f>SUM(clemsonUnivDaily!E41:E47)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H19" s="35">
         <f t="shared" si="0"/>
-        <v>6.7488866050017124E-2</v>
+        <v>6.5166605188737237E-2</v>
       </c>
       <c r="I19" s="60">
         <f t="shared" si="1"/>
-        <v>2238.1276982503978</v>
+        <v>2007.1195940316595</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -6866,35 +7762,35 @@
       </c>
       <c r="B20">
         <f>SUM(clemsonUnivDaily!B48:B54)</f>
-        <v>407</v>
+        <v>370</v>
       </c>
       <c r="C20" s="35">
         <f t="shared" si="2"/>
-        <v>-0.45208845208845211</v>
+        <v>-0.43243243243243246</v>
       </c>
       <c r="D20">
         <f>SUM(clemsonUnivDaily!C48:C54)</f>
-        <v>9232</v>
+        <v>8628</v>
       </c>
       <c r="E20" s="35">
         <f t="shared" si="3"/>
-        <v>5.1451473136915081E-2</v>
+        <v>5.7371349095966619E-2</v>
       </c>
       <c r="F20">
         <f>SUM(clemsonUnivDaily!D48:D54)</f>
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="G20">
         <f>SUM(clemsonUnivDaily!E48:E54)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H20" s="35">
         <f t="shared" si="0"/>
-        <v>4.4085788561525133E-2</v>
+        <v>4.2883634677793228E-2</v>
       </c>
       <c r="I20" s="60">
         <f t="shared" si="1"/>
-        <v>1541.3163674922366</v>
+        <v>1401.1966977202151</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -6903,23 +7799,23 @@
       </c>
       <c r="B21">
         <f>SUM(clemsonUnivDaily!B55:B61)</f>
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="C21" s="35">
         <f t="shared" si="2"/>
-        <v>-0.628</v>
+        <v>-0.59482758620689657</v>
       </c>
       <c r="D21">
         <f>SUM(clemsonUnivDaily!C55:C61)</f>
-        <v>9040</v>
+        <v>8181</v>
       </c>
       <c r="E21" s="35">
         <f t="shared" si="3"/>
-        <v>-2.1238938053097345E-2</v>
+        <v>-5.4638797213054639E-2</v>
       </c>
       <c r="F21">
         <f>SUM(clemsonUnivDaily!D55:D61)</f>
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="G21">
         <f>SUM(clemsonUnivDaily!E55:E61)</f>
@@ -6927,11 +7823,11 @@
       </c>
       <c r="H21" s="35">
         <f t="shared" si="0"/>
-        <v>2.7654867256637169E-2</v>
+        <v>2.8358391394695023E-2</v>
       </c>
       <c r="I21" s="60">
         <f t="shared" si="1"/>
-        <v>946.75452548663179</v>
+        <v>878.58819965159432</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -6940,23 +7836,23 @@
       </c>
       <c r="B22">
         <f>SUM(clemsonUnivDaily!B62:B68)</f>
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C22" s="35">
         <f t="shared" si="2"/>
-        <v>-0.57232704402515722</v>
+        <v>-0.44099378881987578</v>
       </c>
       <c r="D22">
         <f>SUM(clemsonUnivDaily!C62:C68)</f>
-        <v>10716</v>
+        <v>9673</v>
       </c>
       <c r="E22" s="35">
         <f t="shared" si="3"/>
-        <v>0.15640164240388205</v>
+        <v>0.15424377132223716</v>
       </c>
       <c r="F22">
         <f>SUM(clemsonUnivDaily!D62:D68)</f>
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G22">
         <f>SUM(clemsonUnivDaily!E62:E68)</f>
@@ -6964,11 +7860,11 @@
       </c>
       <c r="H22" s="35">
         <f t="shared" si="0"/>
-        <v>1.4837625979843226E-2</v>
+        <v>1.6644267548847309E-2</v>
       </c>
       <c r="I22" s="60">
         <f t="shared" si="1"/>
-        <v>602.13587820949783</v>
+        <v>609.70991441339083</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -6977,35 +7873,35 @@
       </c>
       <c r="B23">
         <f>SUM(clemsonUnivDaily!B69:B75)</f>
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C23" s="35">
         <f t="shared" si="2"/>
-        <v>-0.69148936170212771</v>
+        <v>-0.65979381443298968</v>
       </c>
       <c r="D23">
         <f>SUM(clemsonUnivDaily!C69:C75)</f>
-        <v>9716</v>
+        <v>8748</v>
       </c>
       <c r="E23" s="35">
         <f t="shared" si="3"/>
-        <v>-0.10292301358583779</v>
+        <v>-0.10573845450388661</v>
       </c>
       <c r="F23">
         <f>SUM(clemsonUnivDaily!D69:D75)</f>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G23">
         <f>SUM(clemsonUnivDaily!E69:E75)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H23" s="35">
         <f t="shared" si="0"/>
-        <v>9.6747632770687528E-3</v>
+        <v>1.108824874256973E-2</v>
       </c>
       <c r="I23" s="60">
         <f t="shared" si="1"/>
-        <v>355.97970158297358</v>
+        <v>367.34075588881313</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -7014,35 +7910,35 @@
       </c>
       <c r="B24">
         <f>SUM(clemsonUnivDaily!B76:B82)</f>
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C24" s="35">
         <f t="shared" si="2"/>
-        <v>0.14545454545454545</v>
+        <v>0.19834710743801653</v>
       </c>
       <c r="D24">
         <f>SUM(clemsonUnivDaily!C76:C82)</f>
-        <v>7749</v>
+        <v>6707</v>
       </c>
       <c r="E24" s="35">
         <f t="shared" si="3"/>
-        <v>-0.25383920505871727</v>
+        <v>-0.30430893096764572</v>
       </c>
       <c r="F24">
         <f>SUM(clemsonUnivDaily!D76:D82)</f>
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G24">
         <f>SUM(clemsonUnivDaily!E76:E82)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H24" s="35">
         <f t="shared" si="0"/>
-        <v>1.4195380049038586E-2</v>
+        <v>1.8040852840316087E-2</v>
       </c>
       <c r="I24" s="60">
         <f t="shared" si="1"/>
-        <v>416.57199121411804</v>
+        <v>458.22919033552984</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -7051,35 +7947,35 @@
       </c>
       <c r="B25">
         <f>SUM(clemsonUnivDaily!B83:B89)</f>
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C25" s="35">
         <f t="shared" si="2"/>
-        <v>8.3333333333333329E-2</v>
+        <v>4.7244094488188976E-2</v>
       </c>
       <c r="D25">
         <f>SUM(clemsonUnivDaily!C83:C89)</f>
-        <v>12323</v>
+        <v>10855</v>
       </c>
       <c r="E25" s="35">
         <f t="shared" si="3"/>
-        <v>0.3711758500365171</v>
+        <v>0.38212805158912944</v>
       </c>
       <c r="F25">
         <f>SUM(clemsonUnivDaily!D83:D89)</f>
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G25">
         <f>SUM(clemsonUnivDaily!E83:E89)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H25" s="35">
         <f t="shared" si="0"/>
-        <v>9.737888501176661E-3</v>
+        <v>1.1699677567941042E-2</v>
       </c>
       <c r="I25" s="60">
         <f t="shared" si="1"/>
-        <v>454.44217223358328</v>
+        <v>480.95129894720895</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -7088,35 +7984,35 @@
       </c>
       <c r="B26">
         <f>SUM(clemsonUnivDaily!B90:B96)</f>
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="C26" s="35">
         <f t="shared" si="2"/>
-        <v>0.31428571428571428</v>
+        <v>0.21118012422360249</v>
       </c>
       <c r="D26">
         <f>SUM(clemsonUnivDaily!C90:C96)</f>
-        <v>12632</v>
+        <v>11120</v>
       </c>
       <c r="E26" s="35">
         <f t="shared" si="3"/>
-        <v>2.4461684610512981E-2</v>
+        <v>2.3830935251798562E-2</v>
       </c>
       <c r="F26">
         <f>SUM(clemsonUnivDaily!D90:D96)</f>
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G26">
         <f>SUM(clemsonUnivDaily!E90:E96)</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H26" s="35">
         <f t="shared" si="0"/>
-        <v>1.3853704876504117E-2</v>
+        <v>1.447841726618705E-2</v>
       </c>
       <c r="I26" s="60">
         <f t="shared" si="1"/>
-        <v>662.7281678406423</v>
+        <v>609.70991441339083</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -7125,35 +8021,35 @@
       </c>
       <c r="B27">
         <f>SUM(clemsonUnivDaily!B97:B103)</f>
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C27" s="35">
         <f t="shared" si="2"/>
-        <v>-1.1341463414634145</v>
+        <v>-0.67708333333333337</v>
       </c>
       <c r="D27">
         <f>SUM(clemsonUnivDaily!C97:C103)</f>
-        <v>6564</v>
+        <v>5489</v>
       </c>
       <c r="E27" s="35">
         <f t="shared" si="3"/>
-        <v>-0.92443631931748937</v>
+        <v>-1.0258699216615048</v>
       </c>
       <c r="F27">
         <f>SUM(clemsonUnivDaily!D97:D103)</f>
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="G27">
         <f>SUM(clemsonUnivDaily!E97:E103)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H27" s="35">
         <f t="shared" si="0"/>
-        <v>1.2492382693479586E-2</v>
+        <v>1.748952450355256E-2</v>
       </c>
       <c r="I27" s="60">
         <f t="shared" si="1"/>
-        <v>310.53548435961523</v>
+        <v>363.55373778686663</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -7162,35 +8058,35 @@
       </c>
       <c r="B28" s="1">
         <f>SUM(clemsonUnivDaily!B104:B110)</f>
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="C28" s="35">
         <f t="shared" si="2"/>
-        <v>4.6511627906976744E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="D28" s="1">
         <f>SUM(clemsonUnivDaily!C104:C110)</f>
-        <v>5227</v>
+        <v>3724</v>
       </c>
       <c r="E28" s="35">
         <f t="shared" si="3"/>
-        <v>-0.25578725846565908</v>
+        <v>-0.47395273899033297</v>
       </c>
       <c r="F28" s="1">
         <f>SUM(clemsonUnivDaily!D104:D110)</f>
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="G28" s="1">
         <f>SUM(clemsonUnivDaily!E104:E110)</f>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H28" s="35">
         <f t="shared" si="0"/>
-        <v>1.6453032332121677E-2</v>
+        <v>2.7926960257787327E-2</v>
       </c>
       <c r="I28" s="60">
         <f t="shared" si="1"/>
-        <v>325.68355676740134</v>
+        <v>393.84988260243881</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -7199,35 +8095,35 @@
       </c>
       <c r="B29" s="1">
         <f>SUM(clemsonUnivDaily!B111:B117)</f>
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="C29" s="35">
         <f t="shared" si="2"/>
-        <v>-0.11688311688311688</v>
+        <v>-0.04</v>
       </c>
       <c r="D29" s="1">
         <f>SUM(clemsonUnivDaily!C111:C117)</f>
-        <v>4030</v>
+        <v>3226</v>
       </c>
       <c r="E29" s="35">
         <f t="shared" si="3"/>
-        <v>-0.29702233250620347</v>
+        <v>-0.15437073775573465</v>
       </c>
       <c r="F29" s="1">
         <f>SUM(clemsonUnivDaily!D111:D117)</f>
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="G29" s="1">
         <f>SUM(clemsonUnivDaily!E111:E117)</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H29" s="35">
         <f t="shared" si="0"/>
-        <v>1.9106699751861043E-2</v>
+        <v>3.0998140111593304E-2</v>
       </c>
       <c r="I29" s="60">
         <f t="shared" si="1"/>
-        <v>291.60039384988261</v>
+        <v>378.70181019465275</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -7236,42 +8132,147 @@
       </c>
       <c r="B30" s="1">
         <f>SUM(clemsonUnivDaily!B118:B124)</f>
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="C30" s="35">
         <f t="shared" si="2"/>
-        <v>-0.48076923076923078</v>
+        <v>0.22480620155038761</v>
       </c>
       <c r="D30" s="1">
         <f>SUM(clemsonUnivDaily!C118:C124)</f>
-        <v>2543</v>
+        <v>3309</v>
       </c>
       <c r="E30" s="35">
         <f t="shared" si="3"/>
-        <v>-0.5847424302005505</v>
+        <v>2.5083106678754911E-2</v>
       </c>
       <c r="F30" s="1">
         <f>SUM(clemsonUnivDaily!D118:D124)</f>
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="G30" s="1">
         <f>SUM(clemsonUnivDaily!E118:E124)</f>
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="H30" s="35">
         <f t="shared" si="0"/>
-        <v>2.0448289421942586E-2</v>
+        <v>3.8984587488667274E-2</v>
       </c>
       <c r="I30" s="60">
         <f t="shared" si="1"/>
-        <v>196.92494130121941</v>
+        <v>488.52533515110201</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="25"/>
+      <c r="A31" s="25">
+        <v>44191</v>
+      </c>
+      <c r="B31">
+        <f>SUM(clemsonUnivDaily!B125:B131)</f>
+        <v>83</v>
+      </c>
+      <c r="C31" s="35">
+        <f t="shared" si="2"/>
+        <v>-0.55421686746987953</v>
+      </c>
+      <c r="D31">
+        <f>SUM(clemsonUnivDaily!C125:C131)</f>
+        <v>1066</v>
+      </c>
+      <c r="E31" s="35">
+        <f t="shared" si="3"/>
+        <v>-2.104127579737336</v>
+      </c>
+      <c r="F31">
+        <f>SUM(clemsonUnivDaily!D125:D131)</f>
+        <v>66</v>
+      </c>
+      <c r="G31">
+        <f>SUM(clemsonUnivDaily!E125:E131)</f>
+        <v>17</v>
+      </c>
+      <c r="H31" s="35">
+        <f t="shared" si="0"/>
+        <v>7.7861163227016889E-2</v>
+      </c>
+      <c r="I31" s="60">
+        <f t="shared" si="1"/>
+        <v>314.32250246156178</v>
+      </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="25"/>
+      <c r="A32" s="25">
+        <v>44198</v>
+      </c>
+      <c r="B32">
+        <f>SUM(clemsonUnivDaily!B132:B138)</f>
+        <v>295</v>
+      </c>
+      <c r="C32" s="35">
+        <f t="shared" si="2"/>
+        <v>0.71864406779661016</v>
+      </c>
+      <c r="D32">
+        <f>SUM(clemsonUnivDaily!C132:C138)</f>
+        <v>10441</v>
+      </c>
+      <c r="E32" s="35">
+        <f t="shared" si="3"/>
+        <v>0.89790249976055936</v>
+      </c>
+      <c r="F32">
+        <f>SUM(clemsonUnivDaily!D132:D138)</f>
+        <v>236</v>
+      </c>
+      <c r="G32">
+        <f>SUM(clemsonUnivDaily!E132:E138)</f>
+        <v>59</v>
+      </c>
+      <c r="H32" s="35">
+        <f t="shared" si="0"/>
+        <v>2.8253998659132269E-2</v>
+      </c>
+      <c r="I32" s="60">
+        <f t="shared" si="1"/>
+        <v>1117.1703400742256</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="25">
+        <v>44205</v>
+      </c>
+      <c r="B33">
+        <f>SUM(clemsonUnivDaily!B139:B145)</f>
+        <v>261</v>
+      </c>
+      <c r="C33" s="35">
+        <f t="shared" si="2"/>
+        <v>-0.13026819923371646</v>
+      </c>
+      <c r="D33">
+        <f>SUM(clemsonUnivDaily!C139:C145)</f>
+        <v>13967</v>
+      </c>
+      <c r="E33" s="35">
+        <f t="shared" si="3"/>
+        <v>0.25245220877783348</v>
+      </c>
+      <c r="F33">
+        <f>SUM(clemsonUnivDaily!D139:D145)</f>
+        <v>228</v>
+      </c>
+      <c r="G33">
+        <f>SUM(clemsonUnivDaily!E139:E145)</f>
+        <v>33</v>
+      </c>
+      <c r="H33" s="35">
+        <f t="shared" si="0"/>
+        <v>1.8686904847139685E-2</v>
+      </c>
+      <c r="I33" s="60">
+        <f t="shared" si="1"/>
+        <v>988.41172460804364</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12291,7 +13292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D56922A-034D-7E4D-80AB-A29316427207}">
   <dimension ref="A1:AE28"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
